--- a/excel/finished/焦化/CK67-脱硫解吸（日）报表设计.xlsx
+++ b/excel/finished/焦化/CK67-脱硫解吸（日）报表设计.xlsx
@@ -4,29 +4,26 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="7.脱硫解吸（日）4.3m无此表" sheetId="1" r:id="rId1"/>
     <sheet name="_tuoliu_day_hour" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109">
   <si>
     <t xml:space="preserve"> 脱 硫 解 吸 操 作 记 录</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">                                                                       </t>
     </r>
     <r>
@@ -85,6 +82,9 @@
     </r>
   </si>
   <si>
+    <t>SGSSG-BSMCSA35-G012-01A</t>
+  </si>
+  <si>
     <t>备</t>
   </si>
   <si>
@@ -711,11 +711,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -780,6 +781,61 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -794,19 +850,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -817,81 +872,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -907,26 +890,44 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -968,7 +969,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -980,145 +1131,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1130,25 +1149,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1491,6 +1492,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1506,22 +1516,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1544,38 +1564,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1585,10 +1586,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1597,140 +1598,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1748,7 +1749,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1799,6 +1800,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1955,7 +1962,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>595512</xdr:colOff>
+      <xdr:colOff>466725</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -2325,6 +2332,19 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="_metadata"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2585,8 +2605,8 @@
   <sheetPr/>
   <dimension ref="A1:BD43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2:W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2669,20 +2689,25 @@
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="6"/>
+      <c r="S2" s="25" t="e">
+        <f>[1]_metadata!B1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
       <c r="AG2" s="6"/>
       <c r="AH2" s="6"/>
       <c r="AI2" s="6"/>
@@ -2705,13 +2730,13 @@
     </row>
     <row r="3" customFormat="1" spans="1:56">
       <c r="A3" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -2760,20 +2785,20 @@
       <c r="AV3" s="9"/>
       <c r="AW3" s="9"/>
       <c r="AX3" s="9"/>
-      <c r="AY3" s="35"/>
-      <c r="AZ3" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="BA3" s="37"/>
-      <c r="BB3" s="37"/>
-      <c r="BC3" s="37"/>
-      <c r="BD3" s="38"/>
+      <c r="AY3" s="37"/>
+      <c r="AZ3" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="BA3" s="39"/>
+      <c r="BB3" s="39"/>
+      <c r="BC3" s="39"/>
+      <c r="BD3" s="40"/>
     </row>
     <row r="4" customFormat="1" ht="18.95" customHeight="1" spans="1:56">
       <c r="A4" s="7"/>
       <c r="B4" s="10"/>
       <c r="C4" s="11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
@@ -2782,43 +2807,43 @@
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
       <c r="M4" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N4" s="11"/>
       <c r="O4" s="11"/>
       <c r="P4" s="11"/>
       <c r="Q4" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R4" s="11"/>
       <c r="S4" s="11"/>
       <c r="T4" s="11"/>
       <c r="U4" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V4" s="11"/>
       <c r="W4" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X4" s="11"/>
       <c r="Y4" s="11"/>
       <c r="Z4" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA4" s="11"/>
       <c r="AB4" s="11"/>
-      <c r="AC4" s="25"/>
+      <c r="AC4" s="27"/>
       <c r="AD4" s="11"/>
       <c r="AE4" s="11"/>
       <c r="AF4" s="11"/>
       <c r="AG4" s="11"/>
       <c r="AH4" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI4" s="11"/>
       <c r="AJ4" s="11"/>
@@ -2827,179 +2852,179 @@
       <c r="AM4" s="11"/>
       <c r="AN4" s="11"/>
       <c r="AO4" s="11"/>
-      <c r="AP4" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="AQ4" s="34"/>
-      <c r="AR4" s="34"/>
-      <c r="AS4" s="34"/>
-      <c r="AT4" s="34"/>
-      <c r="AU4" s="34" t="s">
+      <c r="AP4" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="AV4" s="34"/>
-      <c r="AW4" s="34"/>
-      <c r="AX4" s="34"/>
-      <c r="AY4" s="39"/>
-      <c r="AZ4" s="40"/>
-      <c r="BA4" s="41"/>
-      <c r="BB4" s="41"/>
-      <c r="BC4" s="41"/>
-      <c r="BD4" s="42"/>
+      <c r="AQ4" s="36"/>
+      <c r="AR4" s="36"/>
+      <c r="AS4" s="36"/>
+      <c r="AT4" s="36"/>
+      <c r="AU4" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="AV4" s="36"/>
+      <c r="AW4" s="36"/>
+      <c r="AX4" s="36"/>
+      <c r="AY4" s="41"/>
+      <c r="AZ4" s="42"/>
+      <c r="BA4" s="43"/>
+      <c r="BB4" s="43"/>
+      <c r="BC4" s="43"/>
+      <c r="BD4" s="44"/>
     </row>
     <row r="5" customFormat="1" ht="26.1" customHeight="1" spans="1:56">
       <c r="A5" s="7"/>
       <c r="B5" s="10"/>
       <c r="C5" s="12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I5" s="13"/>
       <c r="J5" s="22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K5" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="22" t="s">
-        <v>22</v>
-      </c>
       <c r="N5" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="R5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="P5" s="13" t="s">
+      <c r="S5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="R5" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="S5" s="13" t="s">
-        <v>26</v>
-      </c>
       <c r="T5" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U5" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="V5" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W5" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="X5" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Y5" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Z5" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AA5" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB5" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC5" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD5" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF5" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG5" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="AB5" s="26" t="s">
+      <c r="AI5" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="AC5" s="27" t="s">
+      <c r="AJ5" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="AD5" s="28" t="s">
+      <c r="AK5" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="AE5" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF5" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG5" s="12" t="s">
+      <c r="AL5" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM5" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN5" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="AH5" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI5" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ5" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK5" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL5" s="13" t="s">
+      <c r="AO5" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="AM5" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN5" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO5" s="13" t="s">
-        <v>40</v>
-      </c>
       <c r="AP5" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AQ5" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR5" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS5" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="AT5" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="AU5" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="AR5" s="12" t="s">
+      <c r="AV5" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="AS5" s="12" t="s">
+      <c r="AW5" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="AT5" s="13" t="s">
+      <c r="AX5" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="AU5" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="AV5" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="AW5" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="AX5" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="AY5" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="AZ5" s="40"/>
-      <c r="BA5" s="41"/>
-      <c r="BB5" s="41"/>
-      <c r="BC5" s="41"/>
-      <c r="BD5" s="42"/>
+      <c r="AY5" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="AZ5" s="42"/>
+      <c r="BA5" s="43"/>
+      <c r="BB5" s="43"/>
+      <c r="BC5" s="43"/>
+      <c r="BD5" s="44"/>
     </row>
     <row r="6" customFormat="1" ht="45" customHeight="1" spans="2:56">
       <c r="B6" s="10"/>
@@ -3009,10 +3034,10 @@
       <c r="F6" s="12"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J6" s="22"/>
       <c r="K6" s="22"/>
@@ -3032,9 +3057,9 @@
       <c r="Y6" s="13"/>
       <c r="Z6" s="13"/>
       <c r="AA6" s="13"/>
-      <c r="AB6" s="26"/>
-      <c r="AC6" s="29"/>
-      <c r="AD6" s="28"/>
+      <c r="AB6" s="28"/>
+      <c r="AC6" s="31"/>
+      <c r="AD6" s="30"/>
       <c r="AE6" s="12"/>
       <c r="AF6" s="13"/>
       <c r="AG6" s="12"/>
@@ -3055,177 +3080,177 @@
       <c r="AV6" s="13"/>
       <c r="AW6" s="13"/>
       <c r="AX6" s="13"/>
-      <c r="AY6" s="26"/>
-      <c r="AZ6" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA6" s="44"/>
-      <c r="BB6" s="45" t="s">
+      <c r="AY6" s="28"/>
+      <c r="AZ6" s="45" t="s">
         <v>51</v>
       </c>
+      <c r="BA6" s="46"/>
+      <c r="BB6" s="47" t="s">
+        <v>52</v>
+      </c>
       <c r="BC6" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="BD6" s="46" t="s">
         <v>53</v>
+      </c>
+      <c r="BD6" s="48" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="66.6" customHeight="1" spans="2:56">
       <c r="B7" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH7" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC7" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE7" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF7" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG7" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH7" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="AI7" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AJ7" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AK7" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AL7" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AM7" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AN7" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AO7" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AP7" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AQ7" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AR7" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AS7" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AU7" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AV7" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AW7" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AX7" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AY7" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AZ7" s="47"/>
+        <v>70</v>
+      </c>
+      <c r="AZ7" s="49"/>
       <c r="BA7" s="16"/>
       <c r="BB7" s="16"/>
       <c r="BC7" s="16"/>
-      <c r="BD7" s="46"/>
+      <c r="BD7" s="48"/>
     </row>
     <row r="8" customFormat="1" spans="2:56">
       <c r="B8" s="15">
@@ -3423,19 +3448,19 @@
         <f>IF(_tuoliu_day_hour!AV2="","",_tuoliu_day_hour!AV2)</f>
         <v/>
       </c>
-      <c r="AY8" s="48" t="str">
+      <c r="AY8" s="50" t="str">
         <f>IF(_tuoliu_day_hour!AW2="","",_tuoliu_day_hour!AW2)</f>
         <v/>
       </c>
-      <c r="AZ8" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="BA8" s="49" t="s">
+      <c r="AZ8" s="42" t="s">
         <v>89</v>
+      </c>
+      <c r="BA8" s="51" t="s">
+        <v>90</v>
       </c>
       <c r="BB8" s="16"/>
       <c r="BC8" s="16"/>
-      <c r="BD8" s="46"/>
+      <c r="BD8" s="48"/>
     </row>
     <row r="9" customFormat="1" spans="2:56">
       <c r="B9" s="15">
@@ -3633,17 +3658,17 @@
         <f>IF(_tuoliu_day_hour!AV3="","",_tuoliu_day_hour!AV3)</f>
         <v/>
       </c>
-      <c r="AY9" s="48" t="str">
+      <c r="AY9" s="50" t="str">
         <f>IF(_tuoliu_day_hour!AW3="","",_tuoliu_day_hour!AW3)</f>
         <v/>
       </c>
-      <c r="AZ9" s="40"/>
-      <c r="BA9" s="49" t="s">
-        <v>90</v>
+      <c r="AZ9" s="42"/>
+      <c r="BA9" s="51" t="s">
+        <v>91</v>
       </c>
       <c r="BB9" s="16"/>
       <c r="BC9" s="16"/>
-      <c r="BD9" s="46"/>
+      <c r="BD9" s="48"/>
     </row>
     <row r="10" customFormat="1" spans="2:56">
       <c r="B10" s="15">
@@ -3841,19 +3866,19 @@
         <f>IF(_tuoliu_day_hour!AV4="","",_tuoliu_day_hour!AV4)</f>
         <v/>
       </c>
-      <c r="AY10" s="48" t="str">
+      <c r="AY10" s="50" t="str">
         <f>IF(_tuoliu_day_hour!AW4="","",_tuoliu_day_hour!AW4)</f>
         <v/>
       </c>
-      <c r="AZ10" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="BA10" s="49" t="s">
-        <v>89</v>
+      <c r="AZ10" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="BA10" s="51" t="s">
+        <v>90</v>
       </c>
       <c r="BB10" s="16"/>
       <c r="BC10" s="16"/>
-      <c r="BD10" s="46"/>
+      <c r="BD10" s="48"/>
     </row>
     <row r="11" customFormat="1" ht="14.1" customHeight="1" spans="2:56">
       <c r="B11" s="15">
@@ -4051,17 +4076,17 @@
         <f>IF(_tuoliu_day_hour!AV5="","",_tuoliu_day_hour!AV5)</f>
         <v/>
       </c>
-      <c r="AY11" s="48" t="str">
+      <c r="AY11" s="50" t="str">
         <f>IF(_tuoliu_day_hour!AW5="","",_tuoliu_day_hour!AW5)</f>
         <v/>
       </c>
-      <c r="AZ11" s="40"/>
-      <c r="BA11" s="49" t="s">
-        <v>90</v>
+      <c r="AZ11" s="42"/>
+      <c r="BA11" s="51" t="s">
+        <v>91</v>
       </c>
       <c r="BB11" s="16"/>
       <c r="BC11" s="16"/>
-      <c r="BD11" s="46"/>
+      <c r="BD11" s="48"/>
     </row>
     <row r="12" customFormat="1" spans="2:56">
       <c r="B12" s="15">
@@ -4259,19 +4284,19 @@
         <f>IF(_tuoliu_day_hour!AV6="","",_tuoliu_day_hour!AV6)</f>
         <v/>
       </c>
-      <c r="AY12" s="48" t="str">
+      <c r="AY12" s="50" t="str">
         <f>IF(_tuoliu_day_hour!AW6="","",_tuoliu_day_hour!AW6)</f>
         <v/>
       </c>
-      <c r="AZ12" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="BA12" s="49" t="s">
+      <c r="AZ12" s="42" t="s">
         <v>93</v>
+      </c>
+      <c r="BA12" s="51" t="s">
+        <v>94</v>
       </c>
       <c r="BB12" s="16"/>
       <c r="BC12" s="16"/>
-      <c r="BD12" s="46"/>
+      <c r="BD12" s="48"/>
     </row>
     <row r="13" customFormat="1" spans="2:56">
       <c r="B13" s="15">
@@ -4469,17 +4494,17 @@
         <f>IF(_tuoliu_day_hour!AV7="","",_tuoliu_day_hour!AV7)</f>
         <v/>
       </c>
-      <c r="AY13" s="48" t="str">
+      <c r="AY13" s="50" t="str">
         <f>IF(_tuoliu_day_hour!AW7="","",_tuoliu_day_hour!AW7)</f>
         <v/>
       </c>
-      <c r="AZ13" s="40"/>
-      <c r="BA13" s="49" t="s">
-        <v>94</v>
+      <c r="AZ13" s="42"/>
+      <c r="BA13" s="51" t="s">
+        <v>95</v>
       </c>
       <c r="BB13" s="16"/>
       <c r="BC13" s="16"/>
-      <c r="BD13" s="46"/>
+      <c r="BD13" s="48"/>
     </row>
     <row r="14" s="4" customFormat="1" ht="27" spans="2:56">
       <c r="B14" s="15">
@@ -4677,17 +4702,17 @@
         <f>IF(_tuoliu_day_hour!AV8="","",_tuoliu_day_hour!AV8)</f>
         <v/>
       </c>
-      <c r="AY14" s="48" t="str">
+      <c r="AY14" s="50" t="str">
         <f>IF(_tuoliu_day_hour!AW8="","",_tuoliu_day_hour!AW8)</f>
         <v/>
       </c>
-      <c r="AZ14" s="40"/>
-      <c r="BA14" s="50" t="s">
-        <v>95</v>
+      <c r="AZ14" s="42"/>
+      <c r="BA14" s="52" t="s">
+        <v>96</v>
       </c>
       <c r="BB14" s="1"/>
       <c r="BC14" s="1"/>
-      <c r="BD14" s="51"/>
+      <c r="BD14" s="53"/>
     </row>
     <row r="15" customFormat="1" spans="2:56">
       <c r="B15" s="15">
@@ -4885,17 +4910,17 @@
         <f>IF(_tuoliu_day_hour!AV9="","",_tuoliu_day_hour!AV9)</f>
         <v/>
       </c>
-      <c r="AY15" s="48" t="str">
+      <c r="AY15" s="50" t="str">
         <f>IF(_tuoliu_day_hour!AW9="","",_tuoliu_day_hour!AW9)</f>
         <v/>
       </c>
-      <c r="AZ15" s="40"/>
-      <c r="BA15" s="49" t="s">
-        <v>96</v>
+      <c r="AZ15" s="42"/>
+      <c r="BA15" s="51" t="s">
+        <v>97</v>
       </c>
       <c r="BB15" s="16"/>
       <c r="BC15" s="16"/>
-      <c r="BD15" s="46"/>
+      <c r="BD15" s="48"/>
     </row>
     <row r="16" customFormat="1" spans="2:56">
       <c r="B16" s="15">
@@ -5093,17 +5118,17 @@
         <f>IF(_tuoliu_day_hour!AV10="","",_tuoliu_day_hour!AV10)</f>
         <v/>
       </c>
-      <c r="AY16" s="48" t="str">
+      <c r="AY16" s="50" t="str">
         <f>IF(_tuoliu_day_hour!AW10="","",_tuoliu_day_hour!AW10)</f>
         <v/>
       </c>
-      <c r="AZ16" s="40"/>
-      <c r="BA16" s="49" t="s">
-        <v>97</v>
+      <c r="AZ16" s="42"/>
+      <c r="BA16" s="51" t="s">
+        <v>98</v>
       </c>
       <c r="BB16" s="16"/>
       <c r="BC16" s="16"/>
-      <c r="BD16" s="46"/>
+      <c r="BD16" s="48"/>
     </row>
     <row r="17" customFormat="1" spans="2:56">
       <c r="B17" s="15">
@@ -5301,17 +5326,17 @@
         <f>IF(_tuoliu_day_hour!AV11="","",_tuoliu_day_hour!AV11)</f>
         <v/>
       </c>
-      <c r="AY17" s="48" t="str">
+      <c r="AY17" s="50" t="str">
         <f>IF(_tuoliu_day_hour!AW11="","",_tuoliu_day_hour!AW11)</f>
         <v/>
       </c>
-      <c r="AZ17" s="40"/>
-      <c r="BA17" s="49" t="s">
-        <v>98</v>
+      <c r="AZ17" s="42"/>
+      <c r="BA17" s="51" t="s">
+        <v>99</v>
       </c>
       <c r="BB17" s="16"/>
       <c r="BC17" s="16"/>
-      <c r="BD17" s="46"/>
+      <c r="BD17" s="48"/>
     </row>
     <row r="18" customFormat="1" spans="2:56">
       <c r="B18" s="15">
@@ -5509,17 +5534,17 @@
         <f>IF(_tuoliu_day_hour!AV12="","",_tuoliu_day_hour!AV12)</f>
         <v/>
       </c>
-      <c r="AY18" s="48" t="str">
+      <c r="AY18" s="50" t="str">
         <f>IF(_tuoliu_day_hour!AW12="","",_tuoliu_day_hour!AW12)</f>
         <v/>
       </c>
-      <c r="AZ18" s="40"/>
-      <c r="BA18" s="49" t="s">
-        <v>99</v>
+      <c r="AZ18" s="42"/>
+      <c r="BA18" s="51" t="s">
+        <v>100</v>
       </c>
       <c r="BB18" s="16"/>
       <c r="BC18" s="16"/>
-      <c r="BD18" s="46"/>
+      <c r="BD18" s="48"/>
     </row>
     <row r="19" customFormat="1" spans="2:56">
       <c r="B19" s="15">
@@ -5717,19 +5742,19 @@
         <f>IF(_tuoliu_day_hour!AV13="","",_tuoliu_day_hour!AV13)</f>
         <v/>
       </c>
-      <c r="AY19" s="48" t="str">
+      <c r="AY19" s="50" t="str">
         <f>IF(_tuoliu_day_hour!AW13="","",_tuoliu_day_hour!AW13)</f>
         <v/>
       </c>
-      <c r="AZ19" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="BA19" s="49" t="s">
+      <c r="AZ19" s="42" t="s">
         <v>93</v>
+      </c>
+      <c r="BA19" s="51" t="s">
+        <v>94</v>
       </c>
       <c r="BB19" s="16"/>
       <c r="BC19" s="16"/>
-      <c r="BD19" s="46"/>
+      <c r="BD19" s="48"/>
     </row>
     <row r="20" customFormat="1" spans="2:56">
       <c r="B20" s="15">
@@ -5927,17 +5952,17 @@
         <f>IF(_tuoliu_day_hour!AV14="","",_tuoliu_day_hour!AV14)</f>
         <v/>
       </c>
-      <c r="AY20" s="48" t="str">
+      <c r="AY20" s="50" t="str">
         <f>IF(_tuoliu_day_hour!AW14="","",_tuoliu_day_hour!AW14)</f>
         <v/>
       </c>
-      <c r="AZ20" s="40"/>
-      <c r="BA20" s="49" t="s">
-        <v>94</v>
+      <c r="AZ20" s="42"/>
+      <c r="BA20" s="51" t="s">
+        <v>95</v>
       </c>
       <c r="BB20" s="16"/>
       <c r="BC20" s="16"/>
-      <c r="BD20" s="46"/>
+      <c r="BD20" s="48"/>
     </row>
     <row r="21" customFormat="1" ht="27" spans="2:56">
       <c r="B21" s="15">
@@ -6135,17 +6160,17 @@
         <f>IF(_tuoliu_day_hour!AV15="","",_tuoliu_day_hour!AV15)</f>
         <v/>
       </c>
-      <c r="AY21" s="48" t="str">
+      <c r="AY21" s="50" t="str">
         <f>IF(_tuoliu_day_hour!AW15="","",_tuoliu_day_hour!AW15)</f>
         <v/>
       </c>
-      <c r="AZ21" s="40"/>
-      <c r="BA21" s="50" t="s">
-        <v>95</v>
+      <c r="AZ21" s="42"/>
+      <c r="BA21" s="52" t="s">
+        <v>96</v>
       </c>
       <c r="BB21" s="16"/>
       <c r="BC21" s="16"/>
-      <c r="BD21" s="46"/>
+      <c r="BD21" s="48"/>
     </row>
     <row r="22" customFormat="1" spans="2:56">
       <c r="B22" s="15">
@@ -6343,17 +6368,17 @@
         <f>IF(_tuoliu_day_hour!AV16="","",_tuoliu_day_hour!AV16)</f>
         <v/>
       </c>
-      <c r="AY22" s="48" t="str">
+      <c r="AY22" s="50" t="str">
         <f>IF(_tuoliu_day_hour!AW16="","",_tuoliu_day_hour!AW16)</f>
         <v/>
       </c>
-      <c r="AZ22" s="40"/>
-      <c r="BA22" s="49" t="s">
-        <v>96</v>
+      <c r="AZ22" s="42"/>
+      <c r="BA22" s="51" t="s">
+        <v>97</v>
       </c>
       <c r="BB22" s="16"/>
       <c r="BC22" s="16"/>
-      <c r="BD22" s="46"/>
+      <c r="BD22" s="48"/>
     </row>
     <row r="23" customFormat="1" spans="2:56">
       <c r="B23" s="15">
@@ -6551,17 +6576,17 @@
         <f>IF(_tuoliu_day_hour!AV17="","",_tuoliu_day_hour!AV17)</f>
         <v/>
       </c>
-      <c r="AY23" s="48" t="str">
+      <c r="AY23" s="50" t="str">
         <f>IF(_tuoliu_day_hour!AW17="","",_tuoliu_day_hour!AW17)</f>
         <v/>
       </c>
-      <c r="AZ23" s="40"/>
-      <c r="BA23" s="49" t="s">
-        <v>97</v>
+      <c r="AZ23" s="42"/>
+      <c r="BA23" s="51" t="s">
+        <v>98</v>
       </c>
       <c r="BB23" s="16"/>
       <c r="BC23" s="16"/>
-      <c r="BD23" s="46"/>
+      <c r="BD23" s="48"/>
     </row>
     <row r="24" customFormat="1" spans="2:56">
       <c r="B24" s="15">
@@ -6759,17 +6784,17 @@
         <f>IF(_tuoliu_day_hour!AV18="","",_tuoliu_day_hour!AV18)</f>
         <v/>
       </c>
-      <c r="AY24" s="48" t="str">
+      <c r="AY24" s="50" t="str">
         <f>IF(_tuoliu_day_hour!AW18="","",_tuoliu_day_hour!AW18)</f>
         <v/>
       </c>
-      <c r="AZ24" s="40"/>
-      <c r="BA24" s="49" t="s">
-        <v>98</v>
+      <c r="AZ24" s="42"/>
+      <c r="BA24" s="51" t="s">
+        <v>99</v>
       </c>
       <c r="BB24" s="16"/>
       <c r="BC24" s="16"/>
-      <c r="BD24" s="46"/>
+      <c r="BD24" s="48"/>
     </row>
     <row r="25" customFormat="1" spans="2:56">
       <c r="B25" s="15">
@@ -6967,17 +6992,17 @@
         <f>IF(_tuoliu_day_hour!AV19="","",_tuoliu_day_hour!AV19)</f>
         <v/>
       </c>
-      <c r="AY25" s="48" t="str">
+      <c r="AY25" s="50" t="str">
         <f>IF(_tuoliu_day_hour!AW19="","",_tuoliu_day_hour!AW19)</f>
         <v/>
       </c>
-      <c r="AZ25" s="40"/>
-      <c r="BA25" s="49" t="s">
-        <v>99</v>
+      <c r="AZ25" s="42"/>
+      <c r="BA25" s="51" t="s">
+        <v>100</v>
       </c>
       <c r="BB25" s="16"/>
       <c r="BC25" s="16"/>
-      <c r="BD25" s="46"/>
+      <c r="BD25" s="48"/>
     </row>
     <row r="26" customFormat="1" spans="2:56">
       <c r="B26" s="15">
@@ -7175,15 +7200,15 @@
         <f>IF(_tuoliu_day_hour!AV20="","",_tuoliu_day_hour!AV20)</f>
         <v/>
       </c>
-      <c r="AY26" s="48" t="str">
+      <c r="AY26" s="50" t="str">
         <f>IF(_tuoliu_day_hour!AW20="","",_tuoliu_day_hour!AW20)</f>
         <v/>
       </c>
-      <c r="AZ26" s="52"/>
+      <c r="AZ26" s="54"/>
       <c r="BA26" s="16"/>
       <c r="BB26" s="16"/>
       <c r="BC26" s="16"/>
-      <c r="BD26" s="46"/>
+      <c r="BD26" s="48"/>
     </row>
     <row r="27" customFormat="1" spans="2:56">
       <c r="B27" s="15">
@@ -7381,15 +7406,15 @@
         <f>IF(_tuoliu_day_hour!AV21="","",_tuoliu_day_hour!AV21)</f>
         <v/>
       </c>
-      <c r="AY27" s="48" t="str">
+      <c r="AY27" s="50" t="str">
         <f>IF(_tuoliu_day_hour!AW21="","",_tuoliu_day_hour!AW21)</f>
         <v/>
       </c>
-      <c r="AZ27" s="52"/>
+      <c r="AZ27" s="54"/>
       <c r="BA27" s="16"/>
       <c r="BB27" s="16"/>
       <c r="BC27" s="16"/>
-      <c r="BD27" s="46"/>
+      <c r="BD27" s="48"/>
     </row>
     <row r="28" customFormat="1" spans="2:56">
       <c r="B28" s="15">
@@ -7587,15 +7612,15 @@
         <f>IF(_tuoliu_day_hour!AV22="","",_tuoliu_day_hour!AV22)</f>
         <v/>
       </c>
-      <c r="AY28" s="48" t="str">
+      <c r="AY28" s="50" t="str">
         <f>IF(_tuoliu_day_hour!AW22="","",_tuoliu_day_hour!AW22)</f>
         <v/>
       </c>
-      <c r="AZ28" s="52"/>
+      <c r="AZ28" s="54"/>
       <c r="BA28" s="16"/>
       <c r="BB28" s="16"/>
       <c r="BC28" s="16"/>
-      <c r="BD28" s="46"/>
+      <c r="BD28" s="48"/>
     </row>
     <row r="29" customFormat="1" spans="2:56">
       <c r="B29" s="15">
@@ -7793,15 +7818,15 @@
         <f>IF(_tuoliu_day_hour!AV23="","",_tuoliu_day_hour!AV23)</f>
         <v/>
       </c>
-      <c r="AY29" s="48" t="str">
+      <c r="AY29" s="50" t="str">
         <f>IF(_tuoliu_day_hour!AW23="","",_tuoliu_day_hour!AW23)</f>
         <v/>
       </c>
-      <c r="AZ29" s="52"/>
+      <c r="AZ29" s="54"/>
       <c r="BA29" s="16"/>
       <c r="BB29" s="16"/>
       <c r="BC29" s="16"/>
-      <c r="BD29" s="46"/>
+      <c r="BD29" s="48"/>
     </row>
     <row r="30" customFormat="1" spans="2:56">
       <c r="B30" s="15">
@@ -7999,15 +8024,15 @@
         <f>IF(_tuoliu_day_hour!AV24="","",_tuoliu_day_hour!AV24)</f>
         <v/>
       </c>
-      <c r="AY30" s="48" t="str">
+      <c r="AY30" s="50" t="str">
         <f>IF(_tuoliu_day_hour!AW24="","",_tuoliu_day_hour!AW24)</f>
         <v/>
       </c>
-      <c r="AZ30" s="52"/>
+      <c r="AZ30" s="54"/>
       <c r="BA30" s="16"/>
       <c r="BB30" s="16"/>
       <c r="BC30" s="16"/>
-      <c r="BD30" s="46"/>
+      <c r="BD30" s="48"/>
     </row>
     <row r="31" customFormat="1" spans="2:56">
       <c r="B31" s="15">
@@ -8205,19 +8230,19 @@
         <f>IF(_tuoliu_day_hour!AV25="","",_tuoliu_day_hour!AV25)</f>
         <v/>
       </c>
-      <c r="AY31" s="48" t="str">
+      <c r="AY31" s="50" t="str">
         <f>IF(_tuoliu_day_hour!AW25="","",_tuoliu_day_hour!AW25)</f>
         <v/>
       </c>
-      <c r="AZ31" s="52"/>
+      <c r="AZ31" s="54"/>
       <c r="BA31" s="16"/>
       <c r="BB31" s="16"/>
       <c r="BC31" s="16"/>
-      <c r="BD31" s="46"/>
+      <c r="BD31" s="48"/>
     </row>
     <row r="32" customFormat="1" spans="2:56">
       <c r="B32" s="17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
@@ -8267,16 +8292,16 @@
       <c r="AV32" s="16"/>
       <c r="AW32" s="16"/>
       <c r="AX32" s="16"/>
-      <c r="AY32" s="48"/>
-      <c r="AZ32" s="52"/>
+      <c r="AY32" s="50"/>
+      <c r="AZ32" s="54"/>
       <c r="BA32" s="16"/>
       <c r="BB32" s="16"/>
       <c r="BC32" s="16"/>
-      <c r="BD32" s="46"/>
+      <c r="BD32" s="48"/>
     </row>
     <row r="33" customFormat="1" spans="2:56">
       <c r="B33" s="17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
@@ -8326,16 +8351,16 @@
       <c r="AV33" s="16"/>
       <c r="AW33" s="16"/>
       <c r="AX33" s="16"/>
-      <c r="AY33" s="48"/>
-      <c r="AZ33" s="52"/>
+      <c r="AY33" s="50"/>
+      <c r="AZ33" s="54"/>
       <c r="BA33" s="16"/>
       <c r="BB33" s="16"/>
       <c r="BC33" s="16"/>
-      <c r="BD33" s="46"/>
+      <c r="BD33" s="48"/>
     </row>
     <row r="34" customFormat="1" spans="2:56">
       <c r="B34" s="17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
@@ -8385,16 +8410,16 @@
       <c r="AV34" s="16"/>
       <c r="AW34" s="16"/>
       <c r="AX34" s="16"/>
-      <c r="AY34" s="48"/>
-      <c r="AZ34" s="52"/>
+      <c r="AY34" s="50"/>
+      <c r="AZ34" s="54"/>
       <c r="BA34" s="16"/>
       <c r="BB34" s="16"/>
       <c r="BC34" s="16"/>
-      <c r="BD34" s="46"/>
+      <c r="BD34" s="48"/>
     </row>
     <row r="35" customFormat="1" spans="2:56">
       <c r="B35" s="17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C35" s="16"/>
       <c r="D35" s="16"/>
@@ -8444,16 +8469,16 @@
       <c r="AV35" s="16"/>
       <c r="AW35" s="16"/>
       <c r="AX35" s="16"/>
-      <c r="AY35" s="48"/>
-      <c r="AZ35" s="52"/>
+      <c r="AY35" s="50"/>
+      <c r="AZ35" s="54"/>
       <c r="BA35" s="16"/>
       <c r="BB35" s="16"/>
       <c r="BC35" s="16"/>
-      <c r="BD35" s="46"/>
+      <c r="BD35" s="48"/>
     </row>
     <row r="36" customFormat="1" ht="66" customHeight="1" spans="2:56">
       <c r="B36" s="18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
@@ -8465,7 +8490,7 @@
       <c r="J36" s="19"/>
       <c r="K36" s="19"/>
       <c r="L36" s="23" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M36" s="23"/>
       <c r="N36" s="23"/>
@@ -8477,7 +8502,7 @@
       <c r="T36" s="23"/>
       <c r="U36" s="23"/>
       <c r="V36" s="23" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="W36" s="23"/>
       <c r="X36" s="23"/>
@@ -8485,38 +8510,38 @@
       <c r="Z36" s="23"/>
       <c r="AA36" s="23"/>
       <c r="AB36" s="23"/>
-      <c r="AC36" s="30"/>
-      <c r="AD36" s="31"/>
-      <c r="AE36" s="31"/>
-      <c r="AF36" s="31"/>
-      <c r="AG36" s="31"/>
-      <c r="AH36" s="31"/>
-      <c r="AI36" s="31"/>
-      <c r="AJ36" s="31"/>
-      <c r="AK36" s="31"/>
-      <c r="AL36" s="31"/>
-      <c r="AM36" s="31"/>
-      <c r="AN36" s="31"/>
-      <c r="AO36" s="31"/>
-      <c r="AP36" s="31"/>
-      <c r="AQ36" s="31"/>
-      <c r="AR36" s="31"/>
-      <c r="AS36" s="31"/>
-      <c r="AT36" s="31"/>
-      <c r="AU36" s="31"/>
-      <c r="AV36" s="31"/>
-      <c r="AW36" s="31"/>
-      <c r="AX36" s="31"/>
-      <c r="AY36" s="31"/>
-      <c r="AZ36" s="31"/>
-      <c r="BA36" s="31"/>
-      <c r="BB36" s="31"/>
-      <c r="BC36" s="31"/>
-      <c r="BD36" s="53"/>
+      <c r="AC36" s="32"/>
+      <c r="AD36" s="33"/>
+      <c r="AE36" s="33"/>
+      <c r="AF36" s="33"/>
+      <c r="AG36" s="33"/>
+      <c r="AH36" s="33"/>
+      <c r="AI36" s="33"/>
+      <c r="AJ36" s="33"/>
+      <c r="AK36" s="33"/>
+      <c r="AL36" s="33"/>
+      <c r="AM36" s="33"/>
+      <c r="AN36" s="33"/>
+      <c r="AO36" s="33"/>
+      <c r="AP36" s="33"/>
+      <c r="AQ36" s="33"/>
+      <c r="AR36" s="33"/>
+      <c r="AS36" s="33"/>
+      <c r="AT36" s="33"/>
+      <c r="AU36" s="33"/>
+      <c r="AV36" s="33"/>
+      <c r="AW36" s="33"/>
+      <c r="AX36" s="33"/>
+      <c r="AY36" s="33"/>
+      <c r="AZ36" s="33"/>
+      <c r="BA36" s="33"/>
+      <c r="BB36" s="33"/>
+      <c r="BC36" s="33"/>
+      <c r="BD36" s="55"/>
     </row>
     <row r="37" ht="16.5" spans="2:56">
       <c r="B37" s="20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C37" s="21"/>
       <c r="D37" s="21"/>
@@ -8528,7 +8553,7 @@
       <c r="J37" s="21"/>
       <c r="K37" s="21"/>
       <c r="L37" s="24" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M37" s="24"/>
       <c r="N37" s="24"/>
@@ -8540,7 +8565,7 @@
       <c r="T37" s="24"/>
       <c r="U37" s="24"/>
       <c r="V37" s="24" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="W37" s="24"/>
       <c r="X37" s="24"/>
@@ -8548,34 +8573,34 @@
       <c r="Z37" s="24"/>
       <c r="AA37" s="24"/>
       <c r="AB37" s="24"/>
-      <c r="AC37" s="32"/>
-      <c r="AD37" s="33"/>
-      <c r="AE37" s="33"/>
-      <c r="AF37" s="33"/>
-      <c r="AG37" s="33"/>
-      <c r="AH37" s="33"/>
-      <c r="AI37" s="33"/>
-      <c r="AJ37" s="33"/>
-      <c r="AK37" s="33"/>
-      <c r="AL37" s="33"/>
-      <c r="AM37" s="33"/>
-      <c r="AN37" s="33"/>
-      <c r="AO37" s="33"/>
-      <c r="AP37" s="33"/>
-      <c r="AQ37" s="33"/>
-      <c r="AR37" s="33"/>
-      <c r="AS37" s="33"/>
-      <c r="AT37" s="33"/>
-      <c r="AU37" s="33"/>
-      <c r="AV37" s="33"/>
-      <c r="AW37" s="33"/>
-      <c r="AX37" s="33"/>
-      <c r="AY37" s="33"/>
-      <c r="AZ37" s="33"/>
-      <c r="BA37" s="33"/>
-      <c r="BB37" s="33"/>
-      <c r="BC37" s="33"/>
-      <c r="BD37" s="54"/>
+      <c r="AC37" s="34"/>
+      <c r="AD37" s="35"/>
+      <c r="AE37" s="35"/>
+      <c r="AF37" s="35"/>
+      <c r="AG37" s="35"/>
+      <c r="AH37" s="35"/>
+      <c r="AI37" s="35"/>
+      <c r="AJ37" s="35"/>
+      <c r="AK37" s="35"/>
+      <c r="AL37" s="35"/>
+      <c r="AM37" s="35"/>
+      <c r="AN37" s="35"/>
+      <c r="AO37" s="35"/>
+      <c r="AP37" s="35"/>
+      <c r="AQ37" s="35"/>
+      <c r="AR37" s="35"/>
+      <c r="AS37" s="35"/>
+      <c r="AT37" s="35"/>
+      <c r="AU37" s="35"/>
+      <c r="AV37" s="35"/>
+      <c r="AW37" s="35"/>
+      <c r="AX37" s="35"/>
+      <c r="AY37" s="35"/>
+      <c r="AZ37" s="35"/>
+      <c r="BA37" s="35"/>
+      <c r="BB37" s="35"/>
+      <c r="BC37" s="35"/>
+      <c r="BD37" s="56"/>
     </row>
     <row r="38" customFormat="1"/>
     <row r="39" customFormat="1"/>
@@ -8584,9 +8609,10 @@
     <row r="42" customFormat="1"/>
     <row r="43" customFormat="1" ht="77.1" customHeight="1"/>
   </sheetData>
-  <mergeCells count="76">
+  <mergeCells count="77">
     <mergeCell ref="B1:AY1"/>
-    <mergeCell ref="B2:AY2"/>
+    <mergeCell ref="S2:W2"/>
+    <mergeCell ref="X2:AF2"/>
     <mergeCell ref="C3:AY3"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="J4:L4"/>
@@ -8681,89 +8707,89 @@
   <sheetData>
     <row r="1" customFormat="1" ht="67.5" spans="1:49">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF1" s="1"/>
       <c r="AG1" s="1"/>
@@ -8774,19 +8800,19 @@
       <c r="AL1" s="1"/>
       <c r="AM1" s="1"/>
       <c r="AN1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AS1" s="1"/>
       <c r="AT1" s="1"/>

--- a/excel/finished/焦化/CK67-脱硫解吸（日）报表设计.xlsx
+++ b/excel/finished/焦化/CK67-脱硫解吸（日）报表设计.xlsx
@@ -4,15 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="20490" windowHeight="7785" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="7.脱硫解吸（日）4.3m无此表" sheetId="1" r:id="rId1"/>
     <sheet name="_tuoliu_day_hour" sheetId="2" r:id="rId2"/>
+    <sheet name="_metadata" sheetId="3" r:id="rId3"/>
+    <sheet name="_analysis_day_shift" sheetId="4" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -24,6 +23,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">                                                                       </t>
     </r>
     <r>
@@ -712,9 +717,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
@@ -781,11 +786,82 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -797,17 +873,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -821,37 +903,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -865,39 +919,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -905,29 +929,10 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -969,19 +974,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -993,127 +1004,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1131,6 +1034,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1143,13 +1070,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1486,8 +1491,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1496,6 +1501,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1512,21 +1528,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1564,19 +1565,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1586,10 +1591,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1598,136 +1603,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
@@ -2332,19 +2337,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="_metadata"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2605,7 +2597,7 @@
   <sheetPr/>
   <dimension ref="A1:BD43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="S2" sqref="S2:W2"/>
     </sheetView>
   </sheetViews>
@@ -2689,9 +2681,9 @@
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
-      <c r="S2" s="25" t="e">
-        <f>[1]_metadata!B1</f>
-        <v>#REF!</v>
+      <c r="S2" s="25">
+        <f>_metadata!B1</f>
+        <v>0</v>
       </c>
       <c r="T2" s="25"/>
       <c r="U2" s="25"/>
@@ -8824,4 +8816,36 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/excel/finished/焦化/CK67-脱硫解吸（日）报表设计.xlsx
+++ b/excel/finished/焦化/CK67-脱硫解吸（日）报表设计.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="7.脱硫解吸（日）4.3m无此表" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="109">
   <si>
     <t xml:space="preserve"> 脱 硫 解 吸 操 作 记 录</t>
   </si>
@@ -27,7 +27,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">                                                                       </t>
     </r>
@@ -36,6 +36,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>年</t>
@@ -45,7 +46,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">      </t>
     </r>
@@ -54,6 +55,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月</t>
@@ -63,7 +65,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">      </t>
     </r>
@@ -72,6 +74,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>日</t>
@@ -81,7 +84,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">                                                    SGSSG-BSMCSA35-G012-01A</t>
     </r>
@@ -98,6 +101,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -107,7 +111,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">      </t>
     </r>
@@ -116,6 +120,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -173,6 +178,7 @@
         <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>蒸氨来废水流量 m</t>
@@ -183,6 +189,7 @@
         <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>3</t>
@@ -192,6 +199,7 @@
         <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>/h</t>
@@ -230,6 +238,7 @@
         <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>软水补充流量 m</t>
@@ -240,6 +249,7 @@
         <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>3</t>
@@ -249,6 +259,7 @@
         <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>/h</t>
@@ -281,6 +292,7 @@
         <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>富液流量m</t>
@@ -291,6 +303,7 @@
         <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>3</t>
@@ -300,6 +313,7 @@
         <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>/h</t>
@@ -311,6 +325,7 @@
         <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>贫液流量m</t>
@@ -321,6 +336,7 @@
         <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>3</t>
@@ -330,6 +346,7 @@
         <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>/h</t>
@@ -346,6 +363,7 @@
       <rPr>
         <sz val="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>富液流量m</t>
@@ -355,6 +373,7 @@
         <vertAlign val="superscript"/>
         <sz val="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>3</t>
@@ -363,6 +382,7 @@
       <rPr>
         <sz val="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>/h</t>
@@ -373,6 +393,7 @@
       <rPr>
         <sz val="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>贫液流量m</t>
@@ -382,6 +403,7 @@
         <vertAlign val="superscript"/>
         <sz val="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>3</t>
@@ -390,6 +412,7 @@
       <rPr>
         <sz val="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>/h</t>
@@ -583,7 +606,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -592,6 +615,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>夜班记事：</t>
@@ -600,7 +624,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -610,7 +634,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -618,6 +642,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>白</t>
@@ -627,6 +652,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>班记事：</t>
@@ -635,7 +661,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -645,7 +671,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -653,6 +679,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>中</t>
@@ -662,6 +689,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>班记事：</t>
@@ -670,7 +698,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -680,7 +708,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">                          </t>
     </r>
@@ -689,6 +717,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>交班：</t>
@@ -697,7 +726,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">                              </t>
     </r>
@@ -706,6 +735,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>接班：</t>
@@ -715,15 +745,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-  </numFmts>
-  <fonts count="35">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -735,35 +758,40 @@
       <b/>
       <sz val="18"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -771,6 +799,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -778,166 +807,33 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -945,221 +841,46 @@
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="33">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1487,256 +1208,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1750,29 +1229,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1780,97 +1238,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="8" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
@@ -1888,65 +1261,127 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1957,7 +1392,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
@@ -1971,7 +1406,7 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="矩形 1"/>
         <xdr:cNvSpPr/>
@@ -2163,7 +1598,7 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Line 2"/>
         <xdr:cNvSpPr>
@@ -2209,7 +1644,7 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="Line 3"/>
         <xdr:cNvSpPr>
@@ -2255,7 +1690,7 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="Line 5"/>
         <xdr:cNvSpPr>
@@ -2301,7 +1736,7 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="Line 6"/>
         <xdr:cNvSpPr>
@@ -2589,506 +2024,506 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD43"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="S2" sqref="S2:W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="51" width="6.125" customWidth="1"/>
     <col min="52" max="52" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="23.1" customHeight="1" spans="2:51">
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:56" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
-      <c r="AF1" s="5"/>
-      <c r="AG1" s="5"/>
-      <c r="AH1" s="5"/>
-      <c r="AI1" s="5"/>
-      <c r="AJ1" s="5"/>
-      <c r="AK1" s="5"/>
-      <c r="AL1" s="5"/>
-      <c r="AM1" s="5"/>
-      <c r="AN1" s="5"/>
-      <c r="AO1" s="5"/>
-      <c r="AP1" s="5"/>
-      <c r="AQ1" s="5"/>
-      <c r="AR1" s="5"/>
-      <c r="AS1" s="5"/>
-      <c r="AT1" s="5"/>
-      <c r="AU1" s="5"/>
-      <c r="AV1" s="5"/>
-      <c r="AW1" s="5"/>
-      <c r="AX1" s="5"/>
-      <c r="AY1" s="5"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="19"/>
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="19"/>
+      <c r="AL1" s="19"/>
+      <c r="AM1" s="19"/>
+      <c r="AN1" s="19"/>
+      <c r="AO1" s="19"/>
+      <c r="AP1" s="19"/>
+      <c r="AQ1" s="19"/>
+      <c r="AR1" s="19"/>
+      <c r="AS1" s="19"/>
+      <c r="AT1" s="19"/>
+      <c r="AU1" s="19"/>
+      <c r="AV1" s="19"/>
+      <c r="AW1" s="19"/>
+      <c r="AX1" s="19"/>
+      <c r="AY1" s="19"/>
     </row>
-    <row r="2" customFormat="1" ht="15.6" customHeight="1" spans="2:51">
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:56" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="25">
-        <f>_metadata!B1</f>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="57">
+        <f>_metadata!B2</f>
         <v>0</v>
       </c>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="26" t="s">
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="26"/>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="6"/>
-      <c r="AI2" s="6"/>
-      <c r="AJ2" s="6"/>
-      <c r="AK2" s="6"/>
-      <c r="AL2" s="6"/>
-      <c r="AM2" s="6"/>
-      <c r="AN2" s="6"/>
-      <c r="AO2" s="6"/>
-      <c r="AP2" s="6"/>
-      <c r="AQ2" s="6"/>
-      <c r="AR2" s="6"/>
-      <c r="AS2" s="6"/>
-      <c r="AT2" s="6"/>
-      <c r="AU2" s="6"/>
-      <c r="AV2" s="6"/>
-      <c r="AW2" s="6"/>
-      <c r="AX2" s="6"/>
-      <c r="AY2" s="6"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="5"/>
+      <c r="AM2" s="5"/>
+      <c r="AN2" s="5"/>
+      <c r="AO2" s="5"/>
+      <c r="AP2" s="5"/>
+      <c r="AQ2" s="5"/>
+      <c r="AR2" s="5"/>
+      <c r="AS2" s="5"/>
+      <c r="AT2" s="5"/>
+      <c r="AU2" s="5"/>
+      <c r="AV2" s="5"/>
+      <c r="AW2" s="5"/>
+      <c r="AX2" s="5"/>
+      <c r="AY2" s="5"/>
     </row>
-    <row r="3" customFormat="1" spans="1:56">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.15">
+      <c r="A3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="9"/>
-      <c r="AE3" s="9"/>
-      <c r="AF3" s="9"/>
-      <c r="AG3" s="9"/>
-      <c r="AH3" s="9"/>
-      <c r="AI3" s="9"/>
-      <c r="AJ3" s="9"/>
-      <c r="AK3" s="9"/>
-      <c r="AL3" s="9"/>
-      <c r="AM3" s="9"/>
-      <c r="AN3" s="9"/>
-      <c r="AO3" s="9"/>
-      <c r="AP3" s="9"/>
-      <c r="AQ3" s="9"/>
-      <c r="AR3" s="9"/>
-      <c r="AS3" s="9"/>
-      <c r="AT3" s="9"/>
-      <c r="AU3" s="9"/>
-      <c r="AV3" s="9"/>
-      <c r="AW3" s="9"/>
-      <c r="AX3" s="9"/>
-      <c r="AY3" s="37"/>
-      <c r="AZ3" s="38" t="s">
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="21"/>
+      <c r="AD3" s="21"/>
+      <c r="AE3" s="21"/>
+      <c r="AF3" s="21"/>
+      <c r="AG3" s="21"/>
+      <c r="AH3" s="21"/>
+      <c r="AI3" s="21"/>
+      <c r="AJ3" s="21"/>
+      <c r="AK3" s="21"/>
+      <c r="AL3" s="21"/>
+      <c r="AM3" s="21"/>
+      <c r="AN3" s="21"/>
+      <c r="AO3" s="21"/>
+      <c r="AP3" s="21"/>
+      <c r="AQ3" s="21"/>
+      <c r="AR3" s="21"/>
+      <c r="AS3" s="21"/>
+      <c r="AT3" s="21"/>
+      <c r="AU3" s="21"/>
+      <c r="AV3" s="21"/>
+      <c r="AW3" s="21"/>
+      <c r="AX3" s="21"/>
+      <c r="AY3" s="22"/>
+      <c r="AZ3" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="BA3" s="39"/>
-      <c r="BB3" s="39"/>
-      <c r="BC3" s="39"/>
-      <c r="BD3" s="40"/>
+      <c r="BA3" s="47"/>
+      <c r="BB3" s="47"/>
+      <c r="BC3" s="47"/>
+      <c r="BD3" s="48"/>
     </row>
-    <row r="4" customFormat="1" ht="18.95" customHeight="1" spans="1:56">
-      <c r="A4" s="7"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11" t="s">
+    <row r="4" spans="1:56" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="36"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11" t="s">
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11" t="s">
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11" t="s">
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11" t="s">
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11" t="s">
+      <c r="V4" s="23"/>
+      <c r="W4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11" t="s">
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="11"/>
-      <c r="AC4" s="27"/>
-      <c r="AD4" s="11"/>
-      <c r="AE4" s="11"/>
-      <c r="AF4" s="11"/>
-      <c r="AG4" s="11"/>
-      <c r="AH4" s="11" t="s">
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="23"/>
+      <c r="AC4" s="24"/>
+      <c r="AD4" s="23"/>
+      <c r="AE4" s="23"/>
+      <c r="AF4" s="23"/>
+      <c r="AG4" s="23"/>
+      <c r="AH4" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="AI4" s="11"/>
-      <c r="AJ4" s="11"/>
-      <c r="AK4" s="11"/>
-      <c r="AL4" s="11"/>
-      <c r="AM4" s="11"/>
-      <c r="AN4" s="11"/>
-      <c r="AO4" s="11"/>
-      <c r="AP4" s="36" t="s">
+      <c r="AI4" s="23"/>
+      <c r="AJ4" s="23"/>
+      <c r="AK4" s="23"/>
+      <c r="AL4" s="23"/>
+      <c r="AM4" s="23"/>
+      <c r="AN4" s="23"/>
+      <c r="AO4" s="23"/>
+      <c r="AP4" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="AQ4" s="36"/>
-      <c r="AR4" s="36"/>
-      <c r="AS4" s="36"/>
-      <c r="AT4" s="36"/>
-      <c r="AU4" s="36" t="s">
+      <c r="AQ4" s="25"/>
+      <c r="AR4" s="25"/>
+      <c r="AS4" s="25"/>
+      <c r="AT4" s="25"/>
+      <c r="AU4" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="AV4" s="36"/>
-      <c r="AW4" s="36"/>
-      <c r="AX4" s="36"/>
-      <c r="AY4" s="41"/>
-      <c r="AZ4" s="42"/>
-      <c r="BA4" s="43"/>
-      <c r="BB4" s="43"/>
-      <c r="BC4" s="43"/>
-      <c r="BD4" s="44"/>
+      <c r="AV4" s="25"/>
+      <c r="AW4" s="25"/>
+      <c r="AX4" s="25"/>
+      <c r="AY4" s="26"/>
+      <c r="AZ4" s="45"/>
+      <c r="BA4" s="49"/>
+      <c r="BB4" s="49"/>
+      <c r="BC4" s="49"/>
+      <c r="BD4" s="50"/>
     </row>
-    <row r="5" customFormat="1" ht="26.1" customHeight="1" spans="1:56">
-      <c r="A5" s="7"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="12" t="s">
+    <row r="5" spans="1:56" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="36"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="22" t="s">
+      <c r="I5" s="27"/>
+      <c r="J5" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="22" t="s">
+      <c r="K5" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="22" t="s">
+      <c r="M5" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="12" t="s">
+      <c r="N5" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="O5" s="13" t="s">
+      <c r="O5" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="13" t="s">
+      <c r="P5" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="Q5" s="22" t="s">
+      <c r="Q5" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="R5" s="13" t="s">
+      <c r="R5" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="S5" s="13" t="s">
+      <c r="S5" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="T5" s="13" t="s">
+      <c r="T5" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="U5" s="13" t="s">
+      <c r="U5" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="V5" s="12" t="s">
+      <c r="V5" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="W5" s="13" t="s">
+      <c r="W5" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="X5" s="13" t="s">
+      <c r="X5" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="Y5" s="13" t="s">
+      <c r="Y5" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="Z5" s="13" t="s">
+      <c r="Z5" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="AA5" s="13" t="s">
+      <c r="AA5" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="AB5" s="28" t="s">
+      <c r="AB5" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AC5" s="29" t="s">
+      <c r="AC5" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="AD5" s="30" t="s">
+      <c r="AD5" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="AE5" s="12" t="s">
+      <c r="AE5" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="AF5" s="13" t="s">
+      <c r="AF5" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="AG5" s="12" t="s">
+      <c r="AG5" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="AH5" s="13" t="s">
+      <c r="AH5" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="AI5" s="13" t="s">
+      <c r="AI5" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="AJ5" s="13" t="s">
+      <c r="AJ5" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="AK5" s="13" t="s">
+      <c r="AK5" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="AL5" s="13" t="s">
+      <c r="AL5" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="AM5" s="13" t="s">
+      <c r="AM5" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="AN5" s="13" t="s">
+      <c r="AN5" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="AO5" s="13" t="s">
+      <c r="AO5" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="AP5" s="12" t="s">
+      <c r="AP5" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="AQ5" s="13" t="s">
+      <c r="AQ5" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="AR5" s="12" t="s">
+      <c r="AR5" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="AS5" s="12" t="s">
+      <c r="AS5" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="AT5" s="13" t="s">
+      <c r="AT5" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="AU5" s="13" t="s">
+      <c r="AU5" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="AV5" s="13" t="s">
+      <c r="AV5" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="AW5" s="13" t="s">
+      <c r="AW5" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="AX5" s="13" t="s">
+      <c r="AX5" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="AY5" s="28" t="s">
+      <c r="AY5" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="AZ5" s="42"/>
-      <c r="BA5" s="43"/>
-      <c r="BB5" s="43"/>
-      <c r="BC5" s="43"/>
-      <c r="BD5" s="44"/>
+      <c r="AZ5" s="45"/>
+      <c r="BA5" s="49"/>
+      <c r="BB5" s="49"/>
+      <c r="BC5" s="49"/>
+      <c r="BD5" s="50"/>
     </row>
-    <row r="6" customFormat="1" ht="45" customHeight="1" spans="2:56">
-      <c r="B6" s="10"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13" t="s">
+    <row r="6" spans="1:56" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="38"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="13"/>
-      <c r="AB6" s="28"/>
-      <c r="AC6" s="31"/>
-      <c r="AD6" s="30"/>
-      <c r="AE6" s="12"/>
-      <c r="AF6" s="13"/>
-      <c r="AG6" s="12"/>
-      <c r="AH6" s="13"/>
-      <c r="AI6" s="13"/>
-      <c r="AJ6" s="13"/>
-      <c r="AK6" s="13"/>
-      <c r="AL6" s="13"/>
-      <c r="AM6" s="13"/>
-      <c r="AN6" s="13"/>
-      <c r="AO6" s="13"/>
-      <c r="AP6" s="12"/>
-      <c r="AQ6" s="13"/>
-      <c r="AR6" s="12"/>
-      <c r="AS6" s="12"/>
-      <c r="AT6" s="13"/>
-      <c r="AU6" s="13"/>
-      <c r="AV6" s="13"/>
-      <c r="AW6" s="13"/>
-      <c r="AX6" s="13"/>
-      <c r="AY6" s="28"/>
-      <c r="AZ6" s="45" t="s">
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="39"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="27"/>
+      <c r="AB6" s="41"/>
+      <c r="AC6" s="43"/>
+      <c r="AD6" s="44"/>
+      <c r="AE6" s="39"/>
+      <c r="AF6" s="27"/>
+      <c r="AG6" s="39"/>
+      <c r="AH6" s="27"/>
+      <c r="AI6" s="27"/>
+      <c r="AJ6" s="27"/>
+      <c r="AK6" s="27"/>
+      <c r="AL6" s="27"/>
+      <c r="AM6" s="27"/>
+      <c r="AN6" s="27"/>
+      <c r="AO6" s="27"/>
+      <c r="AP6" s="39"/>
+      <c r="AQ6" s="27"/>
+      <c r="AR6" s="39"/>
+      <c r="AS6" s="39"/>
+      <c r="AT6" s="27"/>
+      <c r="AU6" s="27"/>
+      <c r="AV6" s="27"/>
+      <c r="AW6" s="27"/>
+      <c r="AX6" s="27"/>
+      <c r="AY6" s="41"/>
+      <c r="AZ6" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="BA6" s="46"/>
-      <c r="BB6" s="47" t="s">
+      <c r="BA6" s="29"/>
+      <c r="BB6" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="BC6" s="16" t="s">
+      <c r="BC6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="BD6" s="48" t="s">
+      <c r="BD6" s="12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="66.6" customHeight="1" spans="2:56">
-      <c r="B7" s="14" t="s">
+    <row r="7" spans="1:56" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="7" t="s">
         <v>55</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -3238,5389 +2673,5396 @@
       <c r="AY7" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="AZ7" s="49"/>
-      <c r="BA7" s="16"/>
-      <c r="BB7" s="16"/>
-      <c r="BC7" s="16"/>
-      <c r="BD7" s="48"/>
+      <c r="AZ7" s="13"/>
+      <c r="BA7" s="9"/>
+      <c r="BB7" s="9"/>
+      <c r="BC7" s="9"/>
+      <c r="BD7" s="12"/>
     </row>
-    <row r="8" customFormat="1" spans="2:56">
-      <c r="B8" s="15">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.15">
+      <c r="B8" s="8">
         <v>0</v>
       </c>
-      <c r="C8" s="16" t="str">
+      <c r="C8" s="9" t="str">
         <f>IF(_tuoliu_day_hour!A2="","",_tuoliu_day_hour!A2)</f>
         <v/>
       </c>
-      <c r="D8" s="16" t="str">
+      <c r="D8" s="9" t="str">
         <f>IF(_tuoliu_day_hour!B2="","",_tuoliu_day_hour!B2)</f>
         <v/>
       </c>
-      <c r="E8" s="16" t="str">
+      <c r="E8" s="9" t="str">
         <f>IF(_tuoliu_day_hour!C2="","",_tuoliu_day_hour!C2)</f>
         <v/>
       </c>
-      <c r="F8" s="16" t="str">
+      <c r="F8" s="9" t="str">
         <f>IF(_tuoliu_day_hour!D2="","",_tuoliu_day_hour!D2)</f>
         <v/>
       </c>
-      <c r="G8" s="16" t="str">
+      <c r="G8" s="9" t="str">
         <f>IF(_tuoliu_day_hour!E2="","",_tuoliu_day_hour!E2)</f>
         <v/>
       </c>
-      <c r="H8" s="16" t="str">
+      <c r="H8" s="9" t="str">
         <f>IF(_tuoliu_day_hour!F2="","",_tuoliu_day_hour!F2)</f>
         <v/>
       </c>
-      <c r="I8" s="16" t="str">
+      <c r="I8" s="9" t="str">
         <f>IF(_tuoliu_day_hour!G2="","",_tuoliu_day_hour!G2)</f>
         <v/>
       </c>
-      <c r="J8" s="16" t="str">
+      <c r="J8" s="9" t="str">
         <f>IF(_tuoliu_day_hour!H2="","",_tuoliu_day_hour!H2)</f>
         <v/>
       </c>
-      <c r="K8" s="16" t="str">
+      <c r="K8" s="9" t="str">
         <f>IF(_tuoliu_day_hour!I2="","",_tuoliu_day_hour!I2)</f>
         <v/>
       </c>
-      <c r="L8" s="16" t="str">
+      <c r="L8" s="9" t="str">
         <f>IF(_tuoliu_day_hour!J2="","",_tuoliu_day_hour!J2)</f>
         <v/>
       </c>
-      <c r="M8" s="16" t="str">
+      <c r="M8" s="9" t="str">
         <f>IF(_tuoliu_day_hour!K2="","",_tuoliu_day_hour!K2)</f>
         <v/>
       </c>
-      <c r="N8" s="16" t="str">
+      <c r="N8" s="9" t="str">
         <f>IF(_tuoliu_day_hour!L2="","",_tuoliu_day_hour!L2)</f>
         <v/>
       </c>
-      <c r="O8" s="16" t="str">
+      <c r="O8" s="9" t="str">
         <f>IF(_tuoliu_day_hour!M2="","",_tuoliu_day_hour!M2)</f>
         <v/>
       </c>
-      <c r="P8" s="16" t="str">
+      <c r="P8" s="9" t="str">
         <f>IF(_tuoliu_day_hour!N2="","",_tuoliu_day_hour!N2)</f>
         <v/>
       </c>
-      <c r="Q8" s="16" t="str">
+      <c r="Q8" s="9" t="str">
         <f>IF(_tuoliu_day_hour!O2="","",_tuoliu_day_hour!O2)</f>
         <v/>
       </c>
-      <c r="R8" s="16" t="str">
+      <c r="R8" s="9" t="str">
         <f>IF(_tuoliu_day_hour!P2="","",_tuoliu_day_hour!P2)</f>
         <v/>
       </c>
-      <c r="S8" s="16" t="str">
+      <c r="S8" s="9" t="str">
         <f>IF(_tuoliu_day_hour!Q2="","",_tuoliu_day_hour!Q2)</f>
         <v/>
       </c>
-      <c r="T8" s="16" t="str">
+      <c r="T8" s="9" t="str">
         <f>IF(_tuoliu_day_hour!R2="","",_tuoliu_day_hour!R2)</f>
         <v/>
       </c>
-      <c r="U8" s="16" t="str">
+      <c r="U8" s="9" t="str">
         <f>IF(_tuoliu_day_hour!S2="","",_tuoliu_day_hour!S2)</f>
         <v/>
       </c>
-      <c r="V8" s="16" t="str">
+      <c r="V8" s="9" t="str">
         <f>IF(_tuoliu_day_hour!T2="","",_tuoliu_day_hour!T2)</f>
         <v/>
       </c>
-      <c r="W8" s="16" t="str">
+      <c r="W8" s="9" t="str">
         <f>IF(_tuoliu_day_hour!U2="","",_tuoliu_day_hour!U2)</f>
         <v/>
       </c>
-      <c r="X8" s="16" t="str">
+      <c r="X8" s="9" t="str">
         <f>IF(_tuoliu_day_hour!V2="","",_tuoliu_day_hour!V2)</f>
         <v/>
       </c>
-      <c r="Y8" s="16" t="str">
+      <c r="Y8" s="9" t="str">
         <f>IF(_tuoliu_day_hour!W2="","",_tuoliu_day_hour!W2)</f>
         <v/>
       </c>
-      <c r="Z8" s="16" t="str">
+      <c r="Z8" s="9" t="str">
         <f>IF(_tuoliu_day_hour!X2="","",_tuoliu_day_hour!X2)</f>
         <v/>
       </c>
-      <c r="AA8" s="16" t="str">
+      <c r="AA8" s="9" t="str">
         <f>IF(_tuoliu_day_hour!Y2="","",_tuoliu_day_hour!Y2)</f>
         <v/>
       </c>
-      <c r="AB8" s="16" t="str">
+      <c r="AB8" s="9" t="str">
         <f>IF(_tuoliu_day_hour!Z2="","",_tuoliu_day_hour!Z2)</f>
         <v/>
       </c>
-      <c r="AC8" s="16" t="str">
+      <c r="AC8" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AA2="","",_tuoliu_day_hour!AA2)</f>
         <v/>
       </c>
-      <c r="AD8" s="16" t="str">
+      <c r="AD8" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AB2="","",_tuoliu_day_hour!AB2)</f>
         <v/>
       </c>
-      <c r="AE8" s="16" t="str">
+      <c r="AE8" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AC2="","",_tuoliu_day_hour!AC2)</f>
         <v/>
       </c>
-      <c r="AF8" s="16" t="str">
+      <c r="AF8" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AD2="","",_tuoliu_day_hour!AD2)</f>
         <v/>
       </c>
-      <c r="AG8" s="16" t="str">
+      <c r="AG8" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AE2="","",_tuoliu_day_hour!AE2)</f>
         <v/>
       </c>
-      <c r="AH8" s="16" t="str">
+      <c r="AH8" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AF2="","",_tuoliu_day_hour!AF2)</f>
         <v/>
       </c>
-      <c r="AI8" s="16" t="str">
+      <c r="AI8" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AG2="","",_tuoliu_day_hour!AG2)</f>
         <v/>
       </c>
-      <c r="AJ8" s="16" t="str">
+      <c r="AJ8" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AH2="","",_tuoliu_day_hour!AH2)</f>
         <v/>
       </c>
-      <c r="AK8" s="16" t="str">
+      <c r="AK8" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AI2="","",_tuoliu_day_hour!AI2)</f>
         <v/>
       </c>
-      <c r="AL8" s="16" t="str">
+      <c r="AL8" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AJ2="","",_tuoliu_day_hour!AJ2)</f>
         <v/>
       </c>
-      <c r="AM8" s="16" t="str">
+      <c r="AM8" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AK2="","",_tuoliu_day_hour!AK2)</f>
         <v/>
       </c>
-      <c r="AN8" s="16" t="str">
+      <c r="AN8" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AL2="","",_tuoliu_day_hour!AL2)</f>
         <v/>
       </c>
-      <c r="AO8" s="16" t="str">
+      <c r="AO8" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AM2="","",_tuoliu_day_hour!AM2)</f>
         <v/>
       </c>
-      <c r="AP8" s="16" t="str">
+      <c r="AP8" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AN2="","",_tuoliu_day_hour!AN2)</f>
         <v/>
       </c>
-      <c r="AQ8" s="16" t="str">
+      <c r="AQ8" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AO2="","",_tuoliu_day_hour!AO2)</f>
         <v/>
       </c>
-      <c r="AR8" s="16" t="str">
+      <c r="AR8" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AP2="","",_tuoliu_day_hour!AP2)</f>
         <v/>
       </c>
-      <c r="AS8" s="16" t="str">
+      <c r="AS8" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AQ2="","",_tuoliu_day_hour!AQ2)</f>
         <v/>
       </c>
-      <c r="AT8" s="16" t="str">
+      <c r="AT8" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AR2="","",_tuoliu_day_hour!AR2)</f>
         <v/>
       </c>
-      <c r="AU8" s="16" t="str">
+      <c r="AU8" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AS2="","",_tuoliu_day_hour!AS2)</f>
         <v/>
       </c>
-      <c r="AV8" s="16" t="str">
+      <c r="AV8" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AT2="","",_tuoliu_day_hour!AT2)</f>
         <v/>
       </c>
-      <c r="AW8" s="16" t="str">
+      <c r="AW8" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AU2="","",_tuoliu_day_hour!AU2)</f>
         <v/>
       </c>
-      <c r="AX8" s="16" t="str">
+      <c r="AX8" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AV2="","",_tuoliu_day_hour!AV2)</f>
         <v/>
       </c>
-      <c r="AY8" s="50" t="str">
+      <c r="AY8" s="14" t="str">
         <f>IF(_tuoliu_day_hour!AW2="","",_tuoliu_day_hour!AW2)</f>
         <v/>
       </c>
-      <c r="AZ8" s="42" t="s">
+      <c r="AZ8" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="BA8" s="51" t="s">
+      <c r="BA8" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="BB8" s="16"/>
-      <c r="BC8" s="16"/>
-      <c r="BD8" s="48"/>
+      <c r="BB8" s="9"/>
+      <c r="BC8" s="9"/>
+      <c r="BD8" s="12"/>
     </row>
-    <row r="9" customFormat="1" spans="2:56">
-      <c r="B9" s="15">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="C9" s="16" t="str">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.15">
+      <c r="B9" s="8">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="C9" s="9" t="str">
         <f>IF(_tuoliu_day_hour!A3="","",_tuoliu_day_hour!A3)</f>
         <v/>
       </c>
-      <c r="D9" s="16" t="str">
+      <c r="D9" s="9" t="str">
         <f>IF(_tuoliu_day_hour!B3="","",_tuoliu_day_hour!B3)</f>
         <v/>
       </c>
-      <c r="E9" s="16" t="str">
+      <c r="E9" s="9" t="str">
         <f>IF(_tuoliu_day_hour!C3="","",_tuoliu_day_hour!C3)</f>
         <v/>
       </c>
-      <c r="F9" s="16" t="str">
+      <c r="F9" s="9" t="str">
         <f>IF(_tuoliu_day_hour!D3="","",_tuoliu_day_hour!D3)</f>
         <v/>
       </c>
-      <c r="G9" s="16" t="str">
+      <c r="G9" s="9" t="str">
         <f>IF(_tuoliu_day_hour!E3="","",_tuoliu_day_hour!E3)</f>
         <v/>
       </c>
-      <c r="H9" s="16" t="str">
+      <c r="H9" s="9" t="str">
         <f>IF(_tuoliu_day_hour!F3="","",_tuoliu_day_hour!F3)</f>
         <v/>
       </c>
-      <c r="I9" s="16" t="str">
+      <c r="I9" s="9" t="str">
         <f>IF(_tuoliu_day_hour!G3="","",_tuoliu_day_hour!G3)</f>
         <v/>
       </c>
-      <c r="J9" s="16" t="str">
+      <c r="J9" s="9" t="str">
         <f>IF(_tuoliu_day_hour!H3="","",_tuoliu_day_hour!H3)</f>
         <v/>
       </c>
-      <c r="K9" s="16" t="str">
+      <c r="K9" s="9" t="str">
         <f>IF(_tuoliu_day_hour!I3="","",_tuoliu_day_hour!I3)</f>
         <v/>
       </c>
-      <c r="L9" s="16" t="str">
+      <c r="L9" s="9" t="str">
         <f>IF(_tuoliu_day_hour!J3="","",_tuoliu_day_hour!J3)</f>
         <v/>
       </c>
-      <c r="M9" s="16" t="str">
+      <c r="M9" s="9" t="str">
         <f>IF(_tuoliu_day_hour!K3="","",_tuoliu_day_hour!K3)</f>
         <v/>
       </c>
-      <c r="N9" s="16" t="str">
+      <c r="N9" s="9" t="str">
         <f>IF(_tuoliu_day_hour!L3="","",_tuoliu_day_hour!L3)</f>
         <v/>
       </c>
-      <c r="O9" s="16" t="str">
+      <c r="O9" s="9" t="str">
         <f>IF(_tuoliu_day_hour!M3="","",_tuoliu_day_hour!M3)</f>
         <v/>
       </c>
-      <c r="P9" s="16" t="str">
+      <c r="P9" s="9" t="str">
         <f>IF(_tuoliu_day_hour!N3="","",_tuoliu_day_hour!N3)</f>
         <v/>
       </c>
-      <c r="Q9" s="16" t="str">
+      <c r="Q9" s="9" t="str">
         <f>IF(_tuoliu_day_hour!O3="","",_tuoliu_day_hour!O3)</f>
         <v/>
       </c>
-      <c r="R9" s="16" t="str">
+      <c r="R9" s="9" t="str">
         <f>IF(_tuoliu_day_hour!P3="","",_tuoliu_day_hour!P3)</f>
         <v/>
       </c>
-      <c r="S9" s="16" t="str">
+      <c r="S9" s="9" t="str">
         <f>IF(_tuoliu_day_hour!Q3="","",_tuoliu_day_hour!Q3)</f>
         <v/>
       </c>
-      <c r="T9" s="16" t="str">
+      <c r="T9" s="9" t="str">
         <f>IF(_tuoliu_day_hour!R3="","",_tuoliu_day_hour!R3)</f>
         <v/>
       </c>
-      <c r="U9" s="16" t="str">
+      <c r="U9" s="9" t="str">
         <f>IF(_tuoliu_day_hour!S3="","",_tuoliu_day_hour!S3)</f>
         <v/>
       </c>
-      <c r="V9" s="16" t="str">
+      <c r="V9" s="9" t="str">
         <f>IF(_tuoliu_day_hour!T3="","",_tuoliu_day_hour!T3)</f>
         <v/>
       </c>
-      <c r="W9" s="16" t="str">
+      <c r="W9" s="9" t="str">
         <f>IF(_tuoliu_day_hour!U3="","",_tuoliu_day_hour!U3)</f>
         <v/>
       </c>
-      <c r="X9" s="16" t="str">
+      <c r="X9" s="9" t="str">
         <f>IF(_tuoliu_day_hour!V3="","",_tuoliu_day_hour!V3)</f>
         <v/>
       </c>
-      <c r="Y9" s="16" t="str">
+      <c r="Y9" s="9" t="str">
         <f>IF(_tuoliu_day_hour!W3="","",_tuoliu_day_hour!W3)</f>
         <v/>
       </c>
-      <c r="Z9" s="16" t="str">
+      <c r="Z9" s="9" t="str">
         <f>IF(_tuoliu_day_hour!X3="","",_tuoliu_day_hour!X3)</f>
         <v/>
       </c>
-      <c r="AA9" s="16" t="str">
+      <c r="AA9" s="9" t="str">
         <f>IF(_tuoliu_day_hour!Y3="","",_tuoliu_day_hour!Y3)</f>
         <v/>
       </c>
-      <c r="AB9" s="16" t="str">
+      <c r="AB9" s="9" t="str">
         <f>IF(_tuoliu_day_hour!Z3="","",_tuoliu_day_hour!Z3)</f>
         <v/>
       </c>
-      <c r="AC9" s="16" t="str">
+      <c r="AC9" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AA3="","",_tuoliu_day_hour!AA3)</f>
         <v/>
       </c>
-      <c r="AD9" s="16" t="str">
+      <c r="AD9" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AB3="","",_tuoliu_day_hour!AB3)</f>
         <v/>
       </c>
-      <c r="AE9" s="16" t="str">
+      <c r="AE9" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AC3="","",_tuoliu_day_hour!AC3)</f>
         <v/>
       </c>
-      <c r="AF9" s="16" t="str">
+      <c r="AF9" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AD3="","",_tuoliu_day_hour!AD3)</f>
         <v/>
       </c>
-      <c r="AG9" s="16" t="str">
+      <c r="AG9" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AE3="","",_tuoliu_day_hour!AE3)</f>
         <v/>
       </c>
-      <c r="AH9" s="16" t="str">
+      <c r="AH9" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AF3="","",_tuoliu_day_hour!AF3)</f>
         <v/>
       </c>
-      <c r="AI9" s="16" t="str">
+      <c r="AI9" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AG3="","",_tuoliu_day_hour!AG3)</f>
         <v/>
       </c>
-      <c r="AJ9" s="16" t="str">
+      <c r="AJ9" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AH3="","",_tuoliu_day_hour!AH3)</f>
         <v/>
       </c>
-      <c r="AK9" s="16" t="str">
+      <c r="AK9" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AI3="","",_tuoliu_day_hour!AI3)</f>
         <v/>
       </c>
-      <c r="AL9" s="16" t="str">
+      <c r="AL9" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AJ3="","",_tuoliu_day_hour!AJ3)</f>
         <v/>
       </c>
-      <c r="AM9" s="16" t="str">
+      <c r="AM9" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AK3="","",_tuoliu_day_hour!AK3)</f>
         <v/>
       </c>
-      <c r="AN9" s="16" t="str">
+      <c r="AN9" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AL3="","",_tuoliu_day_hour!AL3)</f>
         <v/>
       </c>
-      <c r="AO9" s="16" t="str">
+      <c r="AO9" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AM3="","",_tuoliu_day_hour!AM3)</f>
         <v/>
       </c>
-      <c r="AP9" s="16" t="str">
+      <c r="AP9" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AN3="","",_tuoliu_day_hour!AN3)</f>
         <v/>
       </c>
-      <c r="AQ9" s="16" t="str">
+      <c r="AQ9" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AO3="","",_tuoliu_day_hour!AO3)</f>
         <v/>
       </c>
-      <c r="AR9" s="16" t="str">
+      <c r="AR9" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AP3="","",_tuoliu_day_hour!AP3)</f>
         <v/>
       </c>
-      <c r="AS9" s="16" t="str">
+      <c r="AS9" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AQ3="","",_tuoliu_day_hour!AQ3)</f>
         <v/>
       </c>
-      <c r="AT9" s="16" t="str">
+      <c r="AT9" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AR3="","",_tuoliu_day_hour!AR3)</f>
         <v/>
       </c>
-      <c r="AU9" s="16" t="str">
+      <c r="AU9" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AS3="","",_tuoliu_day_hour!AS3)</f>
         <v/>
       </c>
-      <c r="AV9" s="16" t="str">
+      <c r="AV9" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AT3="","",_tuoliu_day_hour!AT3)</f>
         <v/>
       </c>
-      <c r="AW9" s="16" t="str">
+      <c r="AW9" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AU3="","",_tuoliu_day_hour!AU3)</f>
         <v/>
       </c>
-      <c r="AX9" s="16" t="str">
+      <c r="AX9" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AV3="","",_tuoliu_day_hour!AV3)</f>
         <v/>
       </c>
-      <c r="AY9" s="50" t="str">
+      <c r="AY9" s="14" t="str">
         <f>IF(_tuoliu_day_hour!AW3="","",_tuoliu_day_hour!AW3)</f>
         <v/>
       </c>
-      <c r="AZ9" s="42"/>
-      <c r="BA9" s="51" t="s">
+      <c r="AZ9" s="45"/>
+      <c r="BA9" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="BB9" s="16"/>
-      <c r="BC9" s="16"/>
-      <c r="BD9" s="48"/>
+      <c r="BB9" s="9"/>
+      <c r="BC9" s="9"/>
+      <c r="BD9" s="12"/>
     </row>
-    <row r="10" customFormat="1" spans="2:56">
-      <c r="B10" s="15">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="C10" s="16" t="str">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.15">
+      <c r="B10" s="8">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="C10" s="9" t="str">
         <f>IF(_tuoliu_day_hour!A4="","",_tuoliu_day_hour!A4)</f>
         <v/>
       </c>
-      <c r="D10" s="16" t="str">
+      <c r="D10" s="9" t="str">
         <f>IF(_tuoliu_day_hour!B4="","",_tuoliu_day_hour!B4)</f>
         <v/>
       </c>
-      <c r="E10" s="16" t="str">
+      <c r="E10" s="9" t="str">
         <f>IF(_tuoliu_day_hour!C4="","",_tuoliu_day_hour!C4)</f>
         <v/>
       </c>
-      <c r="F10" s="16" t="str">
+      <c r="F10" s="9" t="str">
         <f>IF(_tuoliu_day_hour!D4="","",_tuoliu_day_hour!D4)</f>
         <v/>
       </c>
-      <c r="G10" s="16" t="str">
+      <c r="G10" s="9" t="str">
         <f>IF(_tuoliu_day_hour!E4="","",_tuoliu_day_hour!E4)</f>
         <v/>
       </c>
-      <c r="H10" s="16" t="str">
+      <c r="H10" s="9" t="str">
         <f>IF(_tuoliu_day_hour!F4="","",_tuoliu_day_hour!F4)</f>
         <v/>
       </c>
-      <c r="I10" s="16" t="str">
+      <c r="I10" s="9" t="str">
         <f>IF(_tuoliu_day_hour!G4="","",_tuoliu_day_hour!G4)</f>
         <v/>
       </c>
-      <c r="J10" s="16" t="str">
+      <c r="J10" s="9" t="str">
         <f>IF(_tuoliu_day_hour!H4="","",_tuoliu_day_hour!H4)</f>
         <v/>
       </c>
-      <c r="K10" s="16" t="str">
+      <c r="K10" s="9" t="str">
         <f>IF(_tuoliu_day_hour!I4="","",_tuoliu_day_hour!I4)</f>
         <v/>
       </c>
-      <c r="L10" s="16" t="str">
+      <c r="L10" s="9" t="str">
         <f>IF(_tuoliu_day_hour!J4="","",_tuoliu_day_hour!J4)</f>
         <v/>
       </c>
-      <c r="M10" s="16" t="str">
+      <c r="M10" s="9" t="str">
         <f>IF(_tuoliu_day_hour!K4="","",_tuoliu_day_hour!K4)</f>
         <v/>
       </c>
-      <c r="N10" s="16" t="str">
+      <c r="N10" s="9" t="str">
         <f>IF(_tuoliu_day_hour!L4="","",_tuoliu_day_hour!L4)</f>
         <v/>
       </c>
-      <c r="O10" s="16" t="str">
+      <c r="O10" s="9" t="str">
         <f>IF(_tuoliu_day_hour!M4="","",_tuoliu_day_hour!M4)</f>
         <v/>
       </c>
-      <c r="P10" s="16" t="str">
+      <c r="P10" s="9" t="str">
         <f>IF(_tuoliu_day_hour!N4="","",_tuoliu_day_hour!N4)</f>
         <v/>
       </c>
-      <c r="Q10" s="16" t="str">
+      <c r="Q10" s="9" t="str">
         <f>IF(_tuoliu_day_hour!O4="","",_tuoliu_day_hour!O4)</f>
         <v/>
       </c>
-      <c r="R10" s="16" t="str">
+      <c r="R10" s="9" t="str">
         <f>IF(_tuoliu_day_hour!P4="","",_tuoliu_day_hour!P4)</f>
         <v/>
       </c>
-      <c r="S10" s="16" t="str">
+      <c r="S10" s="9" t="str">
         <f>IF(_tuoliu_day_hour!Q4="","",_tuoliu_day_hour!Q4)</f>
         <v/>
       </c>
-      <c r="T10" s="16" t="str">
+      <c r="T10" s="9" t="str">
         <f>IF(_tuoliu_day_hour!R4="","",_tuoliu_day_hour!R4)</f>
         <v/>
       </c>
-      <c r="U10" s="16" t="str">
+      <c r="U10" s="9" t="str">
         <f>IF(_tuoliu_day_hour!S4="","",_tuoliu_day_hour!S4)</f>
         <v/>
       </c>
-      <c r="V10" s="16" t="str">
+      <c r="V10" s="9" t="str">
         <f>IF(_tuoliu_day_hour!T4="","",_tuoliu_day_hour!T4)</f>
         <v/>
       </c>
-      <c r="W10" s="16" t="str">
+      <c r="W10" s="9" t="str">
         <f>IF(_tuoliu_day_hour!U4="","",_tuoliu_day_hour!U4)</f>
         <v/>
       </c>
-      <c r="X10" s="16" t="str">
+      <c r="X10" s="9" t="str">
         <f>IF(_tuoliu_day_hour!V4="","",_tuoliu_day_hour!V4)</f>
         <v/>
       </c>
-      <c r="Y10" s="16" t="str">
+      <c r="Y10" s="9" t="str">
         <f>IF(_tuoliu_day_hour!W4="","",_tuoliu_day_hour!W4)</f>
         <v/>
       </c>
-      <c r="Z10" s="16" t="str">
+      <c r="Z10" s="9" t="str">
         <f>IF(_tuoliu_day_hour!X4="","",_tuoliu_day_hour!X4)</f>
         <v/>
       </c>
-      <c r="AA10" s="16" t="str">
+      <c r="AA10" s="9" t="str">
         <f>IF(_tuoliu_day_hour!Y4="","",_tuoliu_day_hour!Y4)</f>
         <v/>
       </c>
-      <c r="AB10" s="16" t="str">
+      <c r="AB10" s="9" t="str">
         <f>IF(_tuoliu_day_hour!Z4="","",_tuoliu_day_hour!Z4)</f>
         <v/>
       </c>
-      <c r="AC10" s="16" t="str">
+      <c r="AC10" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AA4="","",_tuoliu_day_hour!AA4)</f>
         <v/>
       </c>
-      <c r="AD10" s="16" t="str">
+      <c r="AD10" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AB4="","",_tuoliu_day_hour!AB4)</f>
         <v/>
       </c>
-      <c r="AE10" s="16" t="str">
+      <c r="AE10" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AC4="","",_tuoliu_day_hour!AC4)</f>
         <v/>
       </c>
-      <c r="AF10" s="16" t="str">
+      <c r="AF10" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AD4="","",_tuoliu_day_hour!AD4)</f>
         <v/>
       </c>
-      <c r="AG10" s="16" t="str">
+      <c r="AG10" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AE4="","",_tuoliu_day_hour!AE4)</f>
         <v/>
       </c>
-      <c r="AH10" s="16" t="str">
+      <c r="AH10" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AF4="","",_tuoliu_day_hour!AF4)</f>
         <v/>
       </c>
-      <c r="AI10" s="16" t="str">
+      <c r="AI10" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AG4="","",_tuoliu_day_hour!AG4)</f>
         <v/>
       </c>
-      <c r="AJ10" s="16" t="str">
+      <c r="AJ10" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AH4="","",_tuoliu_day_hour!AH4)</f>
         <v/>
       </c>
-      <c r="AK10" s="16" t="str">
+      <c r="AK10" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AI4="","",_tuoliu_day_hour!AI4)</f>
         <v/>
       </c>
-      <c r="AL10" s="16" t="str">
+      <c r="AL10" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AJ4="","",_tuoliu_day_hour!AJ4)</f>
         <v/>
       </c>
-      <c r="AM10" s="16" t="str">
+      <c r="AM10" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AK4="","",_tuoliu_day_hour!AK4)</f>
         <v/>
       </c>
-      <c r="AN10" s="16" t="str">
+      <c r="AN10" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AL4="","",_tuoliu_day_hour!AL4)</f>
         <v/>
       </c>
-      <c r="AO10" s="16" t="str">
+      <c r="AO10" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AM4="","",_tuoliu_day_hour!AM4)</f>
         <v/>
       </c>
-      <c r="AP10" s="16" t="str">
+      <c r="AP10" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AN4="","",_tuoliu_day_hour!AN4)</f>
         <v/>
       </c>
-      <c r="AQ10" s="16" t="str">
+      <c r="AQ10" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AO4="","",_tuoliu_day_hour!AO4)</f>
         <v/>
       </c>
-      <c r="AR10" s="16" t="str">
+      <c r="AR10" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AP4="","",_tuoliu_day_hour!AP4)</f>
         <v/>
       </c>
-      <c r="AS10" s="16" t="str">
+      <c r="AS10" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AQ4="","",_tuoliu_day_hour!AQ4)</f>
         <v/>
       </c>
-      <c r="AT10" s="16" t="str">
+      <c r="AT10" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AR4="","",_tuoliu_day_hour!AR4)</f>
         <v/>
       </c>
-      <c r="AU10" s="16" t="str">
+      <c r="AU10" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AS4="","",_tuoliu_day_hour!AS4)</f>
         <v/>
       </c>
-      <c r="AV10" s="16" t="str">
+      <c r="AV10" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AT4="","",_tuoliu_day_hour!AT4)</f>
         <v/>
       </c>
-      <c r="AW10" s="16" t="str">
+      <c r="AW10" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AU4="","",_tuoliu_day_hour!AU4)</f>
         <v/>
       </c>
-      <c r="AX10" s="16" t="str">
+      <c r="AX10" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AV4="","",_tuoliu_day_hour!AV4)</f>
         <v/>
       </c>
-      <c r="AY10" s="50" t="str">
+      <c r="AY10" s="14" t="str">
         <f>IF(_tuoliu_day_hour!AW4="","",_tuoliu_day_hour!AW4)</f>
         <v/>
       </c>
-      <c r="AZ10" s="42" t="s">
+      <c r="AZ10" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="BA10" s="51" t="s">
+      <c r="BA10" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="BB10" s="16"/>
-      <c r="BC10" s="16"/>
-      <c r="BD10" s="48"/>
+      <c r="BB10" s="9"/>
+      <c r="BC10" s="9"/>
+      <c r="BD10" s="12"/>
     </row>
-    <row r="11" customFormat="1" ht="14.1" customHeight="1" spans="2:56">
-      <c r="B11" s="15">
+    <row r="11" spans="1:56" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="8">
         <v>0.125</v>
       </c>
-      <c r="C11" s="16" t="str">
+      <c r="C11" s="9" t="str">
         <f>IF(_tuoliu_day_hour!A5="","",_tuoliu_day_hour!A5)</f>
         <v/>
       </c>
-      <c r="D11" s="16" t="str">
+      <c r="D11" s="9" t="str">
         <f>IF(_tuoliu_day_hour!B5="","",_tuoliu_day_hour!B5)</f>
         <v/>
       </c>
-      <c r="E11" s="16" t="str">
+      <c r="E11" s="9" t="str">
         <f>IF(_tuoliu_day_hour!C5="","",_tuoliu_day_hour!C5)</f>
         <v/>
       </c>
-      <c r="F11" s="16" t="str">
+      <c r="F11" s="9" t="str">
         <f>IF(_tuoliu_day_hour!D5="","",_tuoliu_day_hour!D5)</f>
         <v/>
       </c>
-      <c r="G11" s="16" t="str">
+      <c r="G11" s="9" t="str">
         <f>IF(_tuoliu_day_hour!E5="","",_tuoliu_day_hour!E5)</f>
         <v/>
       </c>
-      <c r="H11" s="16" t="str">
+      <c r="H11" s="9" t="str">
         <f>IF(_tuoliu_day_hour!F5="","",_tuoliu_day_hour!F5)</f>
         <v/>
       </c>
-      <c r="I11" s="16" t="str">
+      <c r="I11" s="9" t="str">
         <f>IF(_tuoliu_day_hour!G5="","",_tuoliu_day_hour!G5)</f>
         <v/>
       </c>
-      <c r="J11" s="16" t="str">
+      <c r="J11" s="9" t="str">
         <f>IF(_tuoliu_day_hour!H5="","",_tuoliu_day_hour!H5)</f>
         <v/>
       </c>
-      <c r="K11" s="16" t="str">
+      <c r="K11" s="9" t="str">
         <f>IF(_tuoliu_day_hour!I5="","",_tuoliu_day_hour!I5)</f>
         <v/>
       </c>
-      <c r="L11" s="16" t="str">
+      <c r="L11" s="9" t="str">
         <f>IF(_tuoliu_day_hour!J5="","",_tuoliu_day_hour!J5)</f>
         <v/>
       </c>
-      <c r="M11" s="16" t="str">
+      <c r="M11" s="9" t="str">
         <f>IF(_tuoliu_day_hour!K5="","",_tuoliu_day_hour!K5)</f>
         <v/>
       </c>
-      <c r="N11" s="16" t="str">
+      <c r="N11" s="9" t="str">
         <f>IF(_tuoliu_day_hour!L5="","",_tuoliu_day_hour!L5)</f>
         <v/>
       </c>
-      <c r="O11" s="16" t="str">
+      <c r="O11" s="9" t="str">
         <f>IF(_tuoliu_day_hour!M5="","",_tuoliu_day_hour!M5)</f>
         <v/>
       </c>
-      <c r="P11" s="16" t="str">
+      <c r="P11" s="9" t="str">
         <f>IF(_tuoliu_day_hour!N5="","",_tuoliu_day_hour!N5)</f>
         <v/>
       </c>
-      <c r="Q11" s="16" t="str">
+      <c r="Q11" s="9" t="str">
         <f>IF(_tuoliu_day_hour!O5="","",_tuoliu_day_hour!O5)</f>
         <v/>
       </c>
-      <c r="R11" s="16" t="str">
+      <c r="R11" s="9" t="str">
         <f>IF(_tuoliu_day_hour!P5="","",_tuoliu_day_hour!P5)</f>
         <v/>
       </c>
-      <c r="S11" s="16" t="str">
+      <c r="S11" s="9" t="str">
         <f>IF(_tuoliu_day_hour!Q5="","",_tuoliu_day_hour!Q5)</f>
         <v/>
       </c>
-      <c r="T11" s="16" t="str">
+      <c r="T11" s="9" t="str">
         <f>IF(_tuoliu_day_hour!R5="","",_tuoliu_day_hour!R5)</f>
         <v/>
       </c>
-      <c r="U11" s="16" t="str">
+      <c r="U11" s="9" t="str">
         <f>IF(_tuoliu_day_hour!S5="","",_tuoliu_day_hour!S5)</f>
         <v/>
       </c>
-      <c r="V11" s="16" t="str">
+      <c r="V11" s="9" t="str">
         <f>IF(_tuoliu_day_hour!T5="","",_tuoliu_day_hour!T5)</f>
         <v/>
       </c>
-      <c r="W11" s="16" t="str">
+      <c r="W11" s="9" t="str">
         <f>IF(_tuoliu_day_hour!U5="","",_tuoliu_day_hour!U5)</f>
         <v/>
       </c>
-      <c r="X11" s="16" t="str">
+      <c r="X11" s="9" t="str">
         <f>IF(_tuoliu_day_hour!V5="","",_tuoliu_day_hour!V5)</f>
         <v/>
       </c>
-      <c r="Y11" s="16" t="str">
+      <c r="Y11" s="9" t="str">
         <f>IF(_tuoliu_day_hour!W5="","",_tuoliu_day_hour!W5)</f>
         <v/>
       </c>
-      <c r="Z11" s="16" t="str">
+      <c r="Z11" s="9" t="str">
         <f>IF(_tuoliu_day_hour!X5="","",_tuoliu_day_hour!X5)</f>
         <v/>
       </c>
-      <c r="AA11" s="16" t="str">
+      <c r="AA11" s="9" t="str">
         <f>IF(_tuoliu_day_hour!Y5="","",_tuoliu_day_hour!Y5)</f>
         <v/>
       </c>
-      <c r="AB11" s="16" t="str">
+      <c r="AB11" s="9" t="str">
         <f>IF(_tuoliu_day_hour!Z5="","",_tuoliu_day_hour!Z5)</f>
         <v/>
       </c>
-      <c r="AC11" s="16" t="str">
+      <c r="AC11" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AA5="","",_tuoliu_day_hour!AA5)</f>
         <v/>
       </c>
-      <c r="AD11" s="16" t="str">
+      <c r="AD11" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AB5="","",_tuoliu_day_hour!AB5)</f>
         <v/>
       </c>
-      <c r="AE11" s="16" t="str">
+      <c r="AE11" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AC5="","",_tuoliu_day_hour!AC5)</f>
         <v/>
       </c>
-      <c r="AF11" s="16" t="str">
+      <c r="AF11" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AD5="","",_tuoliu_day_hour!AD5)</f>
         <v/>
       </c>
-      <c r="AG11" s="16" t="str">
+      <c r="AG11" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AE5="","",_tuoliu_day_hour!AE5)</f>
         <v/>
       </c>
-      <c r="AH11" s="16" t="str">
+      <c r="AH11" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AF5="","",_tuoliu_day_hour!AF5)</f>
         <v/>
       </c>
-      <c r="AI11" s="16" t="str">
+      <c r="AI11" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AG5="","",_tuoliu_day_hour!AG5)</f>
         <v/>
       </c>
-      <c r="AJ11" s="16" t="str">
+      <c r="AJ11" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AH5="","",_tuoliu_day_hour!AH5)</f>
         <v/>
       </c>
-      <c r="AK11" s="16" t="str">
+      <c r="AK11" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AI5="","",_tuoliu_day_hour!AI5)</f>
         <v/>
       </c>
-      <c r="AL11" s="16" t="str">
+      <c r="AL11" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AJ5="","",_tuoliu_day_hour!AJ5)</f>
         <v/>
       </c>
-      <c r="AM11" s="16" t="str">
+      <c r="AM11" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AK5="","",_tuoliu_day_hour!AK5)</f>
         <v/>
       </c>
-      <c r="AN11" s="16" t="str">
+      <c r="AN11" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AL5="","",_tuoliu_day_hour!AL5)</f>
         <v/>
       </c>
-      <c r="AO11" s="16" t="str">
+      <c r="AO11" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AM5="","",_tuoliu_day_hour!AM5)</f>
         <v/>
       </c>
-      <c r="AP11" s="16" t="str">
+      <c r="AP11" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AN5="","",_tuoliu_day_hour!AN5)</f>
         <v/>
       </c>
-      <c r="AQ11" s="16" t="str">
+      <c r="AQ11" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AO5="","",_tuoliu_day_hour!AO5)</f>
         <v/>
       </c>
-      <c r="AR11" s="16" t="str">
+      <c r="AR11" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AP5="","",_tuoliu_day_hour!AP5)</f>
         <v/>
       </c>
-      <c r="AS11" s="16" t="str">
+      <c r="AS11" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AQ5="","",_tuoliu_day_hour!AQ5)</f>
         <v/>
       </c>
-      <c r="AT11" s="16" t="str">
+      <c r="AT11" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AR5="","",_tuoliu_day_hour!AR5)</f>
         <v/>
       </c>
-      <c r="AU11" s="16" t="str">
+      <c r="AU11" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AS5="","",_tuoliu_day_hour!AS5)</f>
         <v/>
       </c>
-      <c r="AV11" s="16" t="str">
+      <c r="AV11" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AT5="","",_tuoliu_day_hour!AT5)</f>
         <v/>
       </c>
-      <c r="AW11" s="16" t="str">
+      <c r="AW11" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AU5="","",_tuoliu_day_hour!AU5)</f>
         <v/>
       </c>
-      <c r="AX11" s="16" t="str">
+      <c r="AX11" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AV5="","",_tuoliu_day_hour!AV5)</f>
         <v/>
       </c>
-      <c r="AY11" s="50" t="str">
+      <c r="AY11" s="14" t="str">
         <f>IF(_tuoliu_day_hour!AW5="","",_tuoliu_day_hour!AW5)</f>
         <v/>
       </c>
-      <c r="AZ11" s="42"/>
-      <c r="BA11" s="51" t="s">
+      <c r="AZ11" s="45"/>
+      <c r="BA11" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="BB11" s="16"/>
-      <c r="BC11" s="16"/>
-      <c r="BD11" s="48"/>
+      <c r="BB11" s="9"/>
+      <c r="BC11" s="9"/>
+      <c r="BD11" s="12"/>
     </row>
-    <row r="12" customFormat="1" spans="2:56">
-      <c r="B12" s="15">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="C12" s="16" t="str">
+    <row r="12" spans="1:56" x14ac:dyDescent="0.15">
+      <c r="B12" s="8">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="C12" s="9" t="str">
         <f>IF(_tuoliu_day_hour!A6="","",_tuoliu_day_hour!A6)</f>
         <v/>
       </c>
-      <c r="D12" s="16" t="str">
+      <c r="D12" s="9" t="str">
         <f>IF(_tuoliu_day_hour!B6="","",_tuoliu_day_hour!B6)</f>
         <v/>
       </c>
-      <c r="E12" s="16" t="str">
+      <c r="E12" s="9" t="str">
         <f>IF(_tuoliu_day_hour!C6="","",_tuoliu_day_hour!C6)</f>
         <v/>
       </c>
-      <c r="F12" s="16" t="str">
+      <c r="F12" s="9" t="str">
         <f>IF(_tuoliu_day_hour!D6="","",_tuoliu_day_hour!D6)</f>
         <v/>
       </c>
-      <c r="G12" s="16" t="str">
+      <c r="G12" s="9" t="str">
         <f>IF(_tuoliu_day_hour!E6="","",_tuoliu_day_hour!E6)</f>
         <v/>
       </c>
-      <c r="H12" s="16" t="str">
+      <c r="H12" s="9" t="str">
         <f>IF(_tuoliu_day_hour!F6="","",_tuoliu_day_hour!F6)</f>
         <v/>
       </c>
-      <c r="I12" s="16" t="str">
+      <c r="I12" s="9" t="str">
         <f>IF(_tuoliu_day_hour!G6="","",_tuoliu_day_hour!G6)</f>
         <v/>
       </c>
-      <c r="J12" s="16" t="str">
+      <c r="J12" s="9" t="str">
         <f>IF(_tuoliu_day_hour!H6="","",_tuoliu_day_hour!H6)</f>
         <v/>
       </c>
-      <c r="K12" s="16" t="str">
+      <c r="K12" s="9" t="str">
         <f>IF(_tuoliu_day_hour!I6="","",_tuoliu_day_hour!I6)</f>
         <v/>
       </c>
-      <c r="L12" s="16" t="str">
+      <c r="L12" s="9" t="str">
         <f>IF(_tuoliu_day_hour!J6="","",_tuoliu_day_hour!J6)</f>
         <v/>
       </c>
-      <c r="M12" s="16" t="str">
+      <c r="M12" s="9" t="str">
         <f>IF(_tuoliu_day_hour!K6="","",_tuoliu_day_hour!K6)</f>
         <v/>
       </c>
-      <c r="N12" s="16" t="str">
+      <c r="N12" s="9" t="str">
         <f>IF(_tuoliu_day_hour!L6="","",_tuoliu_day_hour!L6)</f>
         <v/>
       </c>
-      <c r="O12" s="16" t="str">
+      <c r="O12" s="9" t="str">
         <f>IF(_tuoliu_day_hour!M6="","",_tuoliu_day_hour!M6)</f>
         <v/>
       </c>
-      <c r="P12" s="16" t="str">
+      <c r="P12" s="9" t="str">
         <f>IF(_tuoliu_day_hour!N6="","",_tuoliu_day_hour!N6)</f>
         <v/>
       </c>
-      <c r="Q12" s="16" t="str">
+      <c r="Q12" s="9" t="str">
         <f>IF(_tuoliu_day_hour!O6="","",_tuoliu_day_hour!O6)</f>
         <v/>
       </c>
-      <c r="R12" s="16" t="str">
+      <c r="R12" s="9" t="str">
         <f>IF(_tuoliu_day_hour!P6="","",_tuoliu_day_hour!P6)</f>
         <v/>
       </c>
-      <c r="S12" s="16" t="str">
+      <c r="S12" s="9" t="str">
         <f>IF(_tuoliu_day_hour!Q6="","",_tuoliu_day_hour!Q6)</f>
         <v/>
       </c>
-      <c r="T12" s="16" t="str">
+      <c r="T12" s="9" t="str">
         <f>IF(_tuoliu_day_hour!R6="","",_tuoliu_day_hour!R6)</f>
         <v/>
       </c>
-      <c r="U12" s="16" t="str">
+      <c r="U12" s="9" t="str">
         <f>IF(_tuoliu_day_hour!S6="","",_tuoliu_day_hour!S6)</f>
         <v/>
       </c>
-      <c r="V12" s="16" t="str">
+      <c r="V12" s="9" t="str">
         <f>IF(_tuoliu_day_hour!T6="","",_tuoliu_day_hour!T6)</f>
         <v/>
       </c>
-      <c r="W12" s="16" t="str">
+      <c r="W12" s="9" t="str">
         <f>IF(_tuoliu_day_hour!U6="","",_tuoliu_day_hour!U6)</f>
         <v/>
       </c>
-      <c r="X12" s="16" t="str">
+      <c r="X12" s="9" t="str">
         <f>IF(_tuoliu_day_hour!V6="","",_tuoliu_day_hour!V6)</f>
         <v/>
       </c>
-      <c r="Y12" s="16" t="str">
+      <c r="Y12" s="9" t="str">
         <f>IF(_tuoliu_day_hour!W6="","",_tuoliu_day_hour!W6)</f>
         <v/>
       </c>
-      <c r="Z12" s="16" t="str">
+      <c r="Z12" s="9" t="str">
         <f>IF(_tuoliu_day_hour!X6="","",_tuoliu_day_hour!X6)</f>
         <v/>
       </c>
-      <c r="AA12" s="16" t="str">
+      <c r="AA12" s="9" t="str">
         <f>IF(_tuoliu_day_hour!Y6="","",_tuoliu_day_hour!Y6)</f>
         <v/>
       </c>
-      <c r="AB12" s="16" t="str">
+      <c r="AB12" s="9" t="str">
         <f>IF(_tuoliu_day_hour!Z6="","",_tuoliu_day_hour!Z6)</f>
         <v/>
       </c>
-      <c r="AC12" s="16" t="str">
+      <c r="AC12" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AA6="","",_tuoliu_day_hour!AA6)</f>
         <v/>
       </c>
-      <c r="AD12" s="16" t="str">
+      <c r="AD12" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AB6="","",_tuoliu_day_hour!AB6)</f>
         <v/>
       </c>
-      <c r="AE12" s="16" t="str">
+      <c r="AE12" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AC6="","",_tuoliu_day_hour!AC6)</f>
         <v/>
       </c>
-      <c r="AF12" s="16" t="str">
+      <c r="AF12" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AD6="","",_tuoliu_day_hour!AD6)</f>
         <v/>
       </c>
-      <c r="AG12" s="16" t="str">
+      <c r="AG12" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AE6="","",_tuoliu_day_hour!AE6)</f>
         <v/>
       </c>
-      <c r="AH12" s="16" t="str">
+      <c r="AH12" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AF6="","",_tuoliu_day_hour!AF6)</f>
         <v/>
       </c>
-      <c r="AI12" s="16" t="str">
+      <c r="AI12" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AG6="","",_tuoliu_day_hour!AG6)</f>
         <v/>
       </c>
-      <c r="AJ12" s="16" t="str">
+      <c r="AJ12" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AH6="","",_tuoliu_day_hour!AH6)</f>
         <v/>
       </c>
-      <c r="AK12" s="16" t="str">
+      <c r="AK12" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AI6="","",_tuoliu_day_hour!AI6)</f>
         <v/>
       </c>
-      <c r="AL12" s="16" t="str">
+      <c r="AL12" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AJ6="","",_tuoliu_day_hour!AJ6)</f>
         <v/>
       </c>
-      <c r="AM12" s="16" t="str">
+      <c r="AM12" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AK6="","",_tuoliu_day_hour!AK6)</f>
         <v/>
       </c>
-      <c r="AN12" s="16" t="str">
+      <c r="AN12" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AL6="","",_tuoliu_day_hour!AL6)</f>
         <v/>
       </c>
-      <c r="AO12" s="16" t="str">
+      <c r="AO12" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AM6="","",_tuoliu_day_hour!AM6)</f>
         <v/>
       </c>
-      <c r="AP12" s="16" t="str">
+      <c r="AP12" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AN6="","",_tuoliu_day_hour!AN6)</f>
         <v/>
       </c>
-      <c r="AQ12" s="16" t="str">
+      <c r="AQ12" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AO6="","",_tuoliu_day_hour!AO6)</f>
         <v/>
       </c>
-      <c r="AR12" s="16" t="str">
+      <c r="AR12" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AP6="","",_tuoliu_day_hour!AP6)</f>
         <v/>
       </c>
-      <c r="AS12" s="16" t="str">
+      <c r="AS12" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AQ6="","",_tuoliu_day_hour!AQ6)</f>
         <v/>
       </c>
-      <c r="AT12" s="16" t="str">
+      <c r="AT12" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AR6="","",_tuoliu_day_hour!AR6)</f>
         <v/>
       </c>
-      <c r="AU12" s="16" t="str">
+      <c r="AU12" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AS6="","",_tuoliu_day_hour!AS6)</f>
         <v/>
       </c>
-      <c r="AV12" s="16" t="str">
+      <c r="AV12" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AT6="","",_tuoliu_day_hour!AT6)</f>
         <v/>
       </c>
-      <c r="AW12" s="16" t="str">
+      <c r="AW12" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AU6="","",_tuoliu_day_hour!AU6)</f>
         <v/>
       </c>
-      <c r="AX12" s="16" t="str">
+      <c r="AX12" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AV6="","",_tuoliu_day_hour!AV6)</f>
         <v/>
       </c>
-      <c r="AY12" s="50" t="str">
+      <c r="AY12" s="14" t="str">
         <f>IF(_tuoliu_day_hour!AW6="","",_tuoliu_day_hour!AW6)</f>
         <v/>
       </c>
-      <c r="AZ12" s="42" t="s">
+      <c r="AZ12" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="BA12" s="51" t="s">
+      <c r="BA12" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="BB12" s="16"/>
-      <c r="BC12" s="16"/>
-      <c r="BD12" s="48"/>
+      <c r="BB12" s="9"/>
+      <c r="BC12" s="9"/>
+      <c r="BD12" s="12"/>
     </row>
-    <row r="13" customFormat="1" spans="2:56">
-      <c r="B13" s="15">
-        <v>0.208333333333333</v>
-      </c>
-      <c r="C13" s="16" t="str">
+    <row r="13" spans="1:56" x14ac:dyDescent="0.15">
+      <c r="B13" s="8">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="C13" s="9" t="str">
         <f>IF(_tuoliu_day_hour!A7="","",_tuoliu_day_hour!A7)</f>
         <v/>
       </c>
-      <c r="D13" s="16" t="str">
+      <c r="D13" s="9" t="str">
         <f>IF(_tuoliu_day_hour!B7="","",_tuoliu_day_hour!B7)</f>
         <v/>
       </c>
-      <c r="E13" s="16" t="str">
+      <c r="E13" s="9" t="str">
         <f>IF(_tuoliu_day_hour!C7="","",_tuoliu_day_hour!C7)</f>
         <v/>
       </c>
-      <c r="F13" s="16" t="str">
+      <c r="F13" s="9" t="str">
         <f>IF(_tuoliu_day_hour!D7="","",_tuoliu_day_hour!D7)</f>
         <v/>
       </c>
-      <c r="G13" s="16" t="str">
+      <c r="G13" s="9" t="str">
         <f>IF(_tuoliu_day_hour!E7="","",_tuoliu_day_hour!E7)</f>
         <v/>
       </c>
-      <c r="H13" s="16" t="str">
+      <c r="H13" s="9" t="str">
         <f>IF(_tuoliu_day_hour!F7="","",_tuoliu_day_hour!F7)</f>
         <v/>
       </c>
-      <c r="I13" s="16" t="str">
+      <c r="I13" s="9" t="str">
         <f>IF(_tuoliu_day_hour!G7="","",_tuoliu_day_hour!G7)</f>
         <v/>
       </c>
-      <c r="J13" s="16" t="str">
+      <c r="J13" s="9" t="str">
         <f>IF(_tuoliu_day_hour!H7="","",_tuoliu_day_hour!H7)</f>
         <v/>
       </c>
-      <c r="K13" s="16" t="str">
+      <c r="K13" s="9" t="str">
         <f>IF(_tuoliu_day_hour!I7="","",_tuoliu_day_hour!I7)</f>
         <v/>
       </c>
-      <c r="L13" s="16" t="str">
+      <c r="L13" s="9" t="str">
         <f>IF(_tuoliu_day_hour!J7="","",_tuoliu_day_hour!J7)</f>
         <v/>
       </c>
-      <c r="M13" s="16" t="str">
+      <c r="M13" s="9" t="str">
         <f>IF(_tuoliu_day_hour!K7="","",_tuoliu_day_hour!K7)</f>
         <v/>
       </c>
-      <c r="N13" s="16" t="str">
+      <c r="N13" s="9" t="str">
         <f>IF(_tuoliu_day_hour!L7="","",_tuoliu_day_hour!L7)</f>
         <v/>
       </c>
-      <c r="O13" s="16" t="str">
+      <c r="O13" s="9" t="str">
         <f>IF(_tuoliu_day_hour!M7="","",_tuoliu_day_hour!M7)</f>
         <v/>
       </c>
-      <c r="P13" s="16" t="str">
+      <c r="P13" s="9" t="str">
         <f>IF(_tuoliu_day_hour!N7="","",_tuoliu_day_hour!N7)</f>
         <v/>
       </c>
-      <c r="Q13" s="16" t="str">
+      <c r="Q13" s="9" t="str">
         <f>IF(_tuoliu_day_hour!O7="","",_tuoliu_day_hour!O7)</f>
         <v/>
       </c>
-      <c r="R13" s="16" t="str">
+      <c r="R13" s="9" t="str">
         <f>IF(_tuoliu_day_hour!P7="","",_tuoliu_day_hour!P7)</f>
         <v/>
       </c>
-      <c r="S13" s="16" t="str">
+      <c r="S13" s="9" t="str">
         <f>IF(_tuoliu_day_hour!Q7="","",_tuoliu_day_hour!Q7)</f>
         <v/>
       </c>
-      <c r="T13" s="16" t="str">
+      <c r="T13" s="9" t="str">
         <f>IF(_tuoliu_day_hour!R7="","",_tuoliu_day_hour!R7)</f>
         <v/>
       </c>
-      <c r="U13" s="16" t="str">
+      <c r="U13" s="9" t="str">
         <f>IF(_tuoliu_day_hour!S7="","",_tuoliu_day_hour!S7)</f>
         <v/>
       </c>
-      <c r="V13" s="16" t="str">
+      <c r="V13" s="9" t="str">
         <f>IF(_tuoliu_day_hour!T7="","",_tuoliu_day_hour!T7)</f>
         <v/>
       </c>
-      <c r="W13" s="16" t="str">
+      <c r="W13" s="9" t="str">
         <f>IF(_tuoliu_day_hour!U7="","",_tuoliu_day_hour!U7)</f>
         <v/>
       </c>
-      <c r="X13" s="16" t="str">
+      <c r="X13" s="9" t="str">
         <f>IF(_tuoliu_day_hour!V7="","",_tuoliu_day_hour!V7)</f>
         <v/>
       </c>
-      <c r="Y13" s="16" t="str">
+      <c r="Y13" s="9" t="str">
         <f>IF(_tuoliu_day_hour!W7="","",_tuoliu_day_hour!W7)</f>
         <v/>
       </c>
-      <c r="Z13" s="16" t="str">
+      <c r="Z13" s="9" t="str">
         <f>IF(_tuoliu_day_hour!X7="","",_tuoliu_day_hour!X7)</f>
         <v/>
       </c>
-      <c r="AA13" s="16" t="str">
+      <c r="AA13" s="9" t="str">
         <f>IF(_tuoliu_day_hour!Y7="","",_tuoliu_day_hour!Y7)</f>
         <v/>
       </c>
-      <c r="AB13" s="16" t="str">
+      <c r="AB13" s="9" t="str">
         <f>IF(_tuoliu_day_hour!Z7="","",_tuoliu_day_hour!Z7)</f>
         <v/>
       </c>
-      <c r="AC13" s="16" t="str">
+      <c r="AC13" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AA7="","",_tuoliu_day_hour!AA7)</f>
         <v/>
       </c>
-      <c r="AD13" s="16" t="str">
+      <c r="AD13" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AB7="","",_tuoliu_day_hour!AB7)</f>
         <v/>
       </c>
-      <c r="AE13" s="16" t="str">
+      <c r="AE13" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AC7="","",_tuoliu_day_hour!AC7)</f>
         <v/>
       </c>
-      <c r="AF13" s="16" t="str">
+      <c r="AF13" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AD7="","",_tuoliu_day_hour!AD7)</f>
         <v/>
       </c>
-      <c r="AG13" s="16" t="str">
+      <c r="AG13" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AE7="","",_tuoliu_day_hour!AE7)</f>
         <v/>
       </c>
-      <c r="AH13" s="16" t="str">
+      <c r="AH13" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AF7="","",_tuoliu_day_hour!AF7)</f>
         <v/>
       </c>
-      <c r="AI13" s="16" t="str">
+      <c r="AI13" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AG7="","",_tuoliu_day_hour!AG7)</f>
         <v/>
       </c>
-      <c r="AJ13" s="16" t="str">
+      <c r="AJ13" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AH7="","",_tuoliu_day_hour!AH7)</f>
         <v/>
       </c>
-      <c r="AK13" s="16" t="str">
+      <c r="AK13" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AI7="","",_tuoliu_day_hour!AI7)</f>
         <v/>
       </c>
-      <c r="AL13" s="16" t="str">
+      <c r="AL13" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AJ7="","",_tuoliu_day_hour!AJ7)</f>
         <v/>
       </c>
-      <c r="AM13" s="16" t="str">
+      <c r="AM13" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AK7="","",_tuoliu_day_hour!AK7)</f>
         <v/>
       </c>
-      <c r="AN13" s="16" t="str">
+      <c r="AN13" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AL7="","",_tuoliu_day_hour!AL7)</f>
         <v/>
       </c>
-      <c r="AO13" s="16" t="str">
+      <c r="AO13" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AM7="","",_tuoliu_day_hour!AM7)</f>
         <v/>
       </c>
-      <c r="AP13" s="16" t="str">
+      <c r="AP13" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AN7="","",_tuoliu_day_hour!AN7)</f>
         <v/>
       </c>
-      <c r="AQ13" s="16" t="str">
+      <c r="AQ13" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AO7="","",_tuoliu_day_hour!AO7)</f>
         <v/>
       </c>
-      <c r="AR13" s="16" t="str">
+      <c r="AR13" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AP7="","",_tuoliu_day_hour!AP7)</f>
         <v/>
       </c>
-      <c r="AS13" s="16" t="str">
+      <c r="AS13" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AQ7="","",_tuoliu_day_hour!AQ7)</f>
         <v/>
       </c>
-      <c r="AT13" s="16" t="str">
+      <c r="AT13" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AR7="","",_tuoliu_day_hour!AR7)</f>
         <v/>
       </c>
-      <c r="AU13" s="16" t="str">
+      <c r="AU13" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AS7="","",_tuoliu_day_hour!AS7)</f>
         <v/>
       </c>
-      <c r="AV13" s="16" t="str">
+      <c r="AV13" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AT7="","",_tuoliu_day_hour!AT7)</f>
         <v/>
       </c>
-      <c r="AW13" s="16" t="str">
+      <c r="AW13" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AU7="","",_tuoliu_day_hour!AU7)</f>
         <v/>
       </c>
-      <c r="AX13" s="16" t="str">
+      <c r="AX13" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AV7="","",_tuoliu_day_hour!AV7)</f>
         <v/>
       </c>
-      <c r="AY13" s="50" t="str">
+      <c r="AY13" s="14" t="str">
         <f>IF(_tuoliu_day_hour!AW7="","",_tuoliu_day_hour!AW7)</f>
         <v/>
       </c>
-      <c r="AZ13" s="42"/>
-      <c r="BA13" s="51" t="s">
+      <c r="AZ13" s="45"/>
+      <c r="BA13" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="BB13" s="16"/>
-      <c r="BC13" s="16"/>
-      <c r="BD13" s="48"/>
+      <c r="BB13" s="9"/>
+      <c r="BC13" s="9"/>
+      <c r="BD13" s="12"/>
     </row>
-    <row r="14" s="4" customFormat="1" ht="27" spans="2:56">
-      <c r="B14" s="15">
+    <row r="14" spans="1:56" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="B14" s="8">
         <v>0.25</v>
       </c>
-      <c r="C14" s="16" t="str">
+      <c r="C14" s="9" t="str">
         <f>IF(_tuoliu_day_hour!A8="","",_tuoliu_day_hour!A8)</f>
         <v/>
       </c>
-      <c r="D14" s="16" t="str">
+      <c r="D14" s="9" t="str">
         <f>IF(_tuoliu_day_hour!B8="","",_tuoliu_day_hour!B8)</f>
         <v/>
       </c>
-      <c r="E14" s="16" t="str">
+      <c r="E14" s="9" t="str">
         <f>IF(_tuoliu_day_hour!C8="","",_tuoliu_day_hour!C8)</f>
         <v/>
       </c>
-      <c r="F14" s="16" t="str">
+      <c r="F14" s="9" t="str">
         <f>IF(_tuoliu_day_hour!D8="","",_tuoliu_day_hour!D8)</f>
         <v/>
       </c>
-      <c r="G14" s="16" t="str">
+      <c r="G14" s="9" t="str">
         <f>IF(_tuoliu_day_hour!E8="","",_tuoliu_day_hour!E8)</f>
         <v/>
       </c>
-      <c r="H14" s="16" t="str">
+      <c r="H14" s="9" t="str">
         <f>IF(_tuoliu_day_hour!F8="","",_tuoliu_day_hour!F8)</f>
         <v/>
       </c>
-      <c r="I14" s="16" t="str">
+      <c r="I14" s="9" t="str">
         <f>IF(_tuoliu_day_hour!G8="","",_tuoliu_day_hour!G8)</f>
         <v/>
       </c>
-      <c r="J14" s="16" t="str">
+      <c r="J14" s="9" t="str">
         <f>IF(_tuoliu_day_hour!H8="","",_tuoliu_day_hour!H8)</f>
         <v/>
       </c>
-      <c r="K14" s="16" t="str">
+      <c r="K14" s="9" t="str">
         <f>IF(_tuoliu_day_hour!I8="","",_tuoliu_day_hour!I8)</f>
         <v/>
       </c>
-      <c r="L14" s="16" t="str">
+      <c r="L14" s="9" t="str">
         <f>IF(_tuoliu_day_hour!J8="","",_tuoliu_day_hour!J8)</f>
         <v/>
       </c>
-      <c r="M14" s="16" t="str">
+      <c r="M14" s="9" t="str">
         <f>IF(_tuoliu_day_hour!K8="","",_tuoliu_day_hour!K8)</f>
         <v/>
       </c>
-      <c r="N14" s="16" t="str">
+      <c r="N14" s="9" t="str">
         <f>IF(_tuoliu_day_hour!L8="","",_tuoliu_day_hour!L8)</f>
         <v/>
       </c>
-      <c r="O14" s="16" t="str">
+      <c r="O14" s="9" t="str">
         <f>IF(_tuoliu_day_hour!M8="","",_tuoliu_day_hour!M8)</f>
         <v/>
       </c>
-      <c r="P14" s="16" t="str">
+      <c r="P14" s="9" t="str">
         <f>IF(_tuoliu_day_hour!N8="","",_tuoliu_day_hour!N8)</f>
         <v/>
       </c>
-      <c r="Q14" s="16" t="str">
+      <c r="Q14" s="9" t="str">
         <f>IF(_tuoliu_day_hour!O8="","",_tuoliu_day_hour!O8)</f>
         <v/>
       </c>
-      <c r="R14" s="16" t="str">
+      <c r="R14" s="9" t="str">
         <f>IF(_tuoliu_day_hour!P8="","",_tuoliu_day_hour!P8)</f>
         <v/>
       </c>
-      <c r="S14" s="16" t="str">
+      <c r="S14" s="9" t="str">
         <f>IF(_tuoliu_day_hour!Q8="","",_tuoliu_day_hour!Q8)</f>
         <v/>
       </c>
-      <c r="T14" s="16" t="str">
+      <c r="T14" s="9" t="str">
         <f>IF(_tuoliu_day_hour!R8="","",_tuoliu_day_hour!R8)</f>
         <v/>
       </c>
-      <c r="U14" s="16" t="str">
+      <c r="U14" s="9" t="str">
         <f>IF(_tuoliu_day_hour!S8="","",_tuoliu_day_hour!S8)</f>
         <v/>
       </c>
-      <c r="V14" s="16" t="str">
+      <c r="V14" s="9" t="str">
         <f>IF(_tuoliu_day_hour!T8="","",_tuoliu_day_hour!T8)</f>
         <v/>
       </c>
-      <c r="W14" s="16" t="str">
+      <c r="W14" s="9" t="str">
         <f>IF(_tuoliu_day_hour!U8="","",_tuoliu_day_hour!U8)</f>
         <v/>
       </c>
-      <c r="X14" s="16" t="str">
+      <c r="X14" s="9" t="str">
         <f>IF(_tuoliu_day_hour!V8="","",_tuoliu_day_hour!V8)</f>
         <v/>
       </c>
-      <c r="Y14" s="16" t="str">
+      <c r="Y14" s="9" t="str">
         <f>IF(_tuoliu_day_hour!W8="","",_tuoliu_day_hour!W8)</f>
         <v/>
       </c>
-      <c r="Z14" s="16" t="str">
+      <c r="Z14" s="9" t="str">
         <f>IF(_tuoliu_day_hour!X8="","",_tuoliu_day_hour!X8)</f>
         <v/>
       </c>
-      <c r="AA14" s="16" t="str">
+      <c r="AA14" s="9" t="str">
         <f>IF(_tuoliu_day_hour!Y8="","",_tuoliu_day_hour!Y8)</f>
         <v/>
       </c>
-      <c r="AB14" s="16" t="str">
+      <c r="AB14" s="9" t="str">
         <f>IF(_tuoliu_day_hour!Z8="","",_tuoliu_day_hour!Z8)</f>
         <v/>
       </c>
-      <c r="AC14" s="16" t="str">
+      <c r="AC14" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AA8="","",_tuoliu_day_hour!AA8)</f>
         <v/>
       </c>
-      <c r="AD14" s="16" t="str">
+      <c r="AD14" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AB8="","",_tuoliu_day_hour!AB8)</f>
         <v/>
       </c>
-      <c r="AE14" s="16" t="str">
+      <c r="AE14" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AC8="","",_tuoliu_day_hour!AC8)</f>
         <v/>
       </c>
-      <c r="AF14" s="16" t="str">
+      <c r="AF14" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AD8="","",_tuoliu_day_hour!AD8)</f>
         <v/>
       </c>
-      <c r="AG14" s="16" t="str">
+      <c r="AG14" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AE8="","",_tuoliu_day_hour!AE8)</f>
         <v/>
       </c>
-      <c r="AH14" s="16" t="str">
+      <c r="AH14" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AF8="","",_tuoliu_day_hour!AF8)</f>
         <v/>
       </c>
-      <c r="AI14" s="16" t="str">
+      <c r="AI14" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AG8="","",_tuoliu_day_hour!AG8)</f>
         <v/>
       </c>
-      <c r="AJ14" s="16" t="str">
+      <c r="AJ14" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AH8="","",_tuoliu_day_hour!AH8)</f>
         <v/>
       </c>
-      <c r="AK14" s="16" t="str">
+      <c r="AK14" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AI8="","",_tuoliu_day_hour!AI8)</f>
         <v/>
       </c>
-      <c r="AL14" s="16" t="str">
+      <c r="AL14" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AJ8="","",_tuoliu_day_hour!AJ8)</f>
         <v/>
       </c>
-      <c r="AM14" s="16" t="str">
+      <c r="AM14" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AK8="","",_tuoliu_day_hour!AK8)</f>
         <v/>
       </c>
-      <c r="AN14" s="16" t="str">
+      <c r="AN14" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AL8="","",_tuoliu_day_hour!AL8)</f>
         <v/>
       </c>
-      <c r="AO14" s="16" t="str">
+      <c r="AO14" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AM8="","",_tuoliu_day_hour!AM8)</f>
         <v/>
       </c>
-      <c r="AP14" s="16" t="str">
+      <c r="AP14" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AN8="","",_tuoliu_day_hour!AN8)</f>
         <v/>
       </c>
-      <c r="AQ14" s="16" t="str">
+      <c r="AQ14" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AO8="","",_tuoliu_day_hour!AO8)</f>
         <v/>
       </c>
-      <c r="AR14" s="16" t="str">
+      <c r="AR14" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AP8="","",_tuoliu_day_hour!AP8)</f>
         <v/>
       </c>
-      <c r="AS14" s="16" t="str">
+      <c r="AS14" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AQ8="","",_tuoliu_day_hour!AQ8)</f>
         <v/>
       </c>
-      <c r="AT14" s="16" t="str">
+      <c r="AT14" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AR8="","",_tuoliu_day_hour!AR8)</f>
         <v/>
       </c>
-      <c r="AU14" s="16" t="str">
+      <c r="AU14" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AS8="","",_tuoliu_day_hour!AS8)</f>
         <v/>
       </c>
-      <c r="AV14" s="16" t="str">
+      <c r="AV14" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AT8="","",_tuoliu_day_hour!AT8)</f>
         <v/>
       </c>
-      <c r="AW14" s="16" t="str">
+      <c r="AW14" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AU8="","",_tuoliu_day_hour!AU8)</f>
         <v/>
       </c>
-      <c r="AX14" s="16" t="str">
+      <c r="AX14" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AV8="","",_tuoliu_day_hour!AV8)</f>
         <v/>
       </c>
-      <c r="AY14" s="50" t="str">
+      <c r="AY14" s="14" t="str">
         <f>IF(_tuoliu_day_hour!AW8="","",_tuoliu_day_hour!AW8)</f>
         <v/>
       </c>
-      <c r="AZ14" s="42"/>
-      <c r="BA14" s="52" t="s">
+      <c r="AZ14" s="45"/>
+      <c r="BA14" s="16" t="s">
         <v>96</v>
       </c>
       <c r="BB14" s="1"/>
       <c r="BC14" s="1"/>
-      <c r="BD14" s="53"/>
+      <c r="BD14" s="17"/>
     </row>
-    <row r="15" customFormat="1" spans="2:56">
-      <c r="B15" s="15">
-        <v>0.291666666666667</v>
-      </c>
-      <c r="C15" s="16" t="str">
+    <row r="15" spans="1:56" x14ac:dyDescent="0.15">
+      <c r="B15" s="8">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="C15" s="9" t="str">
         <f>IF(_tuoliu_day_hour!A9="","",_tuoliu_day_hour!A9)</f>
         <v/>
       </c>
-      <c r="D15" s="16" t="str">
+      <c r="D15" s="9" t="str">
         <f>IF(_tuoliu_day_hour!B9="","",_tuoliu_day_hour!B9)</f>
         <v/>
       </c>
-      <c r="E15" s="16" t="str">
+      <c r="E15" s="9" t="str">
         <f>IF(_tuoliu_day_hour!C9="","",_tuoliu_day_hour!C9)</f>
         <v/>
       </c>
-      <c r="F15" s="16" t="str">
+      <c r="F15" s="9" t="str">
         <f>IF(_tuoliu_day_hour!D9="","",_tuoliu_day_hour!D9)</f>
         <v/>
       </c>
-      <c r="G15" s="16" t="str">
+      <c r="G15" s="9" t="str">
         <f>IF(_tuoliu_day_hour!E9="","",_tuoliu_day_hour!E9)</f>
         <v/>
       </c>
-      <c r="H15" s="16" t="str">
+      <c r="H15" s="9" t="str">
         <f>IF(_tuoliu_day_hour!F9="","",_tuoliu_day_hour!F9)</f>
         <v/>
       </c>
-      <c r="I15" s="16" t="str">
+      <c r="I15" s="9" t="str">
         <f>IF(_tuoliu_day_hour!G9="","",_tuoliu_day_hour!G9)</f>
         <v/>
       </c>
-      <c r="J15" s="16" t="str">
+      <c r="J15" s="9" t="str">
         <f>IF(_tuoliu_day_hour!H9="","",_tuoliu_day_hour!H9)</f>
         <v/>
       </c>
-      <c r="K15" s="16" t="str">
+      <c r="K15" s="9" t="str">
         <f>IF(_tuoliu_day_hour!I9="","",_tuoliu_day_hour!I9)</f>
         <v/>
       </c>
-      <c r="L15" s="16" t="str">
+      <c r="L15" s="9" t="str">
         <f>IF(_tuoliu_day_hour!J9="","",_tuoliu_day_hour!J9)</f>
         <v/>
       </c>
-      <c r="M15" s="16" t="str">
+      <c r="M15" s="9" t="str">
         <f>IF(_tuoliu_day_hour!K9="","",_tuoliu_day_hour!K9)</f>
         <v/>
       </c>
-      <c r="N15" s="16" t="str">
+      <c r="N15" s="9" t="str">
         <f>IF(_tuoliu_day_hour!L9="","",_tuoliu_day_hour!L9)</f>
         <v/>
       </c>
-      <c r="O15" s="16" t="str">
+      <c r="O15" s="9" t="str">
         <f>IF(_tuoliu_day_hour!M9="","",_tuoliu_day_hour!M9)</f>
         <v/>
       </c>
-      <c r="P15" s="16" t="str">
+      <c r="P15" s="9" t="str">
         <f>IF(_tuoliu_day_hour!N9="","",_tuoliu_day_hour!N9)</f>
         <v/>
       </c>
-      <c r="Q15" s="16" t="str">
+      <c r="Q15" s="9" t="str">
         <f>IF(_tuoliu_day_hour!O9="","",_tuoliu_day_hour!O9)</f>
         <v/>
       </c>
-      <c r="R15" s="16" t="str">
+      <c r="R15" s="9" t="str">
         <f>IF(_tuoliu_day_hour!P9="","",_tuoliu_day_hour!P9)</f>
         <v/>
       </c>
-      <c r="S15" s="16" t="str">
+      <c r="S15" s="9" t="str">
         <f>IF(_tuoliu_day_hour!Q9="","",_tuoliu_day_hour!Q9)</f>
         <v/>
       </c>
-      <c r="T15" s="16" t="str">
+      <c r="T15" s="9" t="str">
         <f>IF(_tuoliu_day_hour!R9="","",_tuoliu_day_hour!R9)</f>
         <v/>
       </c>
-      <c r="U15" s="16" t="str">
+      <c r="U15" s="9" t="str">
         <f>IF(_tuoliu_day_hour!S9="","",_tuoliu_day_hour!S9)</f>
         <v/>
       </c>
-      <c r="V15" s="16" t="str">
+      <c r="V15" s="9" t="str">
         <f>IF(_tuoliu_day_hour!T9="","",_tuoliu_day_hour!T9)</f>
         <v/>
       </c>
-      <c r="W15" s="16" t="str">
+      <c r="W15" s="9" t="str">
         <f>IF(_tuoliu_day_hour!U9="","",_tuoliu_day_hour!U9)</f>
         <v/>
       </c>
-      <c r="X15" s="16" t="str">
+      <c r="X15" s="9" t="str">
         <f>IF(_tuoliu_day_hour!V9="","",_tuoliu_day_hour!V9)</f>
         <v/>
       </c>
-      <c r="Y15" s="16" t="str">
+      <c r="Y15" s="9" t="str">
         <f>IF(_tuoliu_day_hour!W9="","",_tuoliu_day_hour!W9)</f>
         <v/>
       </c>
-      <c r="Z15" s="16" t="str">
+      <c r="Z15" s="9" t="str">
         <f>IF(_tuoliu_day_hour!X9="","",_tuoliu_day_hour!X9)</f>
         <v/>
       </c>
-      <c r="AA15" s="16" t="str">
+      <c r="AA15" s="9" t="str">
         <f>IF(_tuoliu_day_hour!Y9="","",_tuoliu_day_hour!Y9)</f>
         <v/>
       </c>
-      <c r="AB15" s="16" t="str">
+      <c r="AB15" s="9" t="str">
         <f>IF(_tuoliu_day_hour!Z9="","",_tuoliu_day_hour!Z9)</f>
         <v/>
       </c>
-      <c r="AC15" s="16" t="str">
+      <c r="AC15" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AA9="","",_tuoliu_day_hour!AA9)</f>
         <v/>
       </c>
-      <c r="AD15" s="16" t="str">
+      <c r="AD15" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AB9="","",_tuoliu_day_hour!AB9)</f>
         <v/>
       </c>
-      <c r="AE15" s="16" t="str">
+      <c r="AE15" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AC9="","",_tuoliu_day_hour!AC9)</f>
         <v/>
       </c>
-      <c r="AF15" s="16" t="str">
+      <c r="AF15" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AD9="","",_tuoliu_day_hour!AD9)</f>
         <v/>
       </c>
-      <c r="AG15" s="16" t="str">
+      <c r="AG15" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AE9="","",_tuoliu_day_hour!AE9)</f>
         <v/>
       </c>
-      <c r="AH15" s="16" t="str">
+      <c r="AH15" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AF9="","",_tuoliu_day_hour!AF9)</f>
         <v/>
       </c>
-      <c r="AI15" s="16" t="str">
+      <c r="AI15" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AG9="","",_tuoliu_day_hour!AG9)</f>
         <v/>
       </c>
-      <c r="AJ15" s="16" t="str">
+      <c r="AJ15" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AH9="","",_tuoliu_day_hour!AH9)</f>
         <v/>
       </c>
-      <c r="AK15" s="16" t="str">
+      <c r="AK15" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AI9="","",_tuoliu_day_hour!AI9)</f>
         <v/>
       </c>
-      <c r="AL15" s="16" t="str">
+      <c r="AL15" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AJ9="","",_tuoliu_day_hour!AJ9)</f>
         <v/>
       </c>
-      <c r="AM15" s="16" t="str">
+      <c r="AM15" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AK9="","",_tuoliu_day_hour!AK9)</f>
         <v/>
       </c>
-      <c r="AN15" s="16" t="str">
+      <c r="AN15" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AL9="","",_tuoliu_day_hour!AL9)</f>
         <v/>
       </c>
-      <c r="AO15" s="16" t="str">
+      <c r="AO15" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AM9="","",_tuoliu_day_hour!AM9)</f>
         <v/>
       </c>
-      <c r="AP15" s="16" t="str">
+      <c r="AP15" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AN9="","",_tuoliu_day_hour!AN9)</f>
         <v/>
       </c>
-      <c r="AQ15" s="16" t="str">
+      <c r="AQ15" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AO9="","",_tuoliu_day_hour!AO9)</f>
         <v/>
       </c>
-      <c r="AR15" s="16" t="str">
+      <c r="AR15" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AP9="","",_tuoliu_day_hour!AP9)</f>
         <v/>
       </c>
-      <c r="AS15" s="16" t="str">
+      <c r="AS15" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AQ9="","",_tuoliu_day_hour!AQ9)</f>
         <v/>
       </c>
-      <c r="AT15" s="16" t="str">
+      <c r="AT15" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AR9="","",_tuoliu_day_hour!AR9)</f>
         <v/>
       </c>
-      <c r="AU15" s="16" t="str">
+      <c r="AU15" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AS9="","",_tuoliu_day_hour!AS9)</f>
         <v/>
       </c>
-      <c r="AV15" s="16" t="str">
+      <c r="AV15" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AT9="","",_tuoliu_day_hour!AT9)</f>
         <v/>
       </c>
-      <c r="AW15" s="16" t="str">
+      <c r="AW15" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AU9="","",_tuoliu_day_hour!AU9)</f>
         <v/>
       </c>
-      <c r="AX15" s="16" t="str">
+      <c r="AX15" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AV9="","",_tuoliu_day_hour!AV9)</f>
         <v/>
       </c>
-      <c r="AY15" s="50" t="str">
+      <c r="AY15" s="14" t="str">
         <f>IF(_tuoliu_day_hour!AW9="","",_tuoliu_day_hour!AW9)</f>
         <v/>
       </c>
-      <c r="AZ15" s="42"/>
-      <c r="BA15" s="51" t="s">
+      <c r="AZ15" s="45"/>
+      <c r="BA15" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="BB15" s="16"/>
-      <c r="BC15" s="16"/>
-      <c r="BD15" s="48"/>
+      <c r="BB15" s="9"/>
+      <c r="BC15" s="9"/>
+      <c r="BD15" s="12"/>
     </row>
-    <row r="16" customFormat="1" spans="2:56">
-      <c r="B16" s="15">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="C16" s="16" t="str">
+    <row r="16" spans="1:56" x14ac:dyDescent="0.15">
+      <c r="B16" s="8">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="C16" s="9" t="str">
         <f>IF(_tuoliu_day_hour!A10="","",_tuoliu_day_hour!A10)</f>
         <v/>
       </c>
-      <c r="D16" s="16" t="str">
+      <c r="D16" s="9" t="str">
         <f>IF(_tuoliu_day_hour!B10="","",_tuoliu_day_hour!B10)</f>
         <v/>
       </c>
-      <c r="E16" s="16" t="str">
+      <c r="E16" s="9" t="str">
         <f>IF(_tuoliu_day_hour!C10="","",_tuoliu_day_hour!C10)</f>
         <v/>
       </c>
-      <c r="F16" s="16" t="str">
+      <c r="F16" s="9" t="str">
         <f>IF(_tuoliu_day_hour!D10="","",_tuoliu_day_hour!D10)</f>
         <v/>
       </c>
-      <c r="G16" s="16" t="str">
+      <c r="G16" s="9" t="str">
         <f>IF(_tuoliu_day_hour!E10="","",_tuoliu_day_hour!E10)</f>
         <v/>
       </c>
-      <c r="H16" s="16" t="str">
+      <c r="H16" s="9" t="str">
         <f>IF(_tuoliu_day_hour!F10="","",_tuoliu_day_hour!F10)</f>
         <v/>
       </c>
-      <c r="I16" s="16" t="str">
+      <c r="I16" s="9" t="str">
         <f>IF(_tuoliu_day_hour!G10="","",_tuoliu_day_hour!G10)</f>
         <v/>
       </c>
-      <c r="J16" s="16" t="str">
+      <c r="J16" s="9" t="str">
         <f>IF(_tuoliu_day_hour!H10="","",_tuoliu_day_hour!H10)</f>
         <v/>
       </c>
-      <c r="K16" s="16" t="str">
+      <c r="K16" s="9" t="str">
         <f>IF(_tuoliu_day_hour!I10="","",_tuoliu_day_hour!I10)</f>
         <v/>
       </c>
-      <c r="L16" s="16" t="str">
+      <c r="L16" s="9" t="str">
         <f>IF(_tuoliu_day_hour!J10="","",_tuoliu_day_hour!J10)</f>
         <v/>
       </c>
-      <c r="M16" s="16" t="str">
+      <c r="M16" s="9" t="str">
         <f>IF(_tuoliu_day_hour!K10="","",_tuoliu_day_hour!K10)</f>
         <v/>
       </c>
-      <c r="N16" s="16" t="str">
+      <c r="N16" s="9" t="str">
         <f>IF(_tuoliu_day_hour!L10="","",_tuoliu_day_hour!L10)</f>
         <v/>
       </c>
-      <c r="O16" s="16" t="str">
+      <c r="O16" s="9" t="str">
         <f>IF(_tuoliu_day_hour!M10="","",_tuoliu_day_hour!M10)</f>
         <v/>
       </c>
-      <c r="P16" s="16" t="str">
+      <c r="P16" s="9" t="str">
         <f>IF(_tuoliu_day_hour!N10="","",_tuoliu_day_hour!N10)</f>
         <v/>
       </c>
-      <c r="Q16" s="16" t="str">
+      <c r="Q16" s="9" t="str">
         <f>IF(_tuoliu_day_hour!O10="","",_tuoliu_day_hour!O10)</f>
         <v/>
       </c>
-      <c r="R16" s="16" t="str">
+      <c r="R16" s="9" t="str">
         <f>IF(_tuoliu_day_hour!P10="","",_tuoliu_day_hour!P10)</f>
         <v/>
       </c>
-      <c r="S16" s="16" t="str">
+      <c r="S16" s="9" t="str">
         <f>IF(_tuoliu_day_hour!Q10="","",_tuoliu_day_hour!Q10)</f>
         <v/>
       </c>
-      <c r="T16" s="16" t="str">
+      <c r="T16" s="9" t="str">
         <f>IF(_tuoliu_day_hour!R10="","",_tuoliu_day_hour!R10)</f>
         <v/>
       </c>
-      <c r="U16" s="16" t="str">
+      <c r="U16" s="9" t="str">
         <f>IF(_tuoliu_day_hour!S10="","",_tuoliu_day_hour!S10)</f>
         <v/>
       </c>
-      <c r="V16" s="16" t="str">
+      <c r="V16" s="9" t="str">
         <f>IF(_tuoliu_day_hour!T10="","",_tuoliu_day_hour!T10)</f>
         <v/>
       </c>
-      <c r="W16" s="16" t="str">
+      <c r="W16" s="9" t="str">
         <f>IF(_tuoliu_day_hour!U10="","",_tuoliu_day_hour!U10)</f>
         <v/>
       </c>
-      <c r="X16" s="16" t="str">
+      <c r="X16" s="9" t="str">
         <f>IF(_tuoliu_day_hour!V10="","",_tuoliu_day_hour!V10)</f>
         <v/>
       </c>
-      <c r="Y16" s="16" t="str">
+      <c r="Y16" s="9" t="str">
         <f>IF(_tuoliu_day_hour!W10="","",_tuoliu_day_hour!W10)</f>
         <v/>
       </c>
-      <c r="Z16" s="16" t="str">
+      <c r="Z16" s="9" t="str">
         <f>IF(_tuoliu_day_hour!X10="","",_tuoliu_day_hour!X10)</f>
         <v/>
       </c>
-      <c r="AA16" s="16" t="str">
+      <c r="AA16" s="9" t="str">
         <f>IF(_tuoliu_day_hour!Y10="","",_tuoliu_day_hour!Y10)</f>
         <v/>
       </c>
-      <c r="AB16" s="16" t="str">
+      <c r="AB16" s="9" t="str">
         <f>IF(_tuoliu_day_hour!Z10="","",_tuoliu_day_hour!Z10)</f>
         <v/>
       </c>
-      <c r="AC16" s="16" t="str">
+      <c r="AC16" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AA10="","",_tuoliu_day_hour!AA10)</f>
         <v/>
       </c>
-      <c r="AD16" s="16" t="str">
+      <c r="AD16" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AB10="","",_tuoliu_day_hour!AB10)</f>
         <v/>
       </c>
-      <c r="AE16" s="16" t="str">
+      <c r="AE16" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AC10="","",_tuoliu_day_hour!AC10)</f>
         <v/>
       </c>
-      <c r="AF16" s="16" t="str">
+      <c r="AF16" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AD10="","",_tuoliu_day_hour!AD10)</f>
         <v/>
       </c>
-      <c r="AG16" s="16" t="str">
+      <c r="AG16" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AE10="","",_tuoliu_day_hour!AE10)</f>
         <v/>
       </c>
-      <c r="AH16" s="16" t="str">
+      <c r="AH16" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AF10="","",_tuoliu_day_hour!AF10)</f>
         <v/>
       </c>
-      <c r="AI16" s="16" t="str">
+      <c r="AI16" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AG10="","",_tuoliu_day_hour!AG10)</f>
         <v/>
       </c>
-      <c r="AJ16" s="16" t="str">
+      <c r="AJ16" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AH10="","",_tuoliu_day_hour!AH10)</f>
         <v/>
       </c>
-      <c r="AK16" s="16" t="str">
+      <c r="AK16" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AI10="","",_tuoliu_day_hour!AI10)</f>
         <v/>
       </c>
-      <c r="AL16" s="16" t="str">
+      <c r="AL16" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AJ10="","",_tuoliu_day_hour!AJ10)</f>
         <v/>
       </c>
-      <c r="AM16" s="16" t="str">
+      <c r="AM16" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AK10="","",_tuoliu_day_hour!AK10)</f>
         <v/>
       </c>
-      <c r="AN16" s="16" t="str">
+      <c r="AN16" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AL10="","",_tuoliu_day_hour!AL10)</f>
         <v/>
       </c>
-      <c r="AO16" s="16" t="str">
+      <c r="AO16" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AM10="","",_tuoliu_day_hour!AM10)</f>
         <v/>
       </c>
-      <c r="AP16" s="16" t="str">
+      <c r="AP16" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AN10="","",_tuoliu_day_hour!AN10)</f>
         <v/>
       </c>
-      <c r="AQ16" s="16" t="str">
+      <c r="AQ16" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AO10="","",_tuoliu_day_hour!AO10)</f>
         <v/>
       </c>
-      <c r="AR16" s="16" t="str">
+      <c r="AR16" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AP10="","",_tuoliu_day_hour!AP10)</f>
         <v/>
       </c>
-      <c r="AS16" s="16" t="str">
+      <c r="AS16" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AQ10="","",_tuoliu_day_hour!AQ10)</f>
         <v/>
       </c>
-      <c r="AT16" s="16" t="str">
+      <c r="AT16" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AR10="","",_tuoliu_day_hour!AR10)</f>
         <v/>
       </c>
-      <c r="AU16" s="16" t="str">
+      <c r="AU16" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AS10="","",_tuoliu_day_hour!AS10)</f>
         <v/>
       </c>
-      <c r="AV16" s="16" t="str">
+      <c r="AV16" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AT10="","",_tuoliu_day_hour!AT10)</f>
         <v/>
       </c>
-      <c r="AW16" s="16" t="str">
+      <c r="AW16" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AU10="","",_tuoliu_day_hour!AU10)</f>
         <v/>
       </c>
-      <c r="AX16" s="16" t="str">
+      <c r="AX16" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AV10="","",_tuoliu_day_hour!AV10)</f>
         <v/>
       </c>
-      <c r="AY16" s="50" t="str">
+      <c r="AY16" s="14" t="str">
         <f>IF(_tuoliu_day_hour!AW10="","",_tuoliu_day_hour!AW10)</f>
         <v/>
       </c>
-      <c r="AZ16" s="42"/>
-      <c r="BA16" s="51" t="s">
+      <c r="AZ16" s="45"/>
+      <c r="BA16" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="BB16" s="16"/>
-      <c r="BC16" s="16"/>
-      <c r="BD16" s="48"/>
+      <c r="BB16" s="9"/>
+      <c r="BC16" s="9"/>
+      <c r="BD16" s="12"/>
     </row>
-    <row r="17" customFormat="1" spans="2:56">
-      <c r="B17" s="15">
+    <row r="17" spans="2:56" x14ac:dyDescent="0.15">
+      <c r="B17" s="8">
         <v>0.375</v>
       </c>
-      <c r="C17" s="16" t="str">
+      <c r="C17" s="9" t="str">
         <f>IF(_tuoliu_day_hour!A11="","",_tuoliu_day_hour!A11)</f>
         <v/>
       </c>
-      <c r="D17" s="16" t="str">
+      <c r="D17" s="9" t="str">
         <f>IF(_tuoliu_day_hour!B11="","",_tuoliu_day_hour!B11)</f>
         <v/>
       </c>
-      <c r="E17" s="16" t="str">
+      <c r="E17" s="9" t="str">
         <f>IF(_tuoliu_day_hour!C11="","",_tuoliu_day_hour!C11)</f>
         <v/>
       </c>
-      <c r="F17" s="16" t="str">
+      <c r="F17" s="9" t="str">
         <f>IF(_tuoliu_day_hour!D11="","",_tuoliu_day_hour!D11)</f>
         <v/>
       </c>
-      <c r="G17" s="16" t="str">
+      <c r="G17" s="9" t="str">
         <f>IF(_tuoliu_day_hour!E11="","",_tuoliu_day_hour!E11)</f>
         <v/>
       </c>
-      <c r="H17" s="16" t="str">
+      <c r="H17" s="9" t="str">
         <f>IF(_tuoliu_day_hour!F11="","",_tuoliu_day_hour!F11)</f>
         <v/>
       </c>
-      <c r="I17" s="16" t="str">
+      <c r="I17" s="9" t="str">
         <f>IF(_tuoliu_day_hour!G11="","",_tuoliu_day_hour!G11)</f>
         <v/>
       </c>
-      <c r="J17" s="16" t="str">
+      <c r="J17" s="9" t="str">
         <f>IF(_tuoliu_day_hour!H11="","",_tuoliu_day_hour!H11)</f>
         <v/>
       </c>
-      <c r="K17" s="16" t="str">
+      <c r="K17" s="9" t="str">
         <f>IF(_tuoliu_day_hour!I11="","",_tuoliu_day_hour!I11)</f>
         <v/>
       </c>
-      <c r="L17" s="16" t="str">
+      <c r="L17" s="9" t="str">
         <f>IF(_tuoliu_day_hour!J11="","",_tuoliu_day_hour!J11)</f>
         <v/>
       </c>
-      <c r="M17" s="16" t="str">
+      <c r="M17" s="9" t="str">
         <f>IF(_tuoliu_day_hour!K11="","",_tuoliu_day_hour!K11)</f>
         <v/>
       </c>
-      <c r="N17" s="16" t="str">
+      <c r="N17" s="9" t="str">
         <f>IF(_tuoliu_day_hour!L11="","",_tuoliu_day_hour!L11)</f>
         <v/>
       </c>
-      <c r="O17" s="16" t="str">
+      <c r="O17" s="9" t="str">
         <f>IF(_tuoliu_day_hour!M11="","",_tuoliu_day_hour!M11)</f>
         <v/>
       </c>
-      <c r="P17" s="16" t="str">
+      <c r="P17" s="9" t="str">
         <f>IF(_tuoliu_day_hour!N11="","",_tuoliu_day_hour!N11)</f>
         <v/>
       </c>
-      <c r="Q17" s="16" t="str">
+      <c r="Q17" s="9" t="str">
         <f>IF(_tuoliu_day_hour!O11="","",_tuoliu_day_hour!O11)</f>
         <v/>
       </c>
-      <c r="R17" s="16" t="str">
+      <c r="R17" s="9" t="str">
         <f>IF(_tuoliu_day_hour!P11="","",_tuoliu_day_hour!P11)</f>
         <v/>
       </c>
-      <c r="S17" s="16" t="str">
+      <c r="S17" s="9" t="str">
         <f>IF(_tuoliu_day_hour!Q11="","",_tuoliu_day_hour!Q11)</f>
         <v/>
       </c>
-      <c r="T17" s="16" t="str">
+      <c r="T17" s="9" t="str">
         <f>IF(_tuoliu_day_hour!R11="","",_tuoliu_day_hour!R11)</f>
         <v/>
       </c>
-      <c r="U17" s="16" t="str">
+      <c r="U17" s="9" t="str">
         <f>IF(_tuoliu_day_hour!S11="","",_tuoliu_day_hour!S11)</f>
         <v/>
       </c>
-      <c r="V17" s="16" t="str">
+      <c r="V17" s="9" t="str">
         <f>IF(_tuoliu_day_hour!T11="","",_tuoliu_day_hour!T11)</f>
         <v/>
       </c>
-      <c r="W17" s="16" t="str">
+      <c r="W17" s="9" t="str">
         <f>IF(_tuoliu_day_hour!U11="","",_tuoliu_day_hour!U11)</f>
         <v/>
       </c>
-      <c r="X17" s="16" t="str">
+      <c r="X17" s="9" t="str">
         <f>IF(_tuoliu_day_hour!V11="","",_tuoliu_day_hour!V11)</f>
         <v/>
       </c>
-      <c r="Y17" s="16" t="str">
+      <c r="Y17" s="9" t="str">
         <f>IF(_tuoliu_day_hour!W11="","",_tuoliu_day_hour!W11)</f>
         <v/>
       </c>
-      <c r="Z17" s="16" t="str">
+      <c r="Z17" s="9" t="str">
         <f>IF(_tuoliu_day_hour!X11="","",_tuoliu_day_hour!X11)</f>
         <v/>
       </c>
-      <c r="AA17" s="16" t="str">
+      <c r="AA17" s="9" t="str">
         <f>IF(_tuoliu_day_hour!Y11="","",_tuoliu_day_hour!Y11)</f>
         <v/>
       </c>
-      <c r="AB17" s="16" t="str">
+      <c r="AB17" s="9" t="str">
         <f>IF(_tuoliu_day_hour!Z11="","",_tuoliu_day_hour!Z11)</f>
         <v/>
       </c>
-      <c r="AC17" s="16" t="str">
+      <c r="AC17" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AA11="","",_tuoliu_day_hour!AA11)</f>
         <v/>
       </c>
-      <c r="AD17" s="16" t="str">
+      <c r="AD17" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AB11="","",_tuoliu_day_hour!AB11)</f>
         <v/>
       </c>
-      <c r="AE17" s="16" t="str">
+      <c r="AE17" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AC11="","",_tuoliu_day_hour!AC11)</f>
         <v/>
       </c>
-      <c r="AF17" s="16" t="str">
+      <c r="AF17" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AD11="","",_tuoliu_day_hour!AD11)</f>
         <v/>
       </c>
-      <c r="AG17" s="16" t="str">
+      <c r="AG17" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AE11="","",_tuoliu_day_hour!AE11)</f>
         <v/>
       </c>
-      <c r="AH17" s="16" t="str">
+      <c r="AH17" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AF11="","",_tuoliu_day_hour!AF11)</f>
         <v/>
       </c>
-      <c r="AI17" s="16" t="str">
+      <c r="AI17" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AG11="","",_tuoliu_day_hour!AG11)</f>
         <v/>
       </c>
-      <c r="AJ17" s="16" t="str">
+      <c r="AJ17" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AH11="","",_tuoliu_day_hour!AH11)</f>
         <v/>
       </c>
-      <c r="AK17" s="16" t="str">
+      <c r="AK17" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AI11="","",_tuoliu_day_hour!AI11)</f>
         <v/>
       </c>
-      <c r="AL17" s="16" t="str">
+      <c r="AL17" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AJ11="","",_tuoliu_day_hour!AJ11)</f>
         <v/>
       </c>
-      <c r="AM17" s="16" t="str">
+      <c r="AM17" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AK11="","",_tuoliu_day_hour!AK11)</f>
         <v/>
       </c>
-      <c r="AN17" s="16" t="str">
+      <c r="AN17" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AL11="","",_tuoliu_day_hour!AL11)</f>
         <v/>
       </c>
-      <c r="AO17" s="16" t="str">
+      <c r="AO17" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AM11="","",_tuoliu_day_hour!AM11)</f>
         <v/>
       </c>
-      <c r="AP17" s="16" t="str">
+      <c r="AP17" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AN11="","",_tuoliu_day_hour!AN11)</f>
         <v/>
       </c>
-      <c r="AQ17" s="16" t="str">
+      <c r="AQ17" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AO11="","",_tuoliu_day_hour!AO11)</f>
         <v/>
       </c>
-      <c r="AR17" s="16" t="str">
+      <c r="AR17" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AP11="","",_tuoliu_day_hour!AP11)</f>
         <v/>
       </c>
-      <c r="AS17" s="16" t="str">
+      <c r="AS17" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AQ11="","",_tuoliu_day_hour!AQ11)</f>
         <v/>
       </c>
-      <c r="AT17" s="16" t="str">
+      <c r="AT17" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AR11="","",_tuoliu_day_hour!AR11)</f>
         <v/>
       </c>
-      <c r="AU17" s="16" t="str">
+      <c r="AU17" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AS11="","",_tuoliu_day_hour!AS11)</f>
         <v/>
       </c>
-      <c r="AV17" s="16" t="str">
+      <c r="AV17" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AT11="","",_tuoliu_day_hour!AT11)</f>
         <v/>
       </c>
-      <c r="AW17" s="16" t="str">
+      <c r="AW17" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AU11="","",_tuoliu_day_hour!AU11)</f>
         <v/>
       </c>
-      <c r="AX17" s="16" t="str">
+      <c r="AX17" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AV11="","",_tuoliu_day_hour!AV11)</f>
         <v/>
       </c>
-      <c r="AY17" s="50" t="str">
+      <c r="AY17" s="14" t="str">
         <f>IF(_tuoliu_day_hour!AW11="","",_tuoliu_day_hour!AW11)</f>
         <v/>
       </c>
-      <c r="AZ17" s="42"/>
-      <c r="BA17" s="51" t="s">
+      <c r="AZ17" s="45"/>
+      <c r="BA17" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="BB17" s="16"/>
-      <c r="BC17" s="16"/>
-      <c r="BD17" s="48"/>
+      <c r="BB17" s="9"/>
+      <c r="BC17" s="9"/>
+      <c r="BD17" s="12"/>
     </row>
-    <row r="18" customFormat="1" spans="2:56">
-      <c r="B18" s="15">
-        <v>0.416666666666666</v>
-      </c>
-      <c r="C18" s="16" t="str">
+    <row r="18" spans="2:56" x14ac:dyDescent="0.15">
+      <c r="B18" s="8">
+        <v>0.41666666666666602</v>
+      </c>
+      <c r="C18" s="9" t="str">
         <f>IF(_tuoliu_day_hour!A12="","",_tuoliu_day_hour!A12)</f>
         <v/>
       </c>
-      <c r="D18" s="16" t="str">
+      <c r="D18" s="9" t="str">
         <f>IF(_tuoliu_day_hour!B12="","",_tuoliu_day_hour!B12)</f>
         <v/>
       </c>
-      <c r="E18" s="16" t="str">
+      <c r="E18" s="9" t="str">
         <f>IF(_tuoliu_day_hour!C12="","",_tuoliu_day_hour!C12)</f>
         <v/>
       </c>
-      <c r="F18" s="16" t="str">
+      <c r="F18" s="9" t="str">
         <f>IF(_tuoliu_day_hour!D12="","",_tuoliu_day_hour!D12)</f>
         <v/>
       </c>
-      <c r="G18" s="16" t="str">
+      <c r="G18" s="9" t="str">
         <f>IF(_tuoliu_day_hour!E12="","",_tuoliu_day_hour!E12)</f>
         <v/>
       </c>
-      <c r="H18" s="16" t="str">
+      <c r="H18" s="9" t="str">
         <f>IF(_tuoliu_day_hour!F12="","",_tuoliu_day_hour!F12)</f>
         <v/>
       </c>
-      <c r="I18" s="16" t="str">
+      <c r="I18" s="9" t="str">
         <f>IF(_tuoliu_day_hour!G12="","",_tuoliu_day_hour!G12)</f>
         <v/>
       </c>
-      <c r="J18" s="16" t="str">
+      <c r="J18" s="9" t="str">
         <f>IF(_tuoliu_day_hour!H12="","",_tuoliu_day_hour!H12)</f>
         <v/>
       </c>
-      <c r="K18" s="16" t="str">
+      <c r="K18" s="9" t="str">
         <f>IF(_tuoliu_day_hour!I12="","",_tuoliu_day_hour!I12)</f>
         <v/>
       </c>
-      <c r="L18" s="16" t="str">
+      <c r="L18" s="9" t="str">
         <f>IF(_tuoliu_day_hour!J12="","",_tuoliu_day_hour!J12)</f>
         <v/>
       </c>
-      <c r="M18" s="16" t="str">
+      <c r="M18" s="9" t="str">
         <f>IF(_tuoliu_day_hour!K12="","",_tuoliu_day_hour!K12)</f>
         <v/>
       </c>
-      <c r="N18" s="16" t="str">
+      <c r="N18" s="9" t="str">
         <f>IF(_tuoliu_day_hour!L12="","",_tuoliu_day_hour!L12)</f>
         <v/>
       </c>
-      <c r="O18" s="16" t="str">
+      <c r="O18" s="9" t="str">
         <f>IF(_tuoliu_day_hour!M12="","",_tuoliu_day_hour!M12)</f>
         <v/>
       </c>
-      <c r="P18" s="16" t="str">
+      <c r="P18" s="9" t="str">
         <f>IF(_tuoliu_day_hour!N12="","",_tuoliu_day_hour!N12)</f>
         <v/>
       </c>
-      <c r="Q18" s="16" t="str">
+      <c r="Q18" s="9" t="str">
         <f>IF(_tuoliu_day_hour!O12="","",_tuoliu_day_hour!O12)</f>
         <v/>
       </c>
-      <c r="R18" s="16" t="str">
+      <c r="R18" s="9" t="str">
         <f>IF(_tuoliu_day_hour!P12="","",_tuoliu_day_hour!P12)</f>
         <v/>
       </c>
-      <c r="S18" s="16" t="str">
+      <c r="S18" s="9" t="str">
         <f>IF(_tuoliu_day_hour!Q12="","",_tuoliu_day_hour!Q12)</f>
         <v/>
       </c>
-      <c r="T18" s="16" t="str">
+      <c r="T18" s="9" t="str">
         <f>IF(_tuoliu_day_hour!R12="","",_tuoliu_day_hour!R12)</f>
         <v/>
       </c>
-      <c r="U18" s="16" t="str">
+      <c r="U18" s="9" t="str">
         <f>IF(_tuoliu_day_hour!S12="","",_tuoliu_day_hour!S12)</f>
         <v/>
       </c>
-      <c r="V18" s="16" t="str">
+      <c r="V18" s="9" t="str">
         <f>IF(_tuoliu_day_hour!T12="","",_tuoliu_day_hour!T12)</f>
         <v/>
       </c>
-      <c r="W18" s="16" t="str">
+      <c r="W18" s="9" t="str">
         <f>IF(_tuoliu_day_hour!U12="","",_tuoliu_day_hour!U12)</f>
         <v/>
       </c>
-      <c r="X18" s="16" t="str">
+      <c r="X18" s="9" t="str">
         <f>IF(_tuoliu_day_hour!V12="","",_tuoliu_day_hour!V12)</f>
         <v/>
       </c>
-      <c r="Y18" s="16" t="str">
+      <c r="Y18" s="9" t="str">
         <f>IF(_tuoliu_day_hour!W12="","",_tuoliu_day_hour!W12)</f>
         <v/>
       </c>
-      <c r="Z18" s="16" t="str">
+      <c r="Z18" s="9" t="str">
         <f>IF(_tuoliu_day_hour!X12="","",_tuoliu_day_hour!X12)</f>
         <v/>
       </c>
-      <c r="AA18" s="16" t="str">
+      <c r="AA18" s="9" t="str">
         <f>IF(_tuoliu_day_hour!Y12="","",_tuoliu_day_hour!Y12)</f>
         <v/>
       </c>
-      <c r="AB18" s="16" t="str">
+      <c r="AB18" s="9" t="str">
         <f>IF(_tuoliu_day_hour!Z12="","",_tuoliu_day_hour!Z12)</f>
         <v/>
       </c>
-      <c r="AC18" s="16" t="str">
+      <c r="AC18" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AA12="","",_tuoliu_day_hour!AA12)</f>
         <v/>
       </c>
-      <c r="AD18" s="16" t="str">
+      <c r="AD18" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AB12="","",_tuoliu_day_hour!AB12)</f>
         <v/>
       </c>
-      <c r="AE18" s="16" t="str">
+      <c r="AE18" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AC12="","",_tuoliu_day_hour!AC12)</f>
         <v/>
       </c>
-      <c r="AF18" s="16" t="str">
+      <c r="AF18" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AD12="","",_tuoliu_day_hour!AD12)</f>
         <v/>
       </c>
-      <c r="AG18" s="16" t="str">
+      <c r="AG18" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AE12="","",_tuoliu_day_hour!AE12)</f>
         <v/>
       </c>
-      <c r="AH18" s="16" t="str">
+      <c r="AH18" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AF12="","",_tuoliu_day_hour!AF12)</f>
         <v/>
       </c>
-      <c r="AI18" s="16" t="str">
+      <c r="AI18" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AG12="","",_tuoliu_day_hour!AG12)</f>
         <v/>
       </c>
-      <c r="AJ18" s="16" t="str">
+      <c r="AJ18" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AH12="","",_tuoliu_day_hour!AH12)</f>
         <v/>
       </c>
-      <c r="AK18" s="16" t="str">
+      <c r="AK18" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AI12="","",_tuoliu_day_hour!AI12)</f>
         <v/>
       </c>
-      <c r="AL18" s="16" t="str">
+      <c r="AL18" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AJ12="","",_tuoliu_day_hour!AJ12)</f>
         <v/>
       </c>
-      <c r="AM18" s="16" t="str">
+      <c r="AM18" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AK12="","",_tuoliu_day_hour!AK12)</f>
         <v/>
       </c>
-      <c r="AN18" s="16" t="str">
+      <c r="AN18" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AL12="","",_tuoliu_day_hour!AL12)</f>
         <v/>
       </c>
-      <c r="AO18" s="16" t="str">
+      <c r="AO18" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AM12="","",_tuoliu_day_hour!AM12)</f>
         <v/>
       </c>
-      <c r="AP18" s="16" t="str">
+      <c r="AP18" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AN12="","",_tuoliu_day_hour!AN12)</f>
         <v/>
       </c>
-      <c r="AQ18" s="16" t="str">
+      <c r="AQ18" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AO12="","",_tuoliu_day_hour!AO12)</f>
         <v/>
       </c>
-      <c r="AR18" s="16" t="str">
+      <c r="AR18" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AP12="","",_tuoliu_day_hour!AP12)</f>
         <v/>
       </c>
-      <c r="AS18" s="16" t="str">
+      <c r="AS18" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AQ12="","",_tuoliu_day_hour!AQ12)</f>
         <v/>
       </c>
-      <c r="AT18" s="16" t="str">
+      <c r="AT18" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AR12="","",_tuoliu_day_hour!AR12)</f>
         <v/>
       </c>
-      <c r="AU18" s="16" t="str">
+      <c r="AU18" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AS12="","",_tuoliu_day_hour!AS12)</f>
         <v/>
       </c>
-      <c r="AV18" s="16" t="str">
+      <c r="AV18" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AT12="","",_tuoliu_day_hour!AT12)</f>
         <v/>
       </c>
-      <c r="AW18" s="16" t="str">
+      <c r="AW18" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AU12="","",_tuoliu_day_hour!AU12)</f>
         <v/>
       </c>
-      <c r="AX18" s="16" t="str">
+      <c r="AX18" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AV12="","",_tuoliu_day_hour!AV12)</f>
         <v/>
       </c>
-      <c r="AY18" s="50" t="str">
+      <c r="AY18" s="14" t="str">
         <f>IF(_tuoliu_day_hour!AW12="","",_tuoliu_day_hour!AW12)</f>
         <v/>
       </c>
-      <c r="AZ18" s="42"/>
-      <c r="BA18" s="51" t="s">
+      <c r="AZ18" s="45"/>
+      <c r="BA18" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="BB18" s="16"/>
-      <c r="BC18" s="16"/>
-      <c r="BD18" s="48"/>
+      <c r="BB18" s="9"/>
+      <c r="BC18" s="9"/>
+      <c r="BD18" s="12"/>
     </row>
-    <row r="19" customFormat="1" spans="2:56">
-      <c r="B19" s="15">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="C19" s="16" t="str">
+    <row r="19" spans="2:56" x14ac:dyDescent="0.15">
+      <c r="B19" s="8">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="C19" s="9" t="str">
         <f>IF(_tuoliu_day_hour!A13="","",_tuoliu_day_hour!A13)</f>
         <v/>
       </c>
-      <c r="D19" s="16" t="str">
+      <c r="D19" s="9" t="str">
         <f>IF(_tuoliu_day_hour!B13="","",_tuoliu_day_hour!B13)</f>
         <v/>
       </c>
-      <c r="E19" s="16" t="str">
+      <c r="E19" s="9" t="str">
         <f>IF(_tuoliu_day_hour!C13="","",_tuoliu_day_hour!C13)</f>
         <v/>
       </c>
-      <c r="F19" s="16" t="str">
+      <c r="F19" s="9" t="str">
         <f>IF(_tuoliu_day_hour!D13="","",_tuoliu_day_hour!D13)</f>
         <v/>
       </c>
-      <c r="G19" s="16" t="str">
+      <c r="G19" s="9" t="str">
         <f>IF(_tuoliu_day_hour!E13="","",_tuoliu_day_hour!E13)</f>
         <v/>
       </c>
-      <c r="H19" s="16" t="str">
+      <c r="H19" s="9" t="str">
         <f>IF(_tuoliu_day_hour!F13="","",_tuoliu_day_hour!F13)</f>
         <v/>
       </c>
-      <c r="I19" s="16" t="str">
+      <c r="I19" s="9" t="str">
         <f>IF(_tuoliu_day_hour!G13="","",_tuoliu_day_hour!G13)</f>
         <v/>
       </c>
-      <c r="J19" s="16" t="str">
+      <c r="J19" s="9" t="str">
         <f>IF(_tuoliu_day_hour!H13="","",_tuoliu_day_hour!H13)</f>
         <v/>
       </c>
-      <c r="K19" s="16" t="str">
+      <c r="K19" s="9" t="str">
         <f>IF(_tuoliu_day_hour!I13="","",_tuoliu_day_hour!I13)</f>
         <v/>
       </c>
-      <c r="L19" s="16" t="str">
+      <c r="L19" s="9" t="str">
         <f>IF(_tuoliu_day_hour!J13="","",_tuoliu_day_hour!J13)</f>
         <v/>
       </c>
-      <c r="M19" s="16" t="str">
+      <c r="M19" s="9" t="str">
         <f>IF(_tuoliu_day_hour!K13="","",_tuoliu_day_hour!K13)</f>
         <v/>
       </c>
-      <c r="N19" s="16" t="str">
+      <c r="N19" s="9" t="str">
         <f>IF(_tuoliu_day_hour!L13="","",_tuoliu_day_hour!L13)</f>
         <v/>
       </c>
-      <c r="O19" s="16" t="str">
+      <c r="O19" s="9" t="str">
         <f>IF(_tuoliu_day_hour!M13="","",_tuoliu_day_hour!M13)</f>
         <v/>
       </c>
-      <c r="P19" s="16" t="str">
+      <c r="P19" s="9" t="str">
         <f>IF(_tuoliu_day_hour!N13="","",_tuoliu_day_hour!N13)</f>
         <v/>
       </c>
-      <c r="Q19" s="16" t="str">
+      <c r="Q19" s="9" t="str">
         <f>IF(_tuoliu_day_hour!O13="","",_tuoliu_day_hour!O13)</f>
         <v/>
       </c>
-      <c r="R19" s="16" t="str">
+      <c r="R19" s="9" t="str">
         <f>IF(_tuoliu_day_hour!P13="","",_tuoliu_day_hour!P13)</f>
         <v/>
       </c>
-      <c r="S19" s="16" t="str">
+      <c r="S19" s="9" t="str">
         <f>IF(_tuoliu_day_hour!Q13="","",_tuoliu_day_hour!Q13)</f>
         <v/>
       </c>
-      <c r="T19" s="16" t="str">
+      <c r="T19" s="9" t="str">
         <f>IF(_tuoliu_day_hour!R13="","",_tuoliu_day_hour!R13)</f>
         <v/>
       </c>
-      <c r="U19" s="16" t="str">
+      <c r="U19" s="9" t="str">
         <f>IF(_tuoliu_day_hour!S13="","",_tuoliu_day_hour!S13)</f>
         <v/>
       </c>
-      <c r="V19" s="16" t="str">
+      <c r="V19" s="9" t="str">
         <f>IF(_tuoliu_day_hour!T13="","",_tuoliu_day_hour!T13)</f>
         <v/>
       </c>
-      <c r="W19" s="16" t="str">
+      <c r="W19" s="9" t="str">
         <f>IF(_tuoliu_day_hour!U13="","",_tuoliu_day_hour!U13)</f>
         <v/>
       </c>
-      <c r="X19" s="16" t="str">
+      <c r="X19" s="9" t="str">
         <f>IF(_tuoliu_day_hour!V13="","",_tuoliu_day_hour!V13)</f>
         <v/>
       </c>
-      <c r="Y19" s="16" t="str">
+      <c r="Y19" s="9" t="str">
         <f>IF(_tuoliu_day_hour!W13="","",_tuoliu_day_hour!W13)</f>
         <v/>
       </c>
-      <c r="Z19" s="16" t="str">
+      <c r="Z19" s="9" t="str">
         <f>IF(_tuoliu_day_hour!X13="","",_tuoliu_day_hour!X13)</f>
         <v/>
       </c>
-      <c r="AA19" s="16" t="str">
+      <c r="AA19" s="9" t="str">
         <f>IF(_tuoliu_day_hour!Y13="","",_tuoliu_day_hour!Y13)</f>
         <v/>
       </c>
-      <c r="AB19" s="16" t="str">
+      <c r="AB19" s="9" t="str">
         <f>IF(_tuoliu_day_hour!Z13="","",_tuoliu_day_hour!Z13)</f>
         <v/>
       </c>
-      <c r="AC19" s="16" t="str">
+      <c r="AC19" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AA13="","",_tuoliu_day_hour!AA13)</f>
         <v/>
       </c>
-      <c r="AD19" s="16" t="str">
+      <c r="AD19" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AB13="","",_tuoliu_day_hour!AB13)</f>
         <v/>
       </c>
-      <c r="AE19" s="16" t="str">
+      <c r="AE19" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AC13="","",_tuoliu_day_hour!AC13)</f>
         <v/>
       </c>
-      <c r="AF19" s="16" t="str">
+      <c r="AF19" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AD13="","",_tuoliu_day_hour!AD13)</f>
         <v/>
       </c>
-      <c r="AG19" s="16" t="str">
+      <c r="AG19" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AE13="","",_tuoliu_day_hour!AE13)</f>
         <v/>
       </c>
-      <c r="AH19" s="16" t="str">
+      <c r="AH19" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AF13="","",_tuoliu_day_hour!AF13)</f>
         <v/>
       </c>
-      <c r="AI19" s="16" t="str">
+      <c r="AI19" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AG13="","",_tuoliu_day_hour!AG13)</f>
         <v/>
       </c>
-      <c r="AJ19" s="16" t="str">
+      <c r="AJ19" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AH13="","",_tuoliu_day_hour!AH13)</f>
         <v/>
       </c>
-      <c r="AK19" s="16" t="str">
+      <c r="AK19" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AI13="","",_tuoliu_day_hour!AI13)</f>
         <v/>
       </c>
-      <c r="AL19" s="16" t="str">
+      <c r="AL19" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AJ13="","",_tuoliu_day_hour!AJ13)</f>
         <v/>
       </c>
-      <c r="AM19" s="16" t="str">
+      <c r="AM19" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AK13="","",_tuoliu_day_hour!AK13)</f>
         <v/>
       </c>
-      <c r="AN19" s="16" t="str">
+      <c r="AN19" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AL13="","",_tuoliu_day_hour!AL13)</f>
         <v/>
       </c>
-      <c r="AO19" s="16" t="str">
+      <c r="AO19" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AM13="","",_tuoliu_day_hour!AM13)</f>
         <v/>
       </c>
-      <c r="AP19" s="16" t="str">
+      <c r="AP19" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AN13="","",_tuoliu_day_hour!AN13)</f>
         <v/>
       </c>
-      <c r="AQ19" s="16" t="str">
+      <c r="AQ19" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AO13="","",_tuoliu_day_hour!AO13)</f>
         <v/>
       </c>
-      <c r="AR19" s="16" t="str">
+      <c r="AR19" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AP13="","",_tuoliu_day_hour!AP13)</f>
         <v/>
       </c>
-      <c r="AS19" s="16" t="str">
+      <c r="AS19" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AQ13="","",_tuoliu_day_hour!AQ13)</f>
         <v/>
       </c>
-      <c r="AT19" s="16" t="str">
+      <c r="AT19" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AR13="","",_tuoliu_day_hour!AR13)</f>
         <v/>
       </c>
-      <c r="AU19" s="16" t="str">
+      <c r="AU19" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AS13="","",_tuoliu_day_hour!AS13)</f>
         <v/>
       </c>
-      <c r="AV19" s="16" t="str">
+      <c r="AV19" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AT13="","",_tuoliu_day_hour!AT13)</f>
         <v/>
       </c>
-      <c r="AW19" s="16" t="str">
+      <c r="AW19" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AU13="","",_tuoliu_day_hour!AU13)</f>
         <v/>
       </c>
-      <c r="AX19" s="16" t="str">
+      <c r="AX19" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AV13="","",_tuoliu_day_hour!AV13)</f>
         <v/>
       </c>
-      <c r="AY19" s="50" t="str">
+      <c r="AY19" s="14" t="str">
         <f>IF(_tuoliu_day_hour!AW13="","",_tuoliu_day_hour!AW13)</f>
         <v/>
       </c>
-      <c r="AZ19" s="42" t="s">
+      <c r="AZ19" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="BA19" s="51" t="s">
+      <c r="BA19" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="BB19" s="16"/>
-      <c r="BC19" s="16"/>
-      <c r="BD19" s="48"/>
+      <c r="BB19" s="9"/>
+      <c r="BC19" s="9"/>
+      <c r="BD19" s="12"/>
     </row>
-    <row r="20" customFormat="1" spans="2:56">
-      <c r="B20" s="15">
+    <row r="20" spans="2:56" x14ac:dyDescent="0.15">
+      <c r="B20" s="8">
         <v>0.5</v>
       </c>
-      <c r="C20" s="16" t="str">
+      <c r="C20" s="9" t="str">
         <f>IF(_tuoliu_day_hour!A14="","",_tuoliu_day_hour!A14)</f>
         <v/>
       </c>
-      <c r="D20" s="16" t="str">
+      <c r="D20" s="9" t="str">
         <f>IF(_tuoliu_day_hour!B14="","",_tuoliu_day_hour!B14)</f>
         <v/>
       </c>
-      <c r="E20" s="16" t="str">
+      <c r="E20" s="9" t="str">
         <f>IF(_tuoliu_day_hour!C14="","",_tuoliu_day_hour!C14)</f>
         <v/>
       </c>
-      <c r="F20" s="16" t="str">
+      <c r="F20" s="9" t="str">
         <f>IF(_tuoliu_day_hour!D14="","",_tuoliu_day_hour!D14)</f>
         <v/>
       </c>
-      <c r="G20" s="16" t="str">
+      <c r="G20" s="9" t="str">
         <f>IF(_tuoliu_day_hour!E14="","",_tuoliu_day_hour!E14)</f>
         <v/>
       </c>
-      <c r="H20" s="16" t="str">
+      <c r="H20" s="9" t="str">
         <f>IF(_tuoliu_day_hour!F14="","",_tuoliu_day_hour!F14)</f>
         <v/>
       </c>
-      <c r="I20" s="16" t="str">
+      <c r="I20" s="9" t="str">
         <f>IF(_tuoliu_day_hour!G14="","",_tuoliu_day_hour!G14)</f>
         <v/>
       </c>
-      <c r="J20" s="16" t="str">
+      <c r="J20" s="9" t="str">
         <f>IF(_tuoliu_day_hour!H14="","",_tuoliu_day_hour!H14)</f>
         <v/>
       </c>
-      <c r="K20" s="16" t="str">
+      <c r="K20" s="9" t="str">
         <f>IF(_tuoliu_day_hour!I14="","",_tuoliu_day_hour!I14)</f>
         <v/>
       </c>
-      <c r="L20" s="16" t="str">
+      <c r="L20" s="9" t="str">
         <f>IF(_tuoliu_day_hour!J14="","",_tuoliu_day_hour!J14)</f>
         <v/>
       </c>
-      <c r="M20" s="16" t="str">
+      <c r="M20" s="9" t="str">
         <f>IF(_tuoliu_day_hour!K14="","",_tuoliu_day_hour!K14)</f>
         <v/>
       </c>
-      <c r="N20" s="16" t="str">
+      <c r="N20" s="9" t="str">
         <f>IF(_tuoliu_day_hour!L14="","",_tuoliu_day_hour!L14)</f>
         <v/>
       </c>
-      <c r="O20" s="16" t="str">
+      <c r="O20" s="9" t="str">
         <f>IF(_tuoliu_day_hour!M14="","",_tuoliu_day_hour!M14)</f>
         <v/>
       </c>
-      <c r="P20" s="16" t="str">
+      <c r="P20" s="9" t="str">
         <f>IF(_tuoliu_day_hour!N14="","",_tuoliu_day_hour!N14)</f>
         <v/>
       </c>
-      <c r="Q20" s="16" t="str">
+      <c r="Q20" s="9" t="str">
         <f>IF(_tuoliu_day_hour!O14="","",_tuoliu_day_hour!O14)</f>
         <v/>
       </c>
-      <c r="R20" s="16" t="str">
+      <c r="R20" s="9" t="str">
         <f>IF(_tuoliu_day_hour!P14="","",_tuoliu_day_hour!P14)</f>
         <v/>
       </c>
-      <c r="S20" s="16" t="str">
+      <c r="S20" s="9" t="str">
         <f>IF(_tuoliu_day_hour!Q14="","",_tuoliu_day_hour!Q14)</f>
         <v/>
       </c>
-      <c r="T20" s="16" t="str">
+      <c r="T20" s="9" t="str">
         <f>IF(_tuoliu_day_hour!R14="","",_tuoliu_day_hour!R14)</f>
         <v/>
       </c>
-      <c r="U20" s="16" t="str">
+      <c r="U20" s="9" t="str">
         <f>IF(_tuoliu_day_hour!S14="","",_tuoliu_day_hour!S14)</f>
         <v/>
       </c>
-      <c r="V20" s="16" t="str">
+      <c r="V20" s="9" t="str">
         <f>IF(_tuoliu_day_hour!T14="","",_tuoliu_day_hour!T14)</f>
         <v/>
       </c>
-      <c r="W20" s="16" t="str">
+      <c r="W20" s="9" t="str">
         <f>IF(_tuoliu_day_hour!U14="","",_tuoliu_day_hour!U14)</f>
         <v/>
       </c>
-      <c r="X20" s="16" t="str">
+      <c r="X20" s="9" t="str">
         <f>IF(_tuoliu_day_hour!V14="","",_tuoliu_day_hour!V14)</f>
         <v/>
       </c>
-      <c r="Y20" s="16" t="str">
+      <c r="Y20" s="9" t="str">
         <f>IF(_tuoliu_day_hour!W14="","",_tuoliu_day_hour!W14)</f>
         <v/>
       </c>
-      <c r="Z20" s="16" t="str">
+      <c r="Z20" s="9" t="str">
         <f>IF(_tuoliu_day_hour!X14="","",_tuoliu_day_hour!X14)</f>
         <v/>
       </c>
-      <c r="AA20" s="16" t="str">
+      <c r="AA20" s="9" t="str">
         <f>IF(_tuoliu_day_hour!Y14="","",_tuoliu_day_hour!Y14)</f>
         <v/>
       </c>
-      <c r="AB20" s="16" t="str">
+      <c r="AB20" s="9" t="str">
         <f>IF(_tuoliu_day_hour!Z14="","",_tuoliu_day_hour!Z14)</f>
         <v/>
       </c>
-      <c r="AC20" s="16" t="str">
+      <c r="AC20" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AA14="","",_tuoliu_day_hour!AA14)</f>
         <v/>
       </c>
-      <c r="AD20" s="16" t="str">
+      <c r="AD20" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AB14="","",_tuoliu_day_hour!AB14)</f>
         <v/>
       </c>
-      <c r="AE20" s="16" t="str">
+      <c r="AE20" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AC14="","",_tuoliu_day_hour!AC14)</f>
         <v/>
       </c>
-      <c r="AF20" s="16" t="str">
+      <c r="AF20" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AD14="","",_tuoliu_day_hour!AD14)</f>
         <v/>
       </c>
-      <c r="AG20" s="16" t="str">
+      <c r="AG20" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AE14="","",_tuoliu_day_hour!AE14)</f>
         <v/>
       </c>
-      <c r="AH20" s="16" t="str">
+      <c r="AH20" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AF14="","",_tuoliu_day_hour!AF14)</f>
         <v/>
       </c>
-      <c r="AI20" s="16" t="str">
+      <c r="AI20" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AG14="","",_tuoliu_day_hour!AG14)</f>
         <v/>
       </c>
-      <c r="AJ20" s="16" t="str">
+      <c r="AJ20" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AH14="","",_tuoliu_day_hour!AH14)</f>
         <v/>
       </c>
-      <c r="AK20" s="16" t="str">
+      <c r="AK20" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AI14="","",_tuoliu_day_hour!AI14)</f>
         <v/>
       </c>
-      <c r="AL20" s="16" t="str">
+      <c r="AL20" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AJ14="","",_tuoliu_day_hour!AJ14)</f>
         <v/>
       </c>
-      <c r="AM20" s="16" t="str">
+      <c r="AM20" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AK14="","",_tuoliu_day_hour!AK14)</f>
         <v/>
       </c>
-      <c r="AN20" s="16" t="str">
+      <c r="AN20" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AL14="","",_tuoliu_day_hour!AL14)</f>
         <v/>
       </c>
-      <c r="AO20" s="16" t="str">
+      <c r="AO20" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AM14="","",_tuoliu_day_hour!AM14)</f>
         <v/>
       </c>
-      <c r="AP20" s="16" t="str">
+      <c r="AP20" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AN14="","",_tuoliu_day_hour!AN14)</f>
         <v/>
       </c>
-      <c r="AQ20" s="16" t="str">
+      <c r="AQ20" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AO14="","",_tuoliu_day_hour!AO14)</f>
         <v/>
       </c>
-      <c r="AR20" s="16" t="str">
+      <c r="AR20" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AP14="","",_tuoliu_day_hour!AP14)</f>
         <v/>
       </c>
-      <c r="AS20" s="16" t="str">
+      <c r="AS20" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AQ14="","",_tuoliu_day_hour!AQ14)</f>
         <v/>
       </c>
-      <c r="AT20" s="16" t="str">
+      <c r="AT20" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AR14="","",_tuoliu_day_hour!AR14)</f>
         <v/>
       </c>
-      <c r="AU20" s="16" t="str">
+      <c r="AU20" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AS14="","",_tuoliu_day_hour!AS14)</f>
         <v/>
       </c>
-      <c r="AV20" s="16" t="str">
+      <c r="AV20" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AT14="","",_tuoliu_day_hour!AT14)</f>
         <v/>
       </c>
-      <c r="AW20" s="16" t="str">
+      <c r="AW20" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AU14="","",_tuoliu_day_hour!AU14)</f>
         <v/>
       </c>
-      <c r="AX20" s="16" t="str">
+      <c r="AX20" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AV14="","",_tuoliu_day_hour!AV14)</f>
         <v/>
       </c>
-      <c r="AY20" s="50" t="str">
+      <c r="AY20" s="14" t="str">
         <f>IF(_tuoliu_day_hour!AW14="","",_tuoliu_day_hour!AW14)</f>
         <v/>
       </c>
-      <c r="AZ20" s="42"/>
-      <c r="BA20" s="51" t="s">
+      <c r="AZ20" s="45"/>
+      <c r="BA20" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="BB20" s="16"/>
-      <c r="BC20" s="16"/>
-      <c r="BD20" s="48"/>
+      <c r="BB20" s="9"/>
+      <c r="BC20" s="9"/>
+      <c r="BD20" s="12"/>
     </row>
-    <row r="21" customFormat="1" ht="27" spans="2:56">
-      <c r="B21" s="15">
-        <v>0.541666666666666</v>
-      </c>
-      <c r="C21" s="16" t="str">
+    <row r="21" spans="2:56" ht="27" x14ac:dyDescent="0.15">
+      <c r="B21" s="8">
+        <v>0.54166666666666596</v>
+      </c>
+      <c r="C21" s="9" t="str">
         <f>IF(_tuoliu_day_hour!A15="","",_tuoliu_day_hour!A15)</f>
         <v/>
       </c>
-      <c r="D21" s="16" t="str">
+      <c r="D21" s="9" t="str">
         <f>IF(_tuoliu_day_hour!B15="","",_tuoliu_day_hour!B15)</f>
         <v/>
       </c>
-      <c r="E21" s="16" t="str">
+      <c r="E21" s="9" t="str">
         <f>IF(_tuoliu_day_hour!C15="","",_tuoliu_day_hour!C15)</f>
         <v/>
       </c>
-      <c r="F21" s="16" t="str">
+      <c r="F21" s="9" t="str">
         <f>IF(_tuoliu_day_hour!D15="","",_tuoliu_day_hour!D15)</f>
         <v/>
       </c>
-      <c r="G21" s="16" t="str">
+      <c r="G21" s="9" t="str">
         <f>IF(_tuoliu_day_hour!E15="","",_tuoliu_day_hour!E15)</f>
         <v/>
       </c>
-      <c r="H21" s="16" t="str">
+      <c r="H21" s="9" t="str">
         <f>IF(_tuoliu_day_hour!F15="","",_tuoliu_day_hour!F15)</f>
         <v/>
       </c>
-      <c r="I21" s="16" t="str">
+      <c r="I21" s="9" t="str">
         <f>IF(_tuoliu_day_hour!G15="","",_tuoliu_day_hour!G15)</f>
         <v/>
       </c>
-      <c r="J21" s="16" t="str">
+      <c r="J21" s="9" t="str">
         <f>IF(_tuoliu_day_hour!H15="","",_tuoliu_day_hour!H15)</f>
         <v/>
       </c>
-      <c r="K21" s="16" t="str">
+      <c r="K21" s="9" t="str">
         <f>IF(_tuoliu_day_hour!I15="","",_tuoliu_day_hour!I15)</f>
         <v/>
       </c>
-      <c r="L21" s="16" t="str">
+      <c r="L21" s="9" t="str">
         <f>IF(_tuoliu_day_hour!J15="","",_tuoliu_day_hour!J15)</f>
         <v/>
       </c>
-      <c r="M21" s="16" t="str">
+      <c r="M21" s="9" t="str">
         <f>IF(_tuoliu_day_hour!K15="","",_tuoliu_day_hour!K15)</f>
         <v/>
       </c>
-      <c r="N21" s="16" t="str">
+      <c r="N21" s="9" t="str">
         <f>IF(_tuoliu_day_hour!L15="","",_tuoliu_day_hour!L15)</f>
         <v/>
       </c>
-      <c r="O21" s="16" t="str">
+      <c r="O21" s="9" t="str">
         <f>IF(_tuoliu_day_hour!M15="","",_tuoliu_day_hour!M15)</f>
         <v/>
       </c>
-      <c r="P21" s="16" t="str">
+      <c r="P21" s="9" t="str">
         <f>IF(_tuoliu_day_hour!N15="","",_tuoliu_day_hour!N15)</f>
         <v/>
       </c>
-      <c r="Q21" s="16" t="str">
+      <c r="Q21" s="9" t="str">
         <f>IF(_tuoliu_day_hour!O15="","",_tuoliu_day_hour!O15)</f>
         <v/>
       </c>
-      <c r="R21" s="16" t="str">
+      <c r="R21" s="9" t="str">
         <f>IF(_tuoliu_day_hour!P15="","",_tuoliu_day_hour!P15)</f>
         <v/>
       </c>
-      <c r="S21" s="16" t="str">
+      <c r="S21" s="9" t="str">
         <f>IF(_tuoliu_day_hour!Q15="","",_tuoliu_day_hour!Q15)</f>
         <v/>
       </c>
-      <c r="T21" s="16" t="str">
+      <c r="T21" s="9" t="str">
         <f>IF(_tuoliu_day_hour!R15="","",_tuoliu_day_hour!R15)</f>
         <v/>
       </c>
-      <c r="U21" s="16" t="str">
+      <c r="U21" s="9" t="str">
         <f>IF(_tuoliu_day_hour!S15="","",_tuoliu_day_hour!S15)</f>
         <v/>
       </c>
-      <c r="V21" s="16" t="str">
+      <c r="V21" s="9" t="str">
         <f>IF(_tuoliu_day_hour!T15="","",_tuoliu_day_hour!T15)</f>
         <v/>
       </c>
-      <c r="W21" s="16" t="str">
+      <c r="W21" s="9" t="str">
         <f>IF(_tuoliu_day_hour!U15="","",_tuoliu_day_hour!U15)</f>
         <v/>
       </c>
-      <c r="X21" s="16" t="str">
+      <c r="X21" s="9" t="str">
         <f>IF(_tuoliu_day_hour!V15="","",_tuoliu_day_hour!V15)</f>
         <v/>
       </c>
-      <c r="Y21" s="16" t="str">
+      <c r="Y21" s="9" t="str">
         <f>IF(_tuoliu_day_hour!W15="","",_tuoliu_day_hour!W15)</f>
         <v/>
       </c>
-      <c r="Z21" s="16" t="str">
+      <c r="Z21" s="9" t="str">
         <f>IF(_tuoliu_day_hour!X15="","",_tuoliu_day_hour!X15)</f>
         <v/>
       </c>
-      <c r="AA21" s="16" t="str">
+      <c r="AA21" s="9" t="str">
         <f>IF(_tuoliu_day_hour!Y15="","",_tuoliu_day_hour!Y15)</f>
         <v/>
       </c>
-      <c r="AB21" s="16" t="str">
+      <c r="AB21" s="9" t="str">
         <f>IF(_tuoliu_day_hour!Z15="","",_tuoliu_day_hour!Z15)</f>
         <v/>
       </c>
-      <c r="AC21" s="16" t="str">
+      <c r="AC21" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AA15="","",_tuoliu_day_hour!AA15)</f>
         <v/>
       </c>
-      <c r="AD21" s="16" t="str">
+      <c r="AD21" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AB15="","",_tuoliu_day_hour!AB15)</f>
         <v/>
       </c>
-      <c r="AE21" s="16" t="str">
+      <c r="AE21" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AC15="","",_tuoliu_day_hour!AC15)</f>
         <v/>
       </c>
-      <c r="AF21" s="16" t="str">
+      <c r="AF21" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AD15="","",_tuoliu_day_hour!AD15)</f>
         <v/>
       </c>
-      <c r="AG21" s="16" t="str">
+      <c r="AG21" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AE15="","",_tuoliu_day_hour!AE15)</f>
         <v/>
       </c>
-      <c r="AH21" s="16" t="str">
+      <c r="AH21" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AF15="","",_tuoliu_day_hour!AF15)</f>
         <v/>
       </c>
-      <c r="AI21" s="16" t="str">
+      <c r="AI21" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AG15="","",_tuoliu_day_hour!AG15)</f>
         <v/>
       </c>
-      <c r="AJ21" s="16" t="str">
+      <c r="AJ21" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AH15="","",_tuoliu_day_hour!AH15)</f>
         <v/>
       </c>
-      <c r="AK21" s="16" t="str">
+      <c r="AK21" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AI15="","",_tuoliu_day_hour!AI15)</f>
         <v/>
       </c>
-      <c r="AL21" s="16" t="str">
+      <c r="AL21" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AJ15="","",_tuoliu_day_hour!AJ15)</f>
         <v/>
       </c>
-      <c r="AM21" s="16" t="str">
+      <c r="AM21" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AK15="","",_tuoliu_day_hour!AK15)</f>
         <v/>
       </c>
-      <c r="AN21" s="16" t="str">
+      <c r="AN21" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AL15="","",_tuoliu_day_hour!AL15)</f>
         <v/>
       </c>
-      <c r="AO21" s="16" t="str">
+      <c r="AO21" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AM15="","",_tuoliu_day_hour!AM15)</f>
         <v/>
       </c>
-      <c r="AP21" s="16" t="str">
+      <c r="AP21" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AN15="","",_tuoliu_day_hour!AN15)</f>
         <v/>
       </c>
-      <c r="AQ21" s="16" t="str">
+      <c r="AQ21" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AO15="","",_tuoliu_day_hour!AO15)</f>
         <v/>
       </c>
-      <c r="AR21" s="16" t="str">
+      <c r="AR21" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AP15="","",_tuoliu_day_hour!AP15)</f>
         <v/>
       </c>
-      <c r="AS21" s="16" t="str">
+      <c r="AS21" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AQ15="","",_tuoliu_day_hour!AQ15)</f>
         <v/>
       </c>
-      <c r="AT21" s="16" t="str">
+      <c r="AT21" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AR15="","",_tuoliu_day_hour!AR15)</f>
         <v/>
       </c>
-      <c r="AU21" s="16" t="str">
+      <c r="AU21" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AS15="","",_tuoliu_day_hour!AS15)</f>
         <v/>
       </c>
-      <c r="AV21" s="16" t="str">
+      <c r="AV21" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AT15="","",_tuoliu_day_hour!AT15)</f>
         <v/>
       </c>
-      <c r="AW21" s="16" t="str">
+      <c r="AW21" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AU15="","",_tuoliu_day_hour!AU15)</f>
         <v/>
       </c>
-      <c r="AX21" s="16" t="str">
+      <c r="AX21" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AV15="","",_tuoliu_day_hour!AV15)</f>
         <v/>
       </c>
-      <c r="AY21" s="50" t="str">
+      <c r="AY21" s="14" t="str">
         <f>IF(_tuoliu_day_hour!AW15="","",_tuoliu_day_hour!AW15)</f>
         <v/>
       </c>
-      <c r="AZ21" s="42"/>
-      <c r="BA21" s="52" t="s">
+      <c r="AZ21" s="45"/>
+      <c r="BA21" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="BB21" s="16"/>
-      <c r="BC21" s="16"/>
-      <c r="BD21" s="48"/>
+      <c r="BB21" s="9"/>
+      <c r="BC21" s="9"/>
+      <c r="BD21" s="12"/>
     </row>
-    <row r="22" customFormat="1" spans="2:56">
-      <c r="B22" s="15">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="C22" s="16" t="str">
+    <row r="22" spans="2:56" x14ac:dyDescent="0.15">
+      <c r="B22" s="8">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="C22" s="9" t="str">
         <f>IF(_tuoliu_day_hour!A16="","",_tuoliu_day_hour!A16)</f>
         <v/>
       </c>
-      <c r="D22" s="16" t="str">
+      <c r="D22" s="9" t="str">
         <f>IF(_tuoliu_day_hour!B16="","",_tuoliu_day_hour!B16)</f>
         <v/>
       </c>
-      <c r="E22" s="16" t="str">
+      <c r="E22" s="9" t="str">
         <f>IF(_tuoliu_day_hour!C16="","",_tuoliu_day_hour!C16)</f>
         <v/>
       </c>
-      <c r="F22" s="16" t="str">
+      <c r="F22" s="9" t="str">
         <f>IF(_tuoliu_day_hour!D16="","",_tuoliu_day_hour!D16)</f>
         <v/>
       </c>
-      <c r="G22" s="16" t="str">
+      <c r="G22" s="9" t="str">
         <f>IF(_tuoliu_day_hour!E16="","",_tuoliu_day_hour!E16)</f>
         <v/>
       </c>
-      <c r="H22" s="16" t="str">
+      <c r="H22" s="9" t="str">
         <f>IF(_tuoliu_day_hour!F16="","",_tuoliu_day_hour!F16)</f>
         <v/>
       </c>
-      <c r="I22" s="16" t="str">
+      <c r="I22" s="9" t="str">
         <f>IF(_tuoliu_day_hour!G16="","",_tuoliu_day_hour!G16)</f>
         <v/>
       </c>
-      <c r="J22" s="16" t="str">
+      <c r="J22" s="9" t="str">
         <f>IF(_tuoliu_day_hour!H16="","",_tuoliu_day_hour!H16)</f>
         <v/>
       </c>
-      <c r="K22" s="16" t="str">
+      <c r="K22" s="9" t="str">
         <f>IF(_tuoliu_day_hour!I16="","",_tuoliu_day_hour!I16)</f>
         <v/>
       </c>
-      <c r="L22" s="16" t="str">
+      <c r="L22" s="9" t="str">
         <f>IF(_tuoliu_day_hour!J16="","",_tuoliu_day_hour!J16)</f>
         <v/>
       </c>
-      <c r="M22" s="16" t="str">
+      <c r="M22" s="9" t="str">
         <f>IF(_tuoliu_day_hour!K16="","",_tuoliu_day_hour!K16)</f>
         <v/>
       </c>
-      <c r="N22" s="16" t="str">
+      <c r="N22" s="9" t="str">
         <f>IF(_tuoliu_day_hour!L16="","",_tuoliu_day_hour!L16)</f>
         <v/>
       </c>
-      <c r="O22" s="16" t="str">
+      <c r="O22" s="9" t="str">
         <f>IF(_tuoliu_day_hour!M16="","",_tuoliu_day_hour!M16)</f>
         <v/>
       </c>
-      <c r="P22" s="16" t="str">
+      <c r="P22" s="9" t="str">
         <f>IF(_tuoliu_day_hour!N16="","",_tuoliu_day_hour!N16)</f>
         <v/>
       </c>
-      <c r="Q22" s="16" t="str">
+      <c r="Q22" s="9" t="str">
         <f>IF(_tuoliu_day_hour!O16="","",_tuoliu_day_hour!O16)</f>
         <v/>
       </c>
-      <c r="R22" s="16" t="str">
+      <c r="R22" s="9" t="str">
         <f>IF(_tuoliu_day_hour!P16="","",_tuoliu_day_hour!P16)</f>
         <v/>
       </c>
-      <c r="S22" s="16" t="str">
+      <c r="S22" s="9" t="str">
         <f>IF(_tuoliu_day_hour!Q16="","",_tuoliu_day_hour!Q16)</f>
         <v/>
       </c>
-      <c r="T22" s="16" t="str">
+      <c r="T22" s="9" t="str">
         <f>IF(_tuoliu_day_hour!R16="","",_tuoliu_day_hour!R16)</f>
         <v/>
       </c>
-      <c r="U22" s="16" t="str">
+      <c r="U22" s="9" t="str">
         <f>IF(_tuoliu_day_hour!S16="","",_tuoliu_day_hour!S16)</f>
         <v/>
       </c>
-      <c r="V22" s="16" t="str">
+      <c r="V22" s="9" t="str">
         <f>IF(_tuoliu_day_hour!T16="","",_tuoliu_day_hour!T16)</f>
         <v/>
       </c>
-      <c r="W22" s="16" t="str">
+      <c r="W22" s="9" t="str">
         <f>IF(_tuoliu_day_hour!U16="","",_tuoliu_day_hour!U16)</f>
         <v/>
       </c>
-      <c r="X22" s="16" t="str">
+      <c r="X22" s="9" t="str">
         <f>IF(_tuoliu_day_hour!V16="","",_tuoliu_day_hour!V16)</f>
         <v/>
       </c>
-      <c r="Y22" s="16" t="str">
+      <c r="Y22" s="9" t="str">
         <f>IF(_tuoliu_day_hour!W16="","",_tuoliu_day_hour!W16)</f>
         <v/>
       </c>
-      <c r="Z22" s="16" t="str">
+      <c r="Z22" s="9" t="str">
         <f>IF(_tuoliu_day_hour!X16="","",_tuoliu_day_hour!X16)</f>
         <v/>
       </c>
-      <c r="AA22" s="16" t="str">
+      <c r="AA22" s="9" t="str">
         <f>IF(_tuoliu_day_hour!Y16="","",_tuoliu_day_hour!Y16)</f>
         <v/>
       </c>
-      <c r="AB22" s="16" t="str">
+      <c r="AB22" s="9" t="str">
         <f>IF(_tuoliu_day_hour!Z16="","",_tuoliu_day_hour!Z16)</f>
         <v/>
       </c>
-      <c r="AC22" s="16" t="str">
+      <c r="AC22" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AA16="","",_tuoliu_day_hour!AA16)</f>
         <v/>
       </c>
-      <c r="AD22" s="16" t="str">
+      <c r="AD22" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AB16="","",_tuoliu_day_hour!AB16)</f>
         <v/>
       </c>
-      <c r="AE22" s="16" t="str">
+      <c r="AE22" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AC16="","",_tuoliu_day_hour!AC16)</f>
         <v/>
       </c>
-      <c r="AF22" s="16" t="str">
+      <c r="AF22" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AD16="","",_tuoliu_day_hour!AD16)</f>
         <v/>
       </c>
-      <c r="AG22" s="16" t="str">
+      <c r="AG22" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AE16="","",_tuoliu_day_hour!AE16)</f>
         <v/>
       </c>
-      <c r="AH22" s="16" t="str">
+      <c r="AH22" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AF16="","",_tuoliu_day_hour!AF16)</f>
         <v/>
       </c>
-      <c r="AI22" s="16" t="str">
+      <c r="AI22" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AG16="","",_tuoliu_day_hour!AG16)</f>
         <v/>
       </c>
-      <c r="AJ22" s="16" t="str">
+      <c r="AJ22" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AH16="","",_tuoliu_day_hour!AH16)</f>
         <v/>
       </c>
-      <c r="AK22" s="16" t="str">
+      <c r="AK22" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AI16="","",_tuoliu_day_hour!AI16)</f>
         <v/>
       </c>
-      <c r="AL22" s="16" t="str">
+      <c r="AL22" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AJ16="","",_tuoliu_day_hour!AJ16)</f>
         <v/>
       </c>
-      <c r="AM22" s="16" t="str">
+      <c r="AM22" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AK16="","",_tuoliu_day_hour!AK16)</f>
         <v/>
       </c>
-      <c r="AN22" s="16" t="str">
+      <c r="AN22" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AL16="","",_tuoliu_day_hour!AL16)</f>
         <v/>
       </c>
-      <c r="AO22" s="16" t="str">
+      <c r="AO22" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AM16="","",_tuoliu_day_hour!AM16)</f>
         <v/>
       </c>
-      <c r="AP22" s="16" t="str">
+      <c r="AP22" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AN16="","",_tuoliu_day_hour!AN16)</f>
         <v/>
       </c>
-      <c r="AQ22" s="16" t="str">
+      <c r="AQ22" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AO16="","",_tuoliu_day_hour!AO16)</f>
         <v/>
       </c>
-      <c r="AR22" s="16" t="str">
+      <c r="AR22" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AP16="","",_tuoliu_day_hour!AP16)</f>
         <v/>
       </c>
-      <c r="AS22" s="16" t="str">
+      <c r="AS22" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AQ16="","",_tuoliu_day_hour!AQ16)</f>
         <v/>
       </c>
-      <c r="AT22" s="16" t="str">
+      <c r="AT22" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AR16="","",_tuoliu_day_hour!AR16)</f>
         <v/>
       </c>
-      <c r="AU22" s="16" t="str">
+      <c r="AU22" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AS16="","",_tuoliu_day_hour!AS16)</f>
         <v/>
       </c>
-      <c r="AV22" s="16" t="str">
+      <c r="AV22" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AT16="","",_tuoliu_day_hour!AT16)</f>
         <v/>
       </c>
-      <c r="AW22" s="16" t="str">
+      <c r="AW22" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AU16="","",_tuoliu_day_hour!AU16)</f>
         <v/>
       </c>
-      <c r="AX22" s="16" t="str">
+      <c r="AX22" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AV16="","",_tuoliu_day_hour!AV16)</f>
         <v/>
       </c>
-      <c r="AY22" s="50" t="str">
+      <c r="AY22" s="14" t="str">
         <f>IF(_tuoliu_day_hour!AW16="","",_tuoliu_day_hour!AW16)</f>
         <v/>
       </c>
-      <c r="AZ22" s="42"/>
-      <c r="BA22" s="51" t="s">
+      <c r="AZ22" s="45"/>
+      <c r="BA22" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="BB22" s="16"/>
-      <c r="BC22" s="16"/>
-      <c r="BD22" s="48"/>
+      <c r="BB22" s="9"/>
+      <c r="BC22" s="9"/>
+      <c r="BD22" s="12"/>
     </row>
-    <row r="23" customFormat="1" spans="2:56">
-      <c r="B23" s="15">
+    <row r="23" spans="2:56" x14ac:dyDescent="0.15">
+      <c r="B23" s="8">
         <v>0.625</v>
       </c>
-      <c r="C23" s="16" t="str">
+      <c r="C23" s="9" t="str">
         <f>IF(_tuoliu_day_hour!A17="","",_tuoliu_day_hour!A17)</f>
         <v/>
       </c>
-      <c r="D23" s="16" t="str">
+      <c r="D23" s="9" t="str">
         <f>IF(_tuoliu_day_hour!B17="","",_tuoliu_day_hour!B17)</f>
         <v/>
       </c>
-      <c r="E23" s="16" t="str">
+      <c r="E23" s="9" t="str">
         <f>IF(_tuoliu_day_hour!C17="","",_tuoliu_day_hour!C17)</f>
         <v/>
       </c>
-      <c r="F23" s="16" t="str">
+      <c r="F23" s="9" t="str">
         <f>IF(_tuoliu_day_hour!D17="","",_tuoliu_day_hour!D17)</f>
         <v/>
       </c>
-      <c r="G23" s="16" t="str">
+      <c r="G23" s="9" t="str">
         <f>IF(_tuoliu_day_hour!E17="","",_tuoliu_day_hour!E17)</f>
         <v/>
       </c>
-      <c r="H23" s="16" t="str">
+      <c r="H23" s="9" t="str">
         <f>IF(_tuoliu_day_hour!F17="","",_tuoliu_day_hour!F17)</f>
         <v/>
       </c>
-      <c r="I23" s="16" t="str">
+      <c r="I23" s="9" t="str">
         <f>IF(_tuoliu_day_hour!G17="","",_tuoliu_day_hour!G17)</f>
         <v/>
       </c>
-      <c r="J23" s="16" t="str">
+      <c r="J23" s="9" t="str">
         <f>IF(_tuoliu_day_hour!H17="","",_tuoliu_day_hour!H17)</f>
         <v/>
       </c>
-      <c r="K23" s="16" t="str">
+      <c r="K23" s="9" t="str">
         <f>IF(_tuoliu_day_hour!I17="","",_tuoliu_day_hour!I17)</f>
         <v/>
       </c>
-      <c r="L23" s="16" t="str">
+      <c r="L23" s="9" t="str">
         <f>IF(_tuoliu_day_hour!J17="","",_tuoliu_day_hour!J17)</f>
         <v/>
       </c>
-      <c r="M23" s="16" t="str">
+      <c r="M23" s="9" t="str">
         <f>IF(_tuoliu_day_hour!K17="","",_tuoliu_day_hour!K17)</f>
         <v/>
       </c>
-      <c r="N23" s="16" t="str">
+      <c r="N23" s="9" t="str">
         <f>IF(_tuoliu_day_hour!L17="","",_tuoliu_day_hour!L17)</f>
         <v/>
       </c>
-      <c r="O23" s="16" t="str">
+      <c r="O23" s="9" t="str">
         <f>IF(_tuoliu_day_hour!M17="","",_tuoliu_day_hour!M17)</f>
         <v/>
       </c>
-      <c r="P23" s="16" t="str">
+      <c r="P23" s="9" t="str">
         <f>IF(_tuoliu_day_hour!N17="","",_tuoliu_day_hour!N17)</f>
         <v/>
       </c>
-      <c r="Q23" s="16" t="str">
+      <c r="Q23" s="9" t="str">
         <f>IF(_tuoliu_day_hour!O17="","",_tuoliu_day_hour!O17)</f>
         <v/>
       </c>
-      <c r="R23" s="16" t="str">
+      <c r="R23" s="9" t="str">
         <f>IF(_tuoliu_day_hour!P17="","",_tuoliu_day_hour!P17)</f>
         <v/>
       </c>
-      <c r="S23" s="16" t="str">
+      <c r="S23" s="9" t="str">
         <f>IF(_tuoliu_day_hour!Q17="","",_tuoliu_day_hour!Q17)</f>
         <v/>
       </c>
-      <c r="T23" s="16" t="str">
+      <c r="T23" s="9" t="str">
         <f>IF(_tuoliu_day_hour!R17="","",_tuoliu_day_hour!R17)</f>
         <v/>
       </c>
-      <c r="U23" s="16" t="str">
+      <c r="U23" s="9" t="str">
         <f>IF(_tuoliu_day_hour!S17="","",_tuoliu_day_hour!S17)</f>
         <v/>
       </c>
-      <c r="V23" s="16" t="str">
+      <c r="V23" s="9" t="str">
         <f>IF(_tuoliu_day_hour!T17="","",_tuoliu_day_hour!T17)</f>
         <v/>
       </c>
-      <c r="W23" s="16" t="str">
+      <c r="W23" s="9" t="str">
         <f>IF(_tuoliu_day_hour!U17="","",_tuoliu_day_hour!U17)</f>
         <v/>
       </c>
-      <c r="X23" s="16" t="str">
+      <c r="X23" s="9" t="str">
         <f>IF(_tuoliu_day_hour!V17="","",_tuoliu_day_hour!V17)</f>
         <v/>
       </c>
-      <c r="Y23" s="16" t="str">
+      <c r="Y23" s="9" t="str">
         <f>IF(_tuoliu_day_hour!W17="","",_tuoliu_day_hour!W17)</f>
         <v/>
       </c>
-      <c r="Z23" s="16" t="str">
+      <c r="Z23" s="9" t="str">
         <f>IF(_tuoliu_day_hour!X17="","",_tuoliu_day_hour!X17)</f>
         <v/>
       </c>
-      <c r="AA23" s="16" t="str">
+      <c r="AA23" s="9" t="str">
         <f>IF(_tuoliu_day_hour!Y17="","",_tuoliu_day_hour!Y17)</f>
         <v/>
       </c>
-      <c r="AB23" s="16" t="str">
+      <c r="AB23" s="9" t="str">
         <f>IF(_tuoliu_day_hour!Z17="","",_tuoliu_day_hour!Z17)</f>
         <v/>
       </c>
-      <c r="AC23" s="16" t="str">
+      <c r="AC23" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AA17="","",_tuoliu_day_hour!AA17)</f>
         <v/>
       </c>
-      <c r="AD23" s="16" t="str">
+      <c r="AD23" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AB17="","",_tuoliu_day_hour!AB17)</f>
         <v/>
       </c>
-      <c r="AE23" s="16" t="str">
+      <c r="AE23" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AC17="","",_tuoliu_day_hour!AC17)</f>
         <v/>
       </c>
-      <c r="AF23" s="16" t="str">
+      <c r="AF23" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AD17="","",_tuoliu_day_hour!AD17)</f>
         <v/>
       </c>
-      <c r="AG23" s="16" t="str">
+      <c r="AG23" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AE17="","",_tuoliu_day_hour!AE17)</f>
         <v/>
       </c>
-      <c r="AH23" s="16" t="str">
+      <c r="AH23" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AF17="","",_tuoliu_day_hour!AF17)</f>
         <v/>
       </c>
-      <c r="AI23" s="16" t="str">
+      <c r="AI23" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AG17="","",_tuoliu_day_hour!AG17)</f>
         <v/>
       </c>
-      <c r="AJ23" s="16" t="str">
+      <c r="AJ23" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AH17="","",_tuoliu_day_hour!AH17)</f>
         <v/>
       </c>
-      <c r="AK23" s="16" t="str">
+      <c r="AK23" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AI17="","",_tuoliu_day_hour!AI17)</f>
         <v/>
       </c>
-      <c r="AL23" s="16" t="str">
+      <c r="AL23" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AJ17="","",_tuoliu_day_hour!AJ17)</f>
         <v/>
       </c>
-      <c r="AM23" s="16" t="str">
+      <c r="AM23" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AK17="","",_tuoliu_day_hour!AK17)</f>
         <v/>
       </c>
-      <c r="AN23" s="16" t="str">
+      <c r="AN23" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AL17="","",_tuoliu_day_hour!AL17)</f>
         <v/>
       </c>
-      <c r="AO23" s="16" t="str">
+      <c r="AO23" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AM17="","",_tuoliu_day_hour!AM17)</f>
         <v/>
       </c>
-      <c r="AP23" s="16" t="str">
+      <c r="AP23" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AN17="","",_tuoliu_day_hour!AN17)</f>
         <v/>
       </c>
-      <c r="AQ23" s="16" t="str">
+      <c r="AQ23" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AO17="","",_tuoliu_day_hour!AO17)</f>
         <v/>
       </c>
-      <c r="AR23" s="16" t="str">
+      <c r="AR23" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AP17="","",_tuoliu_day_hour!AP17)</f>
         <v/>
       </c>
-      <c r="AS23" s="16" t="str">
+      <c r="AS23" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AQ17="","",_tuoliu_day_hour!AQ17)</f>
         <v/>
       </c>
-      <c r="AT23" s="16" t="str">
+      <c r="AT23" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AR17="","",_tuoliu_day_hour!AR17)</f>
         <v/>
       </c>
-      <c r="AU23" s="16" t="str">
+      <c r="AU23" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AS17="","",_tuoliu_day_hour!AS17)</f>
         <v/>
       </c>
-      <c r="AV23" s="16" t="str">
+      <c r="AV23" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AT17="","",_tuoliu_day_hour!AT17)</f>
         <v/>
       </c>
-      <c r="AW23" s="16" t="str">
+      <c r="AW23" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AU17="","",_tuoliu_day_hour!AU17)</f>
         <v/>
       </c>
-      <c r="AX23" s="16" t="str">
+      <c r="AX23" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AV17="","",_tuoliu_day_hour!AV17)</f>
         <v/>
       </c>
-      <c r="AY23" s="50" t="str">
+      <c r="AY23" s="14" t="str">
         <f>IF(_tuoliu_day_hour!AW17="","",_tuoliu_day_hour!AW17)</f>
         <v/>
       </c>
-      <c r="AZ23" s="42"/>
-      <c r="BA23" s="51" t="s">
+      <c r="AZ23" s="45"/>
+      <c r="BA23" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="BB23" s="16"/>
-      <c r="BC23" s="16"/>
-      <c r="BD23" s="48"/>
+      <c r="BB23" s="9"/>
+      <c r="BC23" s="9"/>
+      <c r="BD23" s="12"/>
     </row>
-    <row r="24" customFormat="1" spans="2:56">
-      <c r="B24" s="15">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="C24" s="16" t="str">
+    <row r="24" spans="2:56" x14ac:dyDescent="0.15">
+      <c r="B24" s="8">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="C24" s="9" t="str">
         <f>IF(_tuoliu_day_hour!A18="","",_tuoliu_day_hour!A18)</f>
         <v/>
       </c>
-      <c r="D24" s="16" t="str">
+      <c r="D24" s="9" t="str">
         <f>IF(_tuoliu_day_hour!B18="","",_tuoliu_day_hour!B18)</f>
         <v/>
       </c>
-      <c r="E24" s="16" t="str">
+      <c r="E24" s="9" t="str">
         <f>IF(_tuoliu_day_hour!C18="","",_tuoliu_day_hour!C18)</f>
         <v/>
       </c>
-      <c r="F24" s="16" t="str">
+      <c r="F24" s="9" t="str">
         <f>IF(_tuoliu_day_hour!D18="","",_tuoliu_day_hour!D18)</f>
         <v/>
       </c>
-      <c r="G24" s="16" t="str">
+      <c r="G24" s="9" t="str">
         <f>IF(_tuoliu_day_hour!E18="","",_tuoliu_day_hour!E18)</f>
         <v/>
       </c>
-      <c r="H24" s="16" t="str">
+      <c r="H24" s="9" t="str">
         <f>IF(_tuoliu_day_hour!F18="","",_tuoliu_day_hour!F18)</f>
         <v/>
       </c>
-      <c r="I24" s="16" t="str">
+      <c r="I24" s="9" t="str">
         <f>IF(_tuoliu_day_hour!G18="","",_tuoliu_day_hour!G18)</f>
         <v/>
       </c>
-      <c r="J24" s="16" t="str">
+      <c r="J24" s="9" t="str">
         <f>IF(_tuoliu_day_hour!H18="","",_tuoliu_day_hour!H18)</f>
         <v/>
       </c>
-      <c r="K24" s="16" t="str">
+      <c r="K24" s="9" t="str">
         <f>IF(_tuoliu_day_hour!I18="","",_tuoliu_day_hour!I18)</f>
         <v/>
       </c>
-      <c r="L24" s="16" t="str">
+      <c r="L24" s="9" t="str">
         <f>IF(_tuoliu_day_hour!J18="","",_tuoliu_day_hour!J18)</f>
         <v/>
       </c>
-      <c r="M24" s="16" t="str">
+      <c r="M24" s="9" t="str">
         <f>IF(_tuoliu_day_hour!K18="","",_tuoliu_day_hour!K18)</f>
         <v/>
       </c>
-      <c r="N24" s="16" t="str">
+      <c r="N24" s="9" t="str">
         <f>IF(_tuoliu_day_hour!L18="","",_tuoliu_day_hour!L18)</f>
         <v/>
       </c>
-      <c r="O24" s="16" t="str">
+      <c r="O24" s="9" t="str">
         <f>IF(_tuoliu_day_hour!M18="","",_tuoliu_day_hour!M18)</f>
         <v/>
       </c>
-      <c r="P24" s="16" t="str">
+      <c r="P24" s="9" t="str">
         <f>IF(_tuoliu_day_hour!N18="","",_tuoliu_day_hour!N18)</f>
         <v/>
       </c>
-      <c r="Q24" s="16" t="str">
+      <c r="Q24" s="9" t="str">
         <f>IF(_tuoliu_day_hour!O18="","",_tuoliu_day_hour!O18)</f>
         <v/>
       </c>
-      <c r="R24" s="16" t="str">
+      <c r="R24" s="9" t="str">
         <f>IF(_tuoliu_day_hour!P18="","",_tuoliu_day_hour!P18)</f>
         <v/>
       </c>
-      <c r="S24" s="16" t="str">
+      <c r="S24" s="9" t="str">
         <f>IF(_tuoliu_day_hour!Q18="","",_tuoliu_day_hour!Q18)</f>
         <v/>
       </c>
-      <c r="T24" s="16" t="str">
+      <c r="T24" s="9" t="str">
         <f>IF(_tuoliu_day_hour!R18="","",_tuoliu_day_hour!R18)</f>
         <v/>
       </c>
-      <c r="U24" s="16" t="str">
+      <c r="U24" s="9" t="str">
         <f>IF(_tuoliu_day_hour!S18="","",_tuoliu_day_hour!S18)</f>
         <v/>
       </c>
-      <c r="V24" s="16" t="str">
+      <c r="V24" s="9" t="str">
         <f>IF(_tuoliu_day_hour!T18="","",_tuoliu_day_hour!T18)</f>
         <v/>
       </c>
-      <c r="W24" s="16" t="str">
+      <c r="W24" s="9" t="str">
         <f>IF(_tuoliu_day_hour!U18="","",_tuoliu_day_hour!U18)</f>
         <v/>
       </c>
-      <c r="X24" s="16" t="str">
+      <c r="X24" s="9" t="str">
         <f>IF(_tuoliu_day_hour!V18="","",_tuoliu_day_hour!V18)</f>
         <v/>
       </c>
-      <c r="Y24" s="16" t="str">
+      <c r="Y24" s="9" t="str">
         <f>IF(_tuoliu_day_hour!W18="","",_tuoliu_day_hour!W18)</f>
         <v/>
       </c>
-      <c r="Z24" s="16" t="str">
+      <c r="Z24" s="9" t="str">
         <f>IF(_tuoliu_day_hour!X18="","",_tuoliu_day_hour!X18)</f>
         <v/>
       </c>
-      <c r="AA24" s="16" t="str">
+      <c r="AA24" s="9" t="str">
         <f>IF(_tuoliu_day_hour!Y18="","",_tuoliu_day_hour!Y18)</f>
         <v/>
       </c>
-      <c r="AB24" s="16" t="str">
+      <c r="AB24" s="9" t="str">
         <f>IF(_tuoliu_day_hour!Z18="","",_tuoliu_day_hour!Z18)</f>
         <v/>
       </c>
-      <c r="AC24" s="16" t="str">
+      <c r="AC24" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AA18="","",_tuoliu_day_hour!AA18)</f>
         <v/>
       </c>
-      <c r="AD24" s="16" t="str">
+      <c r="AD24" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AB18="","",_tuoliu_day_hour!AB18)</f>
         <v/>
       </c>
-      <c r="AE24" s="16" t="str">
+      <c r="AE24" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AC18="","",_tuoliu_day_hour!AC18)</f>
         <v/>
       </c>
-      <c r="AF24" s="16" t="str">
+      <c r="AF24" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AD18="","",_tuoliu_day_hour!AD18)</f>
         <v/>
       </c>
-      <c r="AG24" s="16" t="str">
+      <c r="AG24" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AE18="","",_tuoliu_day_hour!AE18)</f>
         <v/>
       </c>
-      <c r="AH24" s="16" t="str">
+      <c r="AH24" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AF18="","",_tuoliu_day_hour!AF18)</f>
         <v/>
       </c>
-      <c r="AI24" s="16" t="str">
+      <c r="AI24" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AG18="","",_tuoliu_day_hour!AG18)</f>
         <v/>
       </c>
-      <c r="AJ24" s="16" t="str">
+      <c r="AJ24" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AH18="","",_tuoliu_day_hour!AH18)</f>
         <v/>
       </c>
-      <c r="AK24" s="16" t="str">
+      <c r="AK24" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AI18="","",_tuoliu_day_hour!AI18)</f>
         <v/>
       </c>
-      <c r="AL24" s="16" t="str">
+      <c r="AL24" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AJ18="","",_tuoliu_day_hour!AJ18)</f>
         <v/>
       </c>
-      <c r="AM24" s="16" t="str">
+      <c r="AM24" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AK18="","",_tuoliu_day_hour!AK18)</f>
         <v/>
       </c>
-      <c r="AN24" s="16" t="str">
+      <c r="AN24" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AL18="","",_tuoliu_day_hour!AL18)</f>
         <v/>
       </c>
-      <c r="AO24" s="16" t="str">
+      <c r="AO24" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AM18="","",_tuoliu_day_hour!AM18)</f>
         <v/>
       </c>
-      <c r="AP24" s="16" t="str">
+      <c r="AP24" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AN18="","",_tuoliu_day_hour!AN18)</f>
         <v/>
       </c>
-      <c r="AQ24" s="16" t="str">
+      <c r="AQ24" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AO18="","",_tuoliu_day_hour!AO18)</f>
         <v/>
       </c>
-      <c r="AR24" s="16" t="str">
+      <c r="AR24" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AP18="","",_tuoliu_day_hour!AP18)</f>
         <v/>
       </c>
-      <c r="AS24" s="16" t="str">
+      <c r="AS24" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AQ18="","",_tuoliu_day_hour!AQ18)</f>
         <v/>
       </c>
-      <c r="AT24" s="16" t="str">
+      <c r="AT24" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AR18="","",_tuoliu_day_hour!AR18)</f>
         <v/>
       </c>
-      <c r="AU24" s="16" t="str">
+      <c r="AU24" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AS18="","",_tuoliu_day_hour!AS18)</f>
         <v/>
       </c>
-      <c r="AV24" s="16" t="str">
+      <c r="AV24" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AT18="","",_tuoliu_day_hour!AT18)</f>
         <v/>
       </c>
-      <c r="AW24" s="16" t="str">
+      <c r="AW24" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AU18="","",_tuoliu_day_hour!AU18)</f>
         <v/>
       </c>
-      <c r="AX24" s="16" t="str">
+      <c r="AX24" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AV18="","",_tuoliu_day_hour!AV18)</f>
         <v/>
       </c>
-      <c r="AY24" s="50" t="str">
+      <c r="AY24" s="14" t="str">
         <f>IF(_tuoliu_day_hour!AW18="","",_tuoliu_day_hour!AW18)</f>
         <v/>
       </c>
-      <c r="AZ24" s="42"/>
-      <c r="BA24" s="51" t="s">
+      <c r="AZ24" s="45"/>
+      <c r="BA24" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="BB24" s="16"/>
-      <c r="BC24" s="16"/>
-      <c r="BD24" s="48"/>
+      <c r="BB24" s="9"/>
+      <c r="BC24" s="9"/>
+      <c r="BD24" s="12"/>
     </row>
-    <row r="25" customFormat="1" spans="2:56">
-      <c r="B25" s="15">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="C25" s="16" t="str">
+    <row r="25" spans="2:56" x14ac:dyDescent="0.15">
+      <c r="B25" s="8">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="C25" s="9" t="str">
         <f>IF(_tuoliu_day_hour!A19="","",_tuoliu_day_hour!A19)</f>
         <v/>
       </c>
-      <c r="D25" s="16" t="str">
+      <c r="D25" s="9" t="str">
         <f>IF(_tuoliu_day_hour!B19="","",_tuoliu_day_hour!B19)</f>
         <v/>
       </c>
-      <c r="E25" s="16" t="str">
+      <c r="E25" s="9" t="str">
         <f>IF(_tuoliu_day_hour!C19="","",_tuoliu_day_hour!C19)</f>
         <v/>
       </c>
-      <c r="F25" s="16" t="str">
+      <c r="F25" s="9" t="str">
         <f>IF(_tuoliu_day_hour!D19="","",_tuoliu_day_hour!D19)</f>
         <v/>
       </c>
-      <c r="G25" s="16" t="str">
+      <c r="G25" s="9" t="str">
         <f>IF(_tuoliu_day_hour!E19="","",_tuoliu_day_hour!E19)</f>
         <v/>
       </c>
-      <c r="H25" s="16" t="str">
+      <c r="H25" s="9" t="str">
         <f>IF(_tuoliu_day_hour!F19="","",_tuoliu_day_hour!F19)</f>
         <v/>
       </c>
-      <c r="I25" s="16" t="str">
+      <c r="I25" s="9" t="str">
         <f>IF(_tuoliu_day_hour!G19="","",_tuoliu_day_hour!G19)</f>
         <v/>
       </c>
-      <c r="J25" s="16" t="str">
+      <c r="J25" s="9" t="str">
         <f>IF(_tuoliu_day_hour!H19="","",_tuoliu_day_hour!H19)</f>
         <v/>
       </c>
-      <c r="K25" s="16" t="str">
+      <c r="K25" s="9" t="str">
         <f>IF(_tuoliu_day_hour!I19="","",_tuoliu_day_hour!I19)</f>
         <v/>
       </c>
-      <c r="L25" s="16" t="str">
+      <c r="L25" s="9" t="str">
         <f>IF(_tuoliu_day_hour!J19="","",_tuoliu_day_hour!J19)</f>
         <v/>
       </c>
-      <c r="M25" s="16" t="str">
+      <c r="M25" s="9" t="str">
         <f>IF(_tuoliu_day_hour!K19="","",_tuoliu_day_hour!K19)</f>
         <v/>
       </c>
-      <c r="N25" s="16" t="str">
+      <c r="N25" s="9" t="str">
         <f>IF(_tuoliu_day_hour!L19="","",_tuoliu_day_hour!L19)</f>
         <v/>
       </c>
-      <c r="O25" s="16" t="str">
+      <c r="O25" s="9" t="str">
         <f>IF(_tuoliu_day_hour!M19="","",_tuoliu_day_hour!M19)</f>
         <v/>
       </c>
-      <c r="P25" s="16" t="str">
+      <c r="P25" s="9" t="str">
         <f>IF(_tuoliu_day_hour!N19="","",_tuoliu_day_hour!N19)</f>
         <v/>
       </c>
-      <c r="Q25" s="16" t="str">
+      <c r="Q25" s="9" t="str">
         <f>IF(_tuoliu_day_hour!O19="","",_tuoliu_day_hour!O19)</f>
         <v/>
       </c>
-      <c r="R25" s="16" t="str">
+      <c r="R25" s="9" t="str">
         <f>IF(_tuoliu_day_hour!P19="","",_tuoliu_day_hour!P19)</f>
         <v/>
       </c>
-      <c r="S25" s="16" t="str">
+      <c r="S25" s="9" t="str">
         <f>IF(_tuoliu_day_hour!Q19="","",_tuoliu_day_hour!Q19)</f>
         <v/>
       </c>
-      <c r="T25" s="16" t="str">
+      <c r="T25" s="9" t="str">
         <f>IF(_tuoliu_day_hour!R19="","",_tuoliu_day_hour!R19)</f>
         <v/>
       </c>
-      <c r="U25" s="16" t="str">
+      <c r="U25" s="9" t="str">
         <f>IF(_tuoliu_day_hour!S19="","",_tuoliu_day_hour!S19)</f>
         <v/>
       </c>
-      <c r="V25" s="16" t="str">
+      <c r="V25" s="9" t="str">
         <f>IF(_tuoliu_day_hour!T19="","",_tuoliu_day_hour!T19)</f>
         <v/>
       </c>
-      <c r="W25" s="16" t="str">
+      <c r="W25" s="9" t="str">
         <f>IF(_tuoliu_day_hour!U19="","",_tuoliu_day_hour!U19)</f>
         <v/>
       </c>
-      <c r="X25" s="16" t="str">
+      <c r="X25" s="9" t="str">
         <f>IF(_tuoliu_day_hour!V19="","",_tuoliu_day_hour!V19)</f>
         <v/>
       </c>
-      <c r="Y25" s="16" t="str">
+      <c r="Y25" s="9" t="str">
         <f>IF(_tuoliu_day_hour!W19="","",_tuoliu_day_hour!W19)</f>
         <v/>
       </c>
-      <c r="Z25" s="16" t="str">
+      <c r="Z25" s="9" t="str">
         <f>IF(_tuoliu_day_hour!X19="","",_tuoliu_day_hour!X19)</f>
         <v/>
       </c>
-      <c r="AA25" s="16" t="str">
+      <c r="AA25" s="9" t="str">
         <f>IF(_tuoliu_day_hour!Y19="","",_tuoliu_day_hour!Y19)</f>
         <v/>
       </c>
-      <c r="AB25" s="16" t="str">
+      <c r="AB25" s="9" t="str">
         <f>IF(_tuoliu_day_hour!Z19="","",_tuoliu_day_hour!Z19)</f>
         <v/>
       </c>
-      <c r="AC25" s="16" t="str">
+      <c r="AC25" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AA19="","",_tuoliu_day_hour!AA19)</f>
         <v/>
       </c>
-      <c r="AD25" s="16" t="str">
+      <c r="AD25" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AB19="","",_tuoliu_day_hour!AB19)</f>
         <v/>
       </c>
-      <c r="AE25" s="16" t="str">
+      <c r="AE25" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AC19="","",_tuoliu_day_hour!AC19)</f>
         <v/>
       </c>
-      <c r="AF25" s="16" t="str">
+      <c r="AF25" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AD19="","",_tuoliu_day_hour!AD19)</f>
         <v/>
       </c>
-      <c r="AG25" s="16" t="str">
+      <c r="AG25" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AE19="","",_tuoliu_day_hour!AE19)</f>
         <v/>
       </c>
-      <c r="AH25" s="16" t="str">
+      <c r="AH25" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AF19="","",_tuoliu_day_hour!AF19)</f>
         <v/>
       </c>
-      <c r="AI25" s="16" t="str">
+      <c r="AI25" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AG19="","",_tuoliu_day_hour!AG19)</f>
         <v/>
       </c>
-      <c r="AJ25" s="16" t="str">
+      <c r="AJ25" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AH19="","",_tuoliu_day_hour!AH19)</f>
         <v/>
       </c>
-      <c r="AK25" s="16" t="str">
+      <c r="AK25" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AI19="","",_tuoliu_day_hour!AI19)</f>
         <v/>
       </c>
-      <c r="AL25" s="16" t="str">
+      <c r="AL25" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AJ19="","",_tuoliu_day_hour!AJ19)</f>
         <v/>
       </c>
-      <c r="AM25" s="16" t="str">
+      <c r="AM25" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AK19="","",_tuoliu_day_hour!AK19)</f>
         <v/>
       </c>
-      <c r="AN25" s="16" t="str">
+      <c r="AN25" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AL19="","",_tuoliu_day_hour!AL19)</f>
         <v/>
       </c>
-      <c r="AO25" s="16" t="str">
+      <c r="AO25" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AM19="","",_tuoliu_day_hour!AM19)</f>
         <v/>
       </c>
-      <c r="AP25" s="16" t="str">
+      <c r="AP25" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AN19="","",_tuoliu_day_hour!AN19)</f>
         <v/>
       </c>
-      <c r="AQ25" s="16" t="str">
+      <c r="AQ25" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AO19="","",_tuoliu_day_hour!AO19)</f>
         <v/>
       </c>
-      <c r="AR25" s="16" t="str">
+      <c r="AR25" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AP19="","",_tuoliu_day_hour!AP19)</f>
         <v/>
       </c>
-      <c r="AS25" s="16" t="str">
+      <c r="AS25" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AQ19="","",_tuoliu_day_hour!AQ19)</f>
         <v/>
       </c>
-      <c r="AT25" s="16" t="str">
+      <c r="AT25" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AR19="","",_tuoliu_day_hour!AR19)</f>
         <v/>
       </c>
-      <c r="AU25" s="16" t="str">
+      <c r="AU25" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AS19="","",_tuoliu_day_hour!AS19)</f>
         <v/>
       </c>
-      <c r="AV25" s="16" t="str">
+      <c r="AV25" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AT19="","",_tuoliu_day_hour!AT19)</f>
         <v/>
       </c>
-      <c r="AW25" s="16" t="str">
+      <c r="AW25" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AU19="","",_tuoliu_day_hour!AU19)</f>
         <v/>
       </c>
-      <c r="AX25" s="16" t="str">
+      <c r="AX25" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AV19="","",_tuoliu_day_hour!AV19)</f>
         <v/>
       </c>
-      <c r="AY25" s="50" t="str">
+      <c r="AY25" s="14" t="str">
         <f>IF(_tuoliu_day_hour!AW19="","",_tuoliu_day_hour!AW19)</f>
         <v/>
       </c>
-      <c r="AZ25" s="42"/>
-      <c r="BA25" s="51" t="s">
+      <c r="AZ25" s="45"/>
+      <c r="BA25" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="BB25" s="16"/>
-      <c r="BC25" s="16"/>
-      <c r="BD25" s="48"/>
+      <c r="BB25" s="9"/>
+      <c r="BC25" s="9"/>
+      <c r="BD25" s="12"/>
     </row>
-    <row r="26" customFormat="1" spans="2:56">
-      <c r="B26" s="15">
+    <row r="26" spans="2:56" x14ac:dyDescent="0.15">
+      <c r="B26" s="8">
         <v>0.75</v>
       </c>
-      <c r="C26" s="16" t="str">
+      <c r="C26" s="9" t="str">
         <f>IF(_tuoliu_day_hour!A20="","",_tuoliu_day_hour!A20)</f>
         <v/>
       </c>
-      <c r="D26" s="16" t="str">
+      <c r="D26" s="9" t="str">
         <f>IF(_tuoliu_day_hour!B20="","",_tuoliu_day_hour!B20)</f>
         <v/>
       </c>
-      <c r="E26" s="16" t="str">
+      <c r="E26" s="9" t="str">
         <f>IF(_tuoliu_day_hour!C20="","",_tuoliu_day_hour!C20)</f>
         <v/>
       </c>
-      <c r="F26" s="16" t="str">
+      <c r="F26" s="9" t="str">
         <f>IF(_tuoliu_day_hour!D20="","",_tuoliu_day_hour!D20)</f>
         <v/>
       </c>
-      <c r="G26" s="16" t="str">
+      <c r="G26" s="9" t="str">
         <f>IF(_tuoliu_day_hour!E20="","",_tuoliu_day_hour!E20)</f>
         <v/>
       </c>
-      <c r="H26" s="16" t="str">
+      <c r="H26" s="9" t="str">
         <f>IF(_tuoliu_day_hour!F20="","",_tuoliu_day_hour!F20)</f>
         <v/>
       </c>
-      <c r="I26" s="16" t="str">
+      <c r="I26" s="9" t="str">
         <f>IF(_tuoliu_day_hour!G20="","",_tuoliu_day_hour!G20)</f>
         <v/>
       </c>
-      <c r="J26" s="16" t="str">
+      <c r="J26" s="9" t="str">
         <f>IF(_tuoliu_day_hour!H20="","",_tuoliu_day_hour!H20)</f>
         <v/>
       </c>
-      <c r="K26" s="16" t="str">
+      <c r="K26" s="9" t="str">
         <f>IF(_tuoliu_day_hour!I20="","",_tuoliu_day_hour!I20)</f>
         <v/>
       </c>
-      <c r="L26" s="16" t="str">
+      <c r="L26" s="9" t="str">
         <f>IF(_tuoliu_day_hour!J20="","",_tuoliu_day_hour!J20)</f>
         <v/>
       </c>
-      <c r="M26" s="16" t="str">
+      <c r="M26" s="9" t="str">
         <f>IF(_tuoliu_day_hour!K20="","",_tuoliu_day_hour!K20)</f>
         <v/>
       </c>
-      <c r="N26" s="16" t="str">
+      <c r="N26" s="9" t="str">
         <f>IF(_tuoliu_day_hour!L20="","",_tuoliu_day_hour!L20)</f>
         <v/>
       </c>
-      <c r="O26" s="16" t="str">
+      <c r="O26" s="9" t="str">
         <f>IF(_tuoliu_day_hour!M20="","",_tuoliu_day_hour!M20)</f>
         <v/>
       </c>
-      <c r="P26" s="16" t="str">
+      <c r="P26" s="9" t="str">
         <f>IF(_tuoliu_day_hour!N20="","",_tuoliu_day_hour!N20)</f>
         <v/>
       </c>
-      <c r="Q26" s="16" t="str">
+      <c r="Q26" s="9" t="str">
         <f>IF(_tuoliu_day_hour!O20="","",_tuoliu_day_hour!O20)</f>
         <v/>
       </c>
-      <c r="R26" s="16" t="str">
+      <c r="R26" s="9" t="str">
         <f>IF(_tuoliu_day_hour!P20="","",_tuoliu_day_hour!P20)</f>
         <v/>
       </c>
-      <c r="S26" s="16" t="str">
+      <c r="S26" s="9" t="str">
         <f>IF(_tuoliu_day_hour!Q20="","",_tuoliu_day_hour!Q20)</f>
         <v/>
       </c>
-      <c r="T26" s="16" t="str">
+      <c r="T26" s="9" t="str">
         <f>IF(_tuoliu_day_hour!R20="","",_tuoliu_day_hour!R20)</f>
         <v/>
       </c>
-      <c r="U26" s="16" t="str">
+      <c r="U26" s="9" t="str">
         <f>IF(_tuoliu_day_hour!S20="","",_tuoliu_day_hour!S20)</f>
         <v/>
       </c>
-      <c r="V26" s="16" t="str">
+      <c r="V26" s="9" t="str">
         <f>IF(_tuoliu_day_hour!T20="","",_tuoliu_day_hour!T20)</f>
         <v/>
       </c>
-      <c r="W26" s="16" t="str">
+      <c r="W26" s="9" t="str">
         <f>IF(_tuoliu_day_hour!U20="","",_tuoliu_day_hour!U20)</f>
         <v/>
       </c>
-      <c r="X26" s="16" t="str">
+      <c r="X26" s="9" t="str">
         <f>IF(_tuoliu_day_hour!V20="","",_tuoliu_day_hour!V20)</f>
         <v/>
       </c>
-      <c r="Y26" s="16" t="str">
+      <c r="Y26" s="9" t="str">
         <f>IF(_tuoliu_day_hour!W20="","",_tuoliu_day_hour!W20)</f>
         <v/>
       </c>
-      <c r="Z26" s="16" t="str">
+      <c r="Z26" s="9" t="str">
         <f>IF(_tuoliu_day_hour!X20="","",_tuoliu_day_hour!X20)</f>
         <v/>
       </c>
-      <c r="AA26" s="16" t="str">
+      <c r="AA26" s="9" t="str">
         <f>IF(_tuoliu_day_hour!Y20="","",_tuoliu_day_hour!Y20)</f>
         <v/>
       </c>
-      <c r="AB26" s="16" t="str">
+      <c r="AB26" s="9" t="str">
         <f>IF(_tuoliu_day_hour!Z20="","",_tuoliu_day_hour!Z20)</f>
         <v/>
       </c>
-      <c r="AC26" s="16" t="str">
+      <c r="AC26" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AA20="","",_tuoliu_day_hour!AA20)</f>
         <v/>
       </c>
-      <c r="AD26" s="16" t="str">
+      <c r="AD26" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AB20="","",_tuoliu_day_hour!AB20)</f>
         <v/>
       </c>
-      <c r="AE26" s="16" t="str">
+      <c r="AE26" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AC20="","",_tuoliu_day_hour!AC20)</f>
         <v/>
       </c>
-      <c r="AF26" s="16" t="str">
+      <c r="AF26" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AD20="","",_tuoliu_day_hour!AD20)</f>
         <v/>
       </c>
-      <c r="AG26" s="16" t="str">
+      <c r="AG26" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AE20="","",_tuoliu_day_hour!AE20)</f>
         <v/>
       </c>
-      <c r="AH26" s="16" t="str">
+      <c r="AH26" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AF20="","",_tuoliu_day_hour!AF20)</f>
         <v/>
       </c>
-      <c r="AI26" s="16" t="str">
+      <c r="AI26" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AG20="","",_tuoliu_day_hour!AG20)</f>
         <v/>
       </c>
-      <c r="AJ26" s="16" t="str">
+      <c r="AJ26" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AH20="","",_tuoliu_day_hour!AH20)</f>
         <v/>
       </c>
-      <c r="AK26" s="16" t="str">
+      <c r="AK26" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AI20="","",_tuoliu_day_hour!AI20)</f>
         <v/>
       </c>
-      <c r="AL26" s="16" t="str">
+      <c r="AL26" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AJ20="","",_tuoliu_day_hour!AJ20)</f>
         <v/>
       </c>
-      <c r="AM26" s="16" t="str">
+      <c r="AM26" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AK20="","",_tuoliu_day_hour!AK20)</f>
         <v/>
       </c>
-      <c r="AN26" s="16" t="str">
+      <c r="AN26" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AL20="","",_tuoliu_day_hour!AL20)</f>
         <v/>
       </c>
-      <c r="AO26" s="16" t="str">
+      <c r="AO26" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AM20="","",_tuoliu_day_hour!AM20)</f>
         <v/>
       </c>
-      <c r="AP26" s="16" t="str">
+      <c r="AP26" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AN20="","",_tuoliu_day_hour!AN20)</f>
         <v/>
       </c>
-      <c r="AQ26" s="16" t="str">
+      <c r="AQ26" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AO20="","",_tuoliu_day_hour!AO20)</f>
         <v/>
       </c>
-      <c r="AR26" s="16" t="str">
+      <c r="AR26" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AP20="","",_tuoliu_day_hour!AP20)</f>
         <v/>
       </c>
-      <c r="AS26" s="16" t="str">
+      <c r="AS26" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AQ20="","",_tuoliu_day_hour!AQ20)</f>
         <v/>
       </c>
-      <c r="AT26" s="16" t="str">
+      <c r="AT26" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AR20="","",_tuoliu_day_hour!AR20)</f>
         <v/>
       </c>
-      <c r="AU26" s="16" t="str">
+      <c r="AU26" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AS20="","",_tuoliu_day_hour!AS20)</f>
         <v/>
       </c>
-      <c r="AV26" s="16" t="str">
+      <c r="AV26" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AT20="","",_tuoliu_day_hour!AT20)</f>
         <v/>
       </c>
-      <c r="AW26" s="16" t="str">
+      <c r="AW26" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AU20="","",_tuoliu_day_hour!AU20)</f>
         <v/>
       </c>
-      <c r="AX26" s="16" t="str">
+      <c r="AX26" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AV20="","",_tuoliu_day_hour!AV20)</f>
         <v/>
       </c>
-      <c r="AY26" s="50" t="str">
+      <c r="AY26" s="14" t="str">
         <f>IF(_tuoliu_day_hour!AW20="","",_tuoliu_day_hour!AW20)</f>
         <v/>
       </c>
-      <c r="AZ26" s="54"/>
-      <c r="BA26" s="16"/>
-      <c r="BB26" s="16"/>
-      <c r="BC26" s="16"/>
-      <c r="BD26" s="48"/>
+      <c r="AZ26" s="18"/>
+      <c r="BA26" s="9"/>
+      <c r="BB26" s="9"/>
+      <c r="BC26" s="9"/>
+      <c r="BD26" s="12"/>
     </row>
-    <row r="27" customFormat="1" spans="2:56">
-      <c r="B27" s="15">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="C27" s="16" t="str">
+    <row r="27" spans="2:56" x14ac:dyDescent="0.15">
+      <c r="B27" s="8">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="C27" s="9" t="str">
         <f>IF(_tuoliu_day_hour!A21="","",_tuoliu_day_hour!A21)</f>
         <v/>
       </c>
-      <c r="D27" s="16" t="str">
+      <c r="D27" s="9" t="str">
         <f>IF(_tuoliu_day_hour!B21="","",_tuoliu_day_hour!B21)</f>
         <v/>
       </c>
-      <c r="E27" s="16" t="str">
+      <c r="E27" s="9" t="str">
         <f>IF(_tuoliu_day_hour!C21="","",_tuoliu_day_hour!C21)</f>
         <v/>
       </c>
-      <c r="F27" s="16" t="str">
+      <c r="F27" s="9" t="str">
         <f>IF(_tuoliu_day_hour!D21="","",_tuoliu_day_hour!D21)</f>
         <v/>
       </c>
-      <c r="G27" s="16" t="str">
+      <c r="G27" s="9" t="str">
         <f>IF(_tuoliu_day_hour!E21="","",_tuoliu_day_hour!E21)</f>
         <v/>
       </c>
-      <c r="H27" s="16" t="str">
+      <c r="H27" s="9" t="str">
         <f>IF(_tuoliu_day_hour!F21="","",_tuoliu_day_hour!F21)</f>
         <v/>
       </c>
-      <c r="I27" s="16" t="str">
+      <c r="I27" s="9" t="str">
         <f>IF(_tuoliu_day_hour!G21="","",_tuoliu_day_hour!G21)</f>
         <v/>
       </c>
-      <c r="J27" s="16" t="str">
+      <c r="J27" s="9" t="str">
         <f>IF(_tuoliu_day_hour!H21="","",_tuoliu_day_hour!H21)</f>
         <v/>
       </c>
-      <c r="K27" s="16" t="str">
+      <c r="K27" s="9" t="str">
         <f>IF(_tuoliu_day_hour!I21="","",_tuoliu_day_hour!I21)</f>
         <v/>
       </c>
-      <c r="L27" s="16" t="str">
+      <c r="L27" s="9" t="str">
         <f>IF(_tuoliu_day_hour!J21="","",_tuoliu_day_hour!J21)</f>
         <v/>
       </c>
-      <c r="M27" s="16" t="str">
+      <c r="M27" s="9" t="str">
         <f>IF(_tuoliu_day_hour!K21="","",_tuoliu_day_hour!K21)</f>
         <v/>
       </c>
-      <c r="N27" s="16" t="str">
+      <c r="N27" s="9" t="str">
         <f>IF(_tuoliu_day_hour!L21="","",_tuoliu_day_hour!L21)</f>
         <v/>
       </c>
-      <c r="O27" s="16" t="str">
+      <c r="O27" s="9" t="str">
         <f>IF(_tuoliu_day_hour!M21="","",_tuoliu_day_hour!M21)</f>
         <v/>
       </c>
-      <c r="P27" s="16" t="str">
+      <c r="P27" s="9" t="str">
         <f>IF(_tuoliu_day_hour!N21="","",_tuoliu_day_hour!N21)</f>
         <v/>
       </c>
-      <c r="Q27" s="16" t="str">
+      <c r="Q27" s="9" t="str">
         <f>IF(_tuoliu_day_hour!O21="","",_tuoliu_day_hour!O21)</f>
         <v/>
       </c>
-      <c r="R27" s="16" t="str">
+      <c r="R27" s="9" t="str">
         <f>IF(_tuoliu_day_hour!P21="","",_tuoliu_day_hour!P21)</f>
         <v/>
       </c>
-      <c r="S27" s="16" t="str">
+      <c r="S27" s="9" t="str">
         <f>IF(_tuoliu_day_hour!Q21="","",_tuoliu_day_hour!Q21)</f>
         <v/>
       </c>
-      <c r="T27" s="16" t="str">
+      <c r="T27" s="9" t="str">
         <f>IF(_tuoliu_day_hour!R21="","",_tuoliu_day_hour!R21)</f>
         <v/>
       </c>
-      <c r="U27" s="16" t="str">
+      <c r="U27" s="9" t="str">
         <f>IF(_tuoliu_day_hour!S21="","",_tuoliu_day_hour!S21)</f>
         <v/>
       </c>
-      <c r="V27" s="16" t="str">
+      <c r="V27" s="9" t="str">
         <f>IF(_tuoliu_day_hour!T21="","",_tuoliu_day_hour!T21)</f>
         <v/>
       </c>
-      <c r="W27" s="16" t="str">
+      <c r="W27" s="9" t="str">
         <f>IF(_tuoliu_day_hour!U21="","",_tuoliu_day_hour!U21)</f>
         <v/>
       </c>
-      <c r="X27" s="16" t="str">
+      <c r="X27" s="9" t="str">
         <f>IF(_tuoliu_day_hour!V21="","",_tuoliu_day_hour!V21)</f>
         <v/>
       </c>
-      <c r="Y27" s="16" t="str">
+      <c r="Y27" s="9" t="str">
         <f>IF(_tuoliu_day_hour!W21="","",_tuoliu_day_hour!W21)</f>
         <v/>
       </c>
-      <c r="Z27" s="16" t="str">
+      <c r="Z27" s="9" t="str">
         <f>IF(_tuoliu_day_hour!X21="","",_tuoliu_day_hour!X21)</f>
         <v/>
       </c>
-      <c r="AA27" s="16" t="str">
+      <c r="AA27" s="9" t="str">
         <f>IF(_tuoliu_day_hour!Y21="","",_tuoliu_day_hour!Y21)</f>
         <v/>
       </c>
-      <c r="AB27" s="16" t="str">
+      <c r="AB27" s="9" t="str">
         <f>IF(_tuoliu_day_hour!Z21="","",_tuoliu_day_hour!Z21)</f>
         <v/>
       </c>
-      <c r="AC27" s="16" t="str">
+      <c r="AC27" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AA21="","",_tuoliu_day_hour!AA21)</f>
         <v/>
       </c>
-      <c r="AD27" s="16" t="str">
+      <c r="AD27" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AB21="","",_tuoliu_day_hour!AB21)</f>
         <v/>
       </c>
-      <c r="AE27" s="16" t="str">
+      <c r="AE27" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AC21="","",_tuoliu_day_hour!AC21)</f>
         <v/>
       </c>
-      <c r="AF27" s="16" t="str">
+      <c r="AF27" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AD21="","",_tuoliu_day_hour!AD21)</f>
         <v/>
       </c>
-      <c r="AG27" s="16" t="str">
+      <c r="AG27" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AE21="","",_tuoliu_day_hour!AE21)</f>
         <v/>
       </c>
-      <c r="AH27" s="16" t="str">
+      <c r="AH27" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AF21="","",_tuoliu_day_hour!AF21)</f>
         <v/>
       </c>
-      <c r="AI27" s="16" t="str">
+      <c r="AI27" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AG21="","",_tuoliu_day_hour!AG21)</f>
         <v/>
       </c>
-      <c r="AJ27" s="16" t="str">
+      <c r="AJ27" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AH21="","",_tuoliu_day_hour!AH21)</f>
         <v/>
       </c>
-      <c r="AK27" s="16" t="str">
+      <c r="AK27" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AI21="","",_tuoliu_day_hour!AI21)</f>
         <v/>
       </c>
-      <c r="AL27" s="16" t="str">
+      <c r="AL27" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AJ21="","",_tuoliu_day_hour!AJ21)</f>
         <v/>
       </c>
-      <c r="AM27" s="16" t="str">
+      <c r="AM27" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AK21="","",_tuoliu_day_hour!AK21)</f>
         <v/>
       </c>
-      <c r="AN27" s="16" t="str">
+      <c r="AN27" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AL21="","",_tuoliu_day_hour!AL21)</f>
         <v/>
       </c>
-      <c r="AO27" s="16" t="str">
+      <c r="AO27" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AM21="","",_tuoliu_day_hour!AM21)</f>
         <v/>
       </c>
-      <c r="AP27" s="16" t="str">
+      <c r="AP27" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AN21="","",_tuoliu_day_hour!AN21)</f>
         <v/>
       </c>
-      <c r="AQ27" s="16" t="str">
+      <c r="AQ27" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AO21="","",_tuoliu_day_hour!AO21)</f>
         <v/>
       </c>
-      <c r="AR27" s="16" t="str">
+      <c r="AR27" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AP21="","",_tuoliu_day_hour!AP21)</f>
         <v/>
       </c>
-      <c r="AS27" s="16" t="str">
+      <c r="AS27" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AQ21="","",_tuoliu_day_hour!AQ21)</f>
         <v/>
       </c>
-      <c r="AT27" s="16" t="str">
+      <c r="AT27" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AR21="","",_tuoliu_day_hour!AR21)</f>
         <v/>
       </c>
-      <c r="AU27" s="16" t="str">
+      <c r="AU27" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AS21="","",_tuoliu_day_hour!AS21)</f>
         <v/>
       </c>
-      <c r="AV27" s="16" t="str">
+      <c r="AV27" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AT21="","",_tuoliu_day_hour!AT21)</f>
         <v/>
       </c>
-      <c r="AW27" s="16" t="str">
+      <c r="AW27" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AU21="","",_tuoliu_day_hour!AU21)</f>
         <v/>
       </c>
-      <c r="AX27" s="16" t="str">
+      <c r="AX27" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AV21="","",_tuoliu_day_hour!AV21)</f>
         <v/>
       </c>
-      <c r="AY27" s="50" t="str">
+      <c r="AY27" s="14" t="str">
         <f>IF(_tuoliu_day_hour!AW21="","",_tuoliu_day_hour!AW21)</f>
         <v/>
       </c>
-      <c r="AZ27" s="54"/>
-      <c r="BA27" s="16"/>
-      <c r="BB27" s="16"/>
-      <c r="BC27" s="16"/>
-      <c r="BD27" s="48"/>
+      <c r="AZ27" s="18"/>
+      <c r="BA27" s="9"/>
+      <c r="BB27" s="9"/>
+      <c r="BC27" s="9"/>
+      <c r="BD27" s="12"/>
     </row>
-    <row r="28" customFormat="1" spans="2:56">
-      <c r="B28" s="15">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C28" s="16" t="str">
+    <row r="28" spans="2:56" x14ac:dyDescent="0.15">
+      <c r="B28" s="8">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="C28" s="9" t="str">
         <f>IF(_tuoliu_day_hour!A22="","",_tuoliu_day_hour!A22)</f>
         <v/>
       </c>
-      <c r="D28" s="16" t="str">
+      <c r="D28" s="9" t="str">
         <f>IF(_tuoliu_day_hour!B22="","",_tuoliu_day_hour!B22)</f>
         <v/>
       </c>
-      <c r="E28" s="16" t="str">
+      <c r="E28" s="9" t="str">
         <f>IF(_tuoliu_day_hour!C22="","",_tuoliu_day_hour!C22)</f>
         <v/>
       </c>
-      <c r="F28" s="16" t="str">
+      <c r="F28" s="9" t="str">
         <f>IF(_tuoliu_day_hour!D22="","",_tuoliu_day_hour!D22)</f>
         <v/>
       </c>
-      <c r="G28" s="16" t="str">
+      <c r="G28" s="9" t="str">
         <f>IF(_tuoliu_day_hour!E22="","",_tuoliu_day_hour!E22)</f>
         <v/>
       </c>
-      <c r="H28" s="16" t="str">
+      <c r="H28" s="9" t="str">
         <f>IF(_tuoliu_day_hour!F22="","",_tuoliu_day_hour!F22)</f>
         <v/>
       </c>
-      <c r="I28" s="16" t="str">
+      <c r="I28" s="9" t="str">
         <f>IF(_tuoliu_day_hour!G22="","",_tuoliu_day_hour!G22)</f>
         <v/>
       </c>
-      <c r="J28" s="16" t="str">
+      <c r="J28" s="9" t="str">
         <f>IF(_tuoliu_day_hour!H22="","",_tuoliu_day_hour!H22)</f>
         <v/>
       </c>
-      <c r="K28" s="16" t="str">
+      <c r="K28" s="9" t="str">
         <f>IF(_tuoliu_day_hour!I22="","",_tuoliu_day_hour!I22)</f>
         <v/>
       </c>
-      <c r="L28" s="16" t="str">
+      <c r="L28" s="9" t="str">
         <f>IF(_tuoliu_day_hour!J22="","",_tuoliu_day_hour!J22)</f>
         <v/>
       </c>
-      <c r="M28" s="16" t="str">
+      <c r="M28" s="9" t="str">
         <f>IF(_tuoliu_day_hour!K22="","",_tuoliu_day_hour!K22)</f>
         <v/>
       </c>
-      <c r="N28" s="16" t="str">
+      <c r="N28" s="9" t="str">
         <f>IF(_tuoliu_day_hour!L22="","",_tuoliu_day_hour!L22)</f>
         <v/>
       </c>
-      <c r="O28" s="16" t="str">
+      <c r="O28" s="9" t="str">
         <f>IF(_tuoliu_day_hour!M22="","",_tuoliu_day_hour!M22)</f>
         <v/>
       </c>
-      <c r="P28" s="16" t="str">
+      <c r="P28" s="9" t="str">
         <f>IF(_tuoliu_day_hour!N22="","",_tuoliu_day_hour!N22)</f>
         <v/>
       </c>
-      <c r="Q28" s="16" t="str">
+      <c r="Q28" s="9" t="str">
         <f>IF(_tuoliu_day_hour!O22="","",_tuoliu_day_hour!O22)</f>
         <v/>
       </c>
-      <c r="R28" s="16" t="str">
+      <c r="R28" s="9" t="str">
         <f>IF(_tuoliu_day_hour!P22="","",_tuoliu_day_hour!P22)</f>
         <v/>
       </c>
-      <c r="S28" s="16" t="str">
+      <c r="S28" s="9" t="str">
         <f>IF(_tuoliu_day_hour!Q22="","",_tuoliu_day_hour!Q22)</f>
         <v/>
       </c>
-      <c r="T28" s="16" t="str">
+      <c r="T28" s="9" t="str">
         <f>IF(_tuoliu_day_hour!R22="","",_tuoliu_day_hour!R22)</f>
         <v/>
       </c>
-      <c r="U28" s="16" t="str">
+      <c r="U28" s="9" t="str">
         <f>IF(_tuoliu_day_hour!S22="","",_tuoliu_day_hour!S22)</f>
         <v/>
       </c>
-      <c r="V28" s="16" t="str">
+      <c r="V28" s="9" t="str">
         <f>IF(_tuoliu_day_hour!T22="","",_tuoliu_day_hour!T22)</f>
         <v/>
       </c>
-      <c r="W28" s="16" t="str">
+      <c r="W28" s="9" t="str">
         <f>IF(_tuoliu_day_hour!U22="","",_tuoliu_day_hour!U22)</f>
         <v/>
       </c>
-      <c r="X28" s="16" t="str">
+      <c r="X28" s="9" t="str">
         <f>IF(_tuoliu_day_hour!V22="","",_tuoliu_day_hour!V22)</f>
         <v/>
       </c>
-      <c r="Y28" s="16" t="str">
+      <c r="Y28" s="9" t="str">
         <f>IF(_tuoliu_day_hour!W22="","",_tuoliu_day_hour!W22)</f>
         <v/>
       </c>
-      <c r="Z28" s="16" t="str">
+      <c r="Z28" s="9" t="str">
         <f>IF(_tuoliu_day_hour!X22="","",_tuoliu_day_hour!X22)</f>
         <v/>
       </c>
-      <c r="AA28" s="16" t="str">
+      <c r="AA28" s="9" t="str">
         <f>IF(_tuoliu_day_hour!Y22="","",_tuoliu_day_hour!Y22)</f>
         <v/>
       </c>
-      <c r="AB28" s="16" t="str">
+      <c r="AB28" s="9" t="str">
         <f>IF(_tuoliu_day_hour!Z22="","",_tuoliu_day_hour!Z22)</f>
         <v/>
       </c>
-      <c r="AC28" s="16" t="str">
+      <c r="AC28" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AA22="","",_tuoliu_day_hour!AA22)</f>
         <v/>
       </c>
-      <c r="AD28" s="16" t="str">
+      <c r="AD28" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AB22="","",_tuoliu_day_hour!AB22)</f>
         <v/>
       </c>
-      <c r="AE28" s="16" t="str">
+      <c r="AE28" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AC22="","",_tuoliu_day_hour!AC22)</f>
         <v/>
       </c>
-      <c r="AF28" s="16" t="str">
+      <c r="AF28" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AD22="","",_tuoliu_day_hour!AD22)</f>
         <v/>
       </c>
-      <c r="AG28" s="16" t="str">
+      <c r="AG28" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AE22="","",_tuoliu_day_hour!AE22)</f>
         <v/>
       </c>
-      <c r="AH28" s="16" t="str">
+      <c r="AH28" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AF22="","",_tuoliu_day_hour!AF22)</f>
         <v/>
       </c>
-      <c r="AI28" s="16" t="str">
+      <c r="AI28" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AG22="","",_tuoliu_day_hour!AG22)</f>
         <v/>
       </c>
-      <c r="AJ28" s="16" t="str">
+      <c r="AJ28" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AH22="","",_tuoliu_day_hour!AH22)</f>
         <v/>
       </c>
-      <c r="AK28" s="16" t="str">
+      <c r="AK28" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AI22="","",_tuoliu_day_hour!AI22)</f>
         <v/>
       </c>
-      <c r="AL28" s="16" t="str">
+      <c r="AL28" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AJ22="","",_tuoliu_day_hour!AJ22)</f>
         <v/>
       </c>
-      <c r="AM28" s="16" t="str">
+      <c r="AM28" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AK22="","",_tuoliu_day_hour!AK22)</f>
         <v/>
       </c>
-      <c r="AN28" s="16" t="str">
+      <c r="AN28" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AL22="","",_tuoliu_day_hour!AL22)</f>
         <v/>
       </c>
-      <c r="AO28" s="16" t="str">
+      <c r="AO28" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AM22="","",_tuoliu_day_hour!AM22)</f>
         <v/>
       </c>
-      <c r="AP28" s="16" t="str">
+      <c r="AP28" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AN22="","",_tuoliu_day_hour!AN22)</f>
         <v/>
       </c>
-      <c r="AQ28" s="16" t="str">
+      <c r="AQ28" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AO22="","",_tuoliu_day_hour!AO22)</f>
         <v/>
       </c>
-      <c r="AR28" s="16" t="str">
+      <c r="AR28" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AP22="","",_tuoliu_day_hour!AP22)</f>
         <v/>
       </c>
-      <c r="AS28" s="16" t="str">
+      <c r="AS28" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AQ22="","",_tuoliu_day_hour!AQ22)</f>
         <v/>
       </c>
-      <c r="AT28" s="16" t="str">
+      <c r="AT28" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AR22="","",_tuoliu_day_hour!AR22)</f>
         <v/>
       </c>
-      <c r="AU28" s="16" t="str">
+      <c r="AU28" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AS22="","",_tuoliu_day_hour!AS22)</f>
         <v/>
       </c>
-      <c r="AV28" s="16" t="str">
+      <c r="AV28" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AT22="","",_tuoliu_day_hour!AT22)</f>
         <v/>
       </c>
-      <c r="AW28" s="16" t="str">
+      <c r="AW28" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AU22="","",_tuoliu_day_hour!AU22)</f>
         <v/>
       </c>
-      <c r="AX28" s="16" t="str">
+      <c r="AX28" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AV22="","",_tuoliu_day_hour!AV22)</f>
         <v/>
       </c>
-      <c r="AY28" s="50" t="str">
+      <c r="AY28" s="14" t="str">
         <f>IF(_tuoliu_day_hour!AW22="","",_tuoliu_day_hour!AW22)</f>
         <v/>
       </c>
-      <c r="AZ28" s="54"/>
-      <c r="BA28" s="16"/>
-      <c r="BB28" s="16"/>
-      <c r="BC28" s="16"/>
-      <c r="BD28" s="48"/>
+      <c r="AZ28" s="18"/>
+      <c r="BA28" s="9"/>
+      <c r="BB28" s="9"/>
+      <c r="BC28" s="9"/>
+      <c r="BD28" s="12"/>
     </row>
-    <row r="29" customFormat="1" spans="2:56">
-      <c r="B29" s="15">
+    <row r="29" spans="2:56" x14ac:dyDescent="0.15">
+      <c r="B29" s="8">
         <v>0.875</v>
       </c>
-      <c r="C29" s="16" t="str">
+      <c r="C29" s="9" t="str">
         <f>IF(_tuoliu_day_hour!A23="","",_tuoliu_day_hour!A23)</f>
         <v/>
       </c>
-      <c r="D29" s="16" t="str">
+      <c r="D29" s="9" t="str">
         <f>IF(_tuoliu_day_hour!B23="","",_tuoliu_day_hour!B23)</f>
         <v/>
       </c>
-      <c r="E29" s="16" t="str">
+      <c r="E29" s="9" t="str">
         <f>IF(_tuoliu_day_hour!C23="","",_tuoliu_day_hour!C23)</f>
         <v/>
       </c>
-      <c r="F29" s="16" t="str">
+      <c r="F29" s="9" t="str">
         <f>IF(_tuoliu_day_hour!D23="","",_tuoliu_day_hour!D23)</f>
         <v/>
       </c>
-      <c r="G29" s="16" t="str">
+      <c r="G29" s="9" t="str">
         <f>IF(_tuoliu_day_hour!E23="","",_tuoliu_day_hour!E23)</f>
         <v/>
       </c>
-      <c r="H29" s="16" t="str">
+      <c r="H29" s="9" t="str">
         <f>IF(_tuoliu_day_hour!F23="","",_tuoliu_day_hour!F23)</f>
         <v/>
       </c>
-      <c r="I29" s="16" t="str">
+      <c r="I29" s="9" t="str">
         <f>IF(_tuoliu_day_hour!G23="","",_tuoliu_day_hour!G23)</f>
         <v/>
       </c>
-      <c r="J29" s="16" t="str">
+      <c r="J29" s="9" t="str">
         <f>IF(_tuoliu_day_hour!H23="","",_tuoliu_day_hour!H23)</f>
         <v/>
       </c>
-      <c r="K29" s="16" t="str">
+      <c r="K29" s="9" t="str">
         <f>IF(_tuoliu_day_hour!I23="","",_tuoliu_day_hour!I23)</f>
         <v/>
       </c>
-      <c r="L29" s="16" t="str">
+      <c r="L29" s="9" t="str">
         <f>IF(_tuoliu_day_hour!J23="","",_tuoliu_day_hour!J23)</f>
         <v/>
       </c>
-      <c r="M29" s="16" t="str">
+      <c r="M29" s="9" t="str">
         <f>IF(_tuoliu_day_hour!K23="","",_tuoliu_day_hour!K23)</f>
         <v/>
       </c>
-      <c r="N29" s="16" t="str">
+      <c r="N29" s="9" t="str">
         <f>IF(_tuoliu_day_hour!L23="","",_tuoliu_day_hour!L23)</f>
         <v/>
       </c>
-      <c r="O29" s="16" t="str">
+      <c r="O29" s="9" t="str">
         <f>IF(_tuoliu_day_hour!M23="","",_tuoliu_day_hour!M23)</f>
         <v/>
       </c>
-      <c r="P29" s="16" t="str">
+      <c r="P29" s="9" t="str">
         <f>IF(_tuoliu_day_hour!N23="","",_tuoliu_day_hour!N23)</f>
         <v/>
       </c>
-      <c r="Q29" s="16" t="str">
+      <c r="Q29" s="9" t="str">
         <f>IF(_tuoliu_day_hour!O23="","",_tuoliu_day_hour!O23)</f>
         <v/>
       </c>
-      <c r="R29" s="16" t="str">
+      <c r="R29" s="9" t="str">
         <f>IF(_tuoliu_day_hour!P23="","",_tuoliu_day_hour!P23)</f>
         <v/>
       </c>
-      <c r="S29" s="16" t="str">
+      <c r="S29" s="9" t="str">
         <f>IF(_tuoliu_day_hour!Q23="","",_tuoliu_day_hour!Q23)</f>
         <v/>
       </c>
-      <c r="T29" s="16" t="str">
+      <c r="T29" s="9" t="str">
         <f>IF(_tuoliu_day_hour!R23="","",_tuoliu_day_hour!R23)</f>
         <v/>
       </c>
-      <c r="U29" s="16" t="str">
+      <c r="U29" s="9" t="str">
         <f>IF(_tuoliu_day_hour!S23="","",_tuoliu_day_hour!S23)</f>
         <v/>
       </c>
-      <c r="V29" s="16" t="str">
+      <c r="V29" s="9" t="str">
         <f>IF(_tuoliu_day_hour!T23="","",_tuoliu_day_hour!T23)</f>
         <v/>
       </c>
-      <c r="W29" s="16" t="str">
+      <c r="W29" s="9" t="str">
         <f>IF(_tuoliu_day_hour!U23="","",_tuoliu_day_hour!U23)</f>
         <v/>
       </c>
-      <c r="X29" s="16" t="str">
+      <c r="X29" s="9" t="str">
         <f>IF(_tuoliu_day_hour!V23="","",_tuoliu_day_hour!V23)</f>
         <v/>
       </c>
-      <c r="Y29" s="16" t="str">
+      <c r="Y29" s="9" t="str">
         <f>IF(_tuoliu_day_hour!W23="","",_tuoliu_day_hour!W23)</f>
         <v/>
       </c>
-      <c r="Z29" s="16" t="str">
+      <c r="Z29" s="9" t="str">
         <f>IF(_tuoliu_day_hour!X23="","",_tuoliu_day_hour!X23)</f>
         <v/>
       </c>
-      <c r="AA29" s="16" t="str">
+      <c r="AA29" s="9" t="str">
         <f>IF(_tuoliu_day_hour!Y23="","",_tuoliu_day_hour!Y23)</f>
         <v/>
       </c>
-      <c r="AB29" s="16" t="str">
+      <c r="AB29" s="9" t="str">
         <f>IF(_tuoliu_day_hour!Z23="","",_tuoliu_day_hour!Z23)</f>
         <v/>
       </c>
-      <c r="AC29" s="16" t="str">
+      <c r="AC29" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AA23="","",_tuoliu_day_hour!AA23)</f>
         <v/>
       </c>
-      <c r="AD29" s="16" t="str">
+      <c r="AD29" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AB23="","",_tuoliu_day_hour!AB23)</f>
         <v/>
       </c>
-      <c r="AE29" s="16" t="str">
+      <c r="AE29" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AC23="","",_tuoliu_day_hour!AC23)</f>
         <v/>
       </c>
-      <c r="AF29" s="16" t="str">
+      <c r="AF29" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AD23="","",_tuoliu_day_hour!AD23)</f>
         <v/>
       </c>
-      <c r="AG29" s="16" t="str">
+      <c r="AG29" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AE23="","",_tuoliu_day_hour!AE23)</f>
         <v/>
       </c>
-      <c r="AH29" s="16" t="str">
+      <c r="AH29" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AF23="","",_tuoliu_day_hour!AF23)</f>
         <v/>
       </c>
-      <c r="AI29" s="16" t="str">
+      <c r="AI29" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AG23="","",_tuoliu_day_hour!AG23)</f>
         <v/>
       </c>
-      <c r="AJ29" s="16" t="str">
+      <c r="AJ29" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AH23="","",_tuoliu_day_hour!AH23)</f>
         <v/>
       </c>
-      <c r="AK29" s="16" t="str">
+      <c r="AK29" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AI23="","",_tuoliu_day_hour!AI23)</f>
         <v/>
       </c>
-      <c r="AL29" s="16" t="str">
+      <c r="AL29" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AJ23="","",_tuoliu_day_hour!AJ23)</f>
         <v/>
       </c>
-      <c r="AM29" s="16" t="str">
+      <c r="AM29" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AK23="","",_tuoliu_day_hour!AK23)</f>
         <v/>
       </c>
-      <c r="AN29" s="16" t="str">
+      <c r="AN29" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AL23="","",_tuoliu_day_hour!AL23)</f>
         <v/>
       </c>
-      <c r="AO29" s="16" t="str">
+      <c r="AO29" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AM23="","",_tuoliu_day_hour!AM23)</f>
         <v/>
       </c>
-      <c r="AP29" s="16" t="str">
+      <c r="AP29" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AN23="","",_tuoliu_day_hour!AN23)</f>
         <v/>
       </c>
-      <c r="AQ29" s="16" t="str">
+      <c r="AQ29" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AO23="","",_tuoliu_day_hour!AO23)</f>
         <v/>
       </c>
-      <c r="AR29" s="16" t="str">
+      <c r="AR29" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AP23="","",_tuoliu_day_hour!AP23)</f>
         <v/>
       </c>
-      <c r="AS29" s="16" t="str">
+      <c r="AS29" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AQ23="","",_tuoliu_day_hour!AQ23)</f>
         <v/>
       </c>
-      <c r="AT29" s="16" t="str">
+      <c r="AT29" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AR23="","",_tuoliu_day_hour!AR23)</f>
         <v/>
       </c>
-      <c r="AU29" s="16" t="str">
+      <c r="AU29" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AS23="","",_tuoliu_day_hour!AS23)</f>
         <v/>
       </c>
-      <c r="AV29" s="16" t="str">
+      <c r="AV29" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AT23="","",_tuoliu_day_hour!AT23)</f>
         <v/>
       </c>
-      <c r="AW29" s="16" t="str">
+      <c r="AW29" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AU23="","",_tuoliu_day_hour!AU23)</f>
         <v/>
       </c>
-      <c r="AX29" s="16" t="str">
+      <c r="AX29" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AV23="","",_tuoliu_day_hour!AV23)</f>
         <v/>
       </c>
-      <c r="AY29" s="50" t="str">
+      <c r="AY29" s="14" t="str">
         <f>IF(_tuoliu_day_hour!AW23="","",_tuoliu_day_hour!AW23)</f>
         <v/>
       </c>
-      <c r="AZ29" s="54"/>
-      <c r="BA29" s="16"/>
-      <c r="BB29" s="16"/>
-      <c r="BC29" s="16"/>
-      <c r="BD29" s="48"/>
+      <c r="AZ29" s="18"/>
+      <c r="BA29" s="9"/>
+      <c r="BB29" s="9"/>
+      <c r="BC29" s="9"/>
+      <c r="BD29" s="12"/>
     </row>
-    <row r="30" customFormat="1" spans="2:56">
-      <c r="B30" s="15">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="C30" s="16" t="str">
+    <row r="30" spans="2:56" x14ac:dyDescent="0.15">
+      <c r="B30" s="8">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="C30" s="9" t="str">
         <f>IF(_tuoliu_day_hour!A24="","",_tuoliu_day_hour!A24)</f>
         <v/>
       </c>
-      <c r="D30" s="16" t="str">
+      <c r="D30" s="9" t="str">
         <f>IF(_tuoliu_day_hour!B24="","",_tuoliu_day_hour!B24)</f>
         <v/>
       </c>
-      <c r="E30" s="16" t="str">
+      <c r="E30" s="9" t="str">
         <f>IF(_tuoliu_day_hour!C24="","",_tuoliu_day_hour!C24)</f>
         <v/>
       </c>
-      <c r="F30" s="16" t="str">
+      <c r="F30" s="9" t="str">
         <f>IF(_tuoliu_day_hour!D24="","",_tuoliu_day_hour!D24)</f>
         <v/>
       </c>
-      <c r="G30" s="16" t="str">
+      <c r="G30" s="9" t="str">
         <f>IF(_tuoliu_day_hour!E24="","",_tuoliu_day_hour!E24)</f>
         <v/>
       </c>
-      <c r="H30" s="16" t="str">
+      <c r="H30" s="9" t="str">
         <f>IF(_tuoliu_day_hour!F24="","",_tuoliu_day_hour!F24)</f>
         <v/>
       </c>
-      <c r="I30" s="16" t="str">
+      <c r="I30" s="9" t="str">
         <f>IF(_tuoliu_day_hour!G24="","",_tuoliu_day_hour!G24)</f>
         <v/>
       </c>
-      <c r="J30" s="16" t="str">
+      <c r="J30" s="9" t="str">
         <f>IF(_tuoliu_day_hour!H24="","",_tuoliu_day_hour!H24)</f>
         <v/>
       </c>
-      <c r="K30" s="16" t="str">
+      <c r="K30" s="9" t="str">
         <f>IF(_tuoliu_day_hour!I24="","",_tuoliu_day_hour!I24)</f>
         <v/>
       </c>
-      <c r="L30" s="16" t="str">
+      <c r="L30" s="9" t="str">
         <f>IF(_tuoliu_day_hour!J24="","",_tuoliu_day_hour!J24)</f>
         <v/>
       </c>
-      <c r="M30" s="16" t="str">
+      <c r="M30" s="9" t="str">
         <f>IF(_tuoliu_day_hour!K24="","",_tuoliu_day_hour!K24)</f>
         <v/>
       </c>
-      <c r="N30" s="16" t="str">
+      <c r="N30" s="9" t="str">
         <f>IF(_tuoliu_day_hour!L24="","",_tuoliu_day_hour!L24)</f>
         <v/>
       </c>
-      <c r="O30" s="16" t="str">
+      <c r="O30" s="9" t="str">
         <f>IF(_tuoliu_day_hour!M24="","",_tuoliu_day_hour!M24)</f>
         <v/>
       </c>
-      <c r="P30" s="16" t="str">
+      <c r="P30" s="9" t="str">
         <f>IF(_tuoliu_day_hour!N24="","",_tuoliu_day_hour!N24)</f>
         <v/>
       </c>
-      <c r="Q30" s="16" t="str">
+      <c r="Q30" s="9" t="str">
         <f>IF(_tuoliu_day_hour!O24="","",_tuoliu_day_hour!O24)</f>
         <v/>
       </c>
-      <c r="R30" s="16" t="str">
+      <c r="R30" s="9" t="str">
         <f>IF(_tuoliu_day_hour!P24="","",_tuoliu_day_hour!P24)</f>
         <v/>
       </c>
-      <c r="S30" s="16" t="str">
+      <c r="S30" s="9" t="str">
         <f>IF(_tuoliu_day_hour!Q24="","",_tuoliu_day_hour!Q24)</f>
         <v/>
       </c>
-      <c r="T30" s="16" t="str">
+      <c r="T30" s="9" t="str">
         <f>IF(_tuoliu_day_hour!R24="","",_tuoliu_day_hour!R24)</f>
         <v/>
       </c>
-      <c r="U30" s="16" t="str">
+      <c r="U30" s="9" t="str">
         <f>IF(_tuoliu_day_hour!S24="","",_tuoliu_day_hour!S24)</f>
         <v/>
       </c>
-      <c r="V30" s="16" t="str">
+      <c r="V30" s="9" t="str">
         <f>IF(_tuoliu_day_hour!T24="","",_tuoliu_day_hour!T24)</f>
         <v/>
       </c>
-      <c r="W30" s="16" t="str">
+      <c r="W30" s="9" t="str">
         <f>IF(_tuoliu_day_hour!U24="","",_tuoliu_day_hour!U24)</f>
         <v/>
       </c>
-      <c r="X30" s="16" t="str">
+      <c r="X30" s="9" t="str">
         <f>IF(_tuoliu_day_hour!V24="","",_tuoliu_day_hour!V24)</f>
         <v/>
       </c>
-      <c r="Y30" s="16" t="str">
+      <c r="Y30" s="9" t="str">
         <f>IF(_tuoliu_day_hour!W24="","",_tuoliu_day_hour!W24)</f>
         <v/>
       </c>
-      <c r="Z30" s="16" t="str">
+      <c r="Z30" s="9" t="str">
         <f>IF(_tuoliu_day_hour!X24="","",_tuoliu_day_hour!X24)</f>
         <v/>
       </c>
-      <c r="AA30" s="16" t="str">
+      <c r="AA30" s="9" t="str">
         <f>IF(_tuoliu_day_hour!Y24="","",_tuoliu_day_hour!Y24)</f>
         <v/>
       </c>
-      <c r="AB30" s="16" t="str">
+      <c r="AB30" s="9" t="str">
         <f>IF(_tuoliu_day_hour!Z24="","",_tuoliu_day_hour!Z24)</f>
         <v/>
       </c>
-      <c r="AC30" s="16" t="str">
+      <c r="AC30" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AA24="","",_tuoliu_day_hour!AA24)</f>
         <v/>
       </c>
-      <c r="AD30" s="16" t="str">
+      <c r="AD30" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AB24="","",_tuoliu_day_hour!AB24)</f>
         <v/>
       </c>
-      <c r="AE30" s="16" t="str">
+      <c r="AE30" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AC24="","",_tuoliu_day_hour!AC24)</f>
         <v/>
       </c>
-      <c r="AF30" s="16" t="str">
+      <c r="AF30" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AD24="","",_tuoliu_day_hour!AD24)</f>
         <v/>
       </c>
-      <c r="AG30" s="16" t="str">
+      <c r="AG30" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AE24="","",_tuoliu_day_hour!AE24)</f>
         <v/>
       </c>
-      <c r="AH30" s="16" t="str">
+      <c r="AH30" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AF24="","",_tuoliu_day_hour!AF24)</f>
         <v/>
       </c>
-      <c r="AI30" s="16" t="str">
+      <c r="AI30" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AG24="","",_tuoliu_day_hour!AG24)</f>
         <v/>
       </c>
-      <c r="AJ30" s="16" t="str">
+      <c r="AJ30" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AH24="","",_tuoliu_day_hour!AH24)</f>
         <v/>
       </c>
-      <c r="AK30" s="16" t="str">
+      <c r="AK30" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AI24="","",_tuoliu_day_hour!AI24)</f>
         <v/>
       </c>
-      <c r="AL30" s="16" t="str">
+      <c r="AL30" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AJ24="","",_tuoliu_day_hour!AJ24)</f>
         <v/>
       </c>
-      <c r="AM30" s="16" t="str">
+      <c r="AM30" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AK24="","",_tuoliu_day_hour!AK24)</f>
         <v/>
       </c>
-      <c r="AN30" s="16" t="str">
+      <c r="AN30" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AL24="","",_tuoliu_day_hour!AL24)</f>
         <v/>
       </c>
-      <c r="AO30" s="16" t="str">
+      <c r="AO30" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AM24="","",_tuoliu_day_hour!AM24)</f>
         <v/>
       </c>
-      <c r="AP30" s="16" t="str">
+      <c r="AP30" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AN24="","",_tuoliu_day_hour!AN24)</f>
         <v/>
       </c>
-      <c r="AQ30" s="16" t="str">
+      <c r="AQ30" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AO24="","",_tuoliu_day_hour!AO24)</f>
         <v/>
       </c>
-      <c r="AR30" s="16" t="str">
+      <c r="AR30" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AP24="","",_tuoliu_day_hour!AP24)</f>
         <v/>
       </c>
-      <c r="AS30" s="16" t="str">
+      <c r="AS30" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AQ24="","",_tuoliu_day_hour!AQ24)</f>
         <v/>
       </c>
-      <c r="AT30" s="16" t="str">
+      <c r="AT30" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AR24="","",_tuoliu_day_hour!AR24)</f>
         <v/>
       </c>
-      <c r="AU30" s="16" t="str">
+      <c r="AU30" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AS24="","",_tuoliu_day_hour!AS24)</f>
         <v/>
       </c>
-      <c r="AV30" s="16" t="str">
+      <c r="AV30" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AT24="","",_tuoliu_day_hour!AT24)</f>
         <v/>
       </c>
-      <c r="AW30" s="16" t="str">
+      <c r="AW30" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AU24="","",_tuoliu_day_hour!AU24)</f>
         <v/>
       </c>
-      <c r="AX30" s="16" t="str">
+      <c r="AX30" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AV24="","",_tuoliu_day_hour!AV24)</f>
         <v/>
       </c>
-      <c r="AY30" s="50" t="str">
+      <c r="AY30" s="14" t="str">
         <f>IF(_tuoliu_day_hour!AW24="","",_tuoliu_day_hour!AW24)</f>
         <v/>
       </c>
-      <c r="AZ30" s="54"/>
-      <c r="BA30" s="16"/>
-      <c r="BB30" s="16"/>
-      <c r="BC30" s="16"/>
-      <c r="BD30" s="48"/>
+      <c r="AZ30" s="18"/>
+      <c r="BA30" s="9"/>
+      <c r="BB30" s="9"/>
+      <c r="BC30" s="9"/>
+      <c r="BD30" s="12"/>
     </row>
-    <row r="31" customFormat="1" spans="2:56">
-      <c r="B31" s="15">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="C31" s="16" t="str">
+    <row r="31" spans="2:56" x14ac:dyDescent="0.15">
+      <c r="B31" s="8">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="C31" s="9" t="str">
         <f>IF(_tuoliu_day_hour!A25="","",_tuoliu_day_hour!A25)</f>
         <v/>
       </c>
-      <c r="D31" s="16" t="str">
+      <c r="D31" s="9" t="str">
         <f>IF(_tuoliu_day_hour!B25="","",_tuoliu_day_hour!B25)</f>
         <v/>
       </c>
-      <c r="E31" s="16" t="str">
+      <c r="E31" s="9" t="str">
         <f>IF(_tuoliu_day_hour!C25="","",_tuoliu_day_hour!C25)</f>
         <v/>
       </c>
-      <c r="F31" s="16" t="str">
+      <c r="F31" s="9" t="str">
         <f>IF(_tuoliu_day_hour!D25="","",_tuoliu_day_hour!D25)</f>
         <v/>
       </c>
-      <c r="G31" s="16" t="str">
+      <c r="G31" s="9" t="str">
         <f>IF(_tuoliu_day_hour!E25="","",_tuoliu_day_hour!E25)</f>
         <v/>
       </c>
-      <c r="H31" s="16" t="str">
+      <c r="H31" s="9" t="str">
         <f>IF(_tuoliu_day_hour!F25="","",_tuoliu_day_hour!F25)</f>
         <v/>
       </c>
-      <c r="I31" s="16" t="str">
+      <c r="I31" s="9" t="str">
         <f>IF(_tuoliu_day_hour!G25="","",_tuoliu_day_hour!G25)</f>
         <v/>
       </c>
-      <c r="J31" s="16" t="str">
+      <c r="J31" s="9" t="str">
         <f>IF(_tuoliu_day_hour!H25="","",_tuoliu_day_hour!H25)</f>
         <v/>
       </c>
-      <c r="K31" s="16" t="str">
+      <c r="K31" s="9" t="str">
         <f>IF(_tuoliu_day_hour!I25="","",_tuoliu_day_hour!I25)</f>
         <v/>
       </c>
-      <c r="L31" s="16" t="str">
+      <c r="L31" s="9" t="str">
         <f>IF(_tuoliu_day_hour!J25="","",_tuoliu_day_hour!J25)</f>
         <v/>
       </c>
-      <c r="M31" s="16" t="str">
+      <c r="M31" s="9" t="str">
         <f>IF(_tuoliu_day_hour!K25="","",_tuoliu_day_hour!K25)</f>
         <v/>
       </c>
-      <c r="N31" s="16" t="str">
+      <c r="N31" s="9" t="str">
         <f>IF(_tuoliu_day_hour!L25="","",_tuoliu_day_hour!L25)</f>
         <v/>
       </c>
-      <c r="O31" s="16" t="str">
+      <c r="O31" s="9" t="str">
         <f>IF(_tuoliu_day_hour!M25="","",_tuoliu_day_hour!M25)</f>
         <v/>
       </c>
-      <c r="P31" s="16" t="str">
+      <c r="P31" s="9" t="str">
         <f>IF(_tuoliu_day_hour!N25="","",_tuoliu_day_hour!N25)</f>
         <v/>
       </c>
-      <c r="Q31" s="16" t="str">
+      <c r="Q31" s="9" t="str">
         <f>IF(_tuoliu_day_hour!O25="","",_tuoliu_day_hour!O25)</f>
         <v/>
       </c>
-      <c r="R31" s="16" t="str">
+      <c r="R31" s="9" t="str">
         <f>IF(_tuoliu_day_hour!P25="","",_tuoliu_day_hour!P25)</f>
         <v/>
       </c>
-      <c r="S31" s="16" t="str">
+      <c r="S31" s="9" t="str">
         <f>IF(_tuoliu_day_hour!Q25="","",_tuoliu_day_hour!Q25)</f>
         <v/>
       </c>
-      <c r="T31" s="16" t="str">
+      <c r="T31" s="9" t="str">
         <f>IF(_tuoliu_day_hour!R25="","",_tuoliu_day_hour!R25)</f>
         <v/>
       </c>
-      <c r="U31" s="16" t="str">
+      <c r="U31" s="9" t="str">
         <f>IF(_tuoliu_day_hour!S25="","",_tuoliu_day_hour!S25)</f>
         <v/>
       </c>
-      <c r="V31" s="16" t="str">
+      <c r="V31" s="9" t="str">
         <f>IF(_tuoliu_day_hour!T25="","",_tuoliu_day_hour!T25)</f>
         <v/>
       </c>
-      <c r="W31" s="16" t="str">
+      <c r="W31" s="9" t="str">
         <f>IF(_tuoliu_day_hour!U25="","",_tuoliu_day_hour!U25)</f>
         <v/>
       </c>
-      <c r="X31" s="16" t="str">
+      <c r="X31" s="9" t="str">
         <f>IF(_tuoliu_day_hour!V25="","",_tuoliu_day_hour!V25)</f>
         <v/>
       </c>
-      <c r="Y31" s="16" t="str">
+      <c r="Y31" s="9" t="str">
         <f>IF(_tuoliu_day_hour!W25="","",_tuoliu_day_hour!W25)</f>
         <v/>
       </c>
-      <c r="Z31" s="16" t="str">
+      <c r="Z31" s="9" t="str">
         <f>IF(_tuoliu_day_hour!X25="","",_tuoliu_day_hour!X25)</f>
         <v/>
       </c>
-      <c r="AA31" s="16" t="str">
+      <c r="AA31" s="9" t="str">
         <f>IF(_tuoliu_day_hour!Y25="","",_tuoliu_day_hour!Y25)</f>
         <v/>
       </c>
-      <c r="AB31" s="16" t="str">
+      <c r="AB31" s="9" t="str">
         <f>IF(_tuoliu_day_hour!Z25="","",_tuoliu_day_hour!Z25)</f>
         <v/>
       </c>
-      <c r="AC31" s="16" t="str">
+      <c r="AC31" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AA25="","",_tuoliu_day_hour!AA25)</f>
         <v/>
       </c>
-      <c r="AD31" s="16" t="str">
+      <c r="AD31" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AB25="","",_tuoliu_day_hour!AB25)</f>
         <v/>
       </c>
-      <c r="AE31" s="16" t="str">
+      <c r="AE31" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AC25="","",_tuoliu_day_hour!AC25)</f>
         <v/>
       </c>
-      <c r="AF31" s="16" t="str">
+      <c r="AF31" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AD25="","",_tuoliu_day_hour!AD25)</f>
         <v/>
       </c>
-      <c r="AG31" s="16" t="str">
+      <c r="AG31" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AE25="","",_tuoliu_day_hour!AE25)</f>
         <v/>
       </c>
-      <c r="AH31" s="16" t="str">
+      <c r="AH31" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AF25="","",_tuoliu_day_hour!AF25)</f>
         <v/>
       </c>
-      <c r="AI31" s="16" t="str">
+      <c r="AI31" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AG25="","",_tuoliu_day_hour!AG25)</f>
         <v/>
       </c>
-      <c r="AJ31" s="16" t="str">
+      <c r="AJ31" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AH25="","",_tuoliu_day_hour!AH25)</f>
         <v/>
       </c>
-      <c r="AK31" s="16" t="str">
+      <c r="AK31" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AI25="","",_tuoliu_day_hour!AI25)</f>
         <v/>
       </c>
-      <c r="AL31" s="16" t="str">
+      <c r="AL31" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AJ25="","",_tuoliu_day_hour!AJ25)</f>
         <v/>
       </c>
-      <c r="AM31" s="16" t="str">
+      <c r="AM31" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AK25="","",_tuoliu_day_hour!AK25)</f>
         <v/>
       </c>
-      <c r="AN31" s="16" t="str">
+      <c r="AN31" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AL25="","",_tuoliu_day_hour!AL25)</f>
         <v/>
       </c>
-      <c r="AO31" s="16" t="str">
+      <c r="AO31" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AM25="","",_tuoliu_day_hour!AM25)</f>
         <v/>
       </c>
-      <c r="AP31" s="16" t="str">
+      <c r="AP31" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AN25="","",_tuoliu_day_hour!AN25)</f>
         <v/>
       </c>
-      <c r="AQ31" s="16" t="str">
+      <c r="AQ31" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AO25="","",_tuoliu_day_hour!AO25)</f>
         <v/>
       </c>
-      <c r="AR31" s="16" t="str">
+      <c r="AR31" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AP25="","",_tuoliu_day_hour!AP25)</f>
         <v/>
       </c>
-      <c r="AS31" s="16" t="str">
+      <c r="AS31" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AQ25="","",_tuoliu_day_hour!AQ25)</f>
         <v/>
       </c>
-      <c r="AT31" s="16" t="str">
+      <c r="AT31" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AR25="","",_tuoliu_day_hour!AR25)</f>
         <v/>
       </c>
-      <c r="AU31" s="16" t="str">
+      <c r="AU31" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AS25="","",_tuoliu_day_hour!AS25)</f>
         <v/>
       </c>
-      <c r="AV31" s="16" t="str">
+      <c r="AV31" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AT25="","",_tuoliu_day_hour!AT25)</f>
         <v/>
       </c>
-      <c r="AW31" s="16" t="str">
+      <c r="AW31" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AU25="","",_tuoliu_day_hour!AU25)</f>
         <v/>
       </c>
-      <c r="AX31" s="16" t="str">
+      <c r="AX31" s="9" t="str">
         <f>IF(_tuoliu_day_hour!AV25="","",_tuoliu_day_hour!AV25)</f>
         <v/>
       </c>
-      <c r="AY31" s="50" t="str">
+      <c r="AY31" s="14" t="str">
         <f>IF(_tuoliu_day_hour!AW25="","",_tuoliu_day_hour!AW25)</f>
         <v/>
       </c>
-      <c r="AZ31" s="54"/>
-      <c r="BA31" s="16"/>
-      <c r="BB31" s="16"/>
-      <c r="BC31" s="16"/>
-      <c r="BD31" s="48"/>
+      <c r="AZ31" s="18"/>
+      <c r="BA31" s="9"/>
+      <c r="BB31" s="9"/>
+      <c r="BC31" s="9"/>
+      <c r="BD31" s="12"/>
     </row>
-    <row r="32" customFormat="1" spans="2:56">
-      <c r="B32" s="17" t="s">
+    <row r="32" spans="2:56" x14ac:dyDescent="0.15">
+      <c r="B32" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="16"/>
-      <c r="S32" s="16"/>
-      <c r="T32" s="16"/>
-      <c r="U32" s="16"/>
-      <c r="V32" s="16"/>
-      <c r="W32" s="16"/>
-      <c r="X32" s="16"/>
-      <c r="Y32" s="16"/>
-      <c r="Z32" s="16"/>
-      <c r="AA32" s="16"/>
-      <c r="AB32" s="16"/>
-      <c r="AC32" s="16"/>
-      <c r="AD32" s="16"/>
-      <c r="AE32" s="16"/>
-      <c r="AF32" s="16"/>
-      <c r="AG32" s="16"/>
-      <c r="AH32" s="16"/>
-      <c r="AI32" s="16"/>
-      <c r="AJ32" s="16"/>
-      <c r="AK32" s="16"/>
-      <c r="AL32" s="16"/>
-      <c r="AM32" s="16"/>
-      <c r="AN32" s="16"/>
-      <c r="AO32" s="16"/>
-      <c r="AP32" s="16"/>
-      <c r="AQ32" s="16"/>
-      <c r="AR32" s="16"/>
-      <c r="AS32" s="16"/>
-      <c r="AT32" s="16"/>
-      <c r="AU32" s="16"/>
-      <c r="AV32" s="16"/>
-      <c r="AW32" s="16"/>
-      <c r="AX32" s="16"/>
-      <c r="AY32" s="50"/>
-      <c r="AZ32" s="54"/>
-      <c r="BA32" s="16"/>
-      <c r="BB32" s="16"/>
-      <c r="BC32" s="16"/>
-      <c r="BD32" s="48"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="9"/>
+      <c r="Y32" s="9"/>
+      <c r="Z32" s="9"/>
+      <c r="AA32" s="9"/>
+      <c r="AB32" s="9"/>
+      <c r="AC32" s="9"/>
+      <c r="AD32" s="9"/>
+      <c r="AE32" s="9"/>
+      <c r="AF32" s="9"/>
+      <c r="AG32" s="9"/>
+      <c r="AH32" s="9"/>
+      <c r="AI32" s="9"/>
+      <c r="AJ32" s="9"/>
+      <c r="AK32" s="9"/>
+      <c r="AL32" s="9"/>
+      <c r="AM32" s="9"/>
+      <c r="AN32" s="9"/>
+      <c r="AO32" s="9"/>
+      <c r="AP32" s="9"/>
+      <c r="AQ32" s="9"/>
+      <c r="AR32" s="9"/>
+      <c r="AS32" s="9"/>
+      <c r="AT32" s="9"/>
+      <c r="AU32" s="9"/>
+      <c r="AV32" s="9"/>
+      <c r="AW32" s="9"/>
+      <c r="AX32" s="9"/>
+      <c r="AY32" s="14"/>
+      <c r="AZ32" s="18"/>
+      <c r="BA32" s="9"/>
+      <c r="BB32" s="9"/>
+      <c r="BC32" s="9"/>
+      <c r="BD32" s="12"/>
     </row>
-    <row r="33" customFormat="1" spans="2:56">
-      <c r="B33" s="17" t="s">
+    <row r="33" spans="2:56" x14ac:dyDescent="0.15">
+      <c r="B33" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="16"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="16"/>
-      <c r="R33" s="16"/>
-      <c r="S33" s="16"/>
-      <c r="T33" s="16"/>
-      <c r="U33" s="16"/>
-      <c r="V33" s="16"/>
-      <c r="W33" s="16"/>
-      <c r="X33" s="16"/>
-      <c r="Y33" s="16"/>
-      <c r="Z33" s="16"/>
-      <c r="AA33" s="16"/>
-      <c r="AB33" s="16"/>
-      <c r="AC33" s="16"/>
-      <c r="AD33" s="16"/>
-      <c r="AE33" s="16"/>
-      <c r="AF33" s="16"/>
-      <c r="AG33" s="16"/>
-      <c r="AH33" s="16"/>
-      <c r="AI33" s="16"/>
-      <c r="AJ33" s="16"/>
-      <c r="AK33" s="16"/>
-      <c r="AL33" s="16"/>
-      <c r="AM33" s="16"/>
-      <c r="AN33" s="16"/>
-      <c r="AO33" s="16"/>
-      <c r="AP33" s="16"/>
-      <c r="AQ33" s="16"/>
-      <c r="AR33" s="16"/>
-      <c r="AS33" s="16"/>
-      <c r="AT33" s="16"/>
-      <c r="AU33" s="16"/>
-      <c r="AV33" s="16"/>
-      <c r="AW33" s="16"/>
-      <c r="AX33" s="16"/>
-      <c r="AY33" s="50"/>
-      <c r="AZ33" s="54"/>
-      <c r="BA33" s="16"/>
-      <c r="BB33" s="16"/>
-      <c r="BC33" s="16"/>
-      <c r="BD33" s="48"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
+      <c r="W33" s="9"/>
+      <c r="X33" s="9"/>
+      <c r="Y33" s="9"/>
+      <c r="Z33" s="9"/>
+      <c r="AA33" s="9"/>
+      <c r="AB33" s="9"/>
+      <c r="AC33" s="9"/>
+      <c r="AD33" s="9"/>
+      <c r="AE33" s="9"/>
+      <c r="AF33" s="9"/>
+      <c r="AG33" s="9"/>
+      <c r="AH33" s="9"/>
+      <c r="AI33" s="9"/>
+      <c r="AJ33" s="9"/>
+      <c r="AK33" s="9"/>
+      <c r="AL33" s="9"/>
+      <c r="AM33" s="9"/>
+      <c r="AN33" s="9"/>
+      <c r="AO33" s="9"/>
+      <c r="AP33" s="9"/>
+      <c r="AQ33" s="9"/>
+      <c r="AR33" s="9"/>
+      <c r="AS33" s="9"/>
+      <c r="AT33" s="9"/>
+      <c r="AU33" s="9"/>
+      <c r="AV33" s="9"/>
+      <c r="AW33" s="9"/>
+      <c r="AX33" s="9"/>
+      <c r="AY33" s="14"/>
+      <c r="AZ33" s="18"/>
+      <c r="BA33" s="9"/>
+      <c r="BB33" s="9"/>
+      <c r="BC33" s="9"/>
+      <c r="BD33" s="12"/>
     </row>
-    <row r="34" customFormat="1" spans="2:56">
-      <c r="B34" s="17" t="s">
+    <row r="34" spans="2:56" x14ac:dyDescent="0.15">
+      <c r="B34" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="16"/>
-      <c r="S34" s="16"/>
-      <c r="T34" s="16"/>
-      <c r="U34" s="16"/>
-      <c r="V34" s="16"/>
-      <c r="W34" s="16"/>
-      <c r="X34" s="16"/>
-      <c r="Y34" s="16"/>
-      <c r="Z34" s="16"/>
-      <c r="AA34" s="16"/>
-      <c r="AB34" s="16"/>
-      <c r="AC34" s="16"/>
-      <c r="AD34" s="16"/>
-      <c r="AE34" s="16"/>
-      <c r="AF34" s="16"/>
-      <c r="AG34" s="16"/>
-      <c r="AH34" s="16"/>
-      <c r="AI34" s="16"/>
-      <c r="AJ34" s="16"/>
-      <c r="AK34" s="16"/>
-      <c r="AL34" s="16"/>
-      <c r="AM34" s="16"/>
-      <c r="AN34" s="16"/>
-      <c r="AO34" s="16"/>
-      <c r="AP34" s="16"/>
-      <c r="AQ34" s="16"/>
-      <c r="AR34" s="16"/>
-      <c r="AS34" s="16"/>
-      <c r="AT34" s="16"/>
-      <c r="AU34" s="16"/>
-      <c r="AV34" s="16"/>
-      <c r="AW34" s="16"/>
-      <c r="AX34" s="16"/>
-      <c r="AY34" s="50"/>
-      <c r="AZ34" s="54"/>
-      <c r="BA34" s="16"/>
-      <c r="BB34" s="16"/>
-      <c r="BC34" s="16"/>
-      <c r="BD34" s="48"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9"/>
+      <c r="W34" s="9"/>
+      <c r="X34" s="9"/>
+      <c r="Y34" s="9"/>
+      <c r="Z34" s="9"/>
+      <c r="AA34" s="9"/>
+      <c r="AB34" s="9"/>
+      <c r="AC34" s="9"/>
+      <c r="AD34" s="9"/>
+      <c r="AE34" s="9"/>
+      <c r="AF34" s="9"/>
+      <c r="AG34" s="9"/>
+      <c r="AH34" s="9"/>
+      <c r="AI34" s="9"/>
+      <c r="AJ34" s="9"/>
+      <c r="AK34" s="9"/>
+      <c r="AL34" s="9"/>
+      <c r="AM34" s="9"/>
+      <c r="AN34" s="9"/>
+      <c r="AO34" s="9"/>
+      <c r="AP34" s="9"/>
+      <c r="AQ34" s="9"/>
+      <c r="AR34" s="9"/>
+      <c r="AS34" s="9"/>
+      <c r="AT34" s="9"/>
+      <c r="AU34" s="9"/>
+      <c r="AV34" s="9"/>
+      <c r="AW34" s="9"/>
+      <c r="AX34" s="9"/>
+      <c r="AY34" s="14"/>
+      <c r="AZ34" s="18"/>
+      <c r="BA34" s="9"/>
+      <c r="BB34" s="9"/>
+      <c r="BC34" s="9"/>
+      <c r="BD34" s="12"/>
     </row>
-    <row r="35" customFormat="1" spans="2:56">
-      <c r="B35" s="17" t="s">
+    <row r="35" spans="2:56" x14ac:dyDescent="0.15">
+      <c r="B35" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="16"/>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="16"/>
-      <c r="R35" s="16"/>
-      <c r="S35" s="16"/>
-      <c r="T35" s="16"/>
-      <c r="U35" s="16"/>
-      <c r="V35" s="16"/>
-      <c r="W35" s="16"/>
-      <c r="X35" s="16"/>
-      <c r="Y35" s="16"/>
-      <c r="Z35" s="16"/>
-      <c r="AA35" s="16"/>
-      <c r="AB35" s="16"/>
-      <c r="AC35" s="16"/>
-      <c r="AD35" s="16"/>
-      <c r="AE35" s="16"/>
-      <c r="AF35" s="16"/>
-      <c r="AG35" s="16"/>
-      <c r="AH35" s="16"/>
-      <c r="AI35" s="16"/>
-      <c r="AJ35" s="16"/>
-      <c r="AK35" s="16"/>
-      <c r="AL35" s="16"/>
-      <c r="AM35" s="16"/>
-      <c r="AN35" s="16"/>
-      <c r="AO35" s="16"/>
-      <c r="AP35" s="16"/>
-      <c r="AQ35" s="16"/>
-      <c r="AR35" s="16"/>
-      <c r="AS35" s="16"/>
-      <c r="AT35" s="16"/>
-      <c r="AU35" s="16"/>
-      <c r="AV35" s="16"/>
-      <c r="AW35" s="16"/>
-      <c r="AX35" s="16"/>
-      <c r="AY35" s="50"/>
-      <c r="AZ35" s="54"/>
-      <c r="BA35" s="16"/>
-      <c r="BB35" s="16"/>
-      <c r="BC35" s="16"/>
-      <c r="BD35" s="48"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="9"/>
+      <c r="X35" s="9"/>
+      <c r="Y35" s="9"/>
+      <c r="Z35" s="9"/>
+      <c r="AA35" s="9"/>
+      <c r="AB35" s="9"/>
+      <c r="AC35" s="9"/>
+      <c r="AD35" s="9"/>
+      <c r="AE35" s="9"/>
+      <c r="AF35" s="9"/>
+      <c r="AG35" s="9"/>
+      <c r="AH35" s="9"/>
+      <c r="AI35" s="9"/>
+      <c r="AJ35" s="9"/>
+      <c r="AK35" s="9"/>
+      <c r="AL35" s="9"/>
+      <c r="AM35" s="9"/>
+      <c r="AN35" s="9"/>
+      <c r="AO35" s="9"/>
+      <c r="AP35" s="9"/>
+      <c r="AQ35" s="9"/>
+      <c r="AR35" s="9"/>
+      <c r="AS35" s="9"/>
+      <c r="AT35" s="9"/>
+      <c r="AU35" s="9"/>
+      <c r="AV35" s="9"/>
+      <c r="AW35" s="9"/>
+      <c r="AX35" s="9"/>
+      <c r="AY35" s="14"/>
+      <c r="AZ35" s="18"/>
+      <c r="BA35" s="9"/>
+      <c r="BB35" s="9"/>
+      <c r="BC35" s="9"/>
+      <c r="BD35" s="12"/>
     </row>
-    <row r="36" customFormat="1" ht="66" customHeight="1" spans="2:56">
-      <c r="B36" s="18" t="s">
+    <row r="36" spans="2:56" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="23" t="s">
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="M36" s="23"/>
-      <c r="N36" s="23"/>
-      <c r="O36" s="23"/>
-      <c r="P36" s="23"/>
-      <c r="Q36" s="23"/>
-      <c r="R36" s="23"/>
-      <c r="S36" s="23"/>
-      <c r="T36" s="23"/>
-      <c r="U36" s="23"/>
-      <c r="V36" s="23" t="s">
+      <c r="M36" s="32"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="32"/>
+      <c r="P36" s="32"/>
+      <c r="Q36" s="32"/>
+      <c r="R36" s="32"/>
+      <c r="S36" s="32"/>
+      <c r="T36" s="32"/>
+      <c r="U36" s="32"/>
+      <c r="V36" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="W36" s="23"/>
-      <c r="X36" s="23"/>
-      <c r="Y36" s="23"/>
-      <c r="Z36" s="23"/>
-      <c r="AA36" s="23"/>
-      <c r="AB36" s="23"/>
-      <c r="AC36" s="32"/>
-      <c r="AD36" s="33"/>
-      <c r="AE36" s="33"/>
-      <c r="AF36" s="33"/>
-      <c r="AG36" s="33"/>
-      <c r="AH36" s="33"/>
-      <c r="AI36" s="33"/>
-      <c r="AJ36" s="33"/>
-      <c r="AK36" s="33"/>
-      <c r="AL36" s="33"/>
-      <c r="AM36" s="33"/>
-      <c r="AN36" s="33"/>
-      <c r="AO36" s="33"/>
-      <c r="AP36" s="33"/>
-      <c r="AQ36" s="33"/>
-      <c r="AR36" s="33"/>
-      <c r="AS36" s="33"/>
-      <c r="AT36" s="33"/>
-      <c r="AU36" s="33"/>
-      <c r="AV36" s="33"/>
-      <c r="AW36" s="33"/>
-      <c r="AX36" s="33"/>
-      <c r="AY36" s="33"/>
-      <c r="AZ36" s="33"/>
-      <c r="BA36" s="33"/>
-      <c r="BB36" s="33"/>
-      <c r="BC36" s="33"/>
-      <c r="BD36" s="55"/>
+      <c r="W36" s="32"/>
+      <c r="X36" s="32"/>
+      <c r="Y36" s="32"/>
+      <c r="Z36" s="32"/>
+      <c r="AA36" s="32"/>
+      <c r="AB36" s="32"/>
+      <c r="AC36" s="51"/>
+      <c r="AD36" s="52"/>
+      <c r="AE36" s="52"/>
+      <c r="AF36" s="52"/>
+      <c r="AG36" s="52"/>
+      <c r="AH36" s="52"/>
+      <c r="AI36" s="52"/>
+      <c r="AJ36" s="52"/>
+      <c r="AK36" s="52"/>
+      <c r="AL36" s="52"/>
+      <c r="AM36" s="52"/>
+      <c r="AN36" s="52"/>
+      <c r="AO36" s="52"/>
+      <c r="AP36" s="52"/>
+      <c r="AQ36" s="52"/>
+      <c r="AR36" s="52"/>
+      <c r="AS36" s="52"/>
+      <c r="AT36" s="52"/>
+      <c r="AU36" s="52"/>
+      <c r="AV36" s="52"/>
+      <c r="AW36" s="52"/>
+      <c r="AX36" s="52"/>
+      <c r="AY36" s="52"/>
+      <c r="AZ36" s="52"/>
+      <c r="BA36" s="52"/>
+      <c r="BB36" s="52"/>
+      <c r="BC36" s="52"/>
+      <c r="BD36" s="53"/>
     </row>
-    <row r="37" ht="16.5" spans="2:56">
-      <c r="B37" s="20" t="s">
+    <row r="37" spans="2:56" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="24" t="s">
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="M37" s="24"/>
-      <c r="N37" s="24"/>
-      <c r="O37" s="24"/>
-      <c r="P37" s="24"/>
-      <c r="Q37" s="24"/>
-      <c r="R37" s="24"/>
-      <c r="S37" s="24"/>
-      <c r="T37" s="24"/>
-      <c r="U37" s="24"/>
-      <c r="V37" s="24" t="s">
+      <c r="M37" s="35"/>
+      <c r="N37" s="35"/>
+      <c r="O37" s="35"/>
+      <c r="P37" s="35"/>
+      <c r="Q37" s="35"/>
+      <c r="R37" s="35"/>
+      <c r="S37" s="35"/>
+      <c r="T37" s="35"/>
+      <c r="U37" s="35"/>
+      <c r="V37" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="W37" s="24"/>
-      <c r="X37" s="24"/>
-      <c r="Y37" s="24"/>
-      <c r="Z37" s="24"/>
-      <c r="AA37" s="24"/>
-      <c r="AB37" s="24"/>
-      <c r="AC37" s="34"/>
-      <c r="AD37" s="35"/>
-      <c r="AE37" s="35"/>
-      <c r="AF37" s="35"/>
-      <c r="AG37" s="35"/>
-      <c r="AH37" s="35"/>
-      <c r="AI37" s="35"/>
-      <c r="AJ37" s="35"/>
-      <c r="AK37" s="35"/>
-      <c r="AL37" s="35"/>
-      <c r="AM37" s="35"/>
-      <c r="AN37" s="35"/>
-      <c r="AO37" s="35"/>
-      <c r="AP37" s="35"/>
-      <c r="AQ37" s="35"/>
-      <c r="AR37" s="35"/>
-      <c r="AS37" s="35"/>
-      <c r="AT37" s="35"/>
-      <c r="AU37" s="35"/>
-      <c r="AV37" s="35"/>
-      <c r="AW37" s="35"/>
-      <c r="AX37" s="35"/>
-      <c r="AY37" s="35"/>
-      <c r="AZ37" s="35"/>
-      <c r="BA37" s="35"/>
-      <c r="BB37" s="35"/>
-      <c r="BC37" s="35"/>
+      <c r="W37" s="35"/>
+      <c r="X37" s="35"/>
+      <c r="Y37" s="35"/>
+      <c r="Z37" s="35"/>
+      <c r="AA37" s="35"/>
+      <c r="AB37" s="35"/>
+      <c r="AC37" s="54"/>
+      <c r="AD37" s="55"/>
+      <c r="AE37" s="55"/>
+      <c r="AF37" s="55"/>
+      <c r="AG37" s="55"/>
+      <c r="AH37" s="55"/>
+      <c r="AI37" s="55"/>
+      <c r="AJ37" s="55"/>
+      <c r="AK37" s="55"/>
+      <c r="AL37" s="55"/>
+      <c r="AM37" s="55"/>
+      <c r="AN37" s="55"/>
+      <c r="AO37" s="55"/>
+      <c r="AP37" s="55"/>
+      <c r="AQ37" s="55"/>
+      <c r="AR37" s="55"/>
+      <c r="AS37" s="55"/>
+      <c r="AT37" s="55"/>
+      <c r="AU37" s="55"/>
+      <c r="AV37" s="55"/>
+      <c r="AW37" s="55"/>
+      <c r="AX37" s="55"/>
+      <c r="AY37" s="55"/>
+      <c r="AZ37" s="55"/>
+      <c r="BA37" s="55"/>
+      <c r="BB37" s="55"/>
+      <c r="BC37" s="55"/>
       <c r="BD37" s="56"/>
     </row>
-    <row r="38" customFormat="1"/>
-    <row r="39" customFormat="1"/>
-    <row r="40" customFormat="1"/>
-    <row r="41" customFormat="1"/>
-    <row r="42" customFormat="1"/>
-    <row r="43" customFormat="1" ht="77.1" customHeight="1"/>
+    <row r="43" spans="2:56" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="B1:AY1"/>
-    <mergeCell ref="S2:W2"/>
-    <mergeCell ref="X2:AF2"/>
-    <mergeCell ref="C3:AY3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="Q4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="Z4:AG4"/>
-    <mergeCell ref="AH4:AO4"/>
-    <mergeCell ref="AP4:AT4"/>
-    <mergeCell ref="AU4:AY4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="AZ6:BA6"/>
-    <mergeCell ref="B36:K36"/>
-    <mergeCell ref="L36:U36"/>
-    <mergeCell ref="V36:AB36"/>
+    <mergeCell ref="AC36:BD37"/>
+    <mergeCell ref="AZ8:AZ9"/>
+    <mergeCell ref="AZ10:AZ11"/>
+    <mergeCell ref="AZ12:AZ18"/>
+    <mergeCell ref="AZ19:AZ25"/>
+    <mergeCell ref="AZ3:BD5"/>
+    <mergeCell ref="AU5:AU6"/>
+    <mergeCell ref="AV5:AV6"/>
+    <mergeCell ref="AW5:AW6"/>
+    <mergeCell ref="AX5:AX6"/>
+    <mergeCell ref="AY5:AY6"/>
+    <mergeCell ref="AP5:AP6"/>
+    <mergeCell ref="AQ5:AQ6"/>
+    <mergeCell ref="AR5:AR6"/>
+    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="AT5:AT6"/>
+    <mergeCell ref="AK5:AK6"/>
+    <mergeCell ref="AL5:AL6"/>
+    <mergeCell ref="AM5:AM6"/>
+    <mergeCell ref="AN5:AN6"/>
+    <mergeCell ref="AO5:AO6"/>
+    <mergeCell ref="AF5:AF6"/>
+    <mergeCell ref="AG5:AG6"/>
+    <mergeCell ref="AH5:AH6"/>
+    <mergeCell ref="AI5:AI6"/>
+    <mergeCell ref="AJ5:AJ6"/>
+    <mergeCell ref="AA5:AA6"/>
+    <mergeCell ref="AB5:AB6"/>
+    <mergeCell ref="AC5:AC6"/>
+    <mergeCell ref="AD5:AD6"/>
+    <mergeCell ref="AE5:AE6"/>
     <mergeCell ref="B37:K37"/>
     <mergeCell ref="L37:U37"/>
     <mergeCell ref="V37:AB37"/>
@@ -8637,6 +8079,11 @@
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="N5:N6"/>
     <mergeCell ref="O5:O6"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="AZ6:BA6"/>
+    <mergeCell ref="B36:K36"/>
+    <mergeCell ref="L36:U36"/>
+    <mergeCell ref="V36:AB36"/>
     <mergeCell ref="P5:P6"/>
     <mergeCell ref="Q5:Q6"/>
     <mergeCell ref="R5:R6"/>
@@ -8648,56 +8095,38 @@
     <mergeCell ref="X5:X6"/>
     <mergeCell ref="Y5:Y6"/>
     <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="AA5:AA6"/>
-    <mergeCell ref="AB5:AB6"/>
-    <mergeCell ref="AC5:AC6"/>
-    <mergeCell ref="AD5:AD6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="AF5:AF6"/>
-    <mergeCell ref="AG5:AG6"/>
-    <mergeCell ref="AH5:AH6"/>
-    <mergeCell ref="AI5:AI6"/>
-    <mergeCell ref="AJ5:AJ6"/>
-    <mergeCell ref="AK5:AK6"/>
-    <mergeCell ref="AL5:AL6"/>
-    <mergeCell ref="AM5:AM6"/>
-    <mergeCell ref="AN5:AN6"/>
-    <mergeCell ref="AO5:AO6"/>
-    <mergeCell ref="AP5:AP6"/>
-    <mergeCell ref="AQ5:AQ6"/>
-    <mergeCell ref="AR5:AR6"/>
-    <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="AT5:AT6"/>
-    <mergeCell ref="AU5:AU6"/>
-    <mergeCell ref="AV5:AV6"/>
-    <mergeCell ref="AW5:AW6"/>
-    <mergeCell ref="AX5:AX6"/>
-    <mergeCell ref="AY5:AY6"/>
-    <mergeCell ref="AZ8:AZ9"/>
-    <mergeCell ref="AZ10:AZ11"/>
-    <mergeCell ref="AZ12:AZ18"/>
-    <mergeCell ref="AZ19:AZ25"/>
-    <mergeCell ref="AZ3:BD5"/>
-    <mergeCell ref="AC36:BD37"/>
+    <mergeCell ref="B1:AY1"/>
+    <mergeCell ref="S2:W2"/>
+    <mergeCell ref="X2:AF2"/>
+    <mergeCell ref="C3:AY3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="Z4:AG4"/>
+    <mergeCell ref="AH4:AO4"/>
+    <mergeCell ref="AP4:AT4"/>
+    <mergeCell ref="AU4:AY4"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" customFormat="1" ht="67.5" spans="1:49">
+    <row r="1" spans="1:49" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>56</v>
       </c>
@@ -8813,39 +8242,35 @@
       <c r="AW1" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/excel/finished/焦化/CK67-脱硫解吸（日）报表设计.xlsx
+++ b/excel/finished/焦化/CK67-脱硫解吸（日）报表设计.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="7.脱硫解吸（日）4.3m无此表" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109">
   <si>
     <t xml:space="preserve"> 脱 硫 解 吸 操 作 记 录</t>
   </si>
@@ -27,7 +27,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">                                                                       </t>
     </r>
@@ -36,7 +36,6 @@
         <b/>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>年</t>
@@ -46,7 +45,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">      </t>
     </r>
@@ -55,7 +54,6 @@
         <b/>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月</t>
@@ -65,7 +63,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">      </t>
     </r>
@@ -74,7 +72,6 @@
         <b/>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>日</t>
@@ -84,7 +81,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">                                                    SGSSG-BSMCSA35-G012-01A</t>
     </r>
@@ -101,7 +98,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -111,7 +107,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">      </t>
     </r>
@@ -120,7 +116,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -178,7 +173,6 @@
         <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>蒸氨来废水流量 m</t>
@@ -189,7 +183,6 @@
         <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>3</t>
@@ -199,7 +192,6 @@
         <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>/h</t>
@@ -238,7 +230,6 @@
         <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>软水补充流量 m</t>
@@ -249,7 +240,6 @@
         <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>3</t>
@@ -259,7 +249,6 @@
         <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>/h</t>
@@ -292,7 +281,6 @@
         <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>富液流量m</t>
@@ -303,7 +291,6 @@
         <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>3</t>
@@ -313,7 +300,6 @@
         <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>/h</t>
@@ -325,7 +311,6 @@
         <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>贫液流量m</t>
@@ -336,7 +321,6 @@
         <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>3</t>
@@ -346,7 +330,6 @@
         <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>/h</t>
@@ -363,7 +346,6 @@
       <rPr>
         <sz val="9"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>富液流量m</t>
@@ -373,7 +355,6 @@
         <vertAlign val="superscript"/>
         <sz val="9"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>3</t>
@@ -382,7 +363,6 @@
       <rPr>
         <sz val="9"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>/h</t>
@@ -393,7 +373,6 @@
       <rPr>
         <sz val="9"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>贫液流量m</t>
@@ -403,7 +382,6 @@
         <vertAlign val="superscript"/>
         <sz val="9"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>3</t>
@@ -412,7 +390,6 @@
       <rPr>
         <sz val="9"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>/h</t>
@@ -606,7 +583,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -615,7 +592,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>夜班记事：</t>
@@ -624,7 +600,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -634,7 +610,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -642,7 +618,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>白</t>
@@ -652,7 +627,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>班记事：</t>
@@ -661,7 +635,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -671,7 +645,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -679,7 +653,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>中</t>
@@ -689,7 +662,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>班记事：</t>
@@ -698,7 +670,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -708,7 +680,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">                          </t>
     </r>
@@ -717,7 +689,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>交班：</t>
@@ -726,7 +697,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">                              </t>
     </r>
@@ -735,7 +706,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>接班：</t>
@@ -745,8 +715,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -758,40 +734,35 @@
       <b/>
       <sz val="18"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -799,7 +770,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -807,80 +777,400 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1029,6 +1319,15 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1208,14 +1507,256 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1229,24 +1770,130 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="8" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1257,131 +1904,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1392,7 +1977,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
@@ -1406,7 +1991,7 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="矩形 1"/>
         <xdr:cNvSpPr/>
@@ -1598,7 +2183,7 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Line 2"/>
         <xdr:cNvSpPr>
@@ -1644,7 +2229,7 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="Line 3"/>
         <xdr:cNvSpPr>
@@ -1690,7 +2275,7 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="Line 5"/>
         <xdr:cNvSpPr>
@@ -1736,7 +2321,7 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="Line 6"/>
         <xdr:cNvSpPr>
@@ -2024,506 +2609,506 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:BD43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="S2" sqref="S2:W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="51" width="6.125" customWidth="1"/>
     <col min="52" max="52" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="19" t="s">
+    <row r="1" ht="23.1" customHeight="1" spans="2:51">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19"/>
-      <c r="AE1" s="19"/>
-      <c r="AF1" s="19"/>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="19"/>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19"/>
-      <c r="AM1" s="19"/>
-      <c r="AN1" s="19"/>
-      <c r="AO1" s="19"/>
-      <c r="AP1" s="19"/>
-      <c r="AQ1" s="19"/>
-      <c r="AR1" s="19"/>
-      <c r="AS1" s="19"/>
-      <c r="AT1" s="19"/>
-      <c r="AU1" s="19"/>
-      <c r="AV1" s="19"/>
-      <c r="AW1" s="19"/>
-      <c r="AX1" s="19"/>
-      <c r="AY1" s="19"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5"/>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="5"/>
+      <c r="AL1" s="5"/>
+      <c r="AM1" s="5"/>
+      <c r="AN1" s="5"/>
+      <c r="AO1" s="5"/>
+      <c r="AP1" s="5"/>
+      <c r="AQ1" s="5"/>
+      <c r="AR1" s="5"/>
+      <c r="AS1" s="5"/>
+      <c r="AT1" s="5"/>
+      <c r="AU1" s="5"/>
+      <c r="AV1" s="5"/>
+      <c r="AW1" s="5"/>
+      <c r="AX1" s="5"/>
+      <c r="AY1" s="5"/>
     </row>
-    <row r="2" spans="1:56" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="5" t="s">
+    <row r="2" ht="15.6" customHeight="1" spans="2:51">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="57">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="25">
         <f>_metadata!B2</f>
         <v>0</v>
       </c>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="20" t="s">
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="20"/>
-      <c r="AB2" s="20"/>
-      <c r="AC2" s="20"/>
-      <c r="AD2" s="20"/>
-      <c r="AE2" s="20"/>
-      <c r="AF2" s="20"/>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5"/>
-      <c r="AK2" s="5"/>
-      <c r="AL2" s="5"/>
-      <c r="AM2" s="5"/>
-      <c r="AN2" s="5"/>
-      <c r="AO2" s="5"/>
-      <c r="AP2" s="5"/>
-      <c r="AQ2" s="5"/>
-      <c r="AR2" s="5"/>
-      <c r="AS2" s="5"/>
-      <c r="AT2" s="5"/>
-      <c r="AU2" s="5"/>
-      <c r="AV2" s="5"/>
-      <c r="AW2" s="5"/>
-      <c r="AX2" s="5"/>
-      <c r="AY2" s="5"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="6"/>
+      <c r="AN2" s="6"/>
+      <c r="AO2" s="6"/>
+      <c r="AP2" s="6"/>
+      <c r="AQ2" s="6"/>
+      <c r="AR2" s="6"/>
+      <c r="AS2" s="6"/>
+      <c r="AT2" s="6"/>
+      <c r="AU2" s="6"/>
+      <c r="AV2" s="6"/>
+      <c r="AW2" s="6"/>
+      <c r="AX2" s="6"/>
+      <c r="AY2" s="6"/>
     </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.15">
-      <c r="A3" s="36" t="s">
+    <row r="3" spans="1:56">
+      <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
-      <c r="X3" s="21"/>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="21"/>
-      <c r="AA3" s="21"/>
-      <c r="AB3" s="21"/>
-      <c r="AC3" s="21"/>
-      <c r="AD3" s="21"/>
-      <c r="AE3" s="21"/>
-      <c r="AF3" s="21"/>
-      <c r="AG3" s="21"/>
-      <c r="AH3" s="21"/>
-      <c r="AI3" s="21"/>
-      <c r="AJ3" s="21"/>
-      <c r="AK3" s="21"/>
-      <c r="AL3" s="21"/>
-      <c r="AM3" s="21"/>
-      <c r="AN3" s="21"/>
-      <c r="AO3" s="21"/>
-      <c r="AP3" s="21"/>
-      <c r="AQ3" s="21"/>
-      <c r="AR3" s="21"/>
-      <c r="AS3" s="21"/>
-      <c r="AT3" s="21"/>
-      <c r="AU3" s="21"/>
-      <c r="AV3" s="21"/>
-      <c r="AW3" s="21"/>
-      <c r="AX3" s="21"/>
-      <c r="AY3" s="22"/>
-      <c r="AZ3" s="46" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="9"/>
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="9"/>
+      <c r="AI3" s="9"/>
+      <c r="AJ3" s="9"/>
+      <c r="AK3" s="9"/>
+      <c r="AL3" s="9"/>
+      <c r="AM3" s="9"/>
+      <c r="AN3" s="9"/>
+      <c r="AO3" s="9"/>
+      <c r="AP3" s="9"/>
+      <c r="AQ3" s="9"/>
+      <c r="AR3" s="9"/>
+      <c r="AS3" s="9"/>
+      <c r="AT3" s="9"/>
+      <c r="AU3" s="9"/>
+      <c r="AV3" s="9"/>
+      <c r="AW3" s="9"/>
+      <c r="AX3" s="9"/>
+      <c r="AY3" s="37"/>
+      <c r="AZ3" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="BA3" s="47"/>
-      <c r="BB3" s="47"/>
-      <c r="BC3" s="47"/>
-      <c r="BD3" s="48"/>
+      <c r="BA3" s="39"/>
+      <c r="BB3" s="39"/>
+      <c r="BC3" s="39"/>
+      <c r="BD3" s="40"/>
     </row>
-    <row r="4" spans="1:56" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="36"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="23" t="s">
+    <row r="4" ht="18.95" customHeight="1" spans="1:56">
+      <c r="A4" s="7"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23" t="s">
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23" t="s">
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23" t="s">
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23" t="s">
+      <c r="V4" s="11"/>
+      <c r="W4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23" t="s">
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="AA4" s="23"/>
-      <c r="AB4" s="23"/>
-      <c r="AC4" s="24"/>
-      <c r="AD4" s="23"/>
-      <c r="AE4" s="23"/>
-      <c r="AF4" s="23"/>
-      <c r="AG4" s="23"/>
-      <c r="AH4" s="23" t="s">
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="27"/>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="11"/>
+      <c r="AG4" s="11"/>
+      <c r="AH4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AI4" s="23"/>
-      <c r="AJ4" s="23"/>
-      <c r="AK4" s="23"/>
-      <c r="AL4" s="23"/>
-      <c r="AM4" s="23"/>
-      <c r="AN4" s="23"/>
-      <c r="AO4" s="23"/>
-      <c r="AP4" s="25" t="s">
+      <c r="AI4" s="11"/>
+      <c r="AJ4" s="11"/>
+      <c r="AK4" s="11"/>
+      <c r="AL4" s="11"/>
+      <c r="AM4" s="11"/>
+      <c r="AN4" s="11"/>
+      <c r="AO4" s="11"/>
+      <c r="AP4" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="AQ4" s="25"/>
-      <c r="AR4" s="25"/>
-      <c r="AS4" s="25"/>
-      <c r="AT4" s="25"/>
-      <c r="AU4" s="25" t="s">
+      <c r="AQ4" s="36"/>
+      <c r="AR4" s="36"/>
+      <c r="AS4" s="36"/>
+      <c r="AT4" s="36"/>
+      <c r="AU4" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="AV4" s="25"/>
-      <c r="AW4" s="25"/>
-      <c r="AX4" s="25"/>
-      <c r="AY4" s="26"/>
-      <c r="AZ4" s="45"/>
-      <c r="BA4" s="49"/>
-      <c r="BB4" s="49"/>
-      <c r="BC4" s="49"/>
-      <c r="BD4" s="50"/>
+      <c r="AV4" s="36"/>
+      <c r="AW4" s="36"/>
+      <c r="AX4" s="36"/>
+      <c r="AY4" s="41"/>
+      <c r="AZ4" s="42"/>
+      <c r="BA4" s="43"/>
+      <c r="BB4" s="43"/>
+      <c r="BC4" s="43"/>
+      <c r="BD4" s="44"/>
     </row>
-    <row r="5" spans="1:56" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="36"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="39" t="s">
+    <row r="5" ht="26.1" customHeight="1" spans="1:56">
+      <c r="A5" s="7"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="39" t="s">
+      <c r="F5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="27"/>
-      <c r="J5" s="40" t="s">
+      <c r="I5" s="13"/>
+      <c r="J5" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="40" t="s">
+      <c r="K5" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="39" t="s">
+      <c r="L5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="40" t="s">
+      <c r="M5" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="39" t="s">
+      <c r="N5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="O5" s="27" t="s">
+      <c r="O5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="27" t="s">
+      <c r="P5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="Q5" s="40" t="s">
+      <c r="Q5" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="R5" s="27" t="s">
+      <c r="R5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="S5" s="27" t="s">
+      <c r="S5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="T5" s="27" t="s">
+      <c r="T5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="U5" s="27" t="s">
+      <c r="U5" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="V5" s="39" t="s">
+      <c r="V5" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="W5" s="27" t="s">
+      <c r="W5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="X5" s="27" t="s">
+      <c r="X5" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="Y5" s="27" t="s">
+      <c r="Y5" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="Z5" s="27" t="s">
+      <c r="Z5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="AA5" s="27" t="s">
+      <c r="AA5" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="AB5" s="41" t="s">
+      <c r="AB5" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="AC5" s="42" t="s">
+      <c r="AC5" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="AD5" s="44" t="s">
+      <c r="AD5" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="AE5" s="39" t="s">
+      <c r="AE5" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="AF5" s="27" t="s">
+      <c r="AF5" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="AG5" s="39" t="s">
+      <c r="AG5" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="AH5" s="27" t="s">
+      <c r="AH5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="AI5" s="27" t="s">
+      <c r="AI5" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="AJ5" s="27" t="s">
+      <c r="AJ5" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="AK5" s="27" t="s">
+      <c r="AK5" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="AL5" s="27" t="s">
+      <c r="AL5" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="AM5" s="27" t="s">
+      <c r="AM5" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="AN5" s="27" t="s">
+      <c r="AN5" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="AO5" s="27" t="s">
+      <c r="AO5" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="AP5" s="39" t="s">
+      <c r="AP5" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AQ5" s="27" t="s">
+      <c r="AQ5" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="AR5" s="39" t="s">
+      <c r="AR5" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AS5" s="39" t="s">
+      <c r="AS5" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="AT5" s="27" t="s">
+      <c r="AT5" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="AU5" s="27" t="s">
+      <c r="AU5" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="AV5" s="27" t="s">
+      <c r="AV5" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="AW5" s="27" t="s">
+      <c r="AW5" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="AX5" s="27" t="s">
+      <c r="AX5" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="AY5" s="41" t="s">
+      <c r="AY5" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="AZ5" s="45"/>
-      <c r="BA5" s="49"/>
-      <c r="BB5" s="49"/>
-      <c r="BC5" s="49"/>
-      <c r="BD5" s="50"/>
+      <c r="AZ5" s="42"/>
+      <c r="BA5" s="43"/>
+      <c r="BB5" s="43"/>
+      <c r="BC5" s="43"/>
+      <c r="BD5" s="44"/>
     </row>
-    <row r="6" spans="1:56" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="38"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="6" t="s">
+    <row r="6" ht="45" customHeight="1" spans="2:56">
+      <c r="B6" s="10"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="39"/>
-      <c r="W6" s="27"/>
-      <c r="X6" s="27"/>
-      <c r="Y6" s="27"/>
-      <c r="Z6" s="27"/>
-      <c r="AA6" s="27"/>
-      <c r="AB6" s="41"/>
-      <c r="AC6" s="43"/>
-      <c r="AD6" s="44"/>
-      <c r="AE6" s="39"/>
-      <c r="AF6" s="27"/>
-      <c r="AG6" s="39"/>
-      <c r="AH6" s="27"/>
-      <c r="AI6" s="27"/>
-      <c r="AJ6" s="27"/>
-      <c r="AK6" s="27"/>
-      <c r="AL6" s="27"/>
-      <c r="AM6" s="27"/>
-      <c r="AN6" s="27"/>
-      <c r="AO6" s="27"/>
-      <c r="AP6" s="39"/>
-      <c r="AQ6" s="27"/>
-      <c r="AR6" s="39"/>
-      <c r="AS6" s="39"/>
-      <c r="AT6" s="27"/>
-      <c r="AU6" s="27"/>
-      <c r="AV6" s="27"/>
-      <c r="AW6" s="27"/>
-      <c r="AX6" s="27"/>
-      <c r="AY6" s="41"/>
-      <c r="AZ6" s="28" t="s">
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="28"/>
+      <c r="AC6" s="31"/>
+      <c r="AD6" s="30"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="13"/>
+      <c r="AI6" s="13"/>
+      <c r="AJ6" s="13"/>
+      <c r="AK6" s="13"/>
+      <c r="AL6" s="13"/>
+      <c r="AM6" s="13"/>
+      <c r="AN6" s="13"/>
+      <c r="AO6" s="13"/>
+      <c r="AP6" s="12"/>
+      <c r="AQ6" s="13"/>
+      <c r="AR6" s="12"/>
+      <c r="AS6" s="12"/>
+      <c r="AT6" s="13"/>
+      <c r="AU6" s="13"/>
+      <c r="AV6" s="13"/>
+      <c r="AW6" s="13"/>
+      <c r="AX6" s="13"/>
+      <c r="AY6" s="28"/>
+      <c r="AZ6" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="BA6" s="29"/>
-      <c r="BB6" s="11" t="s">
+      <c r="BA6" s="46"/>
+      <c r="BB6" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="BC6" s="9" t="s">
+      <c r="BC6" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="BD6" s="12" t="s">
+      <c r="BD6" s="48" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:56" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="7" t="s">
+    <row r="7" ht="66.6" customHeight="1" spans="2:56">
+      <c r="B7" s="14" t="s">
         <v>55</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -2673,5396 +3258,5385 @@
       <c r="AY7" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="AZ7" s="13"/>
-      <c r="BA7" s="9"/>
-      <c r="BB7" s="9"/>
-      <c r="BC7" s="9"/>
-      <c r="BD7" s="12"/>
+      <c r="AZ7" s="49"/>
+      <c r="BA7" s="16"/>
+      <c r="BB7" s="16"/>
+      <c r="BC7" s="16"/>
+      <c r="BD7" s="48"/>
     </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.15">
-      <c r="B8" s="8">
+    <row r="8" spans="2:56">
+      <c r="B8" s="15">
         <v>0</v>
       </c>
-      <c r="C8" s="9" t="str">
+      <c r="C8" s="16" t="str">
         <f>IF(_tuoliu_day_hour!A2="","",_tuoliu_day_hour!A2)</f>
         <v/>
       </c>
-      <c r="D8" s="9" t="str">
+      <c r="D8" s="16" t="str">
         <f>IF(_tuoliu_day_hour!B2="","",_tuoliu_day_hour!B2)</f>
         <v/>
       </c>
-      <c r="E8" s="9" t="str">
+      <c r="E8" s="16" t="str">
         <f>IF(_tuoliu_day_hour!C2="","",_tuoliu_day_hour!C2)</f>
         <v/>
       </c>
-      <c r="F8" s="9" t="str">
+      <c r="F8" s="16" t="str">
         <f>IF(_tuoliu_day_hour!D2="","",_tuoliu_day_hour!D2)</f>
         <v/>
       </c>
-      <c r="G8" s="9" t="str">
+      <c r="G8" s="16" t="str">
         <f>IF(_tuoliu_day_hour!E2="","",_tuoliu_day_hour!E2)</f>
         <v/>
       </c>
-      <c r="H8" s="9" t="str">
+      <c r="H8" s="16" t="str">
         <f>IF(_tuoliu_day_hour!F2="","",_tuoliu_day_hour!F2)</f>
         <v/>
       </c>
-      <c r="I8" s="9" t="str">
+      <c r="I8" s="16" t="str">
         <f>IF(_tuoliu_day_hour!G2="","",_tuoliu_day_hour!G2)</f>
         <v/>
       </c>
-      <c r="J8" s="9" t="str">
+      <c r="J8" s="16" t="str">
         <f>IF(_tuoliu_day_hour!H2="","",_tuoliu_day_hour!H2)</f>
         <v/>
       </c>
-      <c r="K8" s="9" t="str">
+      <c r="K8" s="16" t="str">
         <f>IF(_tuoliu_day_hour!I2="","",_tuoliu_day_hour!I2)</f>
         <v/>
       </c>
-      <c r="L8" s="9" t="str">
+      <c r="L8" s="16" t="str">
         <f>IF(_tuoliu_day_hour!J2="","",_tuoliu_day_hour!J2)</f>
         <v/>
       </c>
-      <c r="M8" s="9" t="str">
+      <c r="M8" s="16" t="str">
         <f>IF(_tuoliu_day_hour!K2="","",_tuoliu_day_hour!K2)</f>
         <v/>
       </c>
-      <c r="N8" s="9" t="str">
+      <c r="N8" s="16" t="str">
         <f>IF(_tuoliu_day_hour!L2="","",_tuoliu_day_hour!L2)</f>
         <v/>
       </c>
-      <c r="O8" s="9" t="str">
+      <c r="O8" s="16" t="str">
         <f>IF(_tuoliu_day_hour!M2="","",_tuoliu_day_hour!M2)</f>
         <v/>
       </c>
-      <c r="P8" s="9" t="str">
+      <c r="P8" s="16" t="str">
         <f>IF(_tuoliu_day_hour!N2="","",_tuoliu_day_hour!N2)</f>
         <v/>
       </c>
-      <c r="Q8" s="9" t="str">
+      <c r="Q8" s="16" t="str">
         <f>IF(_tuoliu_day_hour!O2="","",_tuoliu_day_hour!O2)</f>
         <v/>
       </c>
-      <c r="R8" s="9" t="str">
+      <c r="R8" s="16" t="str">
         <f>IF(_tuoliu_day_hour!P2="","",_tuoliu_day_hour!P2)</f>
         <v/>
       </c>
-      <c r="S8" s="9" t="str">
+      <c r="S8" s="16" t="str">
         <f>IF(_tuoliu_day_hour!Q2="","",_tuoliu_day_hour!Q2)</f>
         <v/>
       </c>
-      <c r="T8" s="9" t="str">
+      <c r="T8" s="16" t="str">
         <f>IF(_tuoliu_day_hour!R2="","",_tuoliu_day_hour!R2)</f>
         <v/>
       </c>
-      <c r="U8" s="9" t="str">
+      <c r="U8" s="16" t="str">
         <f>IF(_tuoliu_day_hour!S2="","",_tuoliu_day_hour!S2)</f>
         <v/>
       </c>
-      <c r="V8" s="9" t="str">
+      <c r="V8" s="16" t="str">
         <f>IF(_tuoliu_day_hour!T2="","",_tuoliu_day_hour!T2)</f>
         <v/>
       </c>
-      <c r="W8" s="9" t="str">
+      <c r="W8" s="16" t="str">
         <f>IF(_tuoliu_day_hour!U2="","",_tuoliu_day_hour!U2)</f>
         <v/>
       </c>
-      <c r="X8" s="9" t="str">
+      <c r="X8" s="16" t="str">
         <f>IF(_tuoliu_day_hour!V2="","",_tuoliu_day_hour!V2)</f>
         <v/>
       </c>
-      <c r="Y8" s="9" t="str">
+      <c r="Y8" s="16" t="str">
         <f>IF(_tuoliu_day_hour!W2="","",_tuoliu_day_hour!W2)</f>
         <v/>
       </c>
-      <c r="Z8" s="9" t="str">
+      <c r="Z8" s="16" t="str">
         <f>IF(_tuoliu_day_hour!X2="","",_tuoliu_day_hour!X2)</f>
         <v/>
       </c>
-      <c r="AA8" s="9" t="str">
+      <c r="AA8" s="16" t="str">
         <f>IF(_tuoliu_day_hour!Y2="","",_tuoliu_day_hour!Y2)</f>
         <v/>
       </c>
-      <c r="AB8" s="9" t="str">
+      <c r="AB8" s="16" t="str">
         <f>IF(_tuoliu_day_hour!Z2="","",_tuoliu_day_hour!Z2)</f>
         <v/>
       </c>
-      <c r="AC8" s="9" t="str">
+      <c r="AC8" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AA2="","",_tuoliu_day_hour!AA2)</f>
         <v/>
       </c>
-      <c r="AD8" s="9" t="str">
+      <c r="AD8" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AB2="","",_tuoliu_day_hour!AB2)</f>
         <v/>
       </c>
-      <c r="AE8" s="9" t="str">
+      <c r="AE8" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AC2="","",_tuoliu_day_hour!AC2)</f>
         <v/>
       </c>
-      <c r="AF8" s="9" t="str">
+      <c r="AF8" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AD2="","",_tuoliu_day_hour!AD2)</f>
         <v/>
       </c>
-      <c r="AG8" s="9" t="str">
+      <c r="AG8" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AE2="","",_tuoliu_day_hour!AE2)</f>
         <v/>
       </c>
-      <c r="AH8" s="9" t="str">
+      <c r="AH8" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AF2="","",_tuoliu_day_hour!AF2)</f>
         <v/>
       </c>
-      <c r="AI8" s="9" t="str">
+      <c r="AI8" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AG2="","",_tuoliu_day_hour!AG2)</f>
         <v/>
       </c>
-      <c r="AJ8" s="9" t="str">
+      <c r="AJ8" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AH2="","",_tuoliu_day_hour!AH2)</f>
         <v/>
       </c>
-      <c r="AK8" s="9" t="str">
+      <c r="AK8" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AI2="","",_tuoliu_day_hour!AI2)</f>
         <v/>
       </c>
-      <c r="AL8" s="9" t="str">
+      <c r="AL8" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AJ2="","",_tuoliu_day_hour!AJ2)</f>
         <v/>
       </c>
-      <c r="AM8" s="9" t="str">
+      <c r="AM8" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AK2="","",_tuoliu_day_hour!AK2)</f>
         <v/>
       </c>
-      <c r="AN8" s="9" t="str">
+      <c r="AN8" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AL2="","",_tuoliu_day_hour!AL2)</f>
         <v/>
       </c>
-      <c r="AO8" s="9" t="str">
+      <c r="AO8" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AM2="","",_tuoliu_day_hour!AM2)</f>
         <v/>
       </c>
-      <c r="AP8" s="9" t="str">
+      <c r="AP8" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AN2="","",_tuoliu_day_hour!AN2)</f>
         <v/>
       </c>
-      <c r="AQ8" s="9" t="str">
+      <c r="AQ8" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AO2="","",_tuoliu_day_hour!AO2)</f>
         <v/>
       </c>
-      <c r="AR8" s="9" t="str">
+      <c r="AR8" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AP2="","",_tuoliu_day_hour!AP2)</f>
         <v/>
       </c>
-      <c r="AS8" s="9" t="str">
+      <c r="AS8" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AQ2="","",_tuoliu_day_hour!AQ2)</f>
         <v/>
       </c>
-      <c r="AT8" s="9" t="str">
+      <c r="AT8" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AR2="","",_tuoliu_day_hour!AR2)</f>
         <v/>
       </c>
-      <c r="AU8" s="9" t="str">
+      <c r="AU8" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AS2="","",_tuoliu_day_hour!AS2)</f>
         <v/>
       </c>
-      <c r="AV8" s="9" t="str">
+      <c r="AV8" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AT2="","",_tuoliu_day_hour!AT2)</f>
         <v/>
       </c>
-      <c r="AW8" s="9" t="str">
+      <c r="AW8" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AU2="","",_tuoliu_day_hour!AU2)</f>
         <v/>
       </c>
-      <c r="AX8" s="9" t="str">
+      <c r="AX8" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AV2="","",_tuoliu_day_hour!AV2)</f>
         <v/>
       </c>
-      <c r="AY8" s="14" t="str">
+      <c r="AY8" s="50" t="str">
         <f>IF(_tuoliu_day_hour!AW2="","",_tuoliu_day_hour!AW2)</f>
         <v/>
       </c>
-      <c r="AZ8" s="45" t="s">
+      <c r="AZ8" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="BA8" s="15" t="s">
+      <c r="BA8" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="BB8" s="9"/>
-      <c r="BC8" s="9"/>
-      <c r="BD8" s="12"/>
+      <c r="BB8" s="16"/>
+      <c r="BC8" s="16"/>
+      <c r="BD8" s="48"/>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.15">
-      <c r="B9" s="8">
-        <v>4.1666666666666699E-2</v>
-      </c>
-      <c r="C9" s="9" t="str">
+    <row r="9" spans="2:56">
+      <c r="B9" s="15">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="C9" s="16" t="str">
         <f>IF(_tuoliu_day_hour!A3="","",_tuoliu_day_hour!A3)</f>
         <v/>
       </c>
-      <c r="D9" s="9" t="str">
+      <c r="D9" s="16" t="str">
         <f>IF(_tuoliu_day_hour!B3="","",_tuoliu_day_hour!B3)</f>
         <v/>
       </c>
-      <c r="E9" s="9" t="str">
+      <c r="E9" s="16" t="str">
         <f>IF(_tuoliu_day_hour!C3="","",_tuoliu_day_hour!C3)</f>
         <v/>
       </c>
-      <c r="F9" s="9" t="str">
+      <c r="F9" s="16" t="str">
         <f>IF(_tuoliu_day_hour!D3="","",_tuoliu_day_hour!D3)</f>
         <v/>
       </c>
-      <c r="G9" s="9" t="str">
+      <c r="G9" s="16" t="str">
         <f>IF(_tuoliu_day_hour!E3="","",_tuoliu_day_hour!E3)</f>
         <v/>
       </c>
-      <c r="H9" s="9" t="str">
+      <c r="H9" s="16" t="str">
         <f>IF(_tuoliu_day_hour!F3="","",_tuoliu_day_hour!F3)</f>
         <v/>
       </c>
-      <c r="I9" s="9" t="str">
+      <c r="I9" s="16" t="str">
         <f>IF(_tuoliu_day_hour!G3="","",_tuoliu_day_hour!G3)</f>
         <v/>
       </c>
-      <c r="J9" s="9" t="str">
+      <c r="J9" s="16" t="str">
         <f>IF(_tuoliu_day_hour!H3="","",_tuoliu_day_hour!H3)</f>
         <v/>
       </c>
-      <c r="K9" s="9" t="str">
+      <c r="K9" s="16" t="str">
         <f>IF(_tuoliu_day_hour!I3="","",_tuoliu_day_hour!I3)</f>
         <v/>
       </c>
-      <c r="L9" s="9" t="str">
+      <c r="L9" s="16" t="str">
         <f>IF(_tuoliu_day_hour!J3="","",_tuoliu_day_hour!J3)</f>
         <v/>
       </c>
-      <c r="M9" s="9" t="str">
+      <c r="M9" s="16" t="str">
         <f>IF(_tuoliu_day_hour!K3="","",_tuoliu_day_hour!K3)</f>
         <v/>
       </c>
-      <c r="N9" s="9" t="str">
+      <c r="N9" s="16" t="str">
         <f>IF(_tuoliu_day_hour!L3="","",_tuoliu_day_hour!L3)</f>
         <v/>
       </c>
-      <c r="O9" s="9" t="str">
+      <c r="O9" s="16" t="str">
         <f>IF(_tuoliu_day_hour!M3="","",_tuoliu_day_hour!M3)</f>
         <v/>
       </c>
-      <c r="P9" s="9" t="str">
+      <c r="P9" s="16" t="str">
         <f>IF(_tuoliu_day_hour!N3="","",_tuoliu_day_hour!N3)</f>
         <v/>
       </c>
-      <c r="Q9" s="9" t="str">
+      <c r="Q9" s="16" t="str">
         <f>IF(_tuoliu_day_hour!O3="","",_tuoliu_day_hour!O3)</f>
         <v/>
       </c>
-      <c r="R9" s="9" t="str">
+      <c r="R9" s="16" t="str">
         <f>IF(_tuoliu_day_hour!P3="","",_tuoliu_day_hour!P3)</f>
         <v/>
       </c>
-      <c r="S9" s="9" t="str">
+      <c r="S9" s="16" t="str">
         <f>IF(_tuoliu_day_hour!Q3="","",_tuoliu_day_hour!Q3)</f>
         <v/>
       </c>
-      <c r="T9" s="9" t="str">
+      <c r="T9" s="16" t="str">
         <f>IF(_tuoliu_day_hour!R3="","",_tuoliu_day_hour!R3)</f>
         <v/>
       </c>
-      <c r="U9" s="9" t="str">
+      <c r="U9" s="16" t="str">
         <f>IF(_tuoliu_day_hour!S3="","",_tuoliu_day_hour!S3)</f>
         <v/>
       </c>
-      <c r="V9" s="9" t="str">
+      <c r="V9" s="16" t="str">
         <f>IF(_tuoliu_day_hour!T3="","",_tuoliu_day_hour!T3)</f>
         <v/>
       </c>
-      <c r="W9" s="9" t="str">
+      <c r="W9" s="16" t="str">
         <f>IF(_tuoliu_day_hour!U3="","",_tuoliu_day_hour!U3)</f>
         <v/>
       </c>
-      <c r="X9" s="9" t="str">
+      <c r="X9" s="16" t="str">
         <f>IF(_tuoliu_day_hour!V3="","",_tuoliu_day_hour!V3)</f>
         <v/>
       </c>
-      <c r="Y9" s="9" t="str">
+      <c r="Y9" s="16" t="str">
         <f>IF(_tuoliu_day_hour!W3="","",_tuoliu_day_hour!W3)</f>
         <v/>
       </c>
-      <c r="Z9" s="9" t="str">
+      <c r="Z9" s="16" t="str">
         <f>IF(_tuoliu_day_hour!X3="","",_tuoliu_day_hour!X3)</f>
         <v/>
       </c>
-      <c r="AA9" s="9" t="str">
+      <c r="AA9" s="16" t="str">
         <f>IF(_tuoliu_day_hour!Y3="","",_tuoliu_day_hour!Y3)</f>
         <v/>
       </c>
-      <c r="AB9" s="9" t="str">
+      <c r="AB9" s="16" t="str">
         <f>IF(_tuoliu_day_hour!Z3="","",_tuoliu_day_hour!Z3)</f>
         <v/>
       </c>
-      <c r="AC9" s="9" t="str">
+      <c r="AC9" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AA3="","",_tuoliu_day_hour!AA3)</f>
         <v/>
       </c>
-      <c r="AD9" s="9" t="str">
+      <c r="AD9" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AB3="","",_tuoliu_day_hour!AB3)</f>
         <v/>
       </c>
-      <c r="AE9" s="9" t="str">
+      <c r="AE9" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AC3="","",_tuoliu_day_hour!AC3)</f>
         <v/>
       </c>
-      <c r="AF9" s="9" t="str">
+      <c r="AF9" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AD3="","",_tuoliu_day_hour!AD3)</f>
         <v/>
       </c>
-      <c r="AG9" s="9" t="str">
+      <c r="AG9" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AE3="","",_tuoliu_day_hour!AE3)</f>
         <v/>
       </c>
-      <c r="AH9" s="9" t="str">
+      <c r="AH9" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AF3="","",_tuoliu_day_hour!AF3)</f>
         <v/>
       </c>
-      <c r="AI9" s="9" t="str">
+      <c r="AI9" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AG3="","",_tuoliu_day_hour!AG3)</f>
         <v/>
       </c>
-      <c r="AJ9" s="9" t="str">
+      <c r="AJ9" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AH3="","",_tuoliu_day_hour!AH3)</f>
         <v/>
       </c>
-      <c r="AK9" s="9" t="str">
+      <c r="AK9" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AI3="","",_tuoliu_day_hour!AI3)</f>
         <v/>
       </c>
-      <c r="AL9" s="9" t="str">
+      <c r="AL9" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AJ3="","",_tuoliu_day_hour!AJ3)</f>
         <v/>
       </c>
-      <c r="AM9" s="9" t="str">
+      <c r="AM9" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AK3="","",_tuoliu_day_hour!AK3)</f>
         <v/>
       </c>
-      <c r="AN9" s="9" t="str">
+      <c r="AN9" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AL3="","",_tuoliu_day_hour!AL3)</f>
         <v/>
       </c>
-      <c r="AO9" s="9" t="str">
+      <c r="AO9" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AM3="","",_tuoliu_day_hour!AM3)</f>
         <v/>
       </c>
-      <c r="AP9" s="9" t="str">
+      <c r="AP9" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AN3="","",_tuoliu_day_hour!AN3)</f>
         <v/>
       </c>
-      <c r="AQ9" s="9" t="str">
+      <c r="AQ9" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AO3="","",_tuoliu_day_hour!AO3)</f>
         <v/>
       </c>
-      <c r="AR9" s="9" t="str">
+      <c r="AR9" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AP3="","",_tuoliu_day_hour!AP3)</f>
         <v/>
       </c>
-      <c r="AS9" s="9" t="str">
+      <c r="AS9" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AQ3="","",_tuoliu_day_hour!AQ3)</f>
         <v/>
       </c>
-      <c r="AT9" s="9" t="str">
+      <c r="AT9" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AR3="","",_tuoliu_day_hour!AR3)</f>
         <v/>
       </c>
-      <c r="AU9" s="9" t="str">
+      <c r="AU9" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AS3="","",_tuoliu_day_hour!AS3)</f>
         <v/>
       </c>
-      <c r="AV9" s="9" t="str">
+      <c r="AV9" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AT3="","",_tuoliu_day_hour!AT3)</f>
         <v/>
       </c>
-      <c r="AW9" s="9" t="str">
+      <c r="AW9" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AU3="","",_tuoliu_day_hour!AU3)</f>
         <v/>
       </c>
-      <c r="AX9" s="9" t="str">
+      <c r="AX9" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AV3="","",_tuoliu_day_hour!AV3)</f>
         <v/>
       </c>
-      <c r="AY9" s="14" t="str">
+      <c r="AY9" s="50" t="str">
         <f>IF(_tuoliu_day_hour!AW3="","",_tuoliu_day_hour!AW3)</f>
         <v/>
       </c>
-      <c r="AZ9" s="45"/>
-      <c r="BA9" s="15" t="s">
+      <c r="AZ9" s="42"/>
+      <c r="BA9" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="BB9" s="9"/>
-      <c r="BC9" s="9"/>
-      <c r="BD9" s="12"/>
+      <c r="BB9" s="16"/>
+      <c r="BC9" s="16"/>
+      <c r="BD9" s="48"/>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.15">
-      <c r="B10" s="8">
-        <v>8.3333333333333301E-2</v>
-      </c>
-      <c r="C10" s="9" t="str">
+    <row r="10" spans="2:56">
+      <c r="B10" s="15">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="C10" s="16" t="str">
         <f>IF(_tuoliu_day_hour!A4="","",_tuoliu_day_hour!A4)</f>
         <v/>
       </c>
-      <c r="D10" s="9" t="str">
+      <c r="D10" s="16" t="str">
         <f>IF(_tuoliu_day_hour!B4="","",_tuoliu_day_hour!B4)</f>
         <v/>
       </c>
-      <c r="E10" s="9" t="str">
+      <c r="E10" s="16" t="str">
         <f>IF(_tuoliu_day_hour!C4="","",_tuoliu_day_hour!C4)</f>
         <v/>
       </c>
-      <c r="F10" s="9" t="str">
+      <c r="F10" s="16" t="str">
         <f>IF(_tuoliu_day_hour!D4="","",_tuoliu_day_hour!D4)</f>
         <v/>
       </c>
-      <c r="G10" s="9" t="str">
+      <c r="G10" s="16" t="str">
         <f>IF(_tuoliu_day_hour!E4="","",_tuoliu_day_hour!E4)</f>
         <v/>
       </c>
-      <c r="H10" s="9" t="str">
+      <c r="H10" s="16" t="str">
         <f>IF(_tuoliu_day_hour!F4="","",_tuoliu_day_hour!F4)</f>
         <v/>
       </c>
-      <c r="I10" s="9" t="str">
+      <c r="I10" s="16" t="str">
         <f>IF(_tuoliu_day_hour!G4="","",_tuoliu_day_hour!G4)</f>
         <v/>
       </c>
-      <c r="J10" s="9" t="str">
+      <c r="J10" s="16" t="str">
         <f>IF(_tuoliu_day_hour!H4="","",_tuoliu_day_hour!H4)</f>
         <v/>
       </c>
-      <c r="K10" s="9" t="str">
+      <c r="K10" s="16" t="str">
         <f>IF(_tuoliu_day_hour!I4="","",_tuoliu_day_hour!I4)</f>
         <v/>
       </c>
-      <c r="L10" s="9" t="str">
+      <c r="L10" s="16" t="str">
         <f>IF(_tuoliu_day_hour!J4="","",_tuoliu_day_hour!J4)</f>
         <v/>
       </c>
-      <c r="M10" s="9" t="str">
+      <c r="M10" s="16" t="str">
         <f>IF(_tuoliu_day_hour!K4="","",_tuoliu_day_hour!K4)</f>
         <v/>
       </c>
-      <c r="N10" s="9" t="str">
+      <c r="N10" s="16" t="str">
         <f>IF(_tuoliu_day_hour!L4="","",_tuoliu_day_hour!L4)</f>
         <v/>
       </c>
-      <c r="O10" s="9" t="str">
+      <c r="O10" s="16" t="str">
         <f>IF(_tuoliu_day_hour!M4="","",_tuoliu_day_hour!M4)</f>
         <v/>
       </c>
-      <c r="P10" s="9" t="str">
+      <c r="P10" s="16" t="str">
         <f>IF(_tuoliu_day_hour!N4="","",_tuoliu_day_hour!N4)</f>
         <v/>
       </c>
-      <c r="Q10" s="9" t="str">
+      <c r="Q10" s="16" t="str">
         <f>IF(_tuoliu_day_hour!O4="","",_tuoliu_day_hour!O4)</f>
         <v/>
       </c>
-      <c r="R10" s="9" t="str">
+      <c r="R10" s="16" t="str">
         <f>IF(_tuoliu_day_hour!P4="","",_tuoliu_day_hour!P4)</f>
         <v/>
       </c>
-      <c r="S10" s="9" t="str">
+      <c r="S10" s="16" t="str">
         <f>IF(_tuoliu_day_hour!Q4="","",_tuoliu_day_hour!Q4)</f>
         <v/>
       </c>
-      <c r="T10" s="9" t="str">
+      <c r="T10" s="16" t="str">
         <f>IF(_tuoliu_day_hour!R4="","",_tuoliu_day_hour!R4)</f>
         <v/>
       </c>
-      <c r="U10" s="9" t="str">
+      <c r="U10" s="16" t="str">
         <f>IF(_tuoliu_day_hour!S4="","",_tuoliu_day_hour!S4)</f>
         <v/>
       </c>
-      <c r="V10" s="9" t="str">
+      <c r="V10" s="16" t="str">
         <f>IF(_tuoliu_day_hour!T4="","",_tuoliu_day_hour!T4)</f>
         <v/>
       </c>
-      <c r="W10" s="9" t="str">
+      <c r="W10" s="16" t="str">
         <f>IF(_tuoliu_day_hour!U4="","",_tuoliu_day_hour!U4)</f>
         <v/>
       </c>
-      <c r="X10" s="9" t="str">
+      <c r="X10" s="16" t="str">
         <f>IF(_tuoliu_day_hour!V4="","",_tuoliu_day_hour!V4)</f>
         <v/>
       </c>
-      <c r="Y10" s="9" t="str">
+      <c r="Y10" s="16" t="str">
         <f>IF(_tuoliu_day_hour!W4="","",_tuoliu_day_hour!W4)</f>
         <v/>
       </c>
-      <c r="Z10" s="9" t="str">
+      <c r="Z10" s="16" t="str">
         <f>IF(_tuoliu_day_hour!X4="","",_tuoliu_day_hour!X4)</f>
         <v/>
       </c>
-      <c r="AA10" s="9" t="str">
+      <c r="AA10" s="16" t="str">
         <f>IF(_tuoliu_day_hour!Y4="","",_tuoliu_day_hour!Y4)</f>
         <v/>
       </c>
-      <c r="AB10" s="9" t="str">
+      <c r="AB10" s="16" t="str">
         <f>IF(_tuoliu_day_hour!Z4="","",_tuoliu_day_hour!Z4)</f>
         <v/>
       </c>
-      <c r="AC10" s="9" t="str">
+      <c r="AC10" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AA4="","",_tuoliu_day_hour!AA4)</f>
         <v/>
       </c>
-      <c r="AD10" s="9" t="str">
+      <c r="AD10" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AB4="","",_tuoliu_day_hour!AB4)</f>
         <v/>
       </c>
-      <c r="AE10" s="9" t="str">
+      <c r="AE10" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AC4="","",_tuoliu_day_hour!AC4)</f>
         <v/>
       </c>
-      <c r="AF10" s="9" t="str">
+      <c r="AF10" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AD4="","",_tuoliu_day_hour!AD4)</f>
         <v/>
       </c>
-      <c r="AG10" s="9" t="str">
+      <c r="AG10" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AE4="","",_tuoliu_day_hour!AE4)</f>
         <v/>
       </c>
-      <c r="AH10" s="9" t="str">
+      <c r="AH10" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AF4="","",_tuoliu_day_hour!AF4)</f>
         <v/>
       </c>
-      <c r="AI10" s="9" t="str">
+      <c r="AI10" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AG4="","",_tuoliu_day_hour!AG4)</f>
         <v/>
       </c>
-      <c r="AJ10" s="9" t="str">
+      <c r="AJ10" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AH4="","",_tuoliu_day_hour!AH4)</f>
         <v/>
       </c>
-      <c r="AK10" s="9" t="str">
+      <c r="AK10" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AI4="","",_tuoliu_day_hour!AI4)</f>
         <v/>
       </c>
-      <c r="AL10" s="9" t="str">
+      <c r="AL10" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AJ4="","",_tuoliu_day_hour!AJ4)</f>
         <v/>
       </c>
-      <c r="AM10" s="9" t="str">
+      <c r="AM10" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AK4="","",_tuoliu_day_hour!AK4)</f>
         <v/>
       </c>
-      <c r="AN10" s="9" t="str">
+      <c r="AN10" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AL4="","",_tuoliu_day_hour!AL4)</f>
         <v/>
       </c>
-      <c r="AO10" s="9" t="str">
+      <c r="AO10" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AM4="","",_tuoliu_day_hour!AM4)</f>
         <v/>
       </c>
-      <c r="AP10" s="9" t="str">
+      <c r="AP10" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AN4="","",_tuoliu_day_hour!AN4)</f>
         <v/>
       </c>
-      <c r="AQ10" s="9" t="str">
+      <c r="AQ10" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AO4="","",_tuoliu_day_hour!AO4)</f>
         <v/>
       </c>
-      <c r="AR10" s="9" t="str">
+      <c r="AR10" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AP4="","",_tuoliu_day_hour!AP4)</f>
         <v/>
       </c>
-      <c r="AS10" s="9" t="str">
+      <c r="AS10" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AQ4="","",_tuoliu_day_hour!AQ4)</f>
         <v/>
       </c>
-      <c r="AT10" s="9" t="str">
+      <c r="AT10" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AR4="","",_tuoliu_day_hour!AR4)</f>
         <v/>
       </c>
-      <c r="AU10" s="9" t="str">
+      <c r="AU10" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AS4="","",_tuoliu_day_hour!AS4)</f>
         <v/>
       </c>
-      <c r="AV10" s="9" t="str">
+      <c r="AV10" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AT4="","",_tuoliu_day_hour!AT4)</f>
         <v/>
       </c>
-      <c r="AW10" s="9" t="str">
+      <c r="AW10" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AU4="","",_tuoliu_day_hour!AU4)</f>
         <v/>
       </c>
-      <c r="AX10" s="9" t="str">
+      <c r="AX10" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AV4="","",_tuoliu_day_hour!AV4)</f>
         <v/>
       </c>
-      <c r="AY10" s="14" t="str">
+      <c r="AY10" s="50" t="str">
         <f>IF(_tuoliu_day_hour!AW4="","",_tuoliu_day_hour!AW4)</f>
         <v/>
       </c>
-      <c r="AZ10" s="45" t="s">
+      <c r="AZ10" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="BA10" s="15" t="s">
+      <c r="BA10" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="BB10" s="9"/>
-      <c r="BC10" s="9"/>
-      <c r="BD10" s="12"/>
+      <c r="BB10" s="16"/>
+      <c r="BC10" s="16"/>
+      <c r="BD10" s="48"/>
     </row>
-    <row r="11" spans="1:56" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="8">
+    <row r="11" ht="14.1" customHeight="1" spans="2:56">
+      <c r="B11" s="15">
         <v>0.125</v>
       </c>
-      <c r="C11" s="9" t="str">
+      <c r="C11" s="16" t="str">
         <f>IF(_tuoliu_day_hour!A5="","",_tuoliu_day_hour!A5)</f>
         <v/>
       </c>
-      <c r="D11" s="9" t="str">
+      <c r="D11" s="16" t="str">
         <f>IF(_tuoliu_day_hour!B5="","",_tuoliu_day_hour!B5)</f>
         <v/>
       </c>
-      <c r="E11" s="9" t="str">
+      <c r="E11" s="16" t="str">
         <f>IF(_tuoliu_day_hour!C5="","",_tuoliu_day_hour!C5)</f>
         <v/>
       </c>
-      <c r="F11" s="9" t="str">
+      <c r="F11" s="16" t="str">
         <f>IF(_tuoliu_day_hour!D5="","",_tuoliu_day_hour!D5)</f>
         <v/>
       </c>
-      <c r="G11" s="9" t="str">
+      <c r="G11" s="16" t="str">
         <f>IF(_tuoliu_day_hour!E5="","",_tuoliu_day_hour!E5)</f>
         <v/>
       </c>
-      <c r="H11" s="9" t="str">
+      <c r="H11" s="16" t="str">
         <f>IF(_tuoliu_day_hour!F5="","",_tuoliu_day_hour!F5)</f>
         <v/>
       </c>
-      <c r="I11" s="9" t="str">
+      <c r="I11" s="16" t="str">
         <f>IF(_tuoliu_day_hour!G5="","",_tuoliu_day_hour!G5)</f>
         <v/>
       </c>
-      <c r="J11" s="9" t="str">
+      <c r="J11" s="16" t="str">
         <f>IF(_tuoliu_day_hour!H5="","",_tuoliu_day_hour!H5)</f>
         <v/>
       </c>
-      <c r="K11" s="9" t="str">
+      <c r="K11" s="16" t="str">
         <f>IF(_tuoliu_day_hour!I5="","",_tuoliu_day_hour!I5)</f>
         <v/>
       </c>
-      <c r="L11" s="9" t="str">
+      <c r="L11" s="16" t="str">
         <f>IF(_tuoliu_day_hour!J5="","",_tuoliu_day_hour!J5)</f>
         <v/>
       </c>
-      <c r="M11" s="9" t="str">
+      <c r="M11" s="16" t="str">
         <f>IF(_tuoliu_day_hour!K5="","",_tuoliu_day_hour!K5)</f>
         <v/>
       </c>
-      <c r="N11" s="9" t="str">
+      <c r="N11" s="16" t="str">
         <f>IF(_tuoliu_day_hour!L5="","",_tuoliu_day_hour!L5)</f>
         <v/>
       </c>
-      <c r="O11" s="9" t="str">
+      <c r="O11" s="16" t="str">
         <f>IF(_tuoliu_day_hour!M5="","",_tuoliu_day_hour!M5)</f>
         <v/>
       </c>
-      <c r="P11" s="9" t="str">
+      <c r="P11" s="16" t="str">
         <f>IF(_tuoliu_day_hour!N5="","",_tuoliu_day_hour!N5)</f>
         <v/>
       </c>
-      <c r="Q11" s="9" t="str">
+      <c r="Q11" s="16" t="str">
         <f>IF(_tuoliu_day_hour!O5="","",_tuoliu_day_hour!O5)</f>
         <v/>
       </c>
-      <c r="R11" s="9" t="str">
+      <c r="R11" s="16" t="str">
         <f>IF(_tuoliu_day_hour!P5="","",_tuoliu_day_hour!P5)</f>
         <v/>
       </c>
-      <c r="S11" s="9" t="str">
+      <c r="S11" s="16" t="str">
         <f>IF(_tuoliu_day_hour!Q5="","",_tuoliu_day_hour!Q5)</f>
         <v/>
       </c>
-      <c r="T11" s="9" t="str">
+      <c r="T11" s="16" t="str">
         <f>IF(_tuoliu_day_hour!R5="","",_tuoliu_day_hour!R5)</f>
         <v/>
       </c>
-      <c r="U11" s="9" t="str">
+      <c r="U11" s="16" t="str">
         <f>IF(_tuoliu_day_hour!S5="","",_tuoliu_day_hour!S5)</f>
         <v/>
       </c>
-      <c r="V11" s="9" t="str">
+      <c r="V11" s="16" t="str">
         <f>IF(_tuoliu_day_hour!T5="","",_tuoliu_day_hour!T5)</f>
         <v/>
       </c>
-      <c r="W11" s="9" t="str">
+      <c r="W11" s="16" t="str">
         <f>IF(_tuoliu_day_hour!U5="","",_tuoliu_day_hour!U5)</f>
         <v/>
       </c>
-      <c r="X11" s="9" t="str">
+      <c r="X11" s="16" t="str">
         <f>IF(_tuoliu_day_hour!V5="","",_tuoliu_day_hour!V5)</f>
         <v/>
       </c>
-      <c r="Y11" s="9" t="str">
+      <c r="Y11" s="16" t="str">
         <f>IF(_tuoliu_day_hour!W5="","",_tuoliu_day_hour!W5)</f>
         <v/>
       </c>
-      <c r="Z11" s="9" t="str">
+      <c r="Z11" s="16" t="str">
         <f>IF(_tuoliu_day_hour!X5="","",_tuoliu_day_hour!X5)</f>
         <v/>
       </c>
-      <c r="AA11" s="9" t="str">
+      <c r="AA11" s="16" t="str">
         <f>IF(_tuoliu_day_hour!Y5="","",_tuoliu_day_hour!Y5)</f>
         <v/>
       </c>
-      <c r="AB11" s="9" t="str">
+      <c r="AB11" s="16" t="str">
         <f>IF(_tuoliu_day_hour!Z5="","",_tuoliu_day_hour!Z5)</f>
         <v/>
       </c>
-      <c r="AC11" s="9" t="str">
+      <c r="AC11" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AA5="","",_tuoliu_day_hour!AA5)</f>
         <v/>
       </c>
-      <c r="AD11" s="9" t="str">
+      <c r="AD11" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AB5="","",_tuoliu_day_hour!AB5)</f>
         <v/>
       </c>
-      <c r="AE11" s="9" t="str">
+      <c r="AE11" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AC5="","",_tuoliu_day_hour!AC5)</f>
         <v/>
       </c>
-      <c r="AF11" s="9" t="str">
+      <c r="AF11" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AD5="","",_tuoliu_day_hour!AD5)</f>
         <v/>
       </c>
-      <c r="AG11" s="9" t="str">
+      <c r="AG11" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AE5="","",_tuoliu_day_hour!AE5)</f>
         <v/>
       </c>
-      <c r="AH11" s="9" t="str">
+      <c r="AH11" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AF5="","",_tuoliu_day_hour!AF5)</f>
         <v/>
       </c>
-      <c r="AI11" s="9" t="str">
+      <c r="AI11" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AG5="","",_tuoliu_day_hour!AG5)</f>
         <v/>
       </c>
-      <c r="AJ11" s="9" t="str">
+      <c r="AJ11" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AH5="","",_tuoliu_day_hour!AH5)</f>
         <v/>
       </c>
-      <c r="AK11" s="9" t="str">
+      <c r="AK11" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AI5="","",_tuoliu_day_hour!AI5)</f>
         <v/>
       </c>
-      <c r="AL11" s="9" t="str">
+      <c r="AL11" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AJ5="","",_tuoliu_day_hour!AJ5)</f>
         <v/>
       </c>
-      <c r="AM11" s="9" t="str">
+      <c r="AM11" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AK5="","",_tuoliu_day_hour!AK5)</f>
         <v/>
       </c>
-      <c r="AN11" s="9" t="str">
+      <c r="AN11" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AL5="","",_tuoliu_day_hour!AL5)</f>
         <v/>
       </c>
-      <c r="AO11" s="9" t="str">
+      <c r="AO11" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AM5="","",_tuoliu_day_hour!AM5)</f>
         <v/>
       </c>
-      <c r="AP11" s="9" t="str">
+      <c r="AP11" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AN5="","",_tuoliu_day_hour!AN5)</f>
         <v/>
       </c>
-      <c r="AQ11" s="9" t="str">
+      <c r="AQ11" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AO5="","",_tuoliu_day_hour!AO5)</f>
         <v/>
       </c>
-      <c r="AR11" s="9" t="str">
+      <c r="AR11" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AP5="","",_tuoliu_day_hour!AP5)</f>
         <v/>
       </c>
-      <c r="AS11" s="9" t="str">
+      <c r="AS11" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AQ5="","",_tuoliu_day_hour!AQ5)</f>
         <v/>
       </c>
-      <c r="AT11" s="9" t="str">
+      <c r="AT11" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AR5="","",_tuoliu_day_hour!AR5)</f>
         <v/>
       </c>
-      <c r="AU11" s="9" t="str">
+      <c r="AU11" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AS5="","",_tuoliu_day_hour!AS5)</f>
         <v/>
       </c>
-      <c r="AV11" s="9" t="str">
+      <c r="AV11" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AT5="","",_tuoliu_day_hour!AT5)</f>
         <v/>
       </c>
-      <c r="AW11" s="9" t="str">
+      <c r="AW11" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AU5="","",_tuoliu_day_hour!AU5)</f>
         <v/>
       </c>
-      <c r="AX11" s="9" t="str">
+      <c r="AX11" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AV5="","",_tuoliu_day_hour!AV5)</f>
         <v/>
       </c>
-      <c r="AY11" s="14" t="str">
+      <c r="AY11" s="50" t="str">
         <f>IF(_tuoliu_day_hour!AW5="","",_tuoliu_day_hour!AW5)</f>
         <v/>
       </c>
-      <c r="AZ11" s="45"/>
-      <c r="BA11" s="15" t="s">
+      <c r="AZ11" s="42"/>
+      <c r="BA11" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="BB11" s="9"/>
-      <c r="BC11" s="9"/>
-      <c r="BD11" s="12"/>
+      <c r="BB11" s="16"/>
+      <c r="BC11" s="16"/>
+      <c r="BD11" s="48"/>
     </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.15">
-      <c r="B12" s="8">
-        <v>0.16666666666666699</v>
-      </c>
-      <c r="C12" s="9" t="str">
+    <row r="12" spans="2:56">
+      <c r="B12" s="15">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="C12" s="16" t="str">
         <f>IF(_tuoliu_day_hour!A6="","",_tuoliu_day_hour!A6)</f>
         <v/>
       </c>
-      <c r="D12" s="9" t="str">
+      <c r="D12" s="16" t="str">
         <f>IF(_tuoliu_day_hour!B6="","",_tuoliu_day_hour!B6)</f>
         <v/>
       </c>
-      <c r="E12" s="9" t="str">
+      <c r="E12" s="16" t="str">
         <f>IF(_tuoliu_day_hour!C6="","",_tuoliu_day_hour!C6)</f>
         <v/>
       </c>
-      <c r="F12" s="9" t="str">
+      <c r="F12" s="16" t="str">
         <f>IF(_tuoliu_day_hour!D6="","",_tuoliu_day_hour!D6)</f>
         <v/>
       </c>
-      <c r="G12" s="9" t="str">
+      <c r="G12" s="16" t="str">
         <f>IF(_tuoliu_day_hour!E6="","",_tuoliu_day_hour!E6)</f>
         <v/>
       </c>
-      <c r="H12" s="9" t="str">
+      <c r="H12" s="16" t="str">
         <f>IF(_tuoliu_day_hour!F6="","",_tuoliu_day_hour!F6)</f>
         <v/>
       </c>
-      <c r="I12" s="9" t="str">
+      <c r="I12" s="16" t="str">
         <f>IF(_tuoliu_day_hour!G6="","",_tuoliu_day_hour!G6)</f>
         <v/>
       </c>
-      <c r="J12" s="9" t="str">
+      <c r="J12" s="16" t="str">
         <f>IF(_tuoliu_day_hour!H6="","",_tuoliu_day_hour!H6)</f>
         <v/>
       </c>
-      <c r="K12" s="9" t="str">
+      <c r="K12" s="16" t="str">
         <f>IF(_tuoliu_day_hour!I6="","",_tuoliu_day_hour!I6)</f>
         <v/>
       </c>
-      <c r="L12" s="9" t="str">
+      <c r="L12" s="16" t="str">
         <f>IF(_tuoliu_day_hour!J6="","",_tuoliu_day_hour!J6)</f>
         <v/>
       </c>
-      <c r="M12" s="9" t="str">
+      <c r="M12" s="16" t="str">
         <f>IF(_tuoliu_day_hour!K6="","",_tuoliu_day_hour!K6)</f>
         <v/>
       </c>
-      <c r="N12" s="9" t="str">
+      <c r="N12" s="16" t="str">
         <f>IF(_tuoliu_day_hour!L6="","",_tuoliu_day_hour!L6)</f>
         <v/>
       </c>
-      <c r="O12" s="9" t="str">
+      <c r="O12" s="16" t="str">
         <f>IF(_tuoliu_day_hour!M6="","",_tuoliu_day_hour!M6)</f>
         <v/>
       </c>
-      <c r="P12" s="9" t="str">
+      <c r="P12" s="16" t="str">
         <f>IF(_tuoliu_day_hour!N6="","",_tuoliu_day_hour!N6)</f>
         <v/>
       </c>
-      <c r="Q12" s="9" t="str">
+      <c r="Q12" s="16" t="str">
         <f>IF(_tuoliu_day_hour!O6="","",_tuoliu_day_hour!O6)</f>
         <v/>
       </c>
-      <c r="R12" s="9" t="str">
+      <c r="R12" s="16" t="str">
         <f>IF(_tuoliu_day_hour!P6="","",_tuoliu_day_hour!P6)</f>
         <v/>
       </c>
-      <c r="S12" s="9" t="str">
+      <c r="S12" s="16" t="str">
         <f>IF(_tuoliu_day_hour!Q6="","",_tuoliu_day_hour!Q6)</f>
         <v/>
       </c>
-      <c r="T12" s="9" t="str">
+      <c r="T12" s="16" t="str">
         <f>IF(_tuoliu_day_hour!R6="","",_tuoliu_day_hour!R6)</f>
         <v/>
       </c>
-      <c r="U12" s="9" t="str">
+      <c r="U12" s="16" t="str">
         <f>IF(_tuoliu_day_hour!S6="","",_tuoliu_day_hour!S6)</f>
         <v/>
       </c>
-      <c r="V12" s="9" t="str">
+      <c r="V12" s="16" t="str">
         <f>IF(_tuoliu_day_hour!T6="","",_tuoliu_day_hour!T6)</f>
         <v/>
       </c>
-      <c r="W12" s="9" t="str">
+      <c r="W12" s="16" t="str">
         <f>IF(_tuoliu_day_hour!U6="","",_tuoliu_day_hour!U6)</f>
         <v/>
       </c>
-      <c r="X12" s="9" t="str">
+      <c r="X12" s="16" t="str">
         <f>IF(_tuoliu_day_hour!V6="","",_tuoliu_day_hour!V6)</f>
         <v/>
       </c>
-      <c r="Y12" s="9" t="str">
+      <c r="Y12" s="16" t="str">
         <f>IF(_tuoliu_day_hour!W6="","",_tuoliu_day_hour!W6)</f>
         <v/>
       </c>
-      <c r="Z12" s="9" t="str">
+      <c r="Z12" s="16" t="str">
         <f>IF(_tuoliu_day_hour!X6="","",_tuoliu_day_hour!X6)</f>
         <v/>
       </c>
-      <c r="AA12" s="9" t="str">
+      <c r="AA12" s="16" t="str">
         <f>IF(_tuoliu_day_hour!Y6="","",_tuoliu_day_hour!Y6)</f>
         <v/>
       </c>
-      <c r="AB12" s="9" t="str">
+      <c r="AB12" s="16" t="str">
         <f>IF(_tuoliu_day_hour!Z6="","",_tuoliu_day_hour!Z6)</f>
         <v/>
       </c>
-      <c r="AC12" s="9" t="str">
+      <c r="AC12" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AA6="","",_tuoliu_day_hour!AA6)</f>
         <v/>
       </c>
-      <c r="AD12" s="9" t="str">
+      <c r="AD12" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AB6="","",_tuoliu_day_hour!AB6)</f>
         <v/>
       </c>
-      <c r="AE12" s="9" t="str">
+      <c r="AE12" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AC6="","",_tuoliu_day_hour!AC6)</f>
         <v/>
       </c>
-      <c r="AF12" s="9" t="str">
+      <c r="AF12" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AD6="","",_tuoliu_day_hour!AD6)</f>
         <v/>
       </c>
-      <c r="AG12" s="9" t="str">
+      <c r="AG12" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AE6="","",_tuoliu_day_hour!AE6)</f>
         <v/>
       </c>
-      <c r="AH12" s="9" t="str">
+      <c r="AH12" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AF6="","",_tuoliu_day_hour!AF6)</f>
         <v/>
       </c>
-      <c r="AI12" s="9" t="str">
+      <c r="AI12" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AG6="","",_tuoliu_day_hour!AG6)</f>
         <v/>
       </c>
-      <c r="AJ12" s="9" t="str">
+      <c r="AJ12" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AH6="","",_tuoliu_day_hour!AH6)</f>
         <v/>
       </c>
-      <c r="AK12" s="9" t="str">
+      <c r="AK12" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AI6="","",_tuoliu_day_hour!AI6)</f>
         <v/>
       </c>
-      <c r="AL12" s="9" t="str">
+      <c r="AL12" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AJ6="","",_tuoliu_day_hour!AJ6)</f>
         <v/>
       </c>
-      <c r="AM12" s="9" t="str">
+      <c r="AM12" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AK6="","",_tuoliu_day_hour!AK6)</f>
         <v/>
       </c>
-      <c r="AN12" s="9" t="str">
+      <c r="AN12" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AL6="","",_tuoliu_day_hour!AL6)</f>
         <v/>
       </c>
-      <c r="AO12" s="9" t="str">
+      <c r="AO12" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AM6="","",_tuoliu_day_hour!AM6)</f>
         <v/>
       </c>
-      <c r="AP12" s="9" t="str">
+      <c r="AP12" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AN6="","",_tuoliu_day_hour!AN6)</f>
         <v/>
       </c>
-      <c r="AQ12" s="9" t="str">
+      <c r="AQ12" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AO6="","",_tuoliu_day_hour!AO6)</f>
         <v/>
       </c>
-      <c r="AR12" s="9" t="str">
+      <c r="AR12" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AP6="","",_tuoliu_day_hour!AP6)</f>
         <v/>
       </c>
-      <c r="AS12" s="9" t="str">
+      <c r="AS12" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AQ6="","",_tuoliu_day_hour!AQ6)</f>
         <v/>
       </c>
-      <c r="AT12" s="9" t="str">
+      <c r="AT12" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AR6="","",_tuoliu_day_hour!AR6)</f>
         <v/>
       </c>
-      <c r="AU12" s="9" t="str">
+      <c r="AU12" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AS6="","",_tuoliu_day_hour!AS6)</f>
         <v/>
       </c>
-      <c r="AV12" s="9" t="str">
+      <c r="AV12" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AT6="","",_tuoliu_day_hour!AT6)</f>
         <v/>
       </c>
-      <c r="AW12" s="9" t="str">
+      <c r="AW12" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AU6="","",_tuoliu_day_hour!AU6)</f>
         <v/>
       </c>
-      <c r="AX12" s="9" t="str">
+      <c r="AX12" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AV6="","",_tuoliu_day_hour!AV6)</f>
         <v/>
       </c>
-      <c r="AY12" s="14" t="str">
+      <c r="AY12" s="50" t="str">
         <f>IF(_tuoliu_day_hour!AW6="","",_tuoliu_day_hour!AW6)</f>
         <v/>
       </c>
-      <c r="AZ12" s="45" t="s">
+      <c r="AZ12" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="BA12" s="15" t="s">
+      <c r="BA12" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="BB12" s="9"/>
-      <c r="BC12" s="9"/>
-      <c r="BD12" s="12"/>
+      <c r="BB12" s="16"/>
+      <c r="BC12" s="16"/>
+      <c r="BD12" s="48"/>
     </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.15">
-      <c r="B13" s="8">
-        <v>0.20833333333333301</v>
-      </c>
-      <c r="C13" s="9" t="str">
+    <row r="13" spans="2:56">
+      <c r="B13" s="15">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="C13" s="16" t="str">
         <f>IF(_tuoliu_day_hour!A7="","",_tuoliu_day_hour!A7)</f>
         <v/>
       </c>
-      <c r="D13" s="9" t="str">
+      <c r="D13" s="16" t="str">
         <f>IF(_tuoliu_day_hour!B7="","",_tuoliu_day_hour!B7)</f>
         <v/>
       </c>
-      <c r="E13" s="9" t="str">
+      <c r="E13" s="16" t="str">
         <f>IF(_tuoliu_day_hour!C7="","",_tuoliu_day_hour!C7)</f>
         <v/>
       </c>
-      <c r="F13" s="9" t="str">
+      <c r="F13" s="16" t="str">
         <f>IF(_tuoliu_day_hour!D7="","",_tuoliu_day_hour!D7)</f>
         <v/>
       </c>
-      <c r="G13" s="9" t="str">
+      <c r="G13" s="16" t="str">
         <f>IF(_tuoliu_day_hour!E7="","",_tuoliu_day_hour!E7)</f>
         <v/>
       </c>
-      <c r="H13" s="9" t="str">
+      <c r="H13" s="16" t="str">
         <f>IF(_tuoliu_day_hour!F7="","",_tuoliu_day_hour!F7)</f>
         <v/>
       </c>
-      <c r="I13" s="9" t="str">
+      <c r="I13" s="16" t="str">
         <f>IF(_tuoliu_day_hour!G7="","",_tuoliu_day_hour!G7)</f>
         <v/>
       </c>
-      <c r="J13" s="9" t="str">
+      <c r="J13" s="16" t="str">
         <f>IF(_tuoliu_day_hour!H7="","",_tuoliu_day_hour!H7)</f>
         <v/>
       </c>
-      <c r="K13" s="9" t="str">
+      <c r="K13" s="16" t="str">
         <f>IF(_tuoliu_day_hour!I7="","",_tuoliu_day_hour!I7)</f>
         <v/>
       </c>
-      <c r="L13" s="9" t="str">
+      <c r="L13" s="16" t="str">
         <f>IF(_tuoliu_day_hour!J7="","",_tuoliu_day_hour!J7)</f>
         <v/>
       </c>
-      <c r="M13" s="9" t="str">
+      <c r="M13" s="16" t="str">
         <f>IF(_tuoliu_day_hour!K7="","",_tuoliu_day_hour!K7)</f>
         <v/>
       </c>
-      <c r="N13" s="9" t="str">
+      <c r="N13" s="16" t="str">
         <f>IF(_tuoliu_day_hour!L7="","",_tuoliu_day_hour!L7)</f>
         <v/>
       </c>
-      <c r="O13" s="9" t="str">
+      <c r="O13" s="16" t="str">
         <f>IF(_tuoliu_day_hour!M7="","",_tuoliu_day_hour!M7)</f>
         <v/>
       </c>
-      <c r="P13" s="9" t="str">
+      <c r="P13" s="16" t="str">
         <f>IF(_tuoliu_day_hour!N7="","",_tuoliu_day_hour!N7)</f>
         <v/>
       </c>
-      <c r="Q13" s="9" t="str">
+      <c r="Q13" s="16" t="str">
         <f>IF(_tuoliu_day_hour!O7="","",_tuoliu_day_hour!O7)</f>
         <v/>
       </c>
-      <c r="R13" s="9" t="str">
+      <c r="R13" s="16" t="str">
         <f>IF(_tuoliu_day_hour!P7="","",_tuoliu_day_hour!P7)</f>
         <v/>
       </c>
-      <c r="S13" s="9" t="str">
+      <c r="S13" s="16" t="str">
         <f>IF(_tuoliu_day_hour!Q7="","",_tuoliu_day_hour!Q7)</f>
         <v/>
       </c>
-      <c r="T13" s="9" t="str">
+      <c r="T13" s="16" t="str">
         <f>IF(_tuoliu_day_hour!R7="","",_tuoliu_day_hour!R7)</f>
         <v/>
       </c>
-      <c r="U13" s="9" t="str">
+      <c r="U13" s="16" t="str">
         <f>IF(_tuoliu_day_hour!S7="","",_tuoliu_day_hour!S7)</f>
         <v/>
       </c>
-      <c r="V13" s="9" t="str">
+      <c r="V13" s="16" t="str">
         <f>IF(_tuoliu_day_hour!T7="","",_tuoliu_day_hour!T7)</f>
         <v/>
       </c>
-      <c r="W13" s="9" t="str">
+      <c r="W13" s="16" t="str">
         <f>IF(_tuoliu_day_hour!U7="","",_tuoliu_day_hour!U7)</f>
         <v/>
       </c>
-      <c r="X13" s="9" t="str">
+      <c r="X13" s="16" t="str">
         <f>IF(_tuoliu_day_hour!V7="","",_tuoliu_day_hour!V7)</f>
         <v/>
       </c>
-      <c r="Y13" s="9" t="str">
+      <c r="Y13" s="16" t="str">
         <f>IF(_tuoliu_day_hour!W7="","",_tuoliu_day_hour!W7)</f>
         <v/>
       </c>
-      <c r="Z13" s="9" t="str">
+      <c r="Z13" s="16" t="str">
         <f>IF(_tuoliu_day_hour!X7="","",_tuoliu_day_hour!X7)</f>
         <v/>
       </c>
-      <c r="AA13" s="9" t="str">
+      <c r="AA13" s="16" t="str">
         <f>IF(_tuoliu_day_hour!Y7="","",_tuoliu_day_hour!Y7)</f>
         <v/>
       </c>
-      <c r="AB13" s="9" t="str">
+      <c r="AB13" s="16" t="str">
         <f>IF(_tuoliu_day_hour!Z7="","",_tuoliu_day_hour!Z7)</f>
         <v/>
       </c>
-      <c r="AC13" s="9" t="str">
+      <c r="AC13" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AA7="","",_tuoliu_day_hour!AA7)</f>
         <v/>
       </c>
-      <c r="AD13" s="9" t="str">
+      <c r="AD13" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AB7="","",_tuoliu_day_hour!AB7)</f>
         <v/>
       </c>
-      <c r="AE13" s="9" t="str">
+      <c r="AE13" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AC7="","",_tuoliu_day_hour!AC7)</f>
         <v/>
       </c>
-      <c r="AF13" s="9" t="str">
+      <c r="AF13" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AD7="","",_tuoliu_day_hour!AD7)</f>
         <v/>
       </c>
-      <c r="AG13" s="9" t="str">
+      <c r="AG13" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AE7="","",_tuoliu_day_hour!AE7)</f>
         <v/>
       </c>
-      <c r="AH13" s="9" t="str">
+      <c r="AH13" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AF7="","",_tuoliu_day_hour!AF7)</f>
         <v/>
       </c>
-      <c r="AI13" s="9" t="str">
+      <c r="AI13" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AG7="","",_tuoliu_day_hour!AG7)</f>
         <v/>
       </c>
-      <c r="AJ13" s="9" t="str">
+      <c r="AJ13" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AH7="","",_tuoliu_day_hour!AH7)</f>
         <v/>
       </c>
-      <c r="AK13" s="9" t="str">
+      <c r="AK13" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AI7="","",_tuoliu_day_hour!AI7)</f>
         <v/>
       </c>
-      <c r="AL13" s="9" t="str">
+      <c r="AL13" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AJ7="","",_tuoliu_day_hour!AJ7)</f>
         <v/>
       </c>
-      <c r="AM13" s="9" t="str">
+      <c r="AM13" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AK7="","",_tuoliu_day_hour!AK7)</f>
         <v/>
       </c>
-      <c r="AN13" s="9" t="str">
+      <c r="AN13" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AL7="","",_tuoliu_day_hour!AL7)</f>
         <v/>
       </c>
-      <c r="AO13" s="9" t="str">
+      <c r="AO13" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AM7="","",_tuoliu_day_hour!AM7)</f>
         <v/>
       </c>
-      <c r="AP13" s="9" t="str">
+      <c r="AP13" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AN7="","",_tuoliu_day_hour!AN7)</f>
         <v/>
       </c>
-      <c r="AQ13" s="9" t="str">
+      <c r="AQ13" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AO7="","",_tuoliu_day_hour!AO7)</f>
         <v/>
       </c>
-      <c r="AR13" s="9" t="str">
+      <c r="AR13" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AP7="","",_tuoliu_day_hour!AP7)</f>
         <v/>
       </c>
-      <c r="AS13" s="9" t="str">
+      <c r="AS13" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AQ7="","",_tuoliu_day_hour!AQ7)</f>
         <v/>
       </c>
-      <c r="AT13" s="9" t="str">
+      <c r="AT13" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AR7="","",_tuoliu_day_hour!AR7)</f>
         <v/>
       </c>
-      <c r="AU13" s="9" t="str">
+      <c r="AU13" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AS7="","",_tuoliu_day_hour!AS7)</f>
         <v/>
       </c>
-      <c r="AV13" s="9" t="str">
+      <c r="AV13" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AT7="","",_tuoliu_day_hour!AT7)</f>
         <v/>
       </c>
-      <c r="AW13" s="9" t="str">
+      <c r="AW13" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AU7="","",_tuoliu_day_hour!AU7)</f>
         <v/>
       </c>
-      <c r="AX13" s="9" t="str">
+      <c r="AX13" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AV7="","",_tuoliu_day_hour!AV7)</f>
         <v/>
       </c>
-      <c r="AY13" s="14" t="str">
+      <c r="AY13" s="50" t="str">
         <f>IF(_tuoliu_day_hour!AW7="","",_tuoliu_day_hour!AW7)</f>
         <v/>
       </c>
-      <c r="AZ13" s="45"/>
-      <c r="BA13" s="15" t="s">
+      <c r="AZ13" s="42"/>
+      <c r="BA13" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="BB13" s="9"/>
-      <c r="BC13" s="9"/>
-      <c r="BD13" s="12"/>
+      <c r="BB13" s="16"/>
+      <c r="BC13" s="16"/>
+      <c r="BD13" s="48"/>
     </row>
-    <row r="14" spans="1:56" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="B14" s="8">
+    <row r="14" s="4" customFormat="1" ht="27" spans="2:56">
+      <c r="B14" s="15">
         <v>0.25</v>
       </c>
-      <c r="C14" s="9" t="str">
+      <c r="C14" s="16" t="str">
         <f>IF(_tuoliu_day_hour!A8="","",_tuoliu_day_hour!A8)</f>
         <v/>
       </c>
-      <c r="D14" s="9" t="str">
+      <c r="D14" s="16" t="str">
         <f>IF(_tuoliu_day_hour!B8="","",_tuoliu_day_hour!B8)</f>
         <v/>
       </c>
-      <c r="E14" s="9" t="str">
+      <c r="E14" s="16" t="str">
         <f>IF(_tuoliu_day_hour!C8="","",_tuoliu_day_hour!C8)</f>
         <v/>
       </c>
-      <c r="F14" s="9" t="str">
+      <c r="F14" s="16" t="str">
         <f>IF(_tuoliu_day_hour!D8="","",_tuoliu_day_hour!D8)</f>
         <v/>
       </c>
-      <c r="G14" s="9" t="str">
+      <c r="G14" s="16" t="str">
         <f>IF(_tuoliu_day_hour!E8="","",_tuoliu_day_hour!E8)</f>
         <v/>
       </c>
-      <c r="H14" s="9" t="str">
+      <c r="H14" s="16" t="str">
         <f>IF(_tuoliu_day_hour!F8="","",_tuoliu_day_hour!F8)</f>
         <v/>
       </c>
-      <c r="I14" s="9" t="str">
+      <c r="I14" s="16" t="str">
         <f>IF(_tuoliu_day_hour!G8="","",_tuoliu_day_hour!G8)</f>
         <v/>
       </c>
-      <c r="J14" s="9" t="str">
+      <c r="J14" s="16" t="str">
         <f>IF(_tuoliu_day_hour!H8="","",_tuoliu_day_hour!H8)</f>
         <v/>
       </c>
-      <c r="K14" s="9" t="str">
+      <c r="K14" s="16" t="str">
         <f>IF(_tuoliu_day_hour!I8="","",_tuoliu_day_hour!I8)</f>
         <v/>
       </c>
-      <c r="L14" s="9" t="str">
+      <c r="L14" s="16" t="str">
         <f>IF(_tuoliu_day_hour!J8="","",_tuoliu_day_hour!J8)</f>
         <v/>
       </c>
-      <c r="M14" s="9" t="str">
+      <c r="M14" s="16" t="str">
         <f>IF(_tuoliu_day_hour!K8="","",_tuoliu_day_hour!K8)</f>
         <v/>
       </c>
-      <c r="N14" s="9" t="str">
+      <c r="N14" s="16" t="str">
         <f>IF(_tuoliu_day_hour!L8="","",_tuoliu_day_hour!L8)</f>
         <v/>
       </c>
-      <c r="O14" s="9" t="str">
+      <c r="O14" s="16" t="str">
         <f>IF(_tuoliu_day_hour!M8="","",_tuoliu_day_hour!M8)</f>
         <v/>
       </c>
-      <c r="P14" s="9" t="str">
+      <c r="P14" s="16" t="str">
         <f>IF(_tuoliu_day_hour!N8="","",_tuoliu_day_hour!N8)</f>
         <v/>
       </c>
-      <c r="Q14" s="9" t="str">
+      <c r="Q14" s="16" t="str">
         <f>IF(_tuoliu_day_hour!O8="","",_tuoliu_day_hour!O8)</f>
         <v/>
       </c>
-      <c r="R14" s="9" t="str">
+      <c r="R14" s="16" t="str">
         <f>IF(_tuoliu_day_hour!P8="","",_tuoliu_day_hour!P8)</f>
         <v/>
       </c>
-      <c r="S14" s="9" t="str">
+      <c r="S14" s="16" t="str">
         <f>IF(_tuoliu_day_hour!Q8="","",_tuoliu_day_hour!Q8)</f>
         <v/>
       </c>
-      <c r="T14" s="9" t="str">
+      <c r="T14" s="16" t="str">
         <f>IF(_tuoliu_day_hour!R8="","",_tuoliu_day_hour!R8)</f>
         <v/>
       </c>
-      <c r="U14" s="9" t="str">
+      <c r="U14" s="16" t="str">
         <f>IF(_tuoliu_day_hour!S8="","",_tuoliu_day_hour!S8)</f>
         <v/>
       </c>
-      <c r="V14" s="9" t="str">
+      <c r="V14" s="16" t="str">
         <f>IF(_tuoliu_day_hour!T8="","",_tuoliu_day_hour!T8)</f>
         <v/>
       </c>
-      <c r="W14" s="9" t="str">
+      <c r="W14" s="16" t="str">
         <f>IF(_tuoliu_day_hour!U8="","",_tuoliu_day_hour!U8)</f>
         <v/>
       </c>
-      <c r="X14" s="9" t="str">
+      <c r="X14" s="16" t="str">
         <f>IF(_tuoliu_day_hour!V8="","",_tuoliu_day_hour!V8)</f>
         <v/>
       </c>
-      <c r="Y14" s="9" t="str">
+      <c r="Y14" s="16" t="str">
         <f>IF(_tuoliu_day_hour!W8="","",_tuoliu_day_hour!W8)</f>
         <v/>
       </c>
-      <c r="Z14" s="9" t="str">
+      <c r="Z14" s="16" t="str">
         <f>IF(_tuoliu_day_hour!X8="","",_tuoliu_day_hour!X8)</f>
         <v/>
       </c>
-      <c r="AA14" s="9" t="str">
+      <c r="AA14" s="16" t="str">
         <f>IF(_tuoliu_day_hour!Y8="","",_tuoliu_day_hour!Y8)</f>
         <v/>
       </c>
-      <c r="AB14" s="9" t="str">
+      <c r="AB14" s="16" t="str">
         <f>IF(_tuoliu_day_hour!Z8="","",_tuoliu_day_hour!Z8)</f>
         <v/>
       </c>
-      <c r="AC14" s="9" t="str">
+      <c r="AC14" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AA8="","",_tuoliu_day_hour!AA8)</f>
         <v/>
       </c>
-      <c r="AD14" s="9" t="str">
+      <c r="AD14" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AB8="","",_tuoliu_day_hour!AB8)</f>
         <v/>
       </c>
-      <c r="AE14" s="9" t="str">
+      <c r="AE14" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AC8="","",_tuoliu_day_hour!AC8)</f>
         <v/>
       </c>
-      <c r="AF14" s="9" t="str">
+      <c r="AF14" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AD8="","",_tuoliu_day_hour!AD8)</f>
         <v/>
       </c>
-      <c r="AG14" s="9" t="str">
+      <c r="AG14" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AE8="","",_tuoliu_day_hour!AE8)</f>
         <v/>
       </c>
-      <c r="AH14" s="9" t="str">
+      <c r="AH14" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AF8="","",_tuoliu_day_hour!AF8)</f>
         <v/>
       </c>
-      <c r="AI14" s="9" t="str">
+      <c r="AI14" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AG8="","",_tuoliu_day_hour!AG8)</f>
         <v/>
       </c>
-      <c r="AJ14" s="9" t="str">
+      <c r="AJ14" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AH8="","",_tuoliu_day_hour!AH8)</f>
         <v/>
       </c>
-      <c r="AK14" s="9" t="str">
+      <c r="AK14" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AI8="","",_tuoliu_day_hour!AI8)</f>
         <v/>
       </c>
-      <c r="AL14" s="9" t="str">
+      <c r="AL14" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AJ8="","",_tuoliu_day_hour!AJ8)</f>
         <v/>
       </c>
-      <c r="AM14" s="9" t="str">
+      <c r="AM14" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AK8="","",_tuoliu_day_hour!AK8)</f>
         <v/>
       </c>
-      <c r="AN14" s="9" t="str">
+      <c r="AN14" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AL8="","",_tuoliu_day_hour!AL8)</f>
         <v/>
       </c>
-      <c r="AO14" s="9" t="str">
+      <c r="AO14" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AM8="","",_tuoliu_day_hour!AM8)</f>
         <v/>
       </c>
-      <c r="AP14" s="9" t="str">
+      <c r="AP14" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AN8="","",_tuoliu_day_hour!AN8)</f>
         <v/>
       </c>
-      <c r="AQ14" s="9" t="str">
+      <c r="AQ14" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AO8="","",_tuoliu_day_hour!AO8)</f>
         <v/>
       </c>
-      <c r="AR14" s="9" t="str">
+      <c r="AR14" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AP8="","",_tuoliu_day_hour!AP8)</f>
         <v/>
       </c>
-      <c r="AS14" s="9" t="str">
+      <c r="AS14" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AQ8="","",_tuoliu_day_hour!AQ8)</f>
         <v/>
       </c>
-      <c r="AT14" s="9" t="str">
+      <c r="AT14" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AR8="","",_tuoliu_day_hour!AR8)</f>
         <v/>
       </c>
-      <c r="AU14" s="9" t="str">
+      <c r="AU14" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AS8="","",_tuoliu_day_hour!AS8)</f>
         <v/>
       </c>
-      <c r="AV14" s="9" t="str">
+      <c r="AV14" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AT8="","",_tuoliu_day_hour!AT8)</f>
         <v/>
       </c>
-      <c r="AW14" s="9" t="str">
+      <c r="AW14" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AU8="","",_tuoliu_day_hour!AU8)</f>
         <v/>
       </c>
-      <c r="AX14" s="9" t="str">
+      <c r="AX14" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AV8="","",_tuoliu_day_hour!AV8)</f>
         <v/>
       </c>
-      <c r="AY14" s="14" t="str">
+      <c r="AY14" s="50" t="str">
         <f>IF(_tuoliu_day_hour!AW8="","",_tuoliu_day_hour!AW8)</f>
         <v/>
       </c>
-      <c r="AZ14" s="45"/>
-      <c r="BA14" s="16" t="s">
+      <c r="AZ14" s="42"/>
+      <c r="BA14" s="52" t="s">
         <v>96</v>
       </c>
       <c r="BB14" s="1"/>
       <c r="BC14" s="1"/>
-      <c r="BD14" s="17"/>
+      <c r="BD14" s="53"/>
     </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.15">
-      <c r="B15" s="8">
-        <v>0.29166666666666702</v>
-      </c>
-      <c r="C15" s="9" t="str">
+    <row r="15" spans="2:56">
+      <c r="B15" s="15">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="C15" s="16" t="str">
         <f>IF(_tuoliu_day_hour!A9="","",_tuoliu_day_hour!A9)</f>
         <v/>
       </c>
-      <c r="D15" s="9" t="str">
+      <c r="D15" s="16" t="str">
         <f>IF(_tuoliu_day_hour!B9="","",_tuoliu_day_hour!B9)</f>
         <v/>
       </c>
-      <c r="E15" s="9" t="str">
+      <c r="E15" s="16" t="str">
         <f>IF(_tuoliu_day_hour!C9="","",_tuoliu_day_hour!C9)</f>
         <v/>
       </c>
-      <c r="F15" s="9" t="str">
+      <c r="F15" s="16" t="str">
         <f>IF(_tuoliu_day_hour!D9="","",_tuoliu_day_hour!D9)</f>
         <v/>
       </c>
-      <c r="G15" s="9" t="str">
+      <c r="G15" s="16" t="str">
         <f>IF(_tuoliu_day_hour!E9="","",_tuoliu_day_hour!E9)</f>
         <v/>
       </c>
-      <c r="H15" s="9" t="str">
+      <c r="H15" s="16" t="str">
         <f>IF(_tuoliu_day_hour!F9="","",_tuoliu_day_hour!F9)</f>
         <v/>
       </c>
-      <c r="I15" s="9" t="str">
+      <c r="I15" s="16" t="str">
         <f>IF(_tuoliu_day_hour!G9="","",_tuoliu_day_hour!G9)</f>
         <v/>
       </c>
-      <c r="J15" s="9" t="str">
+      <c r="J15" s="16" t="str">
         <f>IF(_tuoliu_day_hour!H9="","",_tuoliu_day_hour!H9)</f>
         <v/>
       </c>
-      <c r="K15" s="9" t="str">
+      <c r="K15" s="16" t="str">
         <f>IF(_tuoliu_day_hour!I9="","",_tuoliu_day_hour!I9)</f>
         <v/>
       </c>
-      <c r="L15" s="9" t="str">
+      <c r="L15" s="16" t="str">
         <f>IF(_tuoliu_day_hour!J9="","",_tuoliu_day_hour!J9)</f>
         <v/>
       </c>
-      <c r="M15" s="9" t="str">
+      <c r="M15" s="16" t="str">
         <f>IF(_tuoliu_day_hour!K9="","",_tuoliu_day_hour!K9)</f>
         <v/>
       </c>
-      <c r="N15" s="9" t="str">
+      <c r="N15" s="16" t="str">
         <f>IF(_tuoliu_day_hour!L9="","",_tuoliu_day_hour!L9)</f>
         <v/>
       </c>
-      <c r="O15" s="9" t="str">
+      <c r="O15" s="16" t="str">
         <f>IF(_tuoliu_day_hour!M9="","",_tuoliu_day_hour!M9)</f>
         <v/>
       </c>
-      <c r="P15" s="9" t="str">
+      <c r="P15" s="16" t="str">
         <f>IF(_tuoliu_day_hour!N9="","",_tuoliu_day_hour!N9)</f>
         <v/>
       </c>
-      <c r="Q15" s="9" t="str">
+      <c r="Q15" s="16" t="str">
         <f>IF(_tuoliu_day_hour!O9="","",_tuoliu_day_hour!O9)</f>
         <v/>
       </c>
-      <c r="R15" s="9" t="str">
+      <c r="R15" s="16" t="str">
         <f>IF(_tuoliu_day_hour!P9="","",_tuoliu_day_hour!P9)</f>
         <v/>
       </c>
-      <c r="S15" s="9" t="str">
+      <c r="S15" s="16" t="str">
         <f>IF(_tuoliu_day_hour!Q9="","",_tuoliu_day_hour!Q9)</f>
         <v/>
       </c>
-      <c r="T15" s="9" t="str">
+      <c r="T15" s="16" t="str">
         <f>IF(_tuoliu_day_hour!R9="","",_tuoliu_day_hour!R9)</f>
         <v/>
       </c>
-      <c r="U15" s="9" t="str">
+      <c r="U15" s="16" t="str">
         <f>IF(_tuoliu_day_hour!S9="","",_tuoliu_day_hour!S9)</f>
         <v/>
       </c>
-      <c r="V15" s="9" t="str">
+      <c r="V15" s="16" t="str">
         <f>IF(_tuoliu_day_hour!T9="","",_tuoliu_day_hour!T9)</f>
         <v/>
       </c>
-      <c r="W15" s="9" t="str">
+      <c r="W15" s="16" t="str">
         <f>IF(_tuoliu_day_hour!U9="","",_tuoliu_day_hour!U9)</f>
         <v/>
       </c>
-      <c r="X15" s="9" t="str">
+      <c r="X15" s="16" t="str">
         <f>IF(_tuoliu_day_hour!V9="","",_tuoliu_day_hour!V9)</f>
         <v/>
       </c>
-      <c r="Y15" s="9" t="str">
+      <c r="Y15" s="16" t="str">
         <f>IF(_tuoliu_day_hour!W9="","",_tuoliu_day_hour!W9)</f>
         <v/>
       </c>
-      <c r="Z15" s="9" t="str">
+      <c r="Z15" s="16" t="str">
         <f>IF(_tuoliu_day_hour!X9="","",_tuoliu_day_hour!X9)</f>
         <v/>
       </c>
-      <c r="AA15" s="9" t="str">
+      <c r="AA15" s="16" t="str">
         <f>IF(_tuoliu_day_hour!Y9="","",_tuoliu_day_hour!Y9)</f>
         <v/>
       </c>
-      <c r="AB15" s="9" t="str">
+      <c r="AB15" s="16" t="str">
         <f>IF(_tuoliu_day_hour!Z9="","",_tuoliu_day_hour!Z9)</f>
         <v/>
       </c>
-      <c r="AC15" s="9" t="str">
+      <c r="AC15" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AA9="","",_tuoliu_day_hour!AA9)</f>
         <v/>
       </c>
-      <c r="AD15" s="9" t="str">
+      <c r="AD15" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AB9="","",_tuoliu_day_hour!AB9)</f>
         <v/>
       </c>
-      <c r="AE15" s="9" t="str">
+      <c r="AE15" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AC9="","",_tuoliu_day_hour!AC9)</f>
         <v/>
       </c>
-      <c r="AF15" s="9" t="str">
+      <c r="AF15" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AD9="","",_tuoliu_day_hour!AD9)</f>
         <v/>
       </c>
-      <c r="AG15" s="9" t="str">
+      <c r="AG15" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AE9="","",_tuoliu_day_hour!AE9)</f>
         <v/>
       </c>
-      <c r="AH15" s="9" t="str">
+      <c r="AH15" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AF9="","",_tuoliu_day_hour!AF9)</f>
         <v/>
       </c>
-      <c r="AI15" s="9" t="str">
+      <c r="AI15" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AG9="","",_tuoliu_day_hour!AG9)</f>
         <v/>
       </c>
-      <c r="AJ15" s="9" t="str">
+      <c r="AJ15" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AH9="","",_tuoliu_day_hour!AH9)</f>
         <v/>
       </c>
-      <c r="AK15" s="9" t="str">
+      <c r="AK15" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AI9="","",_tuoliu_day_hour!AI9)</f>
         <v/>
       </c>
-      <c r="AL15" s="9" t="str">
+      <c r="AL15" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AJ9="","",_tuoliu_day_hour!AJ9)</f>
         <v/>
       </c>
-      <c r="AM15" s="9" t="str">
+      <c r="AM15" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AK9="","",_tuoliu_day_hour!AK9)</f>
         <v/>
       </c>
-      <c r="AN15" s="9" t="str">
+      <c r="AN15" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AL9="","",_tuoliu_day_hour!AL9)</f>
         <v/>
       </c>
-      <c r="AO15" s="9" t="str">
+      <c r="AO15" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AM9="","",_tuoliu_day_hour!AM9)</f>
         <v/>
       </c>
-      <c r="AP15" s="9" t="str">
+      <c r="AP15" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AN9="","",_tuoliu_day_hour!AN9)</f>
         <v/>
       </c>
-      <c r="AQ15" s="9" t="str">
+      <c r="AQ15" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AO9="","",_tuoliu_day_hour!AO9)</f>
         <v/>
       </c>
-      <c r="AR15" s="9" t="str">
+      <c r="AR15" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AP9="","",_tuoliu_day_hour!AP9)</f>
         <v/>
       </c>
-      <c r="AS15" s="9" t="str">
+      <c r="AS15" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AQ9="","",_tuoliu_day_hour!AQ9)</f>
         <v/>
       </c>
-      <c r="AT15" s="9" t="str">
+      <c r="AT15" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AR9="","",_tuoliu_day_hour!AR9)</f>
         <v/>
       </c>
-      <c r="AU15" s="9" t="str">
+      <c r="AU15" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AS9="","",_tuoliu_day_hour!AS9)</f>
         <v/>
       </c>
-      <c r="AV15" s="9" t="str">
+      <c r="AV15" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AT9="","",_tuoliu_day_hour!AT9)</f>
         <v/>
       </c>
-      <c r="AW15" s="9" t="str">
+      <c r="AW15" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AU9="","",_tuoliu_day_hour!AU9)</f>
         <v/>
       </c>
-      <c r="AX15" s="9" t="str">
+      <c r="AX15" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AV9="","",_tuoliu_day_hour!AV9)</f>
         <v/>
       </c>
-      <c r="AY15" s="14" t="str">
+      <c r="AY15" s="50" t="str">
         <f>IF(_tuoliu_day_hour!AW9="","",_tuoliu_day_hour!AW9)</f>
         <v/>
       </c>
-      <c r="AZ15" s="45"/>
-      <c r="BA15" s="15" t="s">
+      <c r="AZ15" s="42"/>
+      <c r="BA15" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="BB15" s="9"/>
-      <c r="BC15" s="9"/>
-      <c r="BD15" s="12"/>
+      <c r="BB15" s="16"/>
+      <c r="BC15" s="16"/>
+      <c r="BD15" s="48"/>
     </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.15">
-      <c r="B16" s="8">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="C16" s="9" t="str">
+    <row r="16" spans="2:56">
+      <c r="B16" s="15">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="C16" s="16" t="str">
         <f>IF(_tuoliu_day_hour!A10="","",_tuoliu_day_hour!A10)</f>
         <v/>
       </c>
-      <c r="D16" s="9" t="str">
+      <c r="D16" s="16" t="str">
         <f>IF(_tuoliu_day_hour!B10="","",_tuoliu_day_hour!B10)</f>
         <v/>
       </c>
-      <c r="E16" s="9" t="str">
+      <c r="E16" s="16" t="str">
         <f>IF(_tuoliu_day_hour!C10="","",_tuoliu_day_hour!C10)</f>
         <v/>
       </c>
-      <c r="F16" s="9" t="str">
+      <c r="F16" s="16" t="str">
         <f>IF(_tuoliu_day_hour!D10="","",_tuoliu_day_hour!D10)</f>
         <v/>
       </c>
-      <c r="G16" s="9" t="str">
+      <c r="G16" s="16" t="str">
         <f>IF(_tuoliu_day_hour!E10="","",_tuoliu_day_hour!E10)</f>
         <v/>
       </c>
-      <c r="H16" s="9" t="str">
+      <c r="H16" s="16" t="str">
         <f>IF(_tuoliu_day_hour!F10="","",_tuoliu_day_hour!F10)</f>
         <v/>
       </c>
-      <c r="I16" s="9" t="str">
+      <c r="I16" s="16" t="str">
         <f>IF(_tuoliu_day_hour!G10="","",_tuoliu_day_hour!G10)</f>
         <v/>
       </c>
-      <c r="J16" s="9" t="str">
+      <c r="J16" s="16" t="str">
         <f>IF(_tuoliu_day_hour!H10="","",_tuoliu_day_hour!H10)</f>
         <v/>
       </c>
-      <c r="K16" s="9" t="str">
+      <c r="K16" s="16" t="str">
         <f>IF(_tuoliu_day_hour!I10="","",_tuoliu_day_hour!I10)</f>
         <v/>
       </c>
-      <c r="L16" s="9" t="str">
+      <c r="L16" s="16" t="str">
         <f>IF(_tuoliu_day_hour!J10="","",_tuoliu_day_hour!J10)</f>
         <v/>
       </c>
-      <c r="M16" s="9" t="str">
+      <c r="M16" s="16" t="str">
         <f>IF(_tuoliu_day_hour!K10="","",_tuoliu_day_hour!K10)</f>
         <v/>
       </c>
-      <c r="N16" s="9" t="str">
+      <c r="N16" s="16" t="str">
         <f>IF(_tuoliu_day_hour!L10="","",_tuoliu_day_hour!L10)</f>
         <v/>
       </c>
-      <c r="O16" s="9" t="str">
+      <c r="O16" s="16" t="str">
         <f>IF(_tuoliu_day_hour!M10="","",_tuoliu_day_hour!M10)</f>
         <v/>
       </c>
-      <c r="P16" s="9" t="str">
+      <c r="P16" s="16" t="str">
         <f>IF(_tuoliu_day_hour!N10="","",_tuoliu_day_hour!N10)</f>
         <v/>
       </c>
-      <c r="Q16" s="9" t="str">
+      <c r="Q16" s="16" t="str">
         <f>IF(_tuoliu_day_hour!O10="","",_tuoliu_day_hour!O10)</f>
         <v/>
       </c>
-      <c r="R16" s="9" t="str">
+      <c r="R16" s="16" t="str">
         <f>IF(_tuoliu_day_hour!P10="","",_tuoliu_day_hour!P10)</f>
         <v/>
       </c>
-      <c r="S16" s="9" t="str">
+      <c r="S16" s="16" t="str">
         <f>IF(_tuoliu_day_hour!Q10="","",_tuoliu_day_hour!Q10)</f>
         <v/>
       </c>
-      <c r="T16" s="9" t="str">
+      <c r="T16" s="16" t="str">
         <f>IF(_tuoliu_day_hour!R10="","",_tuoliu_day_hour!R10)</f>
         <v/>
       </c>
-      <c r="U16" s="9" t="str">
+      <c r="U16" s="16" t="str">
         <f>IF(_tuoliu_day_hour!S10="","",_tuoliu_day_hour!S10)</f>
         <v/>
       </c>
-      <c r="V16" s="9" t="str">
+      <c r="V16" s="16" t="str">
         <f>IF(_tuoliu_day_hour!T10="","",_tuoliu_day_hour!T10)</f>
         <v/>
       </c>
-      <c r="W16" s="9" t="str">
+      <c r="W16" s="16" t="str">
         <f>IF(_tuoliu_day_hour!U10="","",_tuoliu_day_hour!U10)</f>
         <v/>
       </c>
-      <c r="X16" s="9" t="str">
+      <c r="X16" s="16" t="str">
         <f>IF(_tuoliu_day_hour!V10="","",_tuoliu_day_hour!V10)</f>
         <v/>
       </c>
-      <c r="Y16" s="9" t="str">
+      <c r="Y16" s="16" t="str">
         <f>IF(_tuoliu_day_hour!W10="","",_tuoliu_day_hour!W10)</f>
         <v/>
       </c>
-      <c r="Z16" s="9" t="str">
+      <c r="Z16" s="16" t="str">
         <f>IF(_tuoliu_day_hour!X10="","",_tuoliu_day_hour!X10)</f>
         <v/>
       </c>
-      <c r="AA16" s="9" t="str">
+      <c r="AA16" s="16" t="str">
         <f>IF(_tuoliu_day_hour!Y10="","",_tuoliu_day_hour!Y10)</f>
         <v/>
       </c>
-      <c r="AB16" s="9" t="str">
+      <c r="AB16" s="16" t="str">
         <f>IF(_tuoliu_day_hour!Z10="","",_tuoliu_day_hour!Z10)</f>
         <v/>
       </c>
-      <c r="AC16" s="9" t="str">
+      <c r="AC16" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AA10="","",_tuoliu_day_hour!AA10)</f>
         <v/>
       </c>
-      <c r="AD16" s="9" t="str">
+      <c r="AD16" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AB10="","",_tuoliu_day_hour!AB10)</f>
         <v/>
       </c>
-      <c r="AE16" s="9" t="str">
+      <c r="AE16" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AC10="","",_tuoliu_day_hour!AC10)</f>
         <v/>
       </c>
-      <c r="AF16" s="9" t="str">
+      <c r="AF16" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AD10="","",_tuoliu_day_hour!AD10)</f>
         <v/>
       </c>
-      <c r="AG16" s="9" t="str">
+      <c r="AG16" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AE10="","",_tuoliu_day_hour!AE10)</f>
         <v/>
       </c>
-      <c r="AH16" s="9" t="str">
+      <c r="AH16" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AF10="","",_tuoliu_day_hour!AF10)</f>
         <v/>
       </c>
-      <c r="AI16" s="9" t="str">
+      <c r="AI16" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AG10="","",_tuoliu_day_hour!AG10)</f>
         <v/>
       </c>
-      <c r="AJ16" s="9" t="str">
+      <c r="AJ16" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AH10="","",_tuoliu_day_hour!AH10)</f>
         <v/>
       </c>
-      <c r="AK16" s="9" t="str">
+      <c r="AK16" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AI10="","",_tuoliu_day_hour!AI10)</f>
         <v/>
       </c>
-      <c r="AL16" s="9" t="str">
+      <c r="AL16" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AJ10="","",_tuoliu_day_hour!AJ10)</f>
         <v/>
       </c>
-      <c r="AM16" s="9" t="str">
+      <c r="AM16" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AK10="","",_tuoliu_day_hour!AK10)</f>
         <v/>
       </c>
-      <c r="AN16" s="9" t="str">
+      <c r="AN16" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AL10="","",_tuoliu_day_hour!AL10)</f>
         <v/>
       </c>
-      <c r="AO16" s="9" t="str">
+      <c r="AO16" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AM10="","",_tuoliu_day_hour!AM10)</f>
         <v/>
       </c>
-      <c r="AP16" s="9" t="str">
+      <c r="AP16" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AN10="","",_tuoliu_day_hour!AN10)</f>
         <v/>
       </c>
-      <c r="AQ16" s="9" t="str">
+      <c r="AQ16" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AO10="","",_tuoliu_day_hour!AO10)</f>
         <v/>
       </c>
-      <c r="AR16" s="9" t="str">
+      <c r="AR16" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AP10="","",_tuoliu_day_hour!AP10)</f>
         <v/>
       </c>
-      <c r="AS16" s="9" t="str">
+      <c r="AS16" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AQ10="","",_tuoliu_day_hour!AQ10)</f>
         <v/>
       </c>
-      <c r="AT16" s="9" t="str">
+      <c r="AT16" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AR10="","",_tuoliu_day_hour!AR10)</f>
         <v/>
       </c>
-      <c r="AU16" s="9" t="str">
+      <c r="AU16" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AS10="","",_tuoliu_day_hour!AS10)</f>
         <v/>
       </c>
-      <c r="AV16" s="9" t="str">
+      <c r="AV16" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AT10="","",_tuoliu_day_hour!AT10)</f>
         <v/>
       </c>
-      <c r="AW16" s="9" t="str">
+      <c r="AW16" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AU10="","",_tuoliu_day_hour!AU10)</f>
         <v/>
       </c>
-      <c r="AX16" s="9" t="str">
+      <c r="AX16" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AV10="","",_tuoliu_day_hour!AV10)</f>
         <v/>
       </c>
-      <c r="AY16" s="14" t="str">
+      <c r="AY16" s="50" t="str">
         <f>IF(_tuoliu_day_hour!AW10="","",_tuoliu_day_hour!AW10)</f>
         <v/>
       </c>
-      <c r="AZ16" s="45"/>
-      <c r="BA16" s="15" t="s">
+      <c r="AZ16" s="42"/>
+      <c r="BA16" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="BB16" s="9"/>
-      <c r="BC16" s="9"/>
-      <c r="BD16" s="12"/>
+      <c r="BB16" s="16"/>
+      <c r="BC16" s="16"/>
+      <c r="BD16" s="48"/>
     </row>
-    <row r="17" spans="2:56" x14ac:dyDescent="0.15">
-      <c r="B17" s="8">
+    <row r="17" spans="2:56">
+      <c r="B17" s="15">
         <v>0.375</v>
       </c>
-      <c r="C17" s="9" t="str">
+      <c r="C17" s="16" t="str">
         <f>IF(_tuoliu_day_hour!A11="","",_tuoliu_day_hour!A11)</f>
         <v/>
       </c>
-      <c r="D17" s="9" t="str">
+      <c r="D17" s="16" t="str">
         <f>IF(_tuoliu_day_hour!B11="","",_tuoliu_day_hour!B11)</f>
         <v/>
       </c>
-      <c r="E17" s="9" t="str">
+      <c r="E17" s="16" t="str">
         <f>IF(_tuoliu_day_hour!C11="","",_tuoliu_day_hour!C11)</f>
         <v/>
       </c>
-      <c r="F17" s="9" t="str">
+      <c r="F17" s="16" t="str">
         <f>IF(_tuoliu_day_hour!D11="","",_tuoliu_day_hour!D11)</f>
         <v/>
       </c>
-      <c r="G17" s="9" t="str">
+      <c r="G17" s="16" t="str">
         <f>IF(_tuoliu_day_hour!E11="","",_tuoliu_day_hour!E11)</f>
         <v/>
       </c>
-      <c r="H17" s="9" t="str">
+      <c r="H17" s="16" t="str">
         <f>IF(_tuoliu_day_hour!F11="","",_tuoliu_day_hour!F11)</f>
         <v/>
       </c>
-      <c r="I17" s="9" t="str">
+      <c r="I17" s="16" t="str">
         <f>IF(_tuoliu_day_hour!G11="","",_tuoliu_day_hour!G11)</f>
         <v/>
       </c>
-      <c r="J17" s="9" t="str">
+      <c r="J17" s="16" t="str">
         <f>IF(_tuoliu_day_hour!H11="","",_tuoliu_day_hour!H11)</f>
         <v/>
       </c>
-      <c r="K17" s="9" t="str">
+      <c r="K17" s="16" t="str">
         <f>IF(_tuoliu_day_hour!I11="","",_tuoliu_day_hour!I11)</f>
         <v/>
       </c>
-      <c r="L17" s="9" t="str">
+      <c r="L17" s="16" t="str">
         <f>IF(_tuoliu_day_hour!J11="","",_tuoliu_day_hour!J11)</f>
         <v/>
       </c>
-      <c r="M17" s="9" t="str">
+      <c r="M17" s="16" t="str">
         <f>IF(_tuoliu_day_hour!K11="","",_tuoliu_day_hour!K11)</f>
         <v/>
       </c>
-      <c r="N17" s="9" t="str">
+      <c r="N17" s="16" t="str">
         <f>IF(_tuoliu_day_hour!L11="","",_tuoliu_day_hour!L11)</f>
         <v/>
       </c>
-      <c r="O17" s="9" t="str">
+      <c r="O17" s="16" t="str">
         <f>IF(_tuoliu_day_hour!M11="","",_tuoliu_day_hour!M11)</f>
         <v/>
       </c>
-      <c r="P17" s="9" t="str">
+      <c r="P17" s="16" t="str">
         <f>IF(_tuoliu_day_hour!N11="","",_tuoliu_day_hour!N11)</f>
         <v/>
       </c>
-      <c r="Q17" s="9" t="str">
+      <c r="Q17" s="16" t="str">
         <f>IF(_tuoliu_day_hour!O11="","",_tuoliu_day_hour!O11)</f>
         <v/>
       </c>
-      <c r="R17" s="9" t="str">
+      <c r="R17" s="16" t="str">
         <f>IF(_tuoliu_day_hour!P11="","",_tuoliu_day_hour!P11)</f>
         <v/>
       </c>
-      <c r="S17" s="9" t="str">
+      <c r="S17" s="16" t="str">
         <f>IF(_tuoliu_day_hour!Q11="","",_tuoliu_day_hour!Q11)</f>
         <v/>
       </c>
-      <c r="T17" s="9" t="str">
+      <c r="T17" s="16" t="str">
         <f>IF(_tuoliu_day_hour!R11="","",_tuoliu_day_hour!R11)</f>
         <v/>
       </c>
-      <c r="U17" s="9" t="str">
+      <c r="U17" s="16" t="str">
         <f>IF(_tuoliu_day_hour!S11="","",_tuoliu_day_hour!S11)</f>
         <v/>
       </c>
-      <c r="V17" s="9" t="str">
+      <c r="V17" s="16" t="str">
         <f>IF(_tuoliu_day_hour!T11="","",_tuoliu_day_hour!T11)</f>
         <v/>
       </c>
-      <c r="W17" s="9" t="str">
+      <c r="W17" s="16" t="str">
         <f>IF(_tuoliu_day_hour!U11="","",_tuoliu_day_hour!U11)</f>
         <v/>
       </c>
-      <c r="X17" s="9" t="str">
+      <c r="X17" s="16" t="str">
         <f>IF(_tuoliu_day_hour!V11="","",_tuoliu_day_hour!V11)</f>
         <v/>
       </c>
-      <c r="Y17" s="9" t="str">
+      <c r="Y17" s="16" t="str">
         <f>IF(_tuoliu_day_hour!W11="","",_tuoliu_day_hour!W11)</f>
         <v/>
       </c>
-      <c r="Z17" s="9" t="str">
+      <c r="Z17" s="16" t="str">
         <f>IF(_tuoliu_day_hour!X11="","",_tuoliu_day_hour!X11)</f>
         <v/>
       </c>
-      <c r="AA17" s="9" t="str">
+      <c r="AA17" s="16" t="str">
         <f>IF(_tuoliu_day_hour!Y11="","",_tuoliu_day_hour!Y11)</f>
         <v/>
       </c>
-      <c r="AB17" s="9" t="str">
+      <c r="AB17" s="16" t="str">
         <f>IF(_tuoliu_day_hour!Z11="","",_tuoliu_day_hour!Z11)</f>
         <v/>
       </c>
-      <c r="AC17" s="9" t="str">
+      <c r="AC17" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AA11="","",_tuoliu_day_hour!AA11)</f>
         <v/>
       </c>
-      <c r="AD17" s="9" t="str">
+      <c r="AD17" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AB11="","",_tuoliu_day_hour!AB11)</f>
         <v/>
       </c>
-      <c r="AE17" s="9" t="str">
+      <c r="AE17" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AC11="","",_tuoliu_day_hour!AC11)</f>
         <v/>
       </c>
-      <c r="AF17" s="9" t="str">
+      <c r="AF17" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AD11="","",_tuoliu_day_hour!AD11)</f>
         <v/>
       </c>
-      <c r="AG17" s="9" t="str">
+      <c r="AG17" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AE11="","",_tuoliu_day_hour!AE11)</f>
         <v/>
       </c>
-      <c r="AH17" s="9" t="str">
+      <c r="AH17" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AF11="","",_tuoliu_day_hour!AF11)</f>
         <v/>
       </c>
-      <c r="AI17" s="9" t="str">
+      <c r="AI17" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AG11="","",_tuoliu_day_hour!AG11)</f>
         <v/>
       </c>
-      <c r="AJ17" s="9" t="str">
+      <c r="AJ17" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AH11="","",_tuoliu_day_hour!AH11)</f>
         <v/>
       </c>
-      <c r="AK17" s="9" t="str">
+      <c r="AK17" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AI11="","",_tuoliu_day_hour!AI11)</f>
         <v/>
       </c>
-      <c r="AL17" s="9" t="str">
+      <c r="AL17" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AJ11="","",_tuoliu_day_hour!AJ11)</f>
         <v/>
       </c>
-      <c r="AM17" s="9" t="str">
+      <c r="AM17" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AK11="","",_tuoliu_day_hour!AK11)</f>
         <v/>
       </c>
-      <c r="AN17" s="9" t="str">
+      <c r="AN17" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AL11="","",_tuoliu_day_hour!AL11)</f>
         <v/>
       </c>
-      <c r="AO17" s="9" t="str">
+      <c r="AO17" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AM11="","",_tuoliu_day_hour!AM11)</f>
         <v/>
       </c>
-      <c r="AP17" s="9" t="str">
+      <c r="AP17" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AN11="","",_tuoliu_day_hour!AN11)</f>
         <v/>
       </c>
-      <c r="AQ17" s="9" t="str">
+      <c r="AQ17" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AO11="","",_tuoliu_day_hour!AO11)</f>
         <v/>
       </c>
-      <c r="AR17" s="9" t="str">
+      <c r="AR17" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AP11="","",_tuoliu_day_hour!AP11)</f>
         <v/>
       </c>
-      <c r="AS17" s="9" t="str">
+      <c r="AS17" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AQ11="","",_tuoliu_day_hour!AQ11)</f>
         <v/>
       </c>
-      <c r="AT17" s="9" t="str">
+      <c r="AT17" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AR11="","",_tuoliu_day_hour!AR11)</f>
         <v/>
       </c>
-      <c r="AU17" s="9" t="str">
+      <c r="AU17" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AS11="","",_tuoliu_day_hour!AS11)</f>
         <v/>
       </c>
-      <c r="AV17" s="9" t="str">
+      <c r="AV17" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AT11="","",_tuoliu_day_hour!AT11)</f>
         <v/>
       </c>
-      <c r="AW17" s="9" t="str">
+      <c r="AW17" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AU11="","",_tuoliu_day_hour!AU11)</f>
         <v/>
       </c>
-      <c r="AX17" s="9" t="str">
+      <c r="AX17" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AV11="","",_tuoliu_day_hour!AV11)</f>
         <v/>
       </c>
-      <c r="AY17" s="14" t="str">
+      <c r="AY17" s="50" t="str">
         <f>IF(_tuoliu_day_hour!AW11="","",_tuoliu_day_hour!AW11)</f>
         <v/>
       </c>
-      <c r="AZ17" s="45"/>
-      <c r="BA17" s="15" t="s">
+      <c r="AZ17" s="42"/>
+      <c r="BA17" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="BB17" s="9"/>
-      <c r="BC17" s="9"/>
-      <c r="BD17" s="12"/>
+      <c r="BB17" s="16"/>
+      <c r="BC17" s="16"/>
+      <c r="BD17" s="48"/>
     </row>
-    <row r="18" spans="2:56" x14ac:dyDescent="0.15">
-      <c r="B18" s="8">
-        <v>0.41666666666666602</v>
-      </c>
-      <c r="C18" s="9" t="str">
+    <row r="18" spans="2:56">
+      <c r="B18" s="15">
+        <v>0.416666666666666</v>
+      </c>
+      <c r="C18" s="16" t="str">
         <f>IF(_tuoliu_day_hour!A12="","",_tuoliu_day_hour!A12)</f>
         <v/>
       </c>
-      <c r="D18" s="9" t="str">
+      <c r="D18" s="16" t="str">
         <f>IF(_tuoliu_day_hour!B12="","",_tuoliu_day_hour!B12)</f>
         <v/>
       </c>
-      <c r="E18" s="9" t="str">
+      <c r="E18" s="16" t="str">
         <f>IF(_tuoliu_day_hour!C12="","",_tuoliu_day_hour!C12)</f>
         <v/>
       </c>
-      <c r="F18" s="9" t="str">
+      <c r="F18" s="16" t="str">
         <f>IF(_tuoliu_day_hour!D12="","",_tuoliu_day_hour!D12)</f>
         <v/>
       </c>
-      <c r="G18" s="9" t="str">
+      <c r="G18" s="16" t="str">
         <f>IF(_tuoliu_day_hour!E12="","",_tuoliu_day_hour!E12)</f>
         <v/>
       </c>
-      <c r="H18" s="9" t="str">
+      <c r="H18" s="16" t="str">
         <f>IF(_tuoliu_day_hour!F12="","",_tuoliu_day_hour!F12)</f>
         <v/>
       </c>
-      <c r="I18" s="9" t="str">
+      <c r="I18" s="16" t="str">
         <f>IF(_tuoliu_day_hour!G12="","",_tuoliu_day_hour!G12)</f>
         <v/>
       </c>
-      <c r="J18" s="9" t="str">
+      <c r="J18" s="16" t="str">
         <f>IF(_tuoliu_day_hour!H12="","",_tuoliu_day_hour!H12)</f>
         <v/>
       </c>
-      <c r="K18" s="9" t="str">
+      <c r="K18" s="16" t="str">
         <f>IF(_tuoliu_day_hour!I12="","",_tuoliu_day_hour!I12)</f>
         <v/>
       </c>
-      <c r="L18" s="9" t="str">
+      <c r="L18" s="16" t="str">
         <f>IF(_tuoliu_day_hour!J12="","",_tuoliu_day_hour!J12)</f>
         <v/>
       </c>
-      <c r="M18" s="9" t="str">
+      <c r="M18" s="16" t="str">
         <f>IF(_tuoliu_day_hour!K12="","",_tuoliu_day_hour!K12)</f>
         <v/>
       </c>
-      <c r="N18" s="9" t="str">
+      <c r="N18" s="16" t="str">
         <f>IF(_tuoliu_day_hour!L12="","",_tuoliu_day_hour!L12)</f>
         <v/>
       </c>
-      <c r="O18" s="9" t="str">
+      <c r="O18" s="16" t="str">
         <f>IF(_tuoliu_day_hour!M12="","",_tuoliu_day_hour!M12)</f>
         <v/>
       </c>
-      <c r="P18" s="9" t="str">
+      <c r="P18" s="16" t="str">
         <f>IF(_tuoliu_day_hour!N12="","",_tuoliu_day_hour!N12)</f>
         <v/>
       </c>
-      <c r="Q18" s="9" t="str">
+      <c r="Q18" s="16" t="str">
         <f>IF(_tuoliu_day_hour!O12="","",_tuoliu_day_hour!O12)</f>
         <v/>
       </c>
-      <c r="R18" s="9" t="str">
+      <c r="R18" s="16" t="str">
         <f>IF(_tuoliu_day_hour!P12="","",_tuoliu_day_hour!P12)</f>
         <v/>
       </c>
-      <c r="S18" s="9" t="str">
+      <c r="S18" s="16" t="str">
         <f>IF(_tuoliu_day_hour!Q12="","",_tuoliu_day_hour!Q12)</f>
         <v/>
       </c>
-      <c r="T18" s="9" t="str">
+      <c r="T18" s="16" t="str">
         <f>IF(_tuoliu_day_hour!R12="","",_tuoliu_day_hour!R12)</f>
         <v/>
       </c>
-      <c r="U18" s="9" t="str">
+      <c r="U18" s="16" t="str">
         <f>IF(_tuoliu_day_hour!S12="","",_tuoliu_day_hour!S12)</f>
         <v/>
       </c>
-      <c r="V18" s="9" t="str">
+      <c r="V18" s="16" t="str">
         <f>IF(_tuoliu_day_hour!T12="","",_tuoliu_day_hour!T12)</f>
         <v/>
       </c>
-      <c r="W18" s="9" t="str">
+      <c r="W18" s="16" t="str">
         <f>IF(_tuoliu_day_hour!U12="","",_tuoliu_day_hour!U12)</f>
         <v/>
       </c>
-      <c r="X18" s="9" t="str">
+      <c r="X18" s="16" t="str">
         <f>IF(_tuoliu_day_hour!V12="","",_tuoliu_day_hour!V12)</f>
         <v/>
       </c>
-      <c r="Y18" s="9" t="str">
+      <c r="Y18" s="16" t="str">
         <f>IF(_tuoliu_day_hour!W12="","",_tuoliu_day_hour!W12)</f>
         <v/>
       </c>
-      <c r="Z18" s="9" t="str">
+      <c r="Z18" s="16" t="str">
         <f>IF(_tuoliu_day_hour!X12="","",_tuoliu_day_hour!X12)</f>
         <v/>
       </c>
-      <c r="AA18" s="9" t="str">
+      <c r="AA18" s="16" t="str">
         <f>IF(_tuoliu_day_hour!Y12="","",_tuoliu_day_hour!Y12)</f>
         <v/>
       </c>
-      <c r="AB18" s="9" t="str">
+      <c r="AB18" s="16" t="str">
         <f>IF(_tuoliu_day_hour!Z12="","",_tuoliu_day_hour!Z12)</f>
         <v/>
       </c>
-      <c r="AC18" s="9" t="str">
+      <c r="AC18" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AA12="","",_tuoliu_day_hour!AA12)</f>
         <v/>
       </c>
-      <c r="AD18" s="9" t="str">
+      <c r="AD18" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AB12="","",_tuoliu_day_hour!AB12)</f>
         <v/>
       </c>
-      <c r="AE18" s="9" t="str">
+      <c r="AE18" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AC12="","",_tuoliu_day_hour!AC12)</f>
         <v/>
       </c>
-      <c r="AF18" s="9" t="str">
+      <c r="AF18" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AD12="","",_tuoliu_day_hour!AD12)</f>
         <v/>
       </c>
-      <c r="AG18" s="9" t="str">
+      <c r="AG18" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AE12="","",_tuoliu_day_hour!AE12)</f>
         <v/>
       </c>
-      <c r="AH18" s="9" t="str">
+      <c r="AH18" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AF12="","",_tuoliu_day_hour!AF12)</f>
         <v/>
       </c>
-      <c r="AI18" s="9" t="str">
+      <c r="AI18" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AG12="","",_tuoliu_day_hour!AG12)</f>
         <v/>
       </c>
-      <c r="AJ18" s="9" t="str">
+      <c r="AJ18" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AH12="","",_tuoliu_day_hour!AH12)</f>
         <v/>
       </c>
-      <c r="AK18" s="9" t="str">
+      <c r="AK18" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AI12="","",_tuoliu_day_hour!AI12)</f>
         <v/>
       </c>
-      <c r="AL18" s="9" t="str">
+      <c r="AL18" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AJ12="","",_tuoliu_day_hour!AJ12)</f>
         <v/>
       </c>
-      <c r="AM18" s="9" t="str">
+      <c r="AM18" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AK12="","",_tuoliu_day_hour!AK12)</f>
         <v/>
       </c>
-      <c r="AN18" s="9" t="str">
+      <c r="AN18" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AL12="","",_tuoliu_day_hour!AL12)</f>
         <v/>
       </c>
-      <c r="AO18" s="9" t="str">
+      <c r="AO18" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AM12="","",_tuoliu_day_hour!AM12)</f>
         <v/>
       </c>
-      <c r="AP18" s="9" t="str">
+      <c r="AP18" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AN12="","",_tuoliu_day_hour!AN12)</f>
         <v/>
       </c>
-      <c r="AQ18" s="9" t="str">
+      <c r="AQ18" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AO12="","",_tuoliu_day_hour!AO12)</f>
         <v/>
       </c>
-      <c r="AR18" s="9" t="str">
+      <c r="AR18" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AP12="","",_tuoliu_day_hour!AP12)</f>
         <v/>
       </c>
-      <c r="AS18" s="9" t="str">
+      <c r="AS18" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AQ12="","",_tuoliu_day_hour!AQ12)</f>
         <v/>
       </c>
-      <c r="AT18" s="9" t="str">
+      <c r="AT18" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AR12="","",_tuoliu_day_hour!AR12)</f>
         <v/>
       </c>
-      <c r="AU18" s="9" t="str">
+      <c r="AU18" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AS12="","",_tuoliu_day_hour!AS12)</f>
         <v/>
       </c>
-      <c r="AV18" s="9" t="str">
+      <c r="AV18" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AT12="","",_tuoliu_day_hour!AT12)</f>
         <v/>
       </c>
-      <c r="AW18" s="9" t="str">
+      <c r="AW18" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AU12="","",_tuoliu_day_hour!AU12)</f>
         <v/>
       </c>
-      <c r="AX18" s="9" t="str">
+      <c r="AX18" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AV12="","",_tuoliu_day_hour!AV12)</f>
         <v/>
       </c>
-      <c r="AY18" s="14" t="str">
+      <c r="AY18" s="50" t="str">
         <f>IF(_tuoliu_day_hour!AW12="","",_tuoliu_day_hour!AW12)</f>
         <v/>
       </c>
-      <c r="AZ18" s="45"/>
-      <c r="BA18" s="15" t="s">
+      <c r="AZ18" s="42"/>
+      <c r="BA18" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="BB18" s="9"/>
-      <c r="BC18" s="9"/>
-      <c r="BD18" s="12"/>
+      <c r="BB18" s="16"/>
+      <c r="BC18" s="16"/>
+      <c r="BD18" s="48"/>
     </row>
-    <row r="19" spans="2:56" x14ac:dyDescent="0.15">
-      <c r="B19" s="8">
-        <v>0.45833333333333298</v>
-      </c>
-      <c r="C19" s="9" t="str">
+    <row r="19" spans="2:56">
+      <c r="B19" s="15">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="C19" s="16" t="str">
         <f>IF(_tuoliu_day_hour!A13="","",_tuoliu_day_hour!A13)</f>
         <v/>
       </c>
-      <c r="D19" s="9" t="str">
+      <c r="D19" s="16" t="str">
         <f>IF(_tuoliu_day_hour!B13="","",_tuoliu_day_hour!B13)</f>
         <v/>
       </c>
-      <c r="E19" s="9" t="str">
+      <c r="E19" s="16" t="str">
         <f>IF(_tuoliu_day_hour!C13="","",_tuoliu_day_hour!C13)</f>
         <v/>
       </c>
-      <c r="F19" s="9" t="str">
+      <c r="F19" s="16" t="str">
         <f>IF(_tuoliu_day_hour!D13="","",_tuoliu_day_hour!D13)</f>
         <v/>
       </c>
-      <c r="G19" s="9" t="str">
+      <c r="G19" s="16" t="str">
         <f>IF(_tuoliu_day_hour!E13="","",_tuoliu_day_hour!E13)</f>
         <v/>
       </c>
-      <c r="H19" s="9" t="str">
+      <c r="H19" s="16" t="str">
         <f>IF(_tuoliu_day_hour!F13="","",_tuoliu_day_hour!F13)</f>
         <v/>
       </c>
-      <c r="I19" s="9" t="str">
+      <c r="I19" s="16" t="str">
         <f>IF(_tuoliu_day_hour!G13="","",_tuoliu_day_hour!G13)</f>
         <v/>
       </c>
-      <c r="J19" s="9" t="str">
+      <c r="J19" s="16" t="str">
         <f>IF(_tuoliu_day_hour!H13="","",_tuoliu_day_hour!H13)</f>
         <v/>
       </c>
-      <c r="K19" s="9" t="str">
+      <c r="K19" s="16" t="str">
         <f>IF(_tuoliu_day_hour!I13="","",_tuoliu_day_hour!I13)</f>
         <v/>
       </c>
-      <c r="L19" s="9" t="str">
+      <c r="L19" s="16" t="str">
         <f>IF(_tuoliu_day_hour!J13="","",_tuoliu_day_hour!J13)</f>
         <v/>
       </c>
-      <c r="M19" s="9" t="str">
+      <c r="M19" s="16" t="str">
         <f>IF(_tuoliu_day_hour!K13="","",_tuoliu_day_hour!K13)</f>
         <v/>
       </c>
-      <c r="N19" s="9" t="str">
+      <c r="N19" s="16" t="str">
         <f>IF(_tuoliu_day_hour!L13="","",_tuoliu_day_hour!L13)</f>
         <v/>
       </c>
-      <c r="O19" s="9" t="str">
+      <c r="O19" s="16" t="str">
         <f>IF(_tuoliu_day_hour!M13="","",_tuoliu_day_hour!M13)</f>
         <v/>
       </c>
-      <c r="P19" s="9" t="str">
+      <c r="P19" s="16" t="str">
         <f>IF(_tuoliu_day_hour!N13="","",_tuoliu_day_hour!N13)</f>
         <v/>
       </c>
-      <c r="Q19" s="9" t="str">
+      <c r="Q19" s="16" t="str">
         <f>IF(_tuoliu_day_hour!O13="","",_tuoliu_day_hour!O13)</f>
         <v/>
       </c>
-      <c r="R19" s="9" t="str">
+      <c r="R19" s="16" t="str">
         <f>IF(_tuoliu_day_hour!P13="","",_tuoliu_day_hour!P13)</f>
         <v/>
       </c>
-      <c r="S19" s="9" t="str">
+      <c r="S19" s="16" t="str">
         <f>IF(_tuoliu_day_hour!Q13="","",_tuoliu_day_hour!Q13)</f>
         <v/>
       </c>
-      <c r="T19" s="9" t="str">
+      <c r="T19" s="16" t="str">
         <f>IF(_tuoliu_day_hour!R13="","",_tuoliu_day_hour!R13)</f>
         <v/>
       </c>
-      <c r="U19" s="9" t="str">
+      <c r="U19" s="16" t="str">
         <f>IF(_tuoliu_day_hour!S13="","",_tuoliu_day_hour!S13)</f>
         <v/>
       </c>
-      <c r="V19" s="9" t="str">
+      <c r="V19" s="16" t="str">
         <f>IF(_tuoliu_day_hour!T13="","",_tuoliu_day_hour!T13)</f>
         <v/>
       </c>
-      <c r="W19" s="9" t="str">
+      <c r="W19" s="16" t="str">
         <f>IF(_tuoliu_day_hour!U13="","",_tuoliu_day_hour!U13)</f>
         <v/>
       </c>
-      <c r="X19" s="9" t="str">
+      <c r="X19" s="16" t="str">
         <f>IF(_tuoliu_day_hour!V13="","",_tuoliu_day_hour!V13)</f>
         <v/>
       </c>
-      <c r="Y19" s="9" t="str">
+      <c r="Y19" s="16" t="str">
         <f>IF(_tuoliu_day_hour!W13="","",_tuoliu_day_hour!W13)</f>
         <v/>
       </c>
-      <c r="Z19" s="9" t="str">
+      <c r="Z19" s="16" t="str">
         <f>IF(_tuoliu_day_hour!X13="","",_tuoliu_day_hour!X13)</f>
         <v/>
       </c>
-      <c r="AA19" s="9" t="str">
+      <c r="AA19" s="16" t="str">
         <f>IF(_tuoliu_day_hour!Y13="","",_tuoliu_day_hour!Y13)</f>
         <v/>
       </c>
-      <c r="AB19" s="9" t="str">
+      <c r="AB19" s="16" t="str">
         <f>IF(_tuoliu_day_hour!Z13="","",_tuoliu_day_hour!Z13)</f>
         <v/>
       </c>
-      <c r="AC19" s="9" t="str">
+      <c r="AC19" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AA13="","",_tuoliu_day_hour!AA13)</f>
         <v/>
       </c>
-      <c r="AD19" s="9" t="str">
+      <c r="AD19" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AB13="","",_tuoliu_day_hour!AB13)</f>
         <v/>
       </c>
-      <c r="AE19" s="9" t="str">
+      <c r="AE19" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AC13="","",_tuoliu_day_hour!AC13)</f>
         <v/>
       </c>
-      <c r="AF19" s="9" t="str">
+      <c r="AF19" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AD13="","",_tuoliu_day_hour!AD13)</f>
         <v/>
       </c>
-      <c r="AG19" s="9" t="str">
+      <c r="AG19" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AE13="","",_tuoliu_day_hour!AE13)</f>
         <v/>
       </c>
-      <c r="AH19" s="9" t="str">
+      <c r="AH19" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AF13="","",_tuoliu_day_hour!AF13)</f>
         <v/>
       </c>
-      <c r="AI19" s="9" t="str">
+      <c r="AI19" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AG13="","",_tuoliu_day_hour!AG13)</f>
         <v/>
       </c>
-      <c r="AJ19" s="9" t="str">
+      <c r="AJ19" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AH13="","",_tuoliu_day_hour!AH13)</f>
         <v/>
       </c>
-      <c r="AK19" s="9" t="str">
+      <c r="AK19" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AI13="","",_tuoliu_day_hour!AI13)</f>
         <v/>
       </c>
-      <c r="AL19" s="9" t="str">
+      <c r="AL19" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AJ13="","",_tuoliu_day_hour!AJ13)</f>
         <v/>
       </c>
-      <c r="AM19" s="9" t="str">
+      <c r="AM19" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AK13="","",_tuoliu_day_hour!AK13)</f>
         <v/>
       </c>
-      <c r="AN19" s="9" t="str">
+      <c r="AN19" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AL13="","",_tuoliu_day_hour!AL13)</f>
         <v/>
       </c>
-      <c r="AO19" s="9" t="str">
+      <c r="AO19" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AM13="","",_tuoliu_day_hour!AM13)</f>
         <v/>
       </c>
-      <c r="AP19" s="9" t="str">
+      <c r="AP19" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AN13="","",_tuoliu_day_hour!AN13)</f>
         <v/>
       </c>
-      <c r="AQ19" s="9" t="str">
+      <c r="AQ19" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AO13="","",_tuoliu_day_hour!AO13)</f>
         <v/>
       </c>
-      <c r="AR19" s="9" t="str">
+      <c r="AR19" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AP13="","",_tuoliu_day_hour!AP13)</f>
         <v/>
       </c>
-      <c r="AS19" s="9" t="str">
+      <c r="AS19" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AQ13="","",_tuoliu_day_hour!AQ13)</f>
         <v/>
       </c>
-      <c r="AT19" s="9" t="str">
+      <c r="AT19" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AR13="","",_tuoliu_day_hour!AR13)</f>
         <v/>
       </c>
-      <c r="AU19" s="9" t="str">
+      <c r="AU19" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AS13="","",_tuoliu_day_hour!AS13)</f>
         <v/>
       </c>
-      <c r="AV19" s="9" t="str">
+      <c r="AV19" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AT13="","",_tuoliu_day_hour!AT13)</f>
         <v/>
       </c>
-      <c r="AW19" s="9" t="str">
+      <c r="AW19" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AU13="","",_tuoliu_day_hour!AU13)</f>
         <v/>
       </c>
-      <c r="AX19" s="9" t="str">
+      <c r="AX19" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AV13="","",_tuoliu_day_hour!AV13)</f>
         <v/>
       </c>
-      <c r="AY19" s="14" t="str">
+      <c r="AY19" s="50" t="str">
         <f>IF(_tuoliu_day_hour!AW13="","",_tuoliu_day_hour!AW13)</f>
         <v/>
       </c>
-      <c r="AZ19" s="45" t="s">
+      <c r="AZ19" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="BA19" s="15" t="s">
+      <c r="BA19" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="BB19" s="9"/>
-      <c r="BC19" s="9"/>
-      <c r="BD19" s="12"/>
+      <c r="BB19" s="16"/>
+      <c r="BC19" s="16"/>
+      <c r="BD19" s="48"/>
     </row>
-    <row r="20" spans="2:56" x14ac:dyDescent="0.15">
-      <c r="B20" s="8">
+    <row r="20" spans="2:56">
+      <c r="B20" s="15">
         <v>0.5</v>
       </c>
-      <c r="C20" s="9" t="str">
+      <c r="C20" s="16" t="str">
         <f>IF(_tuoliu_day_hour!A14="","",_tuoliu_day_hour!A14)</f>
         <v/>
       </c>
-      <c r="D20" s="9" t="str">
+      <c r="D20" s="16" t="str">
         <f>IF(_tuoliu_day_hour!B14="","",_tuoliu_day_hour!B14)</f>
         <v/>
       </c>
-      <c r="E20" s="9" t="str">
+      <c r="E20" s="16" t="str">
         <f>IF(_tuoliu_day_hour!C14="","",_tuoliu_day_hour!C14)</f>
         <v/>
       </c>
-      <c r="F20" s="9" t="str">
+      <c r="F20" s="16" t="str">
         <f>IF(_tuoliu_day_hour!D14="","",_tuoliu_day_hour!D14)</f>
         <v/>
       </c>
-      <c r="G20" s="9" t="str">
+      <c r="G20" s="16" t="str">
         <f>IF(_tuoliu_day_hour!E14="","",_tuoliu_day_hour!E14)</f>
         <v/>
       </c>
-      <c r="H20" s="9" t="str">
+      <c r="H20" s="16" t="str">
         <f>IF(_tuoliu_day_hour!F14="","",_tuoliu_day_hour!F14)</f>
         <v/>
       </c>
-      <c r="I20" s="9" t="str">
+      <c r="I20" s="16" t="str">
         <f>IF(_tuoliu_day_hour!G14="","",_tuoliu_day_hour!G14)</f>
         <v/>
       </c>
-      <c r="J20" s="9" t="str">
+      <c r="J20" s="16" t="str">
         <f>IF(_tuoliu_day_hour!H14="","",_tuoliu_day_hour!H14)</f>
         <v/>
       </c>
-      <c r="K20" s="9" t="str">
+      <c r="K20" s="16" t="str">
         <f>IF(_tuoliu_day_hour!I14="","",_tuoliu_day_hour!I14)</f>
         <v/>
       </c>
-      <c r="L20" s="9" t="str">
+      <c r="L20" s="16" t="str">
         <f>IF(_tuoliu_day_hour!J14="","",_tuoliu_day_hour!J14)</f>
         <v/>
       </c>
-      <c r="M20" s="9" t="str">
+      <c r="M20" s="16" t="str">
         <f>IF(_tuoliu_day_hour!K14="","",_tuoliu_day_hour!K14)</f>
         <v/>
       </c>
-      <c r="N20" s="9" t="str">
+      <c r="N20" s="16" t="str">
         <f>IF(_tuoliu_day_hour!L14="","",_tuoliu_day_hour!L14)</f>
         <v/>
       </c>
-      <c r="O20" s="9" t="str">
+      <c r="O20" s="16" t="str">
         <f>IF(_tuoliu_day_hour!M14="","",_tuoliu_day_hour!M14)</f>
         <v/>
       </c>
-      <c r="P20" s="9" t="str">
+      <c r="P20" s="16" t="str">
         <f>IF(_tuoliu_day_hour!N14="","",_tuoliu_day_hour!N14)</f>
         <v/>
       </c>
-      <c r="Q20" s="9" t="str">
+      <c r="Q20" s="16" t="str">
         <f>IF(_tuoliu_day_hour!O14="","",_tuoliu_day_hour!O14)</f>
         <v/>
       </c>
-      <c r="R20" s="9" t="str">
+      <c r="R20" s="16" t="str">
         <f>IF(_tuoliu_day_hour!P14="","",_tuoliu_day_hour!P14)</f>
         <v/>
       </c>
-      <c r="S20" s="9" t="str">
+      <c r="S20" s="16" t="str">
         <f>IF(_tuoliu_day_hour!Q14="","",_tuoliu_day_hour!Q14)</f>
         <v/>
       </c>
-      <c r="T20" s="9" t="str">
+      <c r="T20" s="16" t="str">
         <f>IF(_tuoliu_day_hour!R14="","",_tuoliu_day_hour!R14)</f>
         <v/>
       </c>
-      <c r="U20" s="9" t="str">
+      <c r="U20" s="16" t="str">
         <f>IF(_tuoliu_day_hour!S14="","",_tuoliu_day_hour!S14)</f>
         <v/>
       </c>
-      <c r="V20" s="9" t="str">
+      <c r="V20" s="16" t="str">
         <f>IF(_tuoliu_day_hour!T14="","",_tuoliu_day_hour!T14)</f>
         <v/>
       </c>
-      <c r="W20" s="9" t="str">
+      <c r="W20" s="16" t="str">
         <f>IF(_tuoliu_day_hour!U14="","",_tuoliu_day_hour!U14)</f>
         <v/>
       </c>
-      <c r="X20" s="9" t="str">
+      <c r="X20" s="16" t="str">
         <f>IF(_tuoliu_day_hour!V14="","",_tuoliu_day_hour!V14)</f>
         <v/>
       </c>
-      <c r="Y20" s="9" t="str">
+      <c r="Y20" s="16" t="str">
         <f>IF(_tuoliu_day_hour!W14="","",_tuoliu_day_hour!W14)</f>
         <v/>
       </c>
-      <c r="Z20" s="9" t="str">
+      <c r="Z20" s="16" t="str">
         <f>IF(_tuoliu_day_hour!X14="","",_tuoliu_day_hour!X14)</f>
         <v/>
       </c>
-      <c r="AA20" s="9" t="str">
+      <c r="AA20" s="16" t="str">
         <f>IF(_tuoliu_day_hour!Y14="","",_tuoliu_day_hour!Y14)</f>
         <v/>
       </c>
-      <c r="AB20" s="9" t="str">
+      <c r="AB20" s="16" t="str">
         <f>IF(_tuoliu_day_hour!Z14="","",_tuoliu_day_hour!Z14)</f>
         <v/>
       </c>
-      <c r="AC20" s="9" t="str">
+      <c r="AC20" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AA14="","",_tuoliu_day_hour!AA14)</f>
         <v/>
       </c>
-      <c r="AD20" s="9" t="str">
+      <c r="AD20" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AB14="","",_tuoliu_day_hour!AB14)</f>
         <v/>
       </c>
-      <c r="AE20" s="9" t="str">
+      <c r="AE20" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AC14="","",_tuoliu_day_hour!AC14)</f>
         <v/>
       </c>
-      <c r="AF20" s="9" t="str">
+      <c r="AF20" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AD14="","",_tuoliu_day_hour!AD14)</f>
         <v/>
       </c>
-      <c r="AG20" s="9" t="str">
+      <c r="AG20" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AE14="","",_tuoliu_day_hour!AE14)</f>
         <v/>
       </c>
-      <c r="AH20" s="9" t="str">
+      <c r="AH20" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AF14="","",_tuoliu_day_hour!AF14)</f>
         <v/>
       </c>
-      <c r="AI20" s="9" t="str">
+      <c r="AI20" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AG14="","",_tuoliu_day_hour!AG14)</f>
         <v/>
       </c>
-      <c r="AJ20" s="9" t="str">
+      <c r="AJ20" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AH14="","",_tuoliu_day_hour!AH14)</f>
         <v/>
       </c>
-      <c r="AK20" s="9" t="str">
+      <c r="AK20" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AI14="","",_tuoliu_day_hour!AI14)</f>
         <v/>
       </c>
-      <c r="AL20" s="9" t="str">
+      <c r="AL20" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AJ14="","",_tuoliu_day_hour!AJ14)</f>
         <v/>
       </c>
-      <c r="AM20" s="9" t="str">
+      <c r="AM20" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AK14="","",_tuoliu_day_hour!AK14)</f>
         <v/>
       </c>
-      <c r="AN20" s="9" t="str">
+      <c r="AN20" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AL14="","",_tuoliu_day_hour!AL14)</f>
         <v/>
       </c>
-      <c r="AO20" s="9" t="str">
+      <c r="AO20" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AM14="","",_tuoliu_day_hour!AM14)</f>
         <v/>
       </c>
-      <c r="AP20" s="9" t="str">
+      <c r="AP20" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AN14="","",_tuoliu_day_hour!AN14)</f>
         <v/>
       </c>
-      <c r="AQ20" s="9" t="str">
+      <c r="AQ20" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AO14="","",_tuoliu_day_hour!AO14)</f>
         <v/>
       </c>
-      <c r="AR20" s="9" t="str">
+      <c r="AR20" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AP14="","",_tuoliu_day_hour!AP14)</f>
         <v/>
       </c>
-      <c r="AS20" s="9" t="str">
+      <c r="AS20" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AQ14="","",_tuoliu_day_hour!AQ14)</f>
         <v/>
       </c>
-      <c r="AT20" s="9" t="str">
+      <c r="AT20" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AR14="","",_tuoliu_day_hour!AR14)</f>
         <v/>
       </c>
-      <c r="AU20" s="9" t="str">
+      <c r="AU20" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AS14="","",_tuoliu_day_hour!AS14)</f>
         <v/>
       </c>
-      <c r="AV20" s="9" t="str">
+      <c r="AV20" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AT14="","",_tuoliu_day_hour!AT14)</f>
         <v/>
       </c>
-      <c r="AW20" s="9" t="str">
+      <c r="AW20" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AU14="","",_tuoliu_day_hour!AU14)</f>
         <v/>
       </c>
-      <c r="AX20" s="9" t="str">
+      <c r="AX20" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AV14="","",_tuoliu_day_hour!AV14)</f>
         <v/>
       </c>
-      <c r="AY20" s="14" t="str">
+      <c r="AY20" s="50" t="str">
         <f>IF(_tuoliu_day_hour!AW14="","",_tuoliu_day_hour!AW14)</f>
         <v/>
       </c>
-      <c r="AZ20" s="45"/>
-      <c r="BA20" s="15" t="s">
+      <c r="AZ20" s="42"/>
+      <c r="BA20" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="BB20" s="9"/>
-      <c r="BC20" s="9"/>
-      <c r="BD20" s="12"/>
+      <c r="BB20" s="16"/>
+      <c r="BC20" s="16"/>
+      <c r="BD20" s="48"/>
     </row>
-    <row r="21" spans="2:56" ht="27" x14ac:dyDescent="0.15">
-      <c r="B21" s="8">
-        <v>0.54166666666666596</v>
-      </c>
-      <c r="C21" s="9" t="str">
+    <row r="21" ht="27" spans="2:56">
+      <c r="B21" s="15">
+        <v>0.541666666666666</v>
+      </c>
+      <c r="C21" s="16" t="str">
         <f>IF(_tuoliu_day_hour!A15="","",_tuoliu_day_hour!A15)</f>
         <v/>
       </c>
-      <c r="D21" s="9" t="str">
+      <c r="D21" s="16" t="str">
         <f>IF(_tuoliu_day_hour!B15="","",_tuoliu_day_hour!B15)</f>
         <v/>
       </c>
-      <c r="E21" s="9" t="str">
+      <c r="E21" s="16" t="str">
         <f>IF(_tuoliu_day_hour!C15="","",_tuoliu_day_hour!C15)</f>
         <v/>
       </c>
-      <c r="F21" s="9" t="str">
+      <c r="F21" s="16" t="str">
         <f>IF(_tuoliu_day_hour!D15="","",_tuoliu_day_hour!D15)</f>
         <v/>
       </c>
-      <c r="G21" s="9" t="str">
+      <c r="G21" s="16" t="str">
         <f>IF(_tuoliu_day_hour!E15="","",_tuoliu_day_hour!E15)</f>
         <v/>
       </c>
-      <c r="H21" s="9" t="str">
+      <c r="H21" s="16" t="str">
         <f>IF(_tuoliu_day_hour!F15="","",_tuoliu_day_hour!F15)</f>
         <v/>
       </c>
-      <c r="I21" s="9" t="str">
+      <c r="I21" s="16" t="str">
         <f>IF(_tuoliu_day_hour!G15="","",_tuoliu_day_hour!G15)</f>
         <v/>
       </c>
-      <c r="J21" s="9" t="str">
+      <c r="J21" s="16" t="str">
         <f>IF(_tuoliu_day_hour!H15="","",_tuoliu_day_hour!H15)</f>
         <v/>
       </c>
-      <c r="K21" s="9" t="str">
+      <c r="K21" s="16" t="str">
         <f>IF(_tuoliu_day_hour!I15="","",_tuoliu_day_hour!I15)</f>
         <v/>
       </c>
-      <c r="L21" s="9" t="str">
+      <c r="L21" s="16" t="str">
         <f>IF(_tuoliu_day_hour!J15="","",_tuoliu_day_hour!J15)</f>
         <v/>
       </c>
-      <c r="M21" s="9" t="str">
+      <c r="M21" s="16" t="str">
         <f>IF(_tuoliu_day_hour!K15="","",_tuoliu_day_hour!K15)</f>
         <v/>
       </c>
-      <c r="N21" s="9" t="str">
+      <c r="N21" s="16" t="str">
         <f>IF(_tuoliu_day_hour!L15="","",_tuoliu_day_hour!L15)</f>
         <v/>
       </c>
-      <c r="O21" s="9" t="str">
+      <c r="O21" s="16" t="str">
         <f>IF(_tuoliu_day_hour!M15="","",_tuoliu_day_hour!M15)</f>
         <v/>
       </c>
-      <c r="P21" s="9" t="str">
+      <c r="P21" s="16" t="str">
         <f>IF(_tuoliu_day_hour!N15="","",_tuoliu_day_hour!N15)</f>
         <v/>
       </c>
-      <c r="Q21" s="9" t="str">
+      <c r="Q21" s="16" t="str">
         <f>IF(_tuoliu_day_hour!O15="","",_tuoliu_day_hour!O15)</f>
         <v/>
       </c>
-      <c r="R21" s="9" t="str">
+      <c r="R21" s="16" t="str">
         <f>IF(_tuoliu_day_hour!P15="","",_tuoliu_day_hour!P15)</f>
         <v/>
       </c>
-      <c r="S21" s="9" t="str">
+      <c r="S21" s="16" t="str">
         <f>IF(_tuoliu_day_hour!Q15="","",_tuoliu_day_hour!Q15)</f>
         <v/>
       </c>
-      <c r="T21" s="9" t="str">
+      <c r="T21" s="16" t="str">
         <f>IF(_tuoliu_day_hour!R15="","",_tuoliu_day_hour!R15)</f>
         <v/>
       </c>
-      <c r="U21" s="9" t="str">
+      <c r="U21" s="16" t="str">
         <f>IF(_tuoliu_day_hour!S15="","",_tuoliu_day_hour!S15)</f>
         <v/>
       </c>
-      <c r="V21" s="9" t="str">
+      <c r="V21" s="16" t="str">
         <f>IF(_tuoliu_day_hour!T15="","",_tuoliu_day_hour!T15)</f>
         <v/>
       </c>
-      <c r="W21" s="9" t="str">
+      <c r="W21" s="16" t="str">
         <f>IF(_tuoliu_day_hour!U15="","",_tuoliu_day_hour!U15)</f>
         <v/>
       </c>
-      <c r="X21" s="9" t="str">
+      <c r="X21" s="16" t="str">
         <f>IF(_tuoliu_day_hour!V15="","",_tuoliu_day_hour!V15)</f>
         <v/>
       </c>
-      <c r="Y21" s="9" t="str">
+      <c r="Y21" s="16" t="str">
         <f>IF(_tuoliu_day_hour!W15="","",_tuoliu_day_hour!W15)</f>
         <v/>
       </c>
-      <c r="Z21" s="9" t="str">
+      <c r="Z21" s="16" t="str">
         <f>IF(_tuoliu_day_hour!X15="","",_tuoliu_day_hour!X15)</f>
         <v/>
       </c>
-      <c r="AA21" s="9" t="str">
+      <c r="AA21" s="16" t="str">
         <f>IF(_tuoliu_day_hour!Y15="","",_tuoliu_day_hour!Y15)</f>
         <v/>
       </c>
-      <c r="AB21" s="9" t="str">
+      <c r="AB21" s="16" t="str">
         <f>IF(_tuoliu_day_hour!Z15="","",_tuoliu_day_hour!Z15)</f>
         <v/>
       </c>
-      <c r="AC21" s="9" t="str">
+      <c r="AC21" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AA15="","",_tuoliu_day_hour!AA15)</f>
         <v/>
       </c>
-      <c r="AD21" s="9" t="str">
+      <c r="AD21" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AB15="","",_tuoliu_day_hour!AB15)</f>
         <v/>
       </c>
-      <c r="AE21" s="9" t="str">
+      <c r="AE21" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AC15="","",_tuoliu_day_hour!AC15)</f>
         <v/>
       </c>
-      <c r="AF21" s="9" t="str">
+      <c r="AF21" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AD15="","",_tuoliu_day_hour!AD15)</f>
         <v/>
       </c>
-      <c r="AG21" s="9" t="str">
+      <c r="AG21" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AE15="","",_tuoliu_day_hour!AE15)</f>
         <v/>
       </c>
-      <c r="AH21" s="9" t="str">
+      <c r="AH21" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AF15="","",_tuoliu_day_hour!AF15)</f>
         <v/>
       </c>
-      <c r="AI21" s="9" t="str">
+      <c r="AI21" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AG15="","",_tuoliu_day_hour!AG15)</f>
         <v/>
       </c>
-      <c r="AJ21" s="9" t="str">
+      <c r="AJ21" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AH15="","",_tuoliu_day_hour!AH15)</f>
         <v/>
       </c>
-      <c r="AK21" s="9" t="str">
+      <c r="AK21" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AI15="","",_tuoliu_day_hour!AI15)</f>
         <v/>
       </c>
-      <c r="AL21" s="9" t="str">
+      <c r="AL21" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AJ15="","",_tuoliu_day_hour!AJ15)</f>
         <v/>
       </c>
-      <c r="AM21" s="9" t="str">
+      <c r="AM21" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AK15="","",_tuoliu_day_hour!AK15)</f>
         <v/>
       </c>
-      <c r="AN21" s="9" t="str">
+      <c r="AN21" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AL15="","",_tuoliu_day_hour!AL15)</f>
         <v/>
       </c>
-      <c r="AO21" s="9" t="str">
+      <c r="AO21" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AM15="","",_tuoliu_day_hour!AM15)</f>
         <v/>
       </c>
-      <c r="AP21" s="9" t="str">
+      <c r="AP21" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AN15="","",_tuoliu_day_hour!AN15)</f>
         <v/>
       </c>
-      <c r="AQ21" s="9" t="str">
+      <c r="AQ21" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AO15="","",_tuoliu_day_hour!AO15)</f>
         <v/>
       </c>
-      <c r="AR21" s="9" t="str">
+      <c r="AR21" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AP15="","",_tuoliu_day_hour!AP15)</f>
         <v/>
       </c>
-      <c r="AS21" s="9" t="str">
+      <c r="AS21" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AQ15="","",_tuoliu_day_hour!AQ15)</f>
         <v/>
       </c>
-      <c r="AT21" s="9" t="str">
+      <c r="AT21" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AR15="","",_tuoliu_day_hour!AR15)</f>
         <v/>
       </c>
-      <c r="AU21" s="9" t="str">
+      <c r="AU21" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AS15="","",_tuoliu_day_hour!AS15)</f>
         <v/>
       </c>
-      <c r="AV21" s="9" t="str">
+      <c r="AV21" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AT15="","",_tuoliu_day_hour!AT15)</f>
         <v/>
       </c>
-      <c r="AW21" s="9" t="str">
+      <c r="AW21" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AU15="","",_tuoliu_day_hour!AU15)</f>
         <v/>
       </c>
-      <c r="AX21" s="9" t="str">
+      <c r="AX21" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AV15="","",_tuoliu_day_hour!AV15)</f>
         <v/>
       </c>
-      <c r="AY21" s="14" t="str">
+      <c r="AY21" s="50" t="str">
         <f>IF(_tuoliu_day_hour!AW15="","",_tuoliu_day_hour!AW15)</f>
         <v/>
       </c>
-      <c r="AZ21" s="45"/>
-      <c r="BA21" s="16" t="s">
+      <c r="AZ21" s="42"/>
+      <c r="BA21" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="BB21" s="9"/>
-      <c r="BC21" s="9"/>
-      <c r="BD21" s="12"/>
+      <c r="BB21" s="16"/>
+      <c r="BC21" s="16"/>
+      <c r="BD21" s="48"/>
     </row>
-    <row r="22" spans="2:56" x14ac:dyDescent="0.15">
-      <c r="B22" s="8">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="C22" s="9" t="str">
+    <row r="22" spans="2:56">
+      <c r="B22" s="15">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="C22" s="16" t="str">
         <f>IF(_tuoliu_day_hour!A16="","",_tuoliu_day_hour!A16)</f>
         <v/>
       </c>
-      <c r="D22" s="9" t="str">
+      <c r="D22" s="16" t="str">
         <f>IF(_tuoliu_day_hour!B16="","",_tuoliu_day_hour!B16)</f>
         <v/>
       </c>
-      <c r="E22" s="9" t="str">
+      <c r="E22" s="16" t="str">
         <f>IF(_tuoliu_day_hour!C16="","",_tuoliu_day_hour!C16)</f>
         <v/>
       </c>
-      <c r="F22" s="9" t="str">
+      <c r="F22" s="16" t="str">
         <f>IF(_tuoliu_day_hour!D16="","",_tuoliu_day_hour!D16)</f>
         <v/>
       </c>
-      <c r="G22" s="9" t="str">
+      <c r="G22" s="16" t="str">
         <f>IF(_tuoliu_day_hour!E16="","",_tuoliu_day_hour!E16)</f>
         <v/>
       </c>
-      <c r="H22" s="9" t="str">
+      <c r="H22" s="16" t="str">
         <f>IF(_tuoliu_day_hour!F16="","",_tuoliu_day_hour!F16)</f>
         <v/>
       </c>
-      <c r="I22" s="9" t="str">
+      <c r="I22" s="16" t="str">
         <f>IF(_tuoliu_day_hour!G16="","",_tuoliu_day_hour!G16)</f>
         <v/>
       </c>
-      <c r="J22" s="9" t="str">
+      <c r="J22" s="16" t="str">
         <f>IF(_tuoliu_day_hour!H16="","",_tuoliu_day_hour!H16)</f>
         <v/>
       </c>
-      <c r="K22" s="9" t="str">
+      <c r="K22" s="16" t="str">
         <f>IF(_tuoliu_day_hour!I16="","",_tuoliu_day_hour!I16)</f>
         <v/>
       </c>
-      <c r="L22" s="9" t="str">
+      <c r="L22" s="16" t="str">
         <f>IF(_tuoliu_day_hour!J16="","",_tuoliu_day_hour!J16)</f>
         <v/>
       </c>
-      <c r="M22" s="9" t="str">
+      <c r="M22" s="16" t="str">
         <f>IF(_tuoliu_day_hour!K16="","",_tuoliu_day_hour!K16)</f>
         <v/>
       </c>
-      <c r="N22" s="9" t="str">
+      <c r="N22" s="16" t="str">
         <f>IF(_tuoliu_day_hour!L16="","",_tuoliu_day_hour!L16)</f>
         <v/>
       </c>
-      <c r="O22" s="9" t="str">
+      <c r="O22" s="16" t="str">
         <f>IF(_tuoliu_day_hour!M16="","",_tuoliu_day_hour!M16)</f>
         <v/>
       </c>
-      <c r="P22" s="9" t="str">
+      <c r="P22" s="16" t="str">
         <f>IF(_tuoliu_day_hour!N16="","",_tuoliu_day_hour!N16)</f>
         <v/>
       </c>
-      <c r="Q22" s="9" t="str">
+      <c r="Q22" s="16" t="str">
         <f>IF(_tuoliu_day_hour!O16="","",_tuoliu_day_hour!O16)</f>
         <v/>
       </c>
-      <c r="R22" s="9" t="str">
+      <c r="R22" s="16" t="str">
         <f>IF(_tuoliu_day_hour!P16="","",_tuoliu_day_hour!P16)</f>
         <v/>
       </c>
-      <c r="S22" s="9" t="str">
+      <c r="S22" s="16" t="str">
         <f>IF(_tuoliu_day_hour!Q16="","",_tuoliu_day_hour!Q16)</f>
         <v/>
       </c>
-      <c r="T22" s="9" t="str">
+      <c r="T22" s="16" t="str">
         <f>IF(_tuoliu_day_hour!R16="","",_tuoliu_day_hour!R16)</f>
         <v/>
       </c>
-      <c r="U22" s="9" t="str">
+      <c r="U22" s="16" t="str">
         <f>IF(_tuoliu_day_hour!S16="","",_tuoliu_day_hour!S16)</f>
         <v/>
       </c>
-      <c r="V22" s="9" t="str">
+      <c r="V22" s="16" t="str">
         <f>IF(_tuoliu_day_hour!T16="","",_tuoliu_day_hour!T16)</f>
         <v/>
       </c>
-      <c r="W22" s="9" t="str">
+      <c r="W22" s="16" t="str">
         <f>IF(_tuoliu_day_hour!U16="","",_tuoliu_day_hour!U16)</f>
         <v/>
       </c>
-      <c r="X22" s="9" t="str">
+      <c r="X22" s="16" t="str">
         <f>IF(_tuoliu_day_hour!V16="","",_tuoliu_day_hour!V16)</f>
         <v/>
       </c>
-      <c r="Y22" s="9" t="str">
+      <c r="Y22" s="16" t="str">
         <f>IF(_tuoliu_day_hour!W16="","",_tuoliu_day_hour!W16)</f>
         <v/>
       </c>
-      <c r="Z22" s="9" t="str">
+      <c r="Z22" s="16" t="str">
         <f>IF(_tuoliu_day_hour!X16="","",_tuoliu_day_hour!X16)</f>
         <v/>
       </c>
-      <c r="AA22" s="9" t="str">
+      <c r="AA22" s="16" t="str">
         <f>IF(_tuoliu_day_hour!Y16="","",_tuoliu_day_hour!Y16)</f>
         <v/>
       </c>
-      <c r="AB22" s="9" t="str">
+      <c r="AB22" s="16" t="str">
         <f>IF(_tuoliu_day_hour!Z16="","",_tuoliu_day_hour!Z16)</f>
         <v/>
       </c>
-      <c r="AC22" s="9" t="str">
+      <c r="AC22" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AA16="","",_tuoliu_day_hour!AA16)</f>
         <v/>
       </c>
-      <c r="AD22" s="9" t="str">
+      <c r="AD22" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AB16="","",_tuoliu_day_hour!AB16)</f>
         <v/>
       </c>
-      <c r="AE22" s="9" t="str">
+      <c r="AE22" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AC16="","",_tuoliu_day_hour!AC16)</f>
         <v/>
       </c>
-      <c r="AF22" s="9" t="str">
+      <c r="AF22" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AD16="","",_tuoliu_day_hour!AD16)</f>
         <v/>
       </c>
-      <c r="AG22" s="9" t="str">
+      <c r="AG22" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AE16="","",_tuoliu_day_hour!AE16)</f>
         <v/>
       </c>
-      <c r="AH22" s="9" t="str">
+      <c r="AH22" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AF16="","",_tuoliu_day_hour!AF16)</f>
         <v/>
       </c>
-      <c r="AI22" s="9" t="str">
+      <c r="AI22" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AG16="","",_tuoliu_day_hour!AG16)</f>
         <v/>
       </c>
-      <c r="AJ22" s="9" t="str">
+      <c r="AJ22" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AH16="","",_tuoliu_day_hour!AH16)</f>
         <v/>
       </c>
-      <c r="AK22" s="9" t="str">
+      <c r="AK22" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AI16="","",_tuoliu_day_hour!AI16)</f>
         <v/>
       </c>
-      <c r="AL22" s="9" t="str">
+      <c r="AL22" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AJ16="","",_tuoliu_day_hour!AJ16)</f>
         <v/>
       </c>
-      <c r="AM22" s="9" t="str">
+      <c r="AM22" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AK16="","",_tuoliu_day_hour!AK16)</f>
         <v/>
       </c>
-      <c r="AN22" s="9" t="str">
+      <c r="AN22" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AL16="","",_tuoliu_day_hour!AL16)</f>
         <v/>
       </c>
-      <c r="AO22" s="9" t="str">
+      <c r="AO22" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AM16="","",_tuoliu_day_hour!AM16)</f>
         <v/>
       </c>
-      <c r="AP22" s="9" t="str">
+      <c r="AP22" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AN16="","",_tuoliu_day_hour!AN16)</f>
         <v/>
       </c>
-      <c r="AQ22" s="9" t="str">
+      <c r="AQ22" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AO16="","",_tuoliu_day_hour!AO16)</f>
         <v/>
       </c>
-      <c r="AR22" s="9" t="str">
+      <c r="AR22" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AP16="","",_tuoliu_day_hour!AP16)</f>
         <v/>
       </c>
-      <c r="AS22" s="9" t="str">
+      <c r="AS22" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AQ16="","",_tuoliu_day_hour!AQ16)</f>
         <v/>
       </c>
-      <c r="AT22" s="9" t="str">
+      <c r="AT22" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AR16="","",_tuoliu_day_hour!AR16)</f>
         <v/>
       </c>
-      <c r="AU22" s="9" t="str">
+      <c r="AU22" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AS16="","",_tuoliu_day_hour!AS16)</f>
         <v/>
       </c>
-      <c r="AV22" s="9" t="str">
+      <c r="AV22" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AT16="","",_tuoliu_day_hour!AT16)</f>
         <v/>
       </c>
-      <c r="AW22" s="9" t="str">
+      <c r="AW22" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AU16="","",_tuoliu_day_hour!AU16)</f>
         <v/>
       </c>
-      <c r="AX22" s="9" t="str">
+      <c r="AX22" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AV16="","",_tuoliu_day_hour!AV16)</f>
         <v/>
       </c>
-      <c r="AY22" s="14" t="str">
+      <c r="AY22" s="50" t="str">
         <f>IF(_tuoliu_day_hour!AW16="","",_tuoliu_day_hour!AW16)</f>
         <v/>
       </c>
-      <c r="AZ22" s="45"/>
-      <c r="BA22" s="15" t="s">
+      <c r="AZ22" s="42"/>
+      <c r="BA22" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="BB22" s="9"/>
-      <c r="BC22" s="9"/>
-      <c r="BD22" s="12"/>
+      <c r="BB22" s="16"/>
+      <c r="BC22" s="16"/>
+      <c r="BD22" s="48"/>
     </row>
-    <row r="23" spans="2:56" x14ac:dyDescent="0.15">
-      <c r="B23" s="8">
+    <row r="23" spans="2:56">
+      <c r="B23" s="15">
         <v>0.625</v>
       </c>
-      <c r="C23" s="9" t="str">
+      <c r="C23" s="16" t="str">
         <f>IF(_tuoliu_day_hour!A17="","",_tuoliu_day_hour!A17)</f>
         <v/>
       </c>
-      <c r="D23" s="9" t="str">
+      <c r="D23" s="16" t="str">
         <f>IF(_tuoliu_day_hour!B17="","",_tuoliu_day_hour!B17)</f>
         <v/>
       </c>
-      <c r="E23" s="9" t="str">
+      <c r="E23" s="16" t="str">
         <f>IF(_tuoliu_day_hour!C17="","",_tuoliu_day_hour!C17)</f>
         <v/>
       </c>
-      <c r="F23" s="9" t="str">
+      <c r="F23" s="16" t="str">
         <f>IF(_tuoliu_day_hour!D17="","",_tuoliu_day_hour!D17)</f>
         <v/>
       </c>
-      <c r="G23" s="9" t="str">
+      <c r="G23" s="16" t="str">
         <f>IF(_tuoliu_day_hour!E17="","",_tuoliu_day_hour!E17)</f>
         <v/>
       </c>
-      <c r="H23" s="9" t="str">
+      <c r="H23" s="16" t="str">
         <f>IF(_tuoliu_day_hour!F17="","",_tuoliu_day_hour!F17)</f>
         <v/>
       </c>
-      <c r="I23" s="9" t="str">
+      <c r="I23" s="16" t="str">
         <f>IF(_tuoliu_day_hour!G17="","",_tuoliu_day_hour!G17)</f>
         <v/>
       </c>
-      <c r="J23" s="9" t="str">
+      <c r="J23" s="16" t="str">
         <f>IF(_tuoliu_day_hour!H17="","",_tuoliu_day_hour!H17)</f>
         <v/>
       </c>
-      <c r="K23" s="9" t="str">
+      <c r="K23" s="16" t="str">
         <f>IF(_tuoliu_day_hour!I17="","",_tuoliu_day_hour!I17)</f>
         <v/>
       </c>
-      <c r="L23" s="9" t="str">
+      <c r="L23" s="16" t="str">
         <f>IF(_tuoliu_day_hour!J17="","",_tuoliu_day_hour!J17)</f>
         <v/>
       </c>
-      <c r="M23" s="9" t="str">
+      <c r="M23" s="16" t="str">
         <f>IF(_tuoliu_day_hour!K17="","",_tuoliu_day_hour!K17)</f>
         <v/>
       </c>
-      <c r="N23" s="9" t="str">
+      <c r="N23" s="16" t="str">
         <f>IF(_tuoliu_day_hour!L17="","",_tuoliu_day_hour!L17)</f>
         <v/>
       </c>
-      <c r="O23" s="9" t="str">
+      <c r="O23" s="16" t="str">
         <f>IF(_tuoliu_day_hour!M17="","",_tuoliu_day_hour!M17)</f>
         <v/>
       </c>
-      <c r="P23" s="9" t="str">
+      <c r="P23" s="16" t="str">
         <f>IF(_tuoliu_day_hour!N17="","",_tuoliu_day_hour!N17)</f>
         <v/>
       </c>
-      <c r="Q23" s="9" t="str">
+      <c r="Q23" s="16" t="str">
         <f>IF(_tuoliu_day_hour!O17="","",_tuoliu_day_hour!O17)</f>
         <v/>
       </c>
-      <c r="R23" s="9" t="str">
+      <c r="R23" s="16" t="str">
         <f>IF(_tuoliu_day_hour!P17="","",_tuoliu_day_hour!P17)</f>
         <v/>
       </c>
-      <c r="S23" s="9" t="str">
+      <c r="S23" s="16" t="str">
         <f>IF(_tuoliu_day_hour!Q17="","",_tuoliu_day_hour!Q17)</f>
         <v/>
       </c>
-      <c r="T23" s="9" t="str">
+      <c r="T23" s="16" t="str">
         <f>IF(_tuoliu_day_hour!R17="","",_tuoliu_day_hour!R17)</f>
         <v/>
       </c>
-      <c r="U23" s="9" t="str">
+      <c r="U23" s="16" t="str">
         <f>IF(_tuoliu_day_hour!S17="","",_tuoliu_day_hour!S17)</f>
         <v/>
       </c>
-      <c r="V23" s="9" t="str">
+      <c r="V23" s="16" t="str">
         <f>IF(_tuoliu_day_hour!T17="","",_tuoliu_day_hour!T17)</f>
         <v/>
       </c>
-      <c r="W23" s="9" t="str">
+      <c r="W23" s="16" t="str">
         <f>IF(_tuoliu_day_hour!U17="","",_tuoliu_day_hour!U17)</f>
         <v/>
       </c>
-      <c r="X23" s="9" t="str">
+      <c r="X23" s="16" t="str">
         <f>IF(_tuoliu_day_hour!V17="","",_tuoliu_day_hour!V17)</f>
         <v/>
       </c>
-      <c r="Y23" s="9" t="str">
+      <c r="Y23" s="16" t="str">
         <f>IF(_tuoliu_day_hour!W17="","",_tuoliu_day_hour!W17)</f>
         <v/>
       </c>
-      <c r="Z23" s="9" t="str">
+      <c r="Z23" s="16" t="str">
         <f>IF(_tuoliu_day_hour!X17="","",_tuoliu_day_hour!X17)</f>
         <v/>
       </c>
-      <c r="AA23" s="9" t="str">
+      <c r="AA23" s="16" t="str">
         <f>IF(_tuoliu_day_hour!Y17="","",_tuoliu_day_hour!Y17)</f>
         <v/>
       </c>
-      <c r="AB23" s="9" t="str">
+      <c r="AB23" s="16" t="str">
         <f>IF(_tuoliu_day_hour!Z17="","",_tuoliu_day_hour!Z17)</f>
         <v/>
       </c>
-      <c r="AC23" s="9" t="str">
+      <c r="AC23" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AA17="","",_tuoliu_day_hour!AA17)</f>
         <v/>
       </c>
-      <c r="AD23" s="9" t="str">
+      <c r="AD23" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AB17="","",_tuoliu_day_hour!AB17)</f>
         <v/>
       </c>
-      <c r="AE23" s="9" t="str">
+      <c r="AE23" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AC17="","",_tuoliu_day_hour!AC17)</f>
         <v/>
       </c>
-      <c r="AF23" s="9" t="str">
+      <c r="AF23" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AD17="","",_tuoliu_day_hour!AD17)</f>
         <v/>
       </c>
-      <c r="AG23" s="9" t="str">
+      <c r="AG23" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AE17="","",_tuoliu_day_hour!AE17)</f>
         <v/>
       </c>
-      <c r="AH23" s="9" t="str">
+      <c r="AH23" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AF17="","",_tuoliu_day_hour!AF17)</f>
         <v/>
       </c>
-      <c r="AI23" s="9" t="str">
+      <c r="AI23" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AG17="","",_tuoliu_day_hour!AG17)</f>
         <v/>
       </c>
-      <c r="AJ23" s="9" t="str">
+      <c r="AJ23" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AH17="","",_tuoliu_day_hour!AH17)</f>
         <v/>
       </c>
-      <c r="AK23" s="9" t="str">
+      <c r="AK23" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AI17="","",_tuoliu_day_hour!AI17)</f>
         <v/>
       </c>
-      <c r="AL23" s="9" t="str">
+      <c r="AL23" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AJ17="","",_tuoliu_day_hour!AJ17)</f>
         <v/>
       </c>
-      <c r="AM23" s="9" t="str">
+      <c r="AM23" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AK17="","",_tuoliu_day_hour!AK17)</f>
         <v/>
       </c>
-      <c r="AN23" s="9" t="str">
+      <c r="AN23" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AL17="","",_tuoliu_day_hour!AL17)</f>
         <v/>
       </c>
-      <c r="AO23" s="9" t="str">
+      <c r="AO23" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AM17="","",_tuoliu_day_hour!AM17)</f>
         <v/>
       </c>
-      <c r="AP23" s="9" t="str">
+      <c r="AP23" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AN17="","",_tuoliu_day_hour!AN17)</f>
         <v/>
       </c>
-      <c r="AQ23" s="9" t="str">
+      <c r="AQ23" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AO17="","",_tuoliu_day_hour!AO17)</f>
         <v/>
       </c>
-      <c r="AR23" s="9" t="str">
+      <c r="AR23" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AP17="","",_tuoliu_day_hour!AP17)</f>
         <v/>
       </c>
-      <c r="AS23" s="9" t="str">
+      <c r="AS23" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AQ17="","",_tuoliu_day_hour!AQ17)</f>
         <v/>
       </c>
-      <c r="AT23" s="9" t="str">
+      <c r="AT23" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AR17="","",_tuoliu_day_hour!AR17)</f>
         <v/>
       </c>
-      <c r="AU23" s="9" t="str">
+      <c r="AU23" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AS17="","",_tuoliu_day_hour!AS17)</f>
         <v/>
       </c>
-      <c r="AV23" s="9" t="str">
+      <c r="AV23" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AT17="","",_tuoliu_day_hour!AT17)</f>
         <v/>
       </c>
-      <c r="AW23" s="9" t="str">
+      <c r="AW23" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AU17="","",_tuoliu_day_hour!AU17)</f>
         <v/>
       </c>
-      <c r="AX23" s="9" t="str">
+      <c r="AX23" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AV17="","",_tuoliu_day_hour!AV17)</f>
         <v/>
       </c>
-      <c r="AY23" s="14" t="str">
+      <c r="AY23" s="50" t="str">
         <f>IF(_tuoliu_day_hour!AW17="","",_tuoliu_day_hour!AW17)</f>
         <v/>
       </c>
-      <c r="AZ23" s="45"/>
-      <c r="BA23" s="15" t="s">
+      <c r="AZ23" s="42"/>
+      <c r="BA23" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="BB23" s="9"/>
-      <c r="BC23" s="9"/>
-      <c r="BD23" s="12"/>
+      <c r="BB23" s="16"/>
+      <c r="BC23" s="16"/>
+      <c r="BD23" s="48"/>
     </row>
-    <row r="24" spans="2:56" x14ac:dyDescent="0.15">
-      <c r="B24" s="8">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="C24" s="9" t="str">
+    <row r="24" spans="2:56">
+      <c r="B24" s="15">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="C24" s="16" t="str">
         <f>IF(_tuoliu_day_hour!A18="","",_tuoliu_day_hour!A18)</f>
         <v/>
       </c>
-      <c r="D24" s="9" t="str">
+      <c r="D24" s="16" t="str">
         <f>IF(_tuoliu_day_hour!B18="","",_tuoliu_day_hour!B18)</f>
         <v/>
       </c>
-      <c r="E24" s="9" t="str">
+      <c r="E24" s="16" t="str">
         <f>IF(_tuoliu_day_hour!C18="","",_tuoliu_day_hour!C18)</f>
         <v/>
       </c>
-      <c r="F24" s="9" t="str">
+      <c r="F24" s="16" t="str">
         <f>IF(_tuoliu_day_hour!D18="","",_tuoliu_day_hour!D18)</f>
         <v/>
       </c>
-      <c r="G24" s="9" t="str">
+      <c r="G24" s="16" t="str">
         <f>IF(_tuoliu_day_hour!E18="","",_tuoliu_day_hour!E18)</f>
         <v/>
       </c>
-      <c r="H24" s="9" t="str">
+      <c r="H24" s="16" t="str">
         <f>IF(_tuoliu_day_hour!F18="","",_tuoliu_day_hour!F18)</f>
         <v/>
       </c>
-      <c r="I24" s="9" t="str">
+      <c r="I24" s="16" t="str">
         <f>IF(_tuoliu_day_hour!G18="","",_tuoliu_day_hour!G18)</f>
         <v/>
       </c>
-      <c r="J24" s="9" t="str">
+      <c r="J24" s="16" t="str">
         <f>IF(_tuoliu_day_hour!H18="","",_tuoliu_day_hour!H18)</f>
         <v/>
       </c>
-      <c r="K24" s="9" t="str">
+      <c r="K24" s="16" t="str">
         <f>IF(_tuoliu_day_hour!I18="","",_tuoliu_day_hour!I18)</f>
         <v/>
       </c>
-      <c r="L24" s="9" t="str">
+      <c r="L24" s="16" t="str">
         <f>IF(_tuoliu_day_hour!J18="","",_tuoliu_day_hour!J18)</f>
         <v/>
       </c>
-      <c r="M24" s="9" t="str">
+      <c r="M24" s="16" t="str">
         <f>IF(_tuoliu_day_hour!K18="","",_tuoliu_day_hour!K18)</f>
         <v/>
       </c>
-      <c r="N24" s="9" t="str">
+      <c r="N24" s="16" t="str">
         <f>IF(_tuoliu_day_hour!L18="","",_tuoliu_day_hour!L18)</f>
         <v/>
       </c>
-      <c r="O24" s="9" t="str">
+      <c r="O24" s="16" t="str">
         <f>IF(_tuoliu_day_hour!M18="","",_tuoliu_day_hour!M18)</f>
         <v/>
       </c>
-      <c r="P24" s="9" t="str">
+      <c r="P24" s="16" t="str">
         <f>IF(_tuoliu_day_hour!N18="","",_tuoliu_day_hour!N18)</f>
         <v/>
       </c>
-      <c r="Q24" s="9" t="str">
+      <c r="Q24" s="16" t="str">
         <f>IF(_tuoliu_day_hour!O18="","",_tuoliu_day_hour!O18)</f>
         <v/>
       </c>
-      <c r="R24" s="9" t="str">
+      <c r="R24" s="16" t="str">
         <f>IF(_tuoliu_day_hour!P18="","",_tuoliu_day_hour!P18)</f>
         <v/>
       </c>
-      <c r="S24" s="9" t="str">
+      <c r="S24" s="16" t="str">
         <f>IF(_tuoliu_day_hour!Q18="","",_tuoliu_day_hour!Q18)</f>
         <v/>
       </c>
-      <c r="T24" s="9" t="str">
+      <c r="T24" s="16" t="str">
         <f>IF(_tuoliu_day_hour!R18="","",_tuoliu_day_hour!R18)</f>
         <v/>
       </c>
-      <c r="U24" s="9" t="str">
+      <c r="U24" s="16" t="str">
         <f>IF(_tuoliu_day_hour!S18="","",_tuoliu_day_hour!S18)</f>
         <v/>
       </c>
-      <c r="V24" s="9" t="str">
+      <c r="V24" s="16" t="str">
         <f>IF(_tuoliu_day_hour!T18="","",_tuoliu_day_hour!T18)</f>
         <v/>
       </c>
-      <c r="W24" s="9" t="str">
+      <c r="W24" s="16" t="str">
         <f>IF(_tuoliu_day_hour!U18="","",_tuoliu_day_hour!U18)</f>
         <v/>
       </c>
-      <c r="X24" s="9" t="str">
+      <c r="X24" s="16" t="str">
         <f>IF(_tuoliu_day_hour!V18="","",_tuoliu_day_hour!V18)</f>
         <v/>
       </c>
-      <c r="Y24" s="9" t="str">
+      <c r="Y24" s="16" t="str">
         <f>IF(_tuoliu_day_hour!W18="","",_tuoliu_day_hour!W18)</f>
         <v/>
       </c>
-      <c r="Z24" s="9" t="str">
+      <c r="Z24" s="16" t="str">
         <f>IF(_tuoliu_day_hour!X18="","",_tuoliu_day_hour!X18)</f>
         <v/>
       </c>
-      <c r="AA24" s="9" t="str">
+      <c r="AA24" s="16" t="str">
         <f>IF(_tuoliu_day_hour!Y18="","",_tuoliu_day_hour!Y18)</f>
         <v/>
       </c>
-      <c r="AB24" s="9" t="str">
+      <c r="AB24" s="16" t="str">
         <f>IF(_tuoliu_day_hour!Z18="","",_tuoliu_day_hour!Z18)</f>
         <v/>
       </c>
-      <c r="AC24" s="9" t="str">
+      <c r="AC24" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AA18="","",_tuoliu_day_hour!AA18)</f>
         <v/>
       </c>
-      <c r="AD24" s="9" t="str">
+      <c r="AD24" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AB18="","",_tuoliu_day_hour!AB18)</f>
         <v/>
       </c>
-      <c r="AE24" s="9" t="str">
+      <c r="AE24" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AC18="","",_tuoliu_day_hour!AC18)</f>
         <v/>
       </c>
-      <c r="AF24" s="9" t="str">
+      <c r="AF24" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AD18="","",_tuoliu_day_hour!AD18)</f>
         <v/>
       </c>
-      <c r="AG24" s="9" t="str">
+      <c r="AG24" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AE18="","",_tuoliu_day_hour!AE18)</f>
         <v/>
       </c>
-      <c r="AH24" s="9" t="str">
+      <c r="AH24" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AF18="","",_tuoliu_day_hour!AF18)</f>
         <v/>
       </c>
-      <c r="AI24" s="9" t="str">
+      <c r="AI24" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AG18="","",_tuoliu_day_hour!AG18)</f>
         <v/>
       </c>
-      <c r="AJ24" s="9" t="str">
+      <c r="AJ24" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AH18="","",_tuoliu_day_hour!AH18)</f>
         <v/>
       </c>
-      <c r="AK24" s="9" t="str">
+      <c r="AK24" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AI18="","",_tuoliu_day_hour!AI18)</f>
         <v/>
       </c>
-      <c r="AL24" s="9" t="str">
+      <c r="AL24" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AJ18="","",_tuoliu_day_hour!AJ18)</f>
         <v/>
       </c>
-      <c r="AM24" s="9" t="str">
+      <c r="AM24" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AK18="","",_tuoliu_day_hour!AK18)</f>
         <v/>
       </c>
-      <c r="AN24" s="9" t="str">
+      <c r="AN24" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AL18="","",_tuoliu_day_hour!AL18)</f>
         <v/>
       </c>
-      <c r="AO24" s="9" t="str">
+      <c r="AO24" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AM18="","",_tuoliu_day_hour!AM18)</f>
         <v/>
       </c>
-      <c r="AP24" s="9" t="str">
+      <c r="AP24" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AN18="","",_tuoliu_day_hour!AN18)</f>
         <v/>
       </c>
-      <c r="AQ24" s="9" t="str">
+      <c r="AQ24" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AO18="","",_tuoliu_day_hour!AO18)</f>
         <v/>
       </c>
-      <c r="AR24" s="9" t="str">
+      <c r="AR24" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AP18="","",_tuoliu_day_hour!AP18)</f>
         <v/>
       </c>
-      <c r="AS24" s="9" t="str">
+      <c r="AS24" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AQ18="","",_tuoliu_day_hour!AQ18)</f>
         <v/>
       </c>
-      <c r="AT24" s="9" t="str">
+      <c r="AT24" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AR18="","",_tuoliu_day_hour!AR18)</f>
         <v/>
       </c>
-      <c r="AU24" s="9" t="str">
+      <c r="AU24" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AS18="","",_tuoliu_day_hour!AS18)</f>
         <v/>
       </c>
-      <c r="AV24" s="9" t="str">
+      <c r="AV24" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AT18="","",_tuoliu_day_hour!AT18)</f>
         <v/>
       </c>
-      <c r="AW24" s="9" t="str">
+      <c r="AW24" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AU18="","",_tuoliu_day_hour!AU18)</f>
         <v/>
       </c>
-      <c r="AX24" s="9" t="str">
+      <c r="AX24" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AV18="","",_tuoliu_day_hour!AV18)</f>
         <v/>
       </c>
-      <c r="AY24" s="14" t="str">
+      <c r="AY24" s="50" t="str">
         <f>IF(_tuoliu_day_hour!AW18="","",_tuoliu_day_hour!AW18)</f>
         <v/>
       </c>
-      <c r="AZ24" s="45"/>
-      <c r="BA24" s="15" t="s">
+      <c r="AZ24" s="42"/>
+      <c r="BA24" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="BB24" s="9"/>
-      <c r="BC24" s="9"/>
-      <c r="BD24" s="12"/>
+      <c r="BB24" s="16"/>
+      <c r="BC24" s="16"/>
+      <c r="BD24" s="48"/>
     </row>
-    <row r="25" spans="2:56" x14ac:dyDescent="0.15">
-      <c r="B25" s="8">
-        <v>0.70833333333333304</v>
-      </c>
-      <c r="C25" s="9" t="str">
+    <row r="25" spans="2:56">
+      <c r="B25" s="15">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="C25" s="16" t="str">
         <f>IF(_tuoliu_day_hour!A19="","",_tuoliu_day_hour!A19)</f>
         <v/>
       </c>
-      <c r="D25" s="9" t="str">
+      <c r="D25" s="16" t="str">
         <f>IF(_tuoliu_day_hour!B19="","",_tuoliu_day_hour!B19)</f>
         <v/>
       </c>
-      <c r="E25" s="9" t="str">
+      <c r="E25" s="16" t="str">
         <f>IF(_tuoliu_day_hour!C19="","",_tuoliu_day_hour!C19)</f>
         <v/>
       </c>
-      <c r="F25" s="9" t="str">
+      <c r="F25" s="16" t="str">
         <f>IF(_tuoliu_day_hour!D19="","",_tuoliu_day_hour!D19)</f>
         <v/>
       </c>
-      <c r="G25" s="9" t="str">
+      <c r="G25" s="16" t="str">
         <f>IF(_tuoliu_day_hour!E19="","",_tuoliu_day_hour!E19)</f>
         <v/>
       </c>
-      <c r="H25" s="9" t="str">
+      <c r="H25" s="16" t="str">
         <f>IF(_tuoliu_day_hour!F19="","",_tuoliu_day_hour!F19)</f>
         <v/>
       </c>
-      <c r="I25" s="9" t="str">
+      <c r="I25" s="16" t="str">
         <f>IF(_tuoliu_day_hour!G19="","",_tuoliu_day_hour!G19)</f>
         <v/>
       </c>
-      <c r="J25" s="9" t="str">
+      <c r="J25" s="16" t="str">
         <f>IF(_tuoliu_day_hour!H19="","",_tuoliu_day_hour!H19)</f>
         <v/>
       </c>
-      <c r="K25" s="9" t="str">
+      <c r="K25" s="16" t="str">
         <f>IF(_tuoliu_day_hour!I19="","",_tuoliu_day_hour!I19)</f>
         <v/>
       </c>
-      <c r="L25" s="9" t="str">
+      <c r="L25" s="16" t="str">
         <f>IF(_tuoliu_day_hour!J19="","",_tuoliu_day_hour!J19)</f>
         <v/>
       </c>
-      <c r="M25" s="9" t="str">
+      <c r="M25" s="16" t="str">
         <f>IF(_tuoliu_day_hour!K19="","",_tuoliu_day_hour!K19)</f>
         <v/>
       </c>
-      <c r="N25" s="9" t="str">
+      <c r="N25" s="16" t="str">
         <f>IF(_tuoliu_day_hour!L19="","",_tuoliu_day_hour!L19)</f>
         <v/>
       </c>
-      <c r="O25" s="9" t="str">
+      <c r="O25" s="16" t="str">
         <f>IF(_tuoliu_day_hour!M19="","",_tuoliu_day_hour!M19)</f>
         <v/>
       </c>
-      <c r="P25" s="9" t="str">
+      <c r="P25" s="16" t="str">
         <f>IF(_tuoliu_day_hour!N19="","",_tuoliu_day_hour!N19)</f>
         <v/>
       </c>
-      <c r="Q25" s="9" t="str">
+      <c r="Q25" s="16" t="str">
         <f>IF(_tuoliu_day_hour!O19="","",_tuoliu_day_hour!O19)</f>
         <v/>
       </c>
-      <c r="R25" s="9" t="str">
+      <c r="R25" s="16" t="str">
         <f>IF(_tuoliu_day_hour!P19="","",_tuoliu_day_hour!P19)</f>
         <v/>
       </c>
-      <c r="S25" s="9" t="str">
+      <c r="S25" s="16" t="str">
         <f>IF(_tuoliu_day_hour!Q19="","",_tuoliu_day_hour!Q19)</f>
         <v/>
       </c>
-      <c r="T25" s="9" t="str">
+      <c r="T25" s="16" t="str">
         <f>IF(_tuoliu_day_hour!R19="","",_tuoliu_day_hour!R19)</f>
         <v/>
       </c>
-      <c r="U25" s="9" t="str">
+      <c r="U25" s="16" t="str">
         <f>IF(_tuoliu_day_hour!S19="","",_tuoliu_day_hour!S19)</f>
         <v/>
       </c>
-      <c r="V25" s="9" t="str">
+      <c r="V25" s="16" t="str">
         <f>IF(_tuoliu_day_hour!T19="","",_tuoliu_day_hour!T19)</f>
         <v/>
       </c>
-      <c r="W25" s="9" t="str">
+      <c r="W25" s="16" t="str">
         <f>IF(_tuoliu_day_hour!U19="","",_tuoliu_day_hour!U19)</f>
         <v/>
       </c>
-      <c r="X25" s="9" t="str">
+      <c r="X25" s="16" t="str">
         <f>IF(_tuoliu_day_hour!V19="","",_tuoliu_day_hour!V19)</f>
         <v/>
       </c>
-      <c r="Y25" s="9" t="str">
+      <c r="Y25" s="16" t="str">
         <f>IF(_tuoliu_day_hour!W19="","",_tuoliu_day_hour!W19)</f>
         <v/>
       </c>
-      <c r="Z25" s="9" t="str">
+      <c r="Z25" s="16" t="str">
         <f>IF(_tuoliu_day_hour!X19="","",_tuoliu_day_hour!X19)</f>
         <v/>
       </c>
-      <c r="AA25" s="9" t="str">
+      <c r="AA25" s="16" t="str">
         <f>IF(_tuoliu_day_hour!Y19="","",_tuoliu_day_hour!Y19)</f>
         <v/>
       </c>
-      <c r="AB25" s="9" t="str">
+      <c r="AB25" s="16" t="str">
         <f>IF(_tuoliu_day_hour!Z19="","",_tuoliu_day_hour!Z19)</f>
         <v/>
       </c>
-      <c r="AC25" s="9" t="str">
+      <c r="AC25" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AA19="","",_tuoliu_day_hour!AA19)</f>
         <v/>
       </c>
-      <c r="AD25" s="9" t="str">
+      <c r="AD25" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AB19="","",_tuoliu_day_hour!AB19)</f>
         <v/>
       </c>
-      <c r="AE25" s="9" t="str">
+      <c r="AE25" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AC19="","",_tuoliu_day_hour!AC19)</f>
         <v/>
       </c>
-      <c r="AF25" s="9" t="str">
+      <c r="AF25" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AD19="","",_tuoliu_day_hour!AD19)</f>
         <v/>
       </c>
-      <c r="AG25" s="9" t="str">
+      <c r="AG25" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AE19="","",_tuoliu_day_hour!AE19)</f>
         <v/>
       </c>
-      <c r="AH25" s="9" t="str">
+      <c r="AH25" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AF19="","",_tuoliu_day_hour!AF19)</f>
         <v/>
       </c>
-      <c r="AI25" s="9" t="str">
+      <c r="AI25" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AG19="","",_tuoliu_day_hour!AG19)</f>
         <v/>
       </c>
-      <c r="AJ25" s="9" t="str">
+      <c r="AJ25" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AH19="","",_tuoliu_day_hour!AH19)</f>
         <v/>
       </c>
-      <c r="AK25" s="9" t="str">
+      <c r="AK25" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AI19="","",_tuoliu_day_hour!AI19)</f>
         <v/>
       </c>
-      <c r="AL25" s="9" t="str">
+      <c r="AL25" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AJ19="","",_tuoliu_day_hour!AJ19)</f>
         <v/>
       </c>
-      <c r="AM25" s="9" t="str">
+      <c r="AM25" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AK19="","",_tuoliu_day_hour!AK19)</f>
         <v/>
       </c>
-      <c r="AN25" s="9" t="str">
+      <c r="AN25" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AL19="","",_tuoliu_day_hour!AL19)</f>
         <v/>
       </c>
-      <c r="AO25" s="9" t="str">
+      <c r="AO25" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AM19="","",_tuoliu_day_hour!AM19)</f>
         <v/>
       </c>
-      <c r="AP25" s="9" t="str">
+      <c r="AP25" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AN19="","",_tuoliu_day_hour!AN19)</f>
         <v/>
       </c>
-      <c r="AQ25" s="9" t="str">
+      <c r="AQ25" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AO19="","",_tuoliu_day_hour!AO19)</f>
         <v/>
       </c>
-      <c r="AR25" s="9" t="str">
+      <c r="AR25" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AP19="","",_tuoliu_day_hour!AP19)</f>
         <v/>
       </c>
-      <c r="AS25" s="9" t="str">
+      <c r="AS25" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AQ19="","",_tuoliu_day_hour!AQ19)</f>
         <v/>
       </c>
-      <c r="AT25" s="9" t="str">
+      <c r="AT25" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AR19="","",_tuoliu_day_hour!AR19)</f>
         <v/>
       </c>
-      <c r="AU25" s="9" t="str">
+      <c r="AU25" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AS19="","",_tuoliu_day_hour!AS19)</f>
         <v/>
       </c>
-      <c r="AV25" s="9" t="str">
+      <c r="AV25" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AT19="","",_tuoliu_day_hour!AT19)</f>
         <v/>
       </c>
-      <c r="AW25" s="9" t="str">
+      <c r="AW25" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AU19="","",_tuoliu_day_hour!AU19)</f>
         <v/>
       </c>
-      <c r="AX25" s="9" t="str">
+      <c r="AX25" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AV19="","",_tuoliu_day_hour!AV19)</f>
         <v/>
       </c>
-      <c r="AY25" s="14" t="str">
+      <c r="AY25" s="50" t="str">
         <f>IF(_tuoliu_day_hour!AW19="","",_tuoliu_day_hour!AW19)</f>
         <v/>
       </c>
-      <c r="AZ25" s="45"/>
-      <c r="BA25" s="15" t="s">
+      <c r="AZ25" s="42"/>
+      <c r="BA25" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="BB25" s="9"/>
-      <c r="BC25" s="9"/>
-      <c r="BD25" s="12"/>
+      <c r="BB25" s="16"/>
+      <c r="BC25" s="16"/>
+      <c r="BD25" s="48"/>
     </row>
-    <row r="26" spans="2:56" x14ac:dyDescent="0.15">
-      <c r="B26" s="8">
+    <row r="26" spans="2:56">
+      <c r="B26" s="15">
         <v>0.75</v>
       </c>
-      <c r="C26" s="9" t="str">
+      <c r="C26" s="16" t="str">
         <f>IF(_tuoliu_day_hour!A20="","",_tuoliu_day_hour!A20)</f>
         <v/>
       </c>
-      <c r="D26" s="9" t="str">
+      <c r="D26" s="16" t="str">
         <f>IF(_tuoliu_day_hour!B20="","",_tuoliu_day_hour!B20)</f>
         <v/>
       </c>
-      <c r="E26" s="9" t="str">
+      <c r="E26" s="16" t="str">
         <f>IF(_tuoliu_day_hour!C20="","",_tuoliu_day_hour!C20)</f>
         <v/>
       </c>
-      <c r="F26" s="9" t="str">
+      <c r="F26" s="16" t="str">
         <f>IF(_tuoliu_day_hour!D20="","",_tuoliu_day_hour!D20)</f>
         <v/>
       </c>
-      <c r="G26" s="9" t="str">
+      <c r="G26" s="16" t="str">
         <f>IF(_tuoliu_day_hour!E20="","",_tuoliu_day_hour!E20)</f>
         <v/>
       </c>
-      <c r="H26" s="9" t="str">
+      <c r="H26" s="16" t="str">
         <f>IF(_tuoliu_day_hour!F20="","",_tuoliu_day_hour!F20)</f>
         <v/>
       </c>
-      <c r="I26" s="9" t="str">
+      <c r="I26" s="16" t="str">
         <f>IF(_tuoliu_day_hour!G20="","",_tuoliu_day_hour!G20)</f>
         <v/>
       </c>
-      <c r="J26" s="9" t="str">
+      <c r="J26" s="16" t="str">
         <f>IF(_tuoliu_day_hour!H20="","",_tuoliu_day_hour!H20)</f>
         <v/>
       </c>
-      <c r="K26" s="9" t="str">
+      <c r="K26" s="16" t="str">
         <f>IF(_tuoliu_day_hour!I20="","",_tuoliu_day_hour!I20)</f>
         <v/>
       </c>
-      <c r="L26" s="9" t="str">
+      <c r="L26" s="16" t="str">
         <f>IF(_tuoliu_day_hour!J20="","",_tuoliu_day_hour!J20)</f>
         <v/>
       </c>
-      <c r="M26" s="9" t="str">
+      <c r="M26" s="16" t="str">
         <f>IF(_tuoliu_day_hour!K20="","",_tuoliu_day_hour!K20)</f>
         <v/>
       </c>
-      <c r="N26" s="9" t="str">
+      <c r="N26" s="16" t="str">
         <f>IF(_tuoliu_day_hour!L20="","",_tuoliu_day_hour!L20)</f>
         <v/>
       </c>
-      <c r="O26" s="9" t="str">
+      <c r="O26" s="16" t="str">
         <f>IF(_tuoliu_day_hour!M20="","",_tuoliu_day_hour!M20)</f>
         <v/>
       </c>
-      <c r="P26" s="9" t="str">
+      <c r="P26" s="16" t="str">
         <f>IF(_tuoliu_day_hour!N20="","",_tuoliu_day_hour!N20)</f>
         <v/>
       </c>
-      <c r="Q26" s="9" t="str">
+      <c r="Q26" s="16" t="str">
         <f>IF(_tuoliu_day_hour!O20="","",_tuoliu_day_hour!O20)</f>
         <v/>
       </c>
-      <c r="R26" s="9" t="str">
+      <c r="R26" s="16" t="str">
         <f>IF(_tuoliu_day_hour!P20="","",_tuoliu_day_hour!P20)</f>
         <v/>
       </c>
-      <c r="S26" s="9" t="str">
+      <c r="S26" s="16" t="str">
         <f>IF(_tuoliu_day_hour!Q20="","",_tuoliu_day_hour!Q20)</f>
         <v/>
       </c>
-      <c r="T26" s="9" t="str">
+      <c r="T26" s="16" t="str">
         <f>IF(_tuoliu_day_hour!R20="","",_tuoliu_day_hour!R20)</f>
         <v/>
       </c>
-      <c r="U26" s="9" t="str">
+      <c r="U26" s="16" t="str">
         <f>IF(_tuoliu_day_hour!S20="","",_tuoliu_day_hour!S20)</f>
         <v/>
       </c>
-      <c r="V26" s="9" t="str">
+      <c r="V26" s="16" t="str">
         <f>IF(_tuoliu_day_hour!T20="","",_tuoliu_day_hour!T20)</f>
         <v/>
       </c>
-      <c r="W26" s="9" t="str">
+      <c r="W26" s="16" t="str">
         <f>IF(_tuoliu_day_hour!U20="","",_tuoliu_day_hour!U20)</f>
         <v/>
       </c>
-      <c r="X26" s="9" t="str">
+      <c r="X26" s="16" t="str">
         <f>IF(_tuoliu_day_hour!V20="","",_tuoliu_day_hour!V20)</f>
         <v/>
       </c>
-      <c r="Y26" s="9" t="str">
+      <c r="Y26" s="16" t="str">
         <f>IF(_tuoliu_day_hour!W20="","",_tuoliu_day_hour!W20)</f>
         <v/>
       </c>
-      <c r="Z26" s="9" t="str">
+      <c r="Z26" s="16" t="str">
         <f>IF(_tuoliu_day_hour!X20="","",_tuoliu_day_hour!X20)</f>
         <v/>
       </c>
-      <c r="AA26" s="9" t="str">
+      <c r="AA26" s="16" t="str">
         <f>IF(_tuoliu_day_hour!Y20="","",_tuoliu_day_hour!Y20)</f>
         <v/>
       </c>
-      <c r="AB26" s="9" t="str">
+      <c r="AB26" s="16" t="str">
         <f>IF(_tuoliu_day_hour!Z20="","",_tuoliu_day_hour!Z20)</f>
         <v/>
       </c>
-      <c r="AC26" s="9" t="str">
+      <c r="AC26" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AA20="","",_tuoliu_day_hour!AA20)</f>
         <v/>
       </c>
-      <c r="AD26" s="9" t="str">
+      <c r="AD26" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AB20="","",_tuoliu_day_hour!AB20)</f>
         <v/>
       </c>
-      <c r="AE26" s="9" t="str">
+      <c r="AE26" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AC20="","",_tuoliu_day_hour!AC20)</f>
         <v/>
       </c>
-      <c r="AF26" s="9" t="str">
+      <c r="AF26" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AD20="","",_tuoliu_day_hour!AD20)</f>
         <v/>
       </c>
-      <c r="AG26" s="9" t="str">
+      <c r="AG26" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AE20="","",_tuoliu_day_hour!AE20)</f>
         <v/>
       </c>
-      <c r="AH26" s="9" t="str">
+      <c r="AH26" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AF20="","",_tuoliu_day_hour!AF20)</f>
         <v/>
       </c>
-      <c r="AI26" s="9" t="str">
+      <c r="AI26" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AG20="","",_tuoliu_day_hour!AG20)</f>
         <v/>
       </c>
-      <c r="AJ26" s="9" t="str">
+      <c r="AJ26" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AH20="","",_tuoliu_day_hour!AH20)</f>
         <v/>
       </c>
-      <c r="AK26" s="9" t="str">
+      <c r="AK26" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AI20="","",_tuoliu_day_hour!AI20)</f>
         <v/>
       </c>
-      <c r="AL26" s="9" t="str">
+      <c r="AL26" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AJ20="","",_tuoliu_day_hour!AJ20)</f>
         <v/>
       </c>
-      <c r="AM26" s="9" t="str">
+      <c r="AM26" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AK20="","",_tuoliu_day_hour!AK20)</f>
         <v/>
       </c>
-      <c r="AN26" s="9" t="str">
+      <c r="AN26" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AL20="","",_tuoliu_day_hour!AL20)</f>
         <v/>
       </c>
-      <c r="AO26" s="9" t="str">
+      <c r="AO26" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AM20="","",_tuoliu_day_hour!AM20)</f>
         <v/>
       </c>
-      <c r="AP26" s="9" t="str">
+      <c r="AP26" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AN20="","",_tuoliu_day_hour!AN20)</f>
         <v/>
       </c>
-      <c r="AQ26" s="9" t="str">
+      <c r="AQ26" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AO20="","",_tuoliu_day_hour!AO20)</f>
         <v/>
       </c>
-      <c r="AR26" s="9" t="str">
+      <c r="AR26" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AP20="","",_tuoliu_day_hour!AP20)</f>
         <v/>
       </c>
-      <c r="AS26" s="9" t="str">
+      <c r="AS26" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AQ20="","",_tuoliu_day_hour!AQ20)</f>
         <v/>
       </c>
-      <c r="AT26" s="9" t="str">
+      <c r="AT26" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AR20="","",_tuoliu_day_hour!AR20)</f>
         <v/>
       </c>
-      <c r="AU26" s="9" t="str">
+      <c r="AU26" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AS20="","",_tuoliu_day_hour!AS20)</f>
         <v/>
       </c>
-      <c r="AV26" s="9" t="str">
+      <c r="AV26" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AT20="","",_tuoliu_day_hour!AT20)</f>
         <v/>
       </c>
-      <c r="AW26" s="9" t="str">
+      <c r="AW26" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AU20="","",_tuoliu_day_hour!AU20)</f>
         <v/>
       </c>
-      <c r="AX26" s="9" t="str">
+      <c r="AX26" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AV20="","",_tuoliu_day_hour!AV20)</f>
         <v/>
       </c>
-      <c r="AY26" s="14" t="str">
+      <c r="AY26" s="50" t="str">
         <f>IF(_tuoliu_day_hour!AW20="","",_tuoliu_day_hour!AW20)</f>
         <v/>
       </c>
-      <c r="AZ26" s="18"/>
-      <c r="BA26" s="9"/>
-      <c r="BB26" s="9"/>
-      <c r="BC26" s="9"/>
-      <c r="BD26" s="12"/>
+      <c r="AZ26" s="54"/>
+      <c r="BA26" s="16"/>
+      <c r="BB26" s="16"/>
+      <c r="BC26" s="16"/>
+      <c r="BD26" s="48"/>
     </row>
-    <row r="27" spans="2:56" x14ac:dyDescent="0.15">
-      <c r="B27" s="8">
-        <v>0.79166666666666696</v>
-      </c>
-      <c r="C27" s="9" t="str">
+    <row r="27" spans="2:56">
+      <c r="B27" s="15">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="C27" s="16" t="str">
         <f>IF(_tuoliu_day_hour!A21="","",_tuoliu_day_hour!A21)</f>
         <v/>
       </c>
-      <c r="D27" s="9" t="str">
+      <c r="D27" s="16" t="str">
         <f>IF(_tuoliu_day_hour!B21="","",_tuoliu_day_hour!B21)</f>
         <v/>
       </c>
-      <c r="E27" s="9" t="str">
+      <c r="E27" s="16" t="str">
         <f>IF(_tuoliu_day_hour!C21="","",_tuoliu_day_hour!C21)</f>
         <v/>
       </c>
-      <c r="F27" s="9" t="str">
+      <c r="F27" s="16" t="str">
         <f>IF(_tuoliu_day_hour!D21="","",_tuoliu_day_hour!D21)</f>
         <v/>
       </c>
-      <c r="G27" s="9" t="str">
+      <c r="G27" s="16" t="str">
         <f>IF(_tuoliu_day_hour!E21="","",_tuoliu_day_hour!E21)</f>
         <v/>
       </c>
-      <c r="H27" s="9" t="str">
+      <c r="H27" s="16" t="str">
         <f>IF(_tuoliu_day_hour!F21="","",_tuoliu_day_hour!F21)</f>
         <v/>
       </c>
-      <c r="I27" s="9" t="str">
+      <c r="I27" s="16" t="str">
         <f>IF(_tuoliu_day_hour!G21="","",_tuoliu_day_hour!G21)</f>
         <v/>
       </c>
-      <c r="J27" s="9" t="str">
+      <c r="J27" s="16" t="str">
         <f>IF(_tuoliu_day_hour!H21="","",_tuoliu_day_hour!H21)</f>
         <v/>
       </c>
-      <c r="K27" s="9" t="str">
+      <c r="K27" s="16" t="str">
         <f>IF(_tuoliu_day_hour!I21="","",_tuoliu_day_hour!I21)</f>
         <v/>
       </c>
-      <c r="L27" s="9" t="str">
+      <c r="L27" s="16" t="str">
         <f>IF(_tuoliu_day_hour!J21="","",_tuoliu_day_hour!J21)</f>
         <v/>
       </c>
-      <c r="M27" s="9" t="str">
+      <c r="M27" s="16" t="str">
         <f>IF(_tuoliu_day_hour!K21="","",_tuoliu_day_hour!K21)</f>
         <v/>
       </c>
-      <c r="N27" s="9" t="str">
+      <c r="N27" s="16" t="str">
         <f>IF(_tuoliu_day_hour!L21="","",_tuoliu_day_hour!L21)</f>
         <v/>
       </c>
-      <c r="O27" s="9" t="str">
+      <c r="O27" s="16" t="str">
         <f>IF(_tuoliu_day_hour!M21="","",_tuoliu_day_hour!M21)</f>
         <v/>
       </c>
-      <c r="P27" s="9" t="str">
+      <c r="P27" s="16" t="str">
         <f>IF(_tuoliu_day_hour!N21="","",_tuoliu_day_hour!N21)</f>
         <v/>
       </c>
-      <c r="Q27" s="9" t="str">
+      <c r="Q27" s="16" t="str">
         <f>IF(_tuoliu_day_hour!O21="","",_tuoliu_day_hour!O21)</f>
         <v/>
       </c>
-      <c r="R27" s="9" t="str">
+      <c r="R27" s="16" t="str">
         <f>IF(_tuoliu_day_hour!P21="","",_tuoliu_day_hour!P21)</f>
         <v/>
       </c>
-      <c r="S27" s="9" t="str">
+      <c r="S27" s="16" t="str">
         <f>IF(_tuoliu_day_hour!Q21="","",_tuoliu_day_hour!Q21)</f>
         <v/>
       </c>
-      <c r="T27" s="9" t="str">
+      <c r="T27" s="16" t="str">
         <f>IF(_tuoliu_day_hour!R21="","",_tuoliu_day_hour!R21)</f>
         <v/>
       </c>
-      <c r="U27" s="9" t="str">
+      <c r="U27" s="16" t="str">
         <f>IF(_tuoliu_day_hour!S21="","",_tuoliu_day_hour!S21)</f>
         <v/>
       </c>
-      <c r="V27" s="9" t="str">
+      <c r="V27" s="16" t="str">
         <f>IF(_tuoliu_day_hour!T21="","",_tuoliu_day_hour!T21)</f>
         <v/>
       </c>
-      <c r="W27" s="9" t="str">
+      <c r="W27" s="16" t="str">
         <f>IF(_tuoliu_day_hour!U21="","",_tuoliu_day_hour!U21)</f>
         <v/>
       </c>
-      <c r="X27" s="9" t="str">
+      <c r="X27" s="16" t="str">
         <f>IF(_tuoliu_day_hour!V21="","",_tuoliu_day_hour!V21)</f>
         <v/>
       </c>
-      <c r="Y27" s="9" t="str">
+      <c r="Y27" s="16" t="str">
         <f>IF(_tuoliu_day_hour!W21="","",_tuoliu_day_hour!W21)</f>
         <v/>
       </c>
-      <c r="Z27" s="9" t="str">
+      <c r="Z27" s="16" t="str">
         <f>IF(_tuoliu_day_hour!X21="","",_tuoliu_day_hour!X21)</f>
         <v/>
       </c>
-      <c r="AA27" s="9" t="str">
+      <c r="AA27" s="16" t="str">
         <f>IF(_tuoliu_day_hour!Y21="","",_tuoliu_day_hour!Y21)</f>
         <v/>
       </c>
-      <c r="AB27" s="9" t="str">
+      <c r="AB27" s="16" t="str">
         <f>IF(_tuoliu_day_hour!Z21="","",_tuoliu_day_hour!Z21)</f>
         <v/>
       </c>
-      <c r="AC27" s="9" t="str">
+      <c r="AC27" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AA21="","",_tuoliu_day_hour!AA21)</f>
         <v/>
       </c>
-      <c r="AD27" s="9" t="str">
+      <c r="AD27" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AB21="","",_tuoliu_day_hour!AB21)</f>
         <v/>
       </c>
-      <c r="AE27" s="9" t="str">
+      <c r="AE27" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AC21="","",_tuoliu_day_hour!AC21)</f>
         <v/>
       </c>
-      <c r="AF27" s="9" t="str">
+      <c r="AF27" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AD21="","",_tuoliu_day_hour!AD21)</f>
         <v/>
       </c>
-      <c r="AG27" s="9" t="str">
+      <c r="AG27" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AE21="","",_tuoliu_day_hour!AE21)</f>
         <v/>
       </c>
-      <c r="AH27" s="9" t="str">
+      <c r="AH27" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AF21="","",_tuoliu_day_hour!AF21)</f>
         <v/>
       </c>
-      <c r="AI27" s="9" t="str">
+      <c r="AI27" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AG21="","",_tuoliu_day_hour!AG21)</f>
         <v/>
       </c>
-      <c r="AJ27" s="9" t="str">
+      <c r="AJ27" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AH21="","",_tuoliu_day_hour!AH21)</f>
         <v/>
       </c>
-      <c r="AK27" s="9" t="str">
+      <c r="AK27" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AI21="","",_tuoliu_day_hour!AI21)</f>
         <v/>
       </c>
-      <c r="AL27" s="9" t="str">
+      <c r="AL27" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AJ21="","",_tuoliu_day_hour!AJ21)</f>
         <v/>
       </c>
-      <c r="AM27" s="9" t="str">
+      <c r="AM27" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AK21="","",_tuoliu_day_hour!AK21)</f>
         <v/>
       </c>
-      <c r="AN27" s="9" t="str">
+      <c r="AN27" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AL21="","",_tuoliu_day_hour!AL21)</f>
         <v/>
       </c>
-      <c r="AO27" s="9" t="str">
+      <c r="AO27" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AM21="","",_tuoliu_day_hour!AM21)</f>
         <v/>
       </c>
-      <c r="AP27" s="9" t="str">
+      <c r="AP27" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AN21="","",_tuoliu_day_hour!AN21)</f>
         <v/>
       </c>
-      <c r="AQ27" s="9" t="str">
+      <c r="AQ27" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AO21="","",_tuoliu_day_hour!AO21)</f>
         <v/>
       </c>
-      <c r="AR27" s="9" t="str">
+      <c r="AR27" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AP21="","",_tuoliu_day_hour!AP21)</f>
         <v/>
       </c>
-      <c r="AS27" s="9" t="str">
+      <c r="AS27" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AQ21="","",_tuoliu_day_hour!AQ21)</f>
         <v/>
       </c>
-      <c r="AT27" s="9" t="str">
+      <c r="AT27" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AR21="","",_tuoliu_day_hour!AR21)</f>
         <v/>
       </c>
-      <c r="AU27" s="9" t="str">
+      <c r="AU27" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AS21="","",_tuoliu_day_hour!AS21)</f>
         <v/>
       </c>
-      <c r="AV27" s="9" t="str">
+      <c r="AV27" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AT21="","",_tuoliu_day_hour!AT21)</f>
         <v/>
       </c>
-      <c r="AW27" s="9" t="str">
+      <c r="AW27" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AU21="","",_tuoliu_day_hour!AU21)</f>
         <v/>
       </c>
-      <c r="AX27" s="9" t="str">
+      <c r="AX27" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AV21="","",_tuoliu_day_hour!AV21)</f>
         <v/>
       </c>
-      <c r="AY27" s="14" t="str">
+      <c r="AY27" s="50" t="str">
         <f>IF(_tuoliu_day_hour!AW21="","",_tuoliu_day_hour!AW21)</f>
         <v/>
       </c>
-      <c r="AZ27" s="18"/>
-      <c r="BA27" s="9"/>
-      <c r="BB27" s="9"/>
-      <c r="BC27" s="9"/>
-      <c r="BD27" s="12"/>
+      <c r="AZ27" s="54"/>
+      <c r="BA27" s="16"/>
+      <c r="BB27" s="16"/>
+      <c r="BC27" s="16"/>
+      <c r="BD27" s="48"/>
     </row>
-    <row r="28" spans="2:56" x14ac:dyDescent="0.15">
-      <c r="B28" s="8">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="C28" s="9" t="str">
+    <row r="28" spans="2:56">
+      <c r="B28" s="15">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C28" s="16" t="str">
         <f>IF(_tuoliu_day_hour!A22="","",_tuoliu_day_hour!A22)</f>
         <v/>
       </c>
-      <c r="D28" s="9" t="str">
+      <c r="D28" s="16" t="str">
         <f>IF(_tuoliu_day_hour!B22="","",_tuoliu_day_hour!B22)</f>
         <v/>
       </c>
-      <c r="E28" s="9" t="str">
+      <c r="E28" s="16" t="str">
         <f>IF(_tuoliu_day_hour!C22="","",_tuoliu_day_hour!C22)</f>
         <v/>
       </c>
-      <c r="F28" s="9" t="str">
+      <c r="F28" s="16" t="str">
         <f>IF(_tuoliu_day_hour!D22="","",_tuoliu_day_hour!D22)</f>
         <v/>
       </c>
-      <c r="G28" s="9" t="str">
+      <c r="G28" s="16" t="str">
         <f>IF(_tuoliu_day_hour!E22="","",_tuoliu_day_hour!E22)</f>
         <v/>
       </c>
-      <c r="H28" s="9" t="str">
+      <c r="H28" s="16" t="str">
         <f>IF(_tuoliu_day_hour!F22="","",_tuoliu_day_hour!F22)</f>
         <v/>
       </c>
-      <c r="I28" s="9" t="str">
+      <c r="I28" s="16" t="str">
         <f>IF(_tuoliu_day_hour!G22="","",_tuoliu_day_hour!G22)</f>
         <v/>
       </c>
-      <c r="J28" s="9" t="str">
+      <c r="J28" s="16" t="str">
         <f>IF(_tuoliu_day_hour!H22="","",_tuoliu_day_hour!H22)</f>
         <v/>
       </c>
-      <c r="K28" s="9" t="str">
+      <c r="K28" s="16" t="str">
         <f>IF(_tuoliu_day_hour!I22="","",_tuoliu_day_hour!I22)</f>
         <v/>
       </c>
-      <c r="L28" s="9" t="str">
+      <c r="L28" s="16" t="str">
         <f>IF(_tuoliu_day_hour!J22="","",_tuoliu_day_hour!J22)</f>
         <v/>
       </c>
-      <c r="M28" s="9" t="str">
+      <c r="M28" s="16" t="str">
         <f>IF(_tuoliu_day_hour!K22="","",_tuoliu_day_hour!K22)</f>
         <v/>
       </c>
-      <c r="N28" s="9" t="str">
+      <c r="N28" s="16" t="str">
         <f>IF(_tuoliu_day_hour!L22="","",_tuoliu_day_hour!L22)</f>
         <v/>
       </c>
-      <c r="O28" s="9" t="str">
+      <c r="O28" s="16" t="str">
         <f>IF(_tuoliu_day_hour!M22="","",_tuoliu_day_hour!M22)</f>
         <v/>
       </c>
-      <c r="P28" s="9" t="str">
+      <c r="P28" s="16" t="str">
         <f>IF(_tuoliu_day_hour!N22="","",_tuoliu_day_hour!N22)</f>
         <v/>
       </c>
-      <c r="Q28" s="9" t="str">
+      <c r="Q28" s="16" t="str">
         <f>IF(_tuoliu_day_hour!O22="","",_tuoliu_day_hour!O22)</f>
         <v/>
       </c>
-      <c r="R28" s="9" t="str">
+      <c r="R28" s="16" t="str">
         <f>IF(_tuoliu_day_hour!P22="","",_tuoliu_day_hour!P22)</f>
         <v/>
       </c>
-      <c r="S28" s="9" t="str">
+      <c r="S28" s="16" t="str">
         <f>IF(_tuoliu_day_hour!Q22="","",_tuoliu_day_hour!Q22)</f>
         <v/>
       </c>
-      <c r="T28" s="9" t="str">
+      <c r="T28" s="16" t="str">
         <f>IF(_tuoliu_day_hour!R22="","",_tuoliu_day_hour!R22)</f>
         <v/>
       </c>
-      <c r="U28" s="9" t="str">
+      <c r="U28" s="16" t="str">
         <f>IF(_tuoliu_day_hour!S22="","",_tuoliu_day_hour!S22)</f>
         <v/>
       </c>
-      <c r="V28" s="9" t="str">
+      <c r="V28" s="16" t="str">
         <f>IF(_tuoliu_day_hour!T22="","",_tuoliu_day_hour!T22)</f>
         <v/>
       </c>
-      <c r="W28" s="9" t="str">
+      <c r="W28" s="16" t="str">
         <f>IF(_tuoliu_day_hour!U22="","",_tuoliu_day_hour!U22)</f>
         <v/>
       </c>
-      <c r="X28" s="9" t="str">
+      <c r="X28" s="16" t="str">
         <f>IF(_tuoliu_day_hour!V22="","",_tuoliu_day_hour!V22)</f>
         <v/>
       </c>
-      <c r="Y28" s="9" t="str">
+      <c r="Y28" s="16" t="str">
         <f>IF(_tuoliu_day_hour!W22="","",_tuoliu_day_hour!W22)</f>
         <v/>
       </c>
-      <c r="Z28" s="9" t="str">
+      <c r="Z28" s="16" t="str">
         <f>IF(_tuoliu_day_hour!X22="","",_tuoliu_day_hour!X22)</f>
         <v/>
       </c>
-      <c r="AA28" s="9" t="str">
+      <c r="AA28" s="16" t="str">
         <f>IF(_tuoliu_day_hour!Y22="","",_tuoliu_day_hour!Y22)</f>
         <v/>
       </c>
-      <c r="AB28" s="9" t="str">
+      <c r="AB28" s="16" t="str">
         <f>IF(_tuoliu_day_hour!Z22="","",_tuoliu_day_hour!Z22)</f>
         <v/>
       </c>
-      <c r="AC28" s="9" t="str">
+      <c r="AC28" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AA22="","",_tuoliu_day_hour!AA22)</f>
         <v/>
       </c>
-      <c r="AD28" s="9" t="str">
+      <c r="AD28" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AB22="","",_tuoliu_day_hour!AB22)</f>
         <v/>
       </c>
-      <c r="AE28" s="9" t="str">
+      <c r="AE28" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AC22="","",_tuoliu_day_hour!AC22)</f>
         <v/>
       </c>
-      <c r="AF28" s="9" t="str">
+      <c r="AF28" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AD22="","",_tuoliu_day_hour!AD22)</f>
         <v/>
       </c>
-      <c r="AG28" s="9" t="str">
+      <c r="AG28" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AE22="","",_tuoliu_day_hour!AE22)</f>
         <v/>
       </c>
-      <c r="AH28" s="9" t="str">
+      <c r="AH28" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AF22="","",_tuoliu_day_hour!AF22)</f>
         <v/>
       </c>
-      <c r="AI28" s="9" t="str">
+      <c r="AI28" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AG22="","",_tuoliu_day_hour!AG22)</f>
         <v/>
       </c>
-      <c r="AJ28" s="9" t="str">
+      <c r="AJ28" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AH22="","",_tuoliu_day_hour!AH22)</f>
         <v/>
       </c>
-      <c r="AK28" s="9" t="str">
+      <c r="AK28" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AI22="","",_tuoliu_day_hour!AI22)</f>
         <v/>
       </c>
-      <c r="AL28" s="9" t="str">
+      <c r="AL28" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AJ22="","",_tuoliu_day_hour!AJ22)</f>
         <v/>
       </c>
-      <c r="AM28" s="9" t="str">
+      <c r="AM28" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AK22="","",_tuoliu_day_hour!AK22)</f>
         <v/>
       </c>
-      <c r="AN28" s="9" t="str">
+      <c r="AN28" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AL22="","",_tuoliu_day_hour!AL22)</f>
         <v/>
       </c>
-      <c r="AO28" s="9" t="str">
+      <c r="AO28" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AM22="","",_tuoliu_day_hour!AM22)</f>
         <v/>
       </c>
-      <c r="AP28" s="9" t="str">
+      <c r="AP28" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AN22="","",_tuoliu_day_hour!AN22)</f>
         <v/>
       </c>
-      <c r="AQ28" s="9" t="str">
+      <c r="AQ28" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AO22="","",_tuoliu_day_hour!AO22)</f>
         <v/>
       </c>
-      <c r="AR28" s="9" t="str">
+      <c r="AR28" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AP22="","",_tuoliu_day_hour!AP22)</f>
         <v/>
       </c>
-      <c r="AS28" s="9" t="str">
+      <c r="AS28" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AQ22="","",_tuoliu_day_hour!AQ22)</f>
         <v/>
       </c>
-      <c r="AT28" s="9" t="str">
+      <c r="AT28" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AR22="","",_tuoliu_day_hour!AR22)</f>
         <v/>
       </c>
-      <c r="AU28" s="9" t="str">
+      <c r="AU28" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AS22="","",_tuoliu_day_hour!AS22)</f>
         <v/>
       </c>
-      <c r="AV28" s="9" t="str">
+      <c r="AV28" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AT22="","",_tuoliu_day_hour!AT22)</f>
         <v/>
       </c>
-      <c r="AW28" s="9" t="str">
+      <c r="AW28" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AU22="","",_tuoliu_day_hour!AU22)</f>
         <v/>
       </c>
-      <c r="AX28" s="9" t="str">
+      <c r="AX28" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AV22="","",_tuoliu_day_hour!AV22)</f>
         <v/>
       </c>
-      <c r="AY28" s="14" t="str">
+      <c r="AY28" s="50" t="str">
         <f>IF(_tuoliu_day_hour!AW22="","",_tuoliu_day_hour!AW22)</f>
         <v/>
       </c>
-      <c r="AZ28" s="18"/>
-      <c r="BA28" s="9"/>
-      <c r="BB28" s="9"/>
-      <c r="BC28" s="9"/>
-      <c r="BD28" s="12"/>
+      <c r="AZ28" s="54"/>
+      <c r="BA28" s="16"/>
+      <c r="BB28" s="16"/>
+      <c r="BC28" s="16"/>
+      <c r="BD28" s="48"/>
     </row>
-    <row r="29" spans="2:56" x14ac:dyDescent="0.15">
-      <c r="B29" s="8">
+    <row r="29" spans="2:56">
+      <c r="B29" s="15">
         <v>0.875</v>
       </c>
-      <c r="C29" s="9" t="str">
+      <c r="C29" s="16" t="str">
         <f>IF(_tuoliu_day_hour!A23="","",_tuoliu_day_hour!A23)</f>
         <v/>
       </c>
-      <c r="D29" s="9" t="str">
+      <c r="D29" s="16" t="str">
         <f>IF(_tuoliu_day_hour!B23="","",_tuoliu_day_hour!B23)</f>
         <v/>
       </c>
-      <c r="E29" s="9" t="str">
+      <c r="E29" s="16" t="str">
         <f>IF(_tuoliu_day_hour!C23="","",_tuoliu_day_hour!C23)</f>
         <v/>
       </c>
-      <c r="F29" s="9" t="str">
+      <c r="F29" s="16" t="str">
         <f>IF(_tuoliu_day_hour!D23="","",_tuoliu_day_hour!D23)</f>
         <v/>
       </c>
-      <c r="G29" s="9" t="str">
+      <c r="G29" s="16" t="str">
         <f>IF(_tuoliu_day_hour!E23="","",_tuoliu_day_hour!E23)</f>
         <v/>
       </c>
-      <c r="H29" s="9" t="str">
+      <c r="H29" s="16" t="str">
         <f>IF(_tuoliu_day_hour!F23="","",_tuoliu_day_hour!F23)</f>
         <v/>
       </c>
-      <c r="I29" s="9" t="str">
+      <c r="I29" s="16" t="str">
         <f>IF(_tuoliu_day_hour!G23="","",_tuoliu_day_hour!G23)</f>
         <v/>
       </c>
-      <c r="J29" s="9" t="str">
+      <c r="J29" s="16" t="str">
         <f>IF(_tuoliu_day_hour!H23="","",_tuoliu_day_hour!H23)</f>
         <v/>
       </c>
-      <c r="K29" s="9" t="str">
+      <c r="K29" s="16" t="str">
         <f>IF(_tuoliu_day_hour!I23="","",_tuoliu_day_hour!I23)</f>
         <v/>
       </c>
-      <c r="L29" s="9" t="str">
+      <c r="L29" s="16" t="str">
         <f>IF(_tuoliu_day_hour!J23="","",_tuoliu_day_hour!J23)</f>
         <v/>
       </c>
-      <c r="M29" s="9" t="str">
+      <c r="M29" s="16" t="str">
         <f>IF(_tuoliu_day_hour!K23="","",_tuoliu_day_hour!K23)</f>
         <v/>
       </c>
-      <c r="N29" s="9" t="str">
+      <c r="N29" s="16" t="str">
         <f>IF(_tuoliu_day_hour!L23="","",_tuoliu_day_hour!L23)</f>
         <v/>
       </c>
-      <c r="O29" s="9" t="str">
+      <c r="O29" s="16" t="str">
         <f>IF(_tuoliu_day_hour!M23="","",_tuoliu_day_hour!M23)</f>
         <v/>
       </c>
-      <c r="P29" s="9" t="str">
+      <c r="P29" s="16" t="str">
         <f>IF(_tuoliu_day_hour!N23="","",_tuoliu_day_hour!N23)</f>
         <v/>
       </c>
-      <c r="Q29" s="9" t="str">
+      <c r="Q29" s="16" t="str">
         <f>IF(_tuoliu_day_hour!O23="","",_tuoliu_day_hour!O23)</f>
         <v/>
       </c>
-      <c r="R29" s="9" t="str">
+      <c r="R29" s="16" t="str">
         <f>IF(_tuoliu_day_hour!P23="","",_tuoliu_day_hour!P23)</f>
         <v/>
       </c>
-      <c r="S29" s="9" t="str">
+      <c r="S29" s="16" t="str">
         <f>IF(_tuoliu_day_hour!Q23="","",_tuoliu_day_hour!Q23)</f>
         <v/>
       </c>
-      <c r="T29" s="9" t="str">
+      <c r="T29" s="16" t="str">
         <f>IF(_tuoliu_day_hour!R23="","",_tuoliu_day_hour!R23)</f>
         <v/>
       </c>
-      <c r="U29" s="9" t="str">
+      <c r="U29" s="16" t="str">
         <f>IF(_tuoliu_day_hour!S23="","",_tuoliu_day_hour!S23)</f>
         <v/>
       </c>
-      <c r="V29" s="9" t="str">
+      <c r="V29" s="16" t="str">
         <f>IF(_tuoliu_day_hour!T23="","",_tuoliu_day_hour!T23)</f>
         <v/>
       </c>
-      <c r="W29" s="9" t="str">
+      <c r="W29" s="16" t="str">
         <f>IF(_tuoliu_day_hour!U23="","",_tuoliu_day_hour!U23)</f>
         <v/>
       </c>
-      <c r="X29" s="9" t="str">
+      <c r="X29" s="16" t="str">
         <f>IF(_tuoliu_day_hour!V23="","",_tuoliu_day_hour!V23)</f>
         <v/>
       </c>
-      <c r="Y29" s="9" t="str">
+      <c r="Y29" s="16" t="str">
         <f>IF(_tuoliu_day_hour!W23="","",_tuoliu_day_hour!W23)</f>
         <v/>
       </c>
-      <c r="Z29" s="9" t="str">
+      <c r="Z29" s="16" t="str">
         <f>IF(_tuoliu_day_hour!X23="","",_tuoliu_day_hour!X23)</f>
         <v/>
       </c>
-      <c r="AA29" s="9" t="str">
+      <c r="AA29" s="16" t="str">
         <f>IF(_tuoliu_day_hour!Y23="","",_tuoliu_day_hour!Y23)</f>
         <v/>
       </c>
-      <c r="AB29" s="9" t="str">
+      <c r="AB29" s="16" t="str">
         <f>IF(_tuoliu_day_hour!Z23="","",_tuoliu_day_hour!Z23)</f>
         <v/>
       </c>
-      <c r="AC29" s="9" t="str">
+      <c r="AC29" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AA23="","",_tuoliu_day_hour!AA23)</f>
         <v/>
       </c>
-      <c r="AD29" s="9" t="str">
+      <c r="AD29" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AB23="","",_tuoliu_day_hour!AB23)</f>
         <v/>
       </c>
-      <c r="AE29" s="9" t="str">
+      <c r="AE29" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AC23="","",_tuoliu_day_hour!AC23)</f>
         <v/>
       </c>
-      <c r="AF29" s="9" t="str">
+      <c r="AF29" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AD23="","",_tuoliu_day_hour!AD23)</f>
         <v/>
       </c>
-      <c r="AG29" s="9" t="str">
+      <c r="AG29" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AE23="","",_tuoliu_day_hour!AE23)</f>
         <v/>
       </c>
-      <c r="AH29" s="9" t="str">
+      <c r="AH29" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AF23="","",_tuoliu_day_hour!AF23)</f>
         <v/>
       </c>
-      <c r="AI29" s="9" t="str">
+      <c r="AI29" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AG23="","",_tuoliu_day_hour!AG23)</f>
         <v/>
       </c>
-      <c r="AJ29" s="9" t="str">
+      <c r="AJ29" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AH23="","",_tuoliu_day_hour!AH23)</f>
         <v/>
       </c>
-      <c r="AK29" s="9" t="str">
+      <c r="AK29" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AI23="","",_tuoliu_day_hour!AI23)</f>
         <v/>
       </c>
-      <c r="AL29" s="9" t="str">
+      <c r="AL29" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AJ23="","",_tuoliu_day_hour!AJ23)</f>
         <v/>
       </c>
-      <c r="AM29" s="9" t="str">
+      <c r="AM29" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AK23="","",_tuoliu_day_hour!AK23)</f>
         <v/>
       </c>
-      <c r="AN29" s="9" t="str">
+      <c r="AN29" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AL23="","",_tuoliu_day_hour!AL23)</f>
         <v/>
       </c>
-      <c r="AO29" s="9" t="str">
+      <c r="AO29" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AM23="","",_tuoliu_day_hour!AM23)</f>
         <v/>
       </c>
-      <c r="AP29" s="9" t="str">
+      <c r="AP29" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AN23="","",_tuoliu_day_hour!AN23)</f>
         <v/>
       </c>
-      <c r="AQ29" s="9" t="str">
+      <c r="AQ29" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AO23="","",_tuoliu_day_hour!AO23)</f>
         <v/>
       </c>
-      <c r="AR29" s="9" t="str">
+      <c r="AR29" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AP23="","",_tuoliu_day_hour!AP23)</f>
         <v/>
       </c>
-      <c r="AS29" s="9" t="str">
+      <c r="AS29" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AQ23="","",_tuoliu_day_hour!AQ23)</f>
         <v/>
       </c>
-      <c r="AT29" s="9" t="str">
+      <c r="AT29" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AR23="","",_tuoliu_day_hour!AR23)</f>
         <v/>
       </c>
-      <c r="AU29" s="9" t="str">
+      <c r="AU29" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AS23="","",_tuoliu_day_hour!AS23)</f>
         <v/>
       </c>
-      <c r="AV29" s="9" t="str">
+      <c r="AV29" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AT23="","",_tuoliu_day_hour!AT23)</f>
         <v/>
       </c>
-      <c r="AW29" s="9" t="str">
+      <c r="AW29" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AU23="","",_tuoliu_day_hour!AU23)</f>
         <v/>
       </c>
-      <c r="AX29" s="9" t="str">
+      <c r="AX29" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AV23="","",_tuoliu_day_hour!AV23)</f>
         <v/>
       </c>
-      <c r="AY29" s="14" t="str">
+      <c r="AY29" s="50" t="str">
         <f>IF(_tuoliu_day_hour!AW23="","",_tuoliu_day_hour!AW23)</f>
         <v/>
       </c>
-      <c r="AZ29" s="18"/>
-      <c r="BA29" s="9"/>
-      <c r="BB29" s="9"/>
-      <c r="BC29" s="9"/>
-      <c r="BD29" s="12"/>
+      <c r="AZ29" s="54"/>
+      <c r="BA29" s="16"/>
+      <c r="BB29" s="16"/>
+      <c r="BC29" s="16"/>
+      <c r="BD29" s="48"/>
     </row>
-    <row r="30" spans="2:56" x14ac:dyDescent="0.15">
-      <c r="B30" s="8">
-        <v>0.91666666666666696</v>
-      </c>
-      <c r="C30" s="9" t="str">
+    <row r="30" spans="2:56">
+      <c r="B30" s="15">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="C30" s="16" t="str">
         <f>IF(_tuoliu_day_hour!A24="","",_tuoliu_day_hour!A24)</f>
         <v/>
       </c>
-      <c r="D30" s="9" t="str">
+      <c r="D30" s="16" t="str">
         <f>IF(_tuoliu_day_hour!B24="","",_tuoliu_day_hour!B24)</f>
         <v/>
       </c>
-      <c r="E30" s="9" t="str">
+      <c r="E30" s="16" t="str">
         <f>IF(_tuoliu_day_hour!C24="","",_tuoliu_day_hour!C24)</f>
         <v/>
       </c>
-      <c r="F30" s="9" t="str">
+      <c r="F30" s="16" t="str">
         <f>IF(_tuoliu_day_hour!D24="","",_tuoliu_day_hour!D24)</f>
         <v/>
       </c>
-      <c r="G30" s="9" t="str">
+      <c r="G30" s="16" t="str">
         <f>IF(_tuoliu_day_hour!E24="","",_tuoliu_day_hour!E24)</f>
         <v/>
       </c>
-      <c r="H30" s="9" t="str">
+      <c r="H30" s="16" t="str">
         <f>IF(_tuoliu_day_hour!F24="","",_tuoliu_day_hour!F24)</f>
         <v/>
       </c>
-      <c r="I30" s="9" t="str">
+      <c r="I30" s="16" t="str">
         <f>IF(_tuoliu_day_hour!G24="","",_tuoliu_day_hour!G24)</f>
         <v/>
       </c>
-      <c r="J30" s="9" t="str">
+      <c r="J30" s="16" t="str">
         <f>IF(_tuoliu_day_hour!H24="","",_tuoliu_day_hour!H24)</f>
         <v/>
       </c>
-      <c r="K30" s="9" t="str">
+      <c r="K30" s="16" t="str">
         <f>IF(_tuoliu_day_hour!I24="","",_tuoliu_day_hour!I24)</f>
         <v/>
       </c>
-      <c r="L30" s="9" t="str">
+      <c r="L30" s="16" t="str">
         <f>IF(_tuoliu_day_hour!J24="","",_tuoliu_day_hour!J24)</f>
         <v/>
       </c>
-      <c r="M30" s="9" t="str">
+      <c r="M30" s="16" t="str">
         <f>IF(_tuoliu_day_hour!K24="","",_tuoliu_day_hour!K24)</f>
         <v/>
       </c>
-      <c r="N30" s="9" t="str">
+      <c r="N30" s="16" t="str">
         <f>IF(_tuoliu_day_hour!L24="","",_tuoliu_day_hour!L24)</f>
         <v/>
       </c>
-      <c r="O30" s="9" t="str">
+      <c r="O30" s="16" t="str">
         <f>IF(_tuoliu_day_hour!M24="","",_tuoliu_day_hour!M24)</f>
         <v/>
       </c>
-      <c r="P30" s="9" t="str">
+      <c r="P30" s="16" t="str">
         <f>IF(_tuoliu_day_hour!N24="","",_tuoliu_day_hour!N24)</f>
         <v/>
       </c>
-      <c r="Q30" s="9" t="str">
+      <c r="Q30" s="16" t="str">
         <f>IF(_tuoliu_day_hour!O24="","",_tuoliu_day_hour!O24)</f>
         <v/>
       </c>
-      <c r="R30" s="9" t="str">
+      <c r="R30" s="16" t="str">
         <f>IF(_tuoliu_day_hour!P24="","",_tuoliu_day_hour!P24)</f>
         <v/>
       </c>
-      <c r="S30" s="9" t="str">
+      <c r="S30" s="16" t="str">
         <f>IF(_tuoliu_day_hour!Q24="","",_tuoliu_day_hour!Q24)</f>
         <v/>
       </c>
-      <c r="T30" s="9" t="str">
+      <c r="T30" s="16" t="str">
         <f>IF(_tuoliu_day_hour!R24="","",_tuoliu_day_hour!R24)</f>
         <v/>
       </c>
-      <c r="U30" s="9" t="str">
+      <c r="U30" s="16" t="str">
         <f>IF(_tuoliu_day_hour!S24="","",_tuoliu_day_hour!S24)</f>
         <v/>
       </c>
-      <c r="V30" s="9" t="str">
+      <c r="V30" s="16" t="str">
         <f>IF(_tuoliu_day_hour!T24="","",_tuoliu_day_hour!T24)</f>
         <v/>
       </c>
-      <c r="W30" s="9" t="str">
+      <c r="W30" s="16" t="str">
         <f>IF(_tuoliu_day_hour!U24="","",_tuoliu_day_hour!U24)</f>
         <v/>
       </c>
-      <c r="X30" s="9" t="str">
+      <c r="X30" s="16" t="str">
         <f>IF(_tuoliu_day_hour!V24="","",_tuoliu_day_hour!V24)</f>
         <v/>
       </c>
-      <c r="Y30" s="9" t="str">
+      <c r="Y30" s="16" t="str">
         <f>IF(_tuoliu_day_hour!W24="","",_tuoliu_day_hour!W24)</f>
         <v/>
       </c>
-      <c r="Z30" s="9" t="str">
+      <c r="Z30" s="16" t="str">
         <f>IF(_tuoliu_day_hour!X24="","",_tuoliu_day_hour!X24)</f>
         <v/>
       </c>
-      <c r="AA30" s="9" t="str">
+      <c r="AA30" s="16" t="str">
         <f>IF(_tuoliu_day_hour!Y24="","",_tuoliu_day_hour!Y24)</f>
         <v/>
       </c>
-      <c r="AB30" s="9" t="str">
+      <c r="AB30" s="16" t="str">
         <f>IF(_tuoliu_day_hour!Z24="","",_tuoliu_day_hour!Z24)</f>
         <v/>
       </c>
-      <c r="AC30" s="9" t="str">
+      <c r="AC30" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AA24="","",_tuoliu_day_hour!AA24)</f>
         <v/>
       </c>
-      <c r="AD30" s="9" t="str">
+      <c r="AD30" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AB24="","",_tuoliu_day_hour!AB24)</f>
         <v/>
       </c>
-      <c r="AE30" s="9" t="str">
+      <c r="AE30" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AC24="","",_tuoliu_day_hour!AC24)</f>
         <v/>
       </c>
-      <c r="AF30" s="9" t="str">
+      <c r="AF30" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AD24="","",_tuoliu_day_hour!AD24)</f>
         <v/>
       </c>
-      <c r="AG30" s="9" t="str">
+      <c r="AG30" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AE24="","",_tuoliu_day_hour!AE24)</f>
         <v/>
       </c>
-      <c r="AH30" s="9" t="str">
+      <c r="AH30" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AF24="","",_tuoliu_day_hour!AF24)</f>
         <v/>
       </c>
-      <c r="AI30" s="9" t="str">
+      <c r="AI30" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AG24="","",_tuoliu_day_hour!AG24)</f>
         <v/>
       </c>
-      <c r="AJ30" s="9" t="str">
+      <c r="AJ30" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AH24="","",_tuoliu_day_hour!AH24)</f>
         <v/>
       </c>
-      <c r="AK30" s="9" t="str">
+      <c r="AK30" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AI24="","",_tuoliu_day_hour!AI24)</f>
         <v/>
       </c>
-      <c r="AL30" s="9" t="str">
+      <c r="AL30" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AJ24="","",_tuoliu_day_hour!AJ24)</f>
         <v/>
       </c>
-      <c r="AM30" s="9" t="str">
+      <c r="AM30" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AK24="","",_tuoliu_day_hour!AK24)</f>
         <v/>
       </c>
-      <c r="AN30" s="9" t="str">
+      <c r="AN30" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AL24="","",_tuoliu_day_hour!AL24)</f>
         <v/>
       </c>
-      <c r="AO30" s="9" t="str">
+      <c r="AO30" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AM24="","",_tuoliu_day_hour!AM24)</f>
         <v/>
       </c>
-      <c r="AP30" s="9" t="str">
+      <c r="AP30" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AN24="","",_tuoliu_day_hour!AN24)</f>
         <v/>
       </c>
-      <c r="AQ30" s="9" t="str">
+      <c r="AQ30" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AO24="","",_tuoliu_day_hour!AO24)</f>
         <v/>
       </c>
-      <c r="AR30" s="9" t="str">
+      <c r="AR30" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AP24="","",_tuoliu_day_hour!AP24)</f>
         <v/>
       </c>
-      <c r="AS30" s="9" t="str">
+      <c r="AS30" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AQ24="","",_tuoliu_day_hour!AQ24)</f>
         <v/>
       </c>
-      <c r="AT30" s="9" t="str">
+      <c r="AT30" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AR24="","",_tuoliu_day_hour!AR24)</f>
         <v/>
       </c>
-      <c r="AU30" s="9" t="str">
+      <c r="AU30" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AS24="","",_tuoliu_day_hour!AS24)</f>
         <v/>
       </c>
-      <c r="AV30" s="9" t="str">
+      <c r="AV30" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AT24="","",_tuoliu_day_hour!AT24)</f>
         <v/>
       </c>
-      <c r="AW30" s="9" t="str">
+      <c r="AW30" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AU24="","",_tuoliu_day_hour!AU24)</f>
         <v/>
       </c>
-      <c r="AX30" s="9" t="str">
+      <c r="AX30" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AV24="","",_tuoliu_day_hour!AV24)</f>
         <v/>
       </c>
-      <c r="AY30" s="14" t="str">
+      <c r="AY30" s="50" t="str">
         <f>IF(_tuoliu_day_hour!AW24="","",_tuoliu_day_hour!AW24)</f>
         <v/>
       </c>
-      <c r="AZ30" s="18"/>
-      <c r="BA30" s="9"/>
-      <c r="BB30" s="9"/>
-      <c r="BC30" s="9"/>
-      <c r="BD30" s="12"/>
+      <c r="AZ30" s="54"/>
+      <c r="BA30" s="16"/>
+      <c r="BB30" s="16"/>
+      <c r="BC30" s="16"/>
+      <c r="BD30" s="48"/>
     </row>
-    <row r="31" spans="2:56" x14ac:dyDescent="0.15">
-      <c r="B31" s="8">
-        <v>0.95833333333333304</v>
-      </c>
-      <c r="C31" s="9" t="str">
+    <row r="31" spans="2:56">
+      <c r="B31" s="15">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="C31" s="16" t="str">
         <f>IF(_tuoliu_day_hour!A25="","",_tuoliu_day_hour!A25)</f>
         <v/>
       </c>
-      <c r="D31" s="9" t="str">
+      <c r="D31" s="16" t="str">
         <f>IF(_tuoliu_day_hour!B25="","",_tuoliu_day_hour!B25)</f>
         <v/>
       </c>
-      <c r="E31" s="9" t="str">
+      <c r="E31" s="16" t="str">
         <f>IF(_tuoliu_day_hour!C25="","",_tuoliu_day_hour!C25)</f>
         <v/>
       </c>
-      <c r="F31" s="9" t="str">
+      <c r="F31" s="16" t="str">
         <f>IF(_tuoliu_day_hour!D25="","",_tuoliu_day_hour!D25)</f>
         <v/>
       </c>
-      <c r="G31" s="9" t="str">
+      <c r="G31" s="16" t="str">
         <f>IF(_tuoliu_day_hour!E25="","",_tuoliu_day_hour!E25)</f>
         <v/>
       </c>
-      <c r="H31" s="9" t="str">
+      <c r="H31" s="16" t="str">
         <f>IF(_tuoliu_day_hour!F25="","",_tuoliu_day_hour!F25)</f>
         <v/>
       </c>
-      <c r="I31" s="9" t="str">
+      <c r="I31" s="16" t="str">
         <f>IF(_tuoliu_day_hour!G25="","",_tuoliu_day_hour!G25)</f>
         <v/>
       </c>
-      <c r="J31" s="9" t="str">
+      <c r="J31" s="16" t="str">
         <f>IF(_tuoliu_day_hour!H25="","",_tuoliu_day_hour!H25)</f>
         <v/>
       </c>
-      <c r="K31" s="9" t="str">
+      <c r="K31" s="16" t="str">
         <f>IF(_tuoliu_day_hour!I25="","",_tuoliu_day_hour!I25)</f>
         <v/>
       </c>
-      <c r="L31" s="9" t="str">
+      <c r="L31" s="16" t="str">
         <f>IF(_tuoliu_day_hour!J25="","",_tuoliu_day_hour!J25)</f>
         <v/>
       </c>
-      <c r="M31" s="9" t="str">
+      <c r="M31" s="16" t="str">
         <f>IF(_tuoliu_day_hour!K25="","",_tuoliu_day_hour!K25)</f>
         <v/>
       </c>
-      <c r="N31" s="9" t="str">
+      <c r="N31" s="16" t="str">
         <f>IF(_tuoliu_day_hour!L25="","",_tuoliu_day_hour!L25)</f>
         <v/>
       </c>
-      <c r="O31" s="9" t="str">
+      <c r="O31" s="16" t="str">
         <f>IF(_tuoliu_day_hour!M25="","",_tuoliu_day_hour!M25)</f>
         <v/>
       </c>
-      <c r="P31" s="9" t="str">
+      <c r="P31" s="16" t="str">
         <f>IF(_tuoliu_day_hour!N25="","",_tuoliu_day_hour!N25)</f>
         <v/>
       </c>
-      <c r="Q31" s="9" t="str">
+      <c r="Q31" s="16" t="str">
         <f>IF(_tuoliu_day_hour!O25="","",_tuoliu_day_hour!O25)</f>
         <v/>
       </c>
-      <c r="R31" s="9" t="str">
+      <c r="R31" s="16" t="str">
         <f>IF(_tuoliu_day_hour!P25="","",_tuoliu_day_hour!P25)</f>
         <v/>
       </c>
-      <c r="S31" s="9" t="str">
+      <c r="S31" s="16" t="str">
         <f>IF(_tuoliu_day_hour!Q25="","",_tuoliu_day_hour!Q25)</f>
         <v/>
       </c>
-      <c r="T31" s="9" t="str">
+      <c r="T31" s="16" t="str">
         <f>IF(_tuoliu_day_hour!R25="","",_tuoliu_day_hour!R25)</f>
         <v/>
       </c>
-      <c r="U31" s="9" t="str">
+      <c r="U31" s="16" t="str">
         <f>IF(_tuoliu_day_hour!S25="","",_tuoliu_day_hour!S25)</f>
         <v/>
       </c>
-      <c r="V31" s="9" t="str">
+      <c r="V31" s="16" t="str">
         <f>IF(_tuoliu_day_hour!T25="","",_tuoliu_day_hour!T25)</f>
         <v/>
       </c>
-      <c r="W31" s="9" t="str">
+      <c r="W31" s="16" t="str">
         <f>IF(_tuoliu_day_hour!U25="","",_tuoliu_day_hour!U25)</f>
         <v/>
       </c>
-      <c r="X31" s="9" t="str">
+      <c r="X31" s="16" t="str">
         <f>IF(_tuoliu_day_hour!V25="","",_tuoliu_day_hour!V25)</f>
         <v/>
       </c>
-      <c r="Y31" s="9" t="str">
+      <c r="Y31" s="16" t="str">
         <f>IF(_tuoliu_day_hour!W25="","",_tuoliu_day_hour!W25)</f>
         <v/>
       </c>
-      <c r="Z31" s="9" t="str">
+      <c r="Z31" s="16" t="str">
         <f>IF(_tuoliu_day_hour!X25="","",_tuoliu_day_hour!X25)</f>
         <v/>
       </c>
-      <c r="AA31" s="9" t="str">
+      <c r="AA31" s="16" t="str">
         <f>IF(_tuoliu_day_hour!Y25="","",_tuoliu_day_hour!Y25)</f>
         <v/>
       </c>
-      <c r="AB31" s="9" t="str">
+      <c r="AB31" s="16" t="str">
         <f>IF(_tuoliu_day_hour!Z25="","",_tuoliu_day_hour!Z25)</f>
         <v/>
       </c>
-      <c r="AC31" s="9" t="str">
+      <c r="AC31" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AA25="","",_tuoliu_day_hour!AA25)</f>
         <v/>
       </c>
-      <c r="AD31" s="9" t="str">
+      <c r="AD31" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AB25="","",_tuoliu_day_hour!AB25)</f>
         <v/>
       </c>
-      <c r="AE31" s="9" t="str">
+      <c r="AE31" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AC25="","",_tuoliu_day_hour!AC25)</f>
         <v/>
       </c>
-      <c r="AF31" s="9" t="str">
+      <c r="AF31" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AD25="","",_tuoliu_day_hour!AD25)</f>
         <v/>
       </c>
-      <c r="AG31" s="9" t="str">
+      <c r="AG31" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AE25="","",_tuoliu_day_hour!AE25)</f>
         <v/>
       </c>
-      <c r="AH31" s="9" t="str">
+      <c r="AH31" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AF25="","",_tuoliu_day_hour!AF25)</f>
         <v/>
       </c>
-      <c r="AI31" s="9" t="str">
+      <c r="AI31" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AG25="","",_tuoliu_day_hour!AG25)</f>
         <v/>
       </c>
-      <c r="AJ31" s="9" t="str">
+      <c r="AJ31" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AH25="","",_tuoliu_day_hour!AH25)</f>
         <v/>
       </c>
-      <c r="AK31" s="9" t="str">
+      <c r="AK31" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AI25="","",_tuoliu_day_hour!AI25)</f>
         <v/>
       </c>
-      <c r="AL31" s="9" t="str">
+      <c r="AL31" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AJ25="","",_tuoliu_day_hour!AJ25)</f>
         <v/>
       </c>
-      <c r="AM31" s="9" t="str">
+      <c r="AM31" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AK25="","",_tuoliu_day_hour!AK25)</f>
         <v/>
       </c>
-      <c r="AN31" s="9" t="str">
+      <c r="AN31" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AL25="","",_tuoliu_day_hour!AL25)</f>
         <v/>
       </c>
-      <c r="AO31" s="9" t="str">
+      <c r="AO31" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AM25="","",_tuoliu_day_hour!AM25)</f>
         <v/>
       </c>
-      <c r="AP31" s="9" t="str">
+      <c r="AP31" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AN25="","",_tuoliu_day_hour!AN25)</f>
         <v/>
       </c>
-      <c r="AQ31" s="9" t="str">
+      <c r="AQ31" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AO25="","",_tuoliu_day_hour!AO25)</f>
         <v/>
       </c>
-      <c r="AR31" s="9" t="str">
+      <c r="AR31" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AP25="","",_tuoliu_day_hour!AP25)</f>
         <v/>
       </c>
-      <c r="AS31" s="9" t="str">
+      <c r="AS31" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AQ25="","",_tuoliu_day_hour!AQ25)</f>
         <v/>
       </c>
-      <c r="AT31" s="9" t="str">
+      <c r="AT31" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AR25="","",_tuoliu_day_hour!AR25)</f>
         <v/>
       </c>
-      <c r="AU31" s="9" t="str">
+      <c r="AU31" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AS25="","",_tuoliu_day_hour!AS25)</f>
         <v/>
       </c>
-      <c r="AV31" s="9" t="str">
+      <c r="AV31" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AT25="","",_tuoliu_day_hour!AT25)</f>
         <v/>
       </c>
-      <c r="AW31" s="9" t="str">
+      <c r="AW31" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AU25="","",_tuoliu_day_hour!AU25)</f>
         <v/>
       </c>
-      <c r="AX31" s="9" t="str">
+      <c r="AX31" s="16" t="str">
         <f>IF(_tuoliu_day_hour!AV25="","",_tuoliu_day_hour!AV25)</f>
         <v/>
       </c>
-      <c r="AY31" s="14" t="str">
+      <c r="AY31" s="50" t="str">
         <f>IF(_tuoliu_day_hour!AW25="","",_tuoliu_day_hour!AW25)</f>
         <v/>
       </c>
-      <c r="AZ31" s="18"/>
-      <c r="BA31" s="9"/>
-      <c r="BB31" s="9"/>
-      <c r="BC31" s="9"/>
-      <c r="BD31" s="12"/>
+      <c r="AZ31" s="54"/>
+      <c r="BA31" s="16"/>
+      <c r="BB31" s="16"/>
+      <c r="BC31" s="16"/>
+      <c r="BD31" s="48"/>
     </row>
-    <row r="32" spans="2:56" x14ac:dyDescent="0.15">
-      <c r="B32" s="10" t="s">
+    <row r="32" spans="2:56">
+      <c r="B32" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="9"/>
-      <c r="T32" s="9"/>
-      <c r="U32" s="9"/>
-      <c r="V32" s="9"/>
-      <c r="W32" s="9"/>
-      <c r="X32" s="9"/>
-      <c r="Y32" s="9"/>
-      <c r="Z32" s="9"/>
-      <c r="AA32" s="9"/>
-      <c r="AB32" s="9"/>
-      <c r="AC32" s="9"/>
-      <c r="AD32" s="9"/>
-      <c r="AE32" s="9"/>
-      <c r="AF32" s="9"/>
-      <c r="AG32" s="9"/>
-      <c r="AH32" s="9"/>
-      <c r="AI32" s="9"/>
-      <c r="AJ32" s="9"/>
-      <c r="AK32" s="9"/>
-      <c r="AL32" s="9"/>
-      <c r="AM32" s="9"/>
-      <c r="AN32" s="9"/>
-      <c r="AO32" s="9"/>
-      <c r="AP32" s="9"/>
-      <c r="AQ32" s="9"/>
-      <c r="AR32" s="9"/>
-      <c r="AS32" s="9"/>
-      <c r="AT32" s="9"/>
-      <c r="AU32" s="9"/>
-      <c r="AV32" s="9"/>
-      <c r="AW32" s="9"/>
-      <c r="AX32" s="9"/>
-      <c r="AY32" s="14"/>
-      <c r="AZ32" s="18"/>
-      <c r="BA32" s="9"/>
-      <c r="BB32" s="9"/>
-      <c r="BC32" s="9"/>
-      <c r="BD32" s="12"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="16"/>
+      <c r="U32" s="16"/>
+      <c r="V32" s="16"/>
+      <c r="W32" s="16"/>
+      <c r="X32" s="16"/>
+      <c r="Y32" s="16"/>
+      <c r="Z32" s="16"/>
+      <c r="AA32" s="16"/>
+      <c r="AB32" s="16"/>
+      <c r="AC32" s="16"/>
+      <c r="AD32" s="16"/>
+      <c r="AE32" s="16"/>
+      <c r="AF32" s="16"/>
+      <c r="AG32" s="16"/>
+      <c r="AH32" s="16"/>
+      <c r="AI32" s="16"/>
+      <c r="AJ32" s="16"/>
+      <c r="AK32" s="16"/>
+      <c r="AL32" s="16"/>
+      <c r="AM32" s="16"/>
+      <c r="AN32" s="16"/>
+      <c r="AO32" s="16"/>
+      <c r="AP32" s="16"/>
+      <c r="AQ32" s="16"/>
+      <c r="AR32" s="16"/>
+      <c r="AS32" s="16"/>
+      <c r="AT32" s="16"/>
+      <c r="AU32" s="16"/>
+      <c r="AV32" s="16"/>
+      <c r="AW32" s="16"/>
+      <c r="AX32" s="16"/>
+      <c r="AY32" s="50"/>
+      <c r="AZ32" s="54"/>
+      <c r="BA32" s="16"/>
+      <c r="BB32" s="16"/>
+      <c r="BC32" s="16"/>
+      <c r="BD32" s="48"/>
     </row>
-    <row r="33" spans="2:56" x14ac:dyDescent="0.15">
-      <c r="B33" s="10" t="s">
+    <row r="33" spans="2:56">
+      <c r="B33" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="9"/>
-      <c r="S33" s="9"/>
-      <c r="T33" s="9"/>
-      <c r="U33" s="9"/>
-      <c r="V33" s="9"/>
-      <c r="W33" s="9"/>
-      <c r="X33" s="9"/>
-      <c r="Y33" s="9"/>
-      <c r="Z33" s="9"/>
-      <c r="AA33" s="9"/>
-      <c r="AB33" s="9"/>
-      <c r="AC33" s="9"/>
-      <c r="AD33" s="9"/>
-      <c r="AE33" s="9"/>
-      <c r="AF33" s="9"/>
-      <c r="AG33" s="9"/>
-      <c r="AH33" s="9"/>
-      <c r="AI33" s="9"/>
-      <c r="AJ33" s="9"/>
-      <c r="AK33" s="9"/>
-      <c r="AL33" s="9"/>
-      <c r="AM33" s="9"/>
-      <c r="AN33" s="9"/>
-      <c r="AO33" s="9"/>
-      <c r="AP33" s="9"/>
-      <c r="AQ33" s="9"/>
-      <c r="AR33" s="9"/>
-      <c r="AS33" s="9"/>
-      <c r="AT33" s="9"/>
-      <c r="AU33" s="9"/>
-      <c r="AV33" s="9"/>
-      <c r="AW33" s="9"/>
-      <c r="AX33" s="9"/>
-      <c r="AY33" s="14"/>
-      <c r="AZ33" s="18"/>
-      <c r="BA33" s="9"/>
-      <c r="BB33" s="9"/>
-      <c r="BC33" s="9"/>
-      <c r="BD33" s="12"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="16"/>
+      <c r="U33" s="16"/>
+      <c r="V33" s="16"/>
+      <c r="W33" s="16"/>
+      <c r="X33" s="16"/>
+      <c r="Y33" s="16"/>
+      <c r="Z33" s="16"/>
+      <c r="AA33" s="16"/>
+      <c r="AB33" s="16"/>
+      <c r="AC33" s="16"/>
+      <c r="AD33" s="16"/>
+      <c r="AE33" s="16"/>
+      <c r="AF33" s="16"/>
+      <c r="AG33" s="16"/>
+      <c r="AH33" s="16"/>
+      <c r="AI33" s="16"/>
+      <c r="AJ33" s="16"/>
+      <c r="AK33" s="16"/>
+      <c r="AL33" s="16"/>
+      <c r="AM33" s="16"/>
+      <c r="AN33" s="16"/>
+      <c r="AO33" s="16"/>
+      <c r="AP33" s="16"/>
+      <c r="AQ33" s="16"/>
+      <c r="AR33" s="16"/>
+      <c r="AS33" s="16"/>
+      <c r="AT33" s="16"/>
+      <c r="AU33" s="16"/>
+      <c r="AV33" s="16"/>
+      <c r="AW33" s="16"/>
+      <c r="AX33" s="16"/>
+      <c r="AY33" s="50"/>
+      <c r="AZ33" s="54"/>
+      <c r="BA33" s="16"/>
+      <c r="BB33" s="16"/>
+      <c r="BC33" s="16"/>
+      <c r="BD33" s="48"/>
     </row>
-    <row r="34" spans="2:56" x14ac:dyDescent="0.15">
-      <c r="B34" s="10" t="s">
+    <row r="34" spans="2:56">
+      <c r="B34" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="9"/>
-      <c r="T34" s="9"/>
-      <c r="U34" s="9"/>
-      <c r="V34" s="9"/>
-      <c r="W34" s="9"/>
-      <c r="X34" s="9"/>
-      <c r="Y34" s="9"/>
-      <c r="Z34" s="9"/>
-      <c r="AA34" s="9"/>
-      <c r="AB34" s="9"/>
-      <c r="AC34" s="9"/>
-      <c r="AD34" s="9"/>
-      <c r="AE34" s="9"/>
-      <c r="AF34" s="9"/>
-      <c r="AG34" s="9"/>
-      <c r="AH34" s="9"/>
-      <c r="AI34" s="9"/>
-      <c r="AJ34" s="9"/>
-      <c r="AK34" s="9"/>
-      <c r="AL34" s="9"/>
-      <c r="AM34" s="9"/>
-      <c r="AN34" s="9"/>
-      <c r="AO34" s="9"/>
-      <c r="AP34" s="9"/>
-      <c r="AQ34" s="9"/>
-      <c r="AR34" s="9"/>
-      <c r="AS34" s="9"/>
-      <c r="AT34" s="9"/>
-      <c r="AU34" s="9"/>
-      <c r="AV34" s="9"/>
-      <c r="AW34" s="9"/>
-      <c r="AX34" s="9"/>
-      <c r="AY34" s="14"/>
-      <c r="AZ34" s="18"/>
-      <c r="BA34" s="9"/>
-      <c r="BB34" s="9"/>
-      <c r="BC34" s="9"/>
-      <c r="BD34" s="12"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="16"/>
+      <c r="T34" s="16"/>
+      <c r="U34" s="16"/>
+      <c r="V34" s="16"/>
+      <c r="W34" s="16"/>
+      <c r="X34" s="16"/>
+      <c r="Y34" s="16"/>
+      <c r="Z34" s="16"/>
+      <c r="AA34" s="16"/>
+      <c r="AB34" s="16"/>
+      <c r="AC34" s="16"/>
+      <c r="AD34" s="16"/>
+      <c r="AE34" s="16"/>
+      <c r="AF34" s="16"/>
+      <c r="AG34" s="16"/>
+      <c r="AH34" s="16"/>
+      <c r="AI34" s="16"/>
+      <c r="AJ34" s="16"/>
+      <c r="AK34" s="16"/>
+      <c r="AL34" s="16"/>
+      <c r="AM34" s="16"/>
+      <c r="AN34" s="16"/>
+      <c r="AO34" s="16"/>
+      <c r="AP34" s="16"/>
+      <c r="AQ34" s="16"/>
+      <c r="AR34" s="16"/>
+      <c r="AS34" s="16"/>
+      <c r="AT34" s="16"/>
+      <c r="AU34" s="16"/>
+      <c r="AV34" s="16"/>
+      <c r="AW34" s="16"/>
+      <c r="AX34" s="16"/>
+      <c r="AY34" s="50"/>
+      <c r="AZ34" s="54"/>
+      <c r="BA34" s="16"/>
+      <c r="BB34" s="16"/>
+      <c r="BC34" s="16"/>
+      <c r="BD34" s="48"/>
     </row>
-    <row r="35" spans="2:56" x14ac:dyDescent="0.15">
-      <c r="B35" s="10" t="s">
+    <row r="35" spans="2:56">
+      <c r="B35" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="9"/>
-      <c r="S35" s="9"/>
-      <c r="T35" s="9"/>
-      <c r="U35" s="9"/>
-      <c r="V35" s="9"/>
-      <c r="W35" s="9"/>
-      <c r="X35" s="9"/>
-      <c r="Y35" s="9"/>
-      <c r="Z35" s="9"/>
-      <c r="AA35" s="9"/>
-      <c r="AB35" s="9"/>
-      <c r="AC35" s="9"/>
-      <c r="AD35" s="9"/>
-      <c r="AE35" s="9"/>
-      <c r="AF35" s="9"/>
-      <c r="AG35" s="9"/>
-      <c r="AH35" s="9"/>
-      <c r="AI35" s="9"/>
-      <c r="AJ35" s="9"/>
-      <c r="AK35" s="9"/>
-      <c r="AL35" s="9"/>
-      <c r="AM35" s="9"/>
-      <c r="AN35" s="9"/>
-      <c r="AO35" s="9"/>
-      <c r="AP35" s="9"/>
-      <c r="AQ35" s="9"/>
-      <c r="AR35" s="9"/>
-      <c r="AS35" s="9"/>
-      <c r="AT35" s="9"/>
-      <c r="AU35" s="9"/>
-      <c r="AV35" s="9"/>
-      <c r="AW35" s="9"/>
-      <c r="AX35" s="9"/>
-      <c r="AY35" s="14"/>
-      <c r="AZ35" s="18"/>
-      <c r="BA35" s="9"/>
-      <c r="BB35" s="9"/>
-      <c r="BC35" s="9"/>
-      <c r="BD35" s="12"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="16"/>
+      <c r="T35" s="16"/>
+      <c r="U35" s="16"/>
+      <c r="V35" s="16"/>
+      <c r="W35" s="16"/>
+      <c r="X35" s="16"/>
+      <c r="Y35" s="16"/>
+      <c r="Z35" s="16"/>
+      <c r="AA35" s="16"/>
+      <c r="AB35" s="16"/>
+      <c r="AC35" s="16"/>
+      <c r="AD35" s="16"/>
+      <c r="AE35" s="16"/>
+      <c r="AF35" s="16"/>
+      <c r="AG35" s="16"/>
+      <c r="AH35" s="16"/>
+      <c r="AI35" s="16"/>
+      <c r="AJ35" s="16"/>
+      <c r="AK35" s="16"/>
+      <c r="AL35" s="16"/>
+      <c r="AM35" s="16"/>
+      <c r="AN35" s="16"/>
+      <c r="AO35" s="16"/>
+      <c r="AP35" s="16"/>
+      <c r="AQ35" s="16"/>
+      <c r="AR35" s="16"/>
+      <c r="AS35" s="16"/>
+      <c r="AT35" s="16"/>
+      <c r="AU35" s="16"/>
+      <c r="AV35" s="16"/>
+      <c r="AW35" s="16"/>
+      <c r="AX35" s="16"/>
+      <c r="AY35" s="50"/>
+      <c r="AZ35" s="54"/>
+      <c r="BA35" s="16"/>
+      <c r="BB35" s="16"/>
+      <c r="BC35" s="16"/>
+      <c r="BD35" s="48"/>
     </row>
-    <row r="36" spans="2:56" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="30" t="s">
+    <row r="36" ht="66" customHeight="1" spans="2:56">
+      <c r="B36" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="32" t="s">
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="M36" s="32"/>
-      <c r="N36" s="32"/>
-      <c r="O36" s="32"/>
-      <c r="P36" s="32"/>
-      <c r="Q36" s="32"/>
-      <c r="R36" s="32"/>
-      <c r="S36" s="32"/>
-      <c r="T36" s="32"/>
-      <c r="U36" s="32"/>
-      <c r="V36" s="32" t="s">
+      <c r="M36" s="23"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="23"/>
+      <c r="Q36" s="23"/>
+      <c r="R36" s="23"/>
+      <c r="S36" s="23"/>
+      <c r="T36" s="23"/>
+      <c r="U36" s="23"/>
+      <c r="V36" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="W36" s="32"/>
-      <c r="X36" s="32"/>
-      <c r="Y36" s="32"/>
-      <c r="Z36" s="32"/>
-      <c r="AA36" s="32"/>
-      <c r="AB36" s="32"/>
-      <c r="AC36" s="51"/>
-      <c r="AD36" s="52"/>
-      <c r="AE36" s="52"/>
-      <c r="AF36" s="52"/>
-      <c r="AG36" s="52"/>
-      <c r="AH36" s="52"/>
-      <c r="AI36" s="52"/>
-      <c r="AJ36" s="52"/>
-      <c r="AK36" s="52"/>
-      <c r="AL36" s="52"/>
-      <c r="AM36" s="52"/>
-      <c r="AN36" s="52"/>
-      <c r="AO36" s="52"/>
-      <c r="AP36" s="52"/>
-      <c r="AQ36" s="52"/>
-      <c r="AR36" s="52"/>
-      <c r="AS36" s="52"/>
-      <c r="AT36" s="52"/>
-      <c r="AU36" s="52"/>
-      <c r="AV36" s="52"/>
-      <c r="AW36" s="52"/>
-      <c r="AX36" s="52"/>
-      <c r="AY36" s="52"/>
-      <c r="AZ36" s="52"/>
-      <c r="BA36" s="52"/>
-      <c r="BB36" s="52"/>
-      <c r="BC36" s="52"/>
-      <c r="BD36" s="53"/>
+      <c r="W36" s="23"/>
+      <c r="X36" s="23"/>
+      <c r="Y36" s="23"/>
+      <c r="Z36" s="23"/>
+      <c r="AA36" s="23"/>
+      <c r="AB36" s="23"/>
+      <c r="AC36" s="32"/>
+      <c r="AD36" s="33"/>
+      <c r="AE36" s="33"/>
+      <c r="AF36" s="33"/>
+      <c r="AG36" s="33"/>
+      <c r="AH36" s="33"/>
+      <c r="AI36" s="33"/>
+      <c r="AJ36" s="33"/>
+      <c r="AK36" s="33"/>
+      <c r="AL36" s="33"/>
+      <c r="AM36" s="33"/>
+      <c r="AN36" s="33"/>
+      <c r="AO36" s="33"/>
+      <c r="AP36" s="33"/>
+      <c r="AQ36" s="33"/>
+      <c r="AR36" s="33"/>
+      <c r="AS36" s="33"/>
+      <c r="AT36" s="33"/>
+      <c r="AU36" s="33"/>
+      <c r="AV36" s="33"/>
+      <c r="AW36" s="33"/>
+      <c r="AX36" s="33"/>
+      <c r="AY36" s="33"/>
+      <c r="AZ36" s="33"/>
+      <c r="BA36" s="33"/>
+      <c r="BB36" s="33"/>
+      <c r="BC36" s="33"/>
+      <c r="BD36" s="55"/>
     </row>
-    <row r="37" spans="2:56" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="33" t="s">
+    <row r="37" ht="16.5" spans="2:56">
+      <c r="B37" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="35" t="s">
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="M37" s="35"/>
-      <c r="N37" s="35"/>
-      <c r="O37" s="35"/>
-      <c r="P37" s="35"/>
-      <c r="Q37" s="35"/>
-      <c r="R37" s="35"/>
-      <c r="S37" s="35"/>
-      <c r="T37" s="35"/>
-      <c r="U37" s="35"/>
-      <c r="V37" s="35" t="s">
+      <c r="M37" s="24"/>
+      <c r="N37" s="24"/>
+      <c r="O37" s="24"/>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="24"/>
+      <c r="R37" s="24"/>
+      <c r="S37" s="24"/>
+      <c r="T37" s="24"/>
+      <c r="U37" s="24"/>
+      <c r="V37" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="W37" s="35"/>
-      <c r="X37" s="35"/>
-      <c r="Y37" s="35"/>
-      <c r="Z37" s="35"/>
-      <c r="AA37" s="35"/>
-      <c r="AB37" s="35"/>
-      <c r="AC37" s="54"/>
-      <c r="AD37" s="55"/>
-      <c r="AE37" s="55"/>
-      <c r="AF37" s="55"/>
-      <c r="AG37" s="55"/>
-      <c r="AH37" s="55"/>
-      <c r="AI37" s="55"/>
-      <c r="AJ37" s="55"/>
-      <c r="AK37" s="55"/>
-      <c r="AL37" s="55"/>
-      <c r="AM37" s="55"/>
-      <c r="AN37" s="55"/>
-      <c r="AO37" s="55"/>
-      <c r="AP37" s="55"/>
-      <c r="AQ37" s="55"/>
-      <c r="AR37" s="55"/>
-      <c r="AS37" s="55"/>
-      <c r="AT37" s="55"/>
-      <c r="AU37" s="55"/>
-      <c r="AV37" s="55"/>
-      <c r="AW37" s="55"/>
-      <c r="AX37" s="55"/>
-      <c r="AY37" s="55"/>
-      <c r="AZ37" s="55"/>
-      <c r="BA37" s="55"/>
-      <c r="BB37" s="55"/>
-      <c r="BC37" s="55"/>
+      <c r="W37" s="24"/>
+      <c r="X37" s="24"/>
+      <c r="Y37" s="24"/>
+      <c r="Z37" s="24"/>
+      <c r="AA37" s="24"/>
+      <c r="AB37" s="24"/>
+      <c r="AC37" s="34"/>
+      <c r="AD37" s="35"/>
+      <c r="AE37" s="35"/>
+      <c r="AF37" s="35"/>
+      <c r="AG37" s="35"/>
+      <c r="AH37" s="35"/>
+      <c r="AI37" s="35"/>
+      <c r="AJ37" s="35"/>
+      <c r="AK37" s="35"/>
+      <c r="AL37" s="35"/>
+      <c r="AM37" s="35"/>
+      <c r="AN37" s="35"/>
+      <c r="AO37" s="35"/>
+      <c r="AP37" s="35"/>
+      <c r="AQ37" s="35"/>
+      <c r="AR37" s="35"/>
+      <c r="AS37" s="35"/>
+      <c r="AT37" s="35"/>
+      <c r="AU37" s="35"/>
+      <c r="AV37" s="35"/>
+      <c r="AW37" s="35"/>
+      <c r="AX37" s="35"/>
+      <c r="AY37" s="35"/>
+      <c r="AZ37" s="35"/>
+      <c r="BA37" s="35"/>
+      <c r="BB37" s="35"/>
+      <c r="BC37" s="35"/>
       <c r="BD37" s="56"/>
     </row>
-    <row r="43" spans="2:56" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" ht="77.1" customHeight="1"/>
   </sheetData>
-  <mergeCells count="77">
-    <mergeCell ref="AC36:BD37"/>
-    <mergeCell ref="AZ8:AZ9"/>
-    <mergeCell ref="AZ10:AZ11"/>
-    <mergeCell ref="AZ12:AZ18"/>
-    <mergeCell ref="AZ19:AZ25"/>
-    <mergeCell ref="AZ3:BD5"/>
-    <mergeCell ref="AU5:AU6"/>
-    <mergeCell ref="AV5:AV6"/>
-    <mergeCell ref="AW5:AW6"/>
-    <mergeCell ref="AX5:AX6"/>
-    <mergeCell ref="AY5:AY6"/>
-    <mergeCell ref="AP5:AP6"/>
-    <mergeCell ref="AQ5:AQ6"/>
-    <mergeCell ref="AR5:AR6"/>
-    <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="AT5:AT6"/>
-    <mergeCell ref="AK5:AK6"/>
-    <mergeCell ref="AL5:AL6"/>
-    <mergeCell ref="AM5:AM6"/>
-    <mergeCell ref="AN5:AN6"/>
-    <mergeCell ref="AO5:AO6"/>
-    <mergeCell ref="AF5:AF6"/>
-    <mergeCell ref="AG5:AG6"/>
-    <mergeCell ref="AH5:AH6"/>
-    <mergeCell ref="AI5:AI6"/>
-    <mergeCell ref="AJ5:AJ6"/>
-    <mergeCell ref="AA5:AA6"/>
-    <mergeCell ref="AB5:AB6"/>
-    <mergeCell ref="AC5:AC6"/>
-    <mergeCell ref="AD5:AD6"/>
-    <mergeCell ref="AE5:AE6"/>
+  <mergeCells count="78">
+    <mergeCell ref="B1:AY1"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:AF2"/>
+    <mergeCell ref="C3:AY3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="Z4:AG4"/>
+    <mergeCell ref="AH4:AO4"/>
+    <mergeCell ref="AP4:AT4"/>
+    <mergeCell ref="AU4:AY4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="AZ6:BA6"/>
+    <mergeCell ref="B36:K36"/>
+    <mergeCell ref="L36:U36"/>
+    <mergeCell ref="V36:AB36"/>
     <mergeCell ref="B37:K37"/>
     <mergeCell ref="L37:U37"/>
     <mergeCell ref="V37:AB37"/>
@@ -8079,11 +8653,6 @@
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="N5:N6"/>
     <mergeCell ref="O5:O6"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="AZ6:BA6"/>
-    <mergeCell ref="B36:K36"/>
-    <mergeCell ref="L36:U36"/>
-    <mergeCell ref="V36:AB36"/>
     <mergeCell ref="P5:P6"/>
     <mergeCell ref="Q5:Q6"/>
     <mergeCell ref="R5:R6"/>
@@ -8095,38 +8664,56 @@
     <mergeCell ref="X5:X6"/>
     <mergeCell ref="Y5:Y6"/>
     <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="B1:AY1"/>
-    <mergeCell ref="S2:W2"/>
-    <mergeCell ref="X2:AF2"/>
-    <mergeCell ref="C3:AY3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="Q4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="Z4:AG4"/>
-    <mergeCell ref="AH4:AO4"/>
-    <mergeCell ref="AP4:AT4"/>
-    <mergeCell ref="AU4:AY4"/>
+    <mergeCell ref="AA5:AA6"/>
+    <mergeCell ref="AB5:AB6"/>
+    <mergeCell ref="AC5:AC6"/>
+    <mergeCell ref="AD5:AD6"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="AF5:AF6"/>
+    <mergeCell ref="AG5:AG6"/>
+    <mergeCell ref="AH5:AH6"/>
+    <mergeCell ref="AI5:AI6"/>
+    <mergeCell ref="AJ5:AJ6"/>
+    <mergeCell ref="AK5:AK6"/>
+    <mergeCell ref="AL5:AL6"/>
+    <mergeCell ref="AM5:AM6"/>
+    <mergeCell ref="AN5:AN6"/>
+    <mergeCell ref="AO5:AO6"/>
+    <mergeCell ref="AP5:AP6"/>
+    <mergeCell ref="AQ5:AQ6"/>
+    <mergeCell ref="AR5:AR6"/>
+    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="AT5:AT6"/>
+    <mergeCell ref="AU5:AU6"/>
+    <mergeCell ref="AV5:AV6"/>
+    <mergeCell ref="AW5:AW6"/>
+    <mergeCell ref="AX5:AX6"/>
+    <mergeCell ref="AY5:AY6"/>
+    <mergeCell ref="AZ8:AZ9"/>
+    <mergeCell ref="AZ10:AZ11"/>
+    <mergeCell ref="AZ12:AZ18"/>
+    <mergeCell ref="AZ19:AZ25"/>
+    <mergeCell ref="AC36:BD37"/>
+    <mergeCell ref="AZ3:BD5"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AW1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:49" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="1" ht="67.5" spans="1:49">
       <c r="A1" s="1" t="s">
         <v>56</v>
       </c>
@@ -8242,35 +8829,39 @@
       <c r="AW1" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/excel/finished/焦化/CK67-脱硫解吸（日）报表设计.xlsx
+++ b/excel/finished/焦化/CK67-脱硫解吸（日）报表设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="7.脱硫解吸（日）4.3m无此表" sheetId="1" r:id="rId1"/>
@@ -718,11 +718,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -785,21 +785,34 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="14"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -813,39 +826,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -860,16 +843,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -881,40 +865,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -934,22 +895,49 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
@@ -985,7 +973,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -997,7 +1009,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1009,55 +1093,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1069,19 +1123,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1099,78 +1153,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -1319,15 +1307,6 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1508,20 +1487,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1544,8 +1520,41 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1575,46 +1584,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1623,19 +1602,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1644,115 +1623,115 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
@@ -1826,26 +1805,29 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1856,36 +1838,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1893,7 +1872,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1904,14 +1883,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2617,7 +2596,7 @@
   <sheetPr/>
   <dimension ref="A1:BD43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="S2" sqref="S2:W2"/>
     </sheetView>
   </sheetViews>
@@ -2627,7 +2606,7 @@
     <col min="52" max="52" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23.1" customHeight="1" spans="2:51">
+    <row r="1" customFormat="1" ht="23.1" customHeight="1" spans="2:51">
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2681,7 +2660,7 @@
       <c r="AX1" s="5"/>
       <c r="AY1" s="5"/>
     </row>
-    <row r="2" ht="15.6" customHeight="1" spans="2:51">
+    <row r="2" customFormat="1" ht="15.6" customHeight="1" spans="2:51">
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
@@ -2701,9 +2680,9 @@
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
-      <c r="S2" s="25">
-        <f>_metadata!B2</f>
-        <v>0</v>
+      <c r="S2" s="25" t="str">
+        <f>IF(_metadata!B2="","",_metadata!B2)</f>
+        <v/>
       </c>
       <c r="T2" s="25"/>
       <c r="U2" s="25"/>
@@ -2740,7 +2719,7 @@
       <c r="AX2" s="6"/>
       <c r="AY2" s="6"/>
     </row>
-    <row r="3" spans="1:56">
+    <row r="3" customFormat="1" spans="1:56">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
@@ -2806,7 +2785,7 @@
       <c r="BC3" s="39"/>
       <c r="BD3" s="40"/>
     </row>
-    <row r="4" ht="18.95" customHeight="1" spans="1:56">
+    <row r="4" customFormat="1" ht="18.95" customHeight="1" spans="1:56">
       <c r="A4" s="7"/>
       <c r="B4" s="10"/>
       <c r="C4" s="11" t="s">
@@ -2884,7 +2863,7 @@
       <c r="BC4" s="43"/>
       <c r="BD4" s="44"/>
     </row>
-    <row r="5" ht="26.1" customHeight="1" spans="1:56">
+    <row r="5" customFormat="1" ht="26.1" customHeight="1" spans="1:56">
       <c r="A5" s="7"/>
       <c r="B5" s="10"/>
       <c r="C5" s="12" t="s">
@@ -3038,7 +3017,7 @@
       <c r="BC5" s="43"/>
       <c r="BD5" s="44"/>
     </row>
-    <row r="6" ht="45" customHeight="1" spans="2:56">
+    <row r="6" customFormat="1" ht="45" customHeight="1" spans="2:56">
       <c r="B6" s="10"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -3107,7 +3086,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" ht="66.6" customHeight="1" spans="2:56">
+    <row r="7" customFormat="1" ht="66.6" customHeight="1" spans="2:56">
       <c r="B7" s="14" t="s">
         <v>55</v>
       </c>
@@ -3264,7 +3243,7 @@
       <c r="BC7" s="16"/>
       <c r="BD7" s="48"/>
     </row>
-    <row r="8" spans="2:56">
+    <row r="8" customFormat="1" spans="2:56">
       <c r="B8" s="15">
         <v>0</v>
       </c>
@@ -3470,11 +3449,20 @@
       <c r="BA8" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="BB8" s="16"/>
-      <c r="BC8" s="16"/>
-      <c r="BD8" s="48"/>
+      <c r="BB8" s="16" t="str">
+        <f>IF(_analysis_day_shift!A2="","",_analysis_day_shift!A2)</f>
+        <v/>
+      </c>
+      <c r="BC8" s="16" t="str">
+        <f>IF(_analysis_day_shift!A3="","",_analysis_day_shift!A3)</f>
+        <v/>
+      </c>
+      <c r="BD8" s="48" t="str">
+        <f>IF(_analysis_day_shift!A4="","",_analysis_day_shift!A4)</f>
+        <v/>
+      </c>
     </row>
-    <row r="9" spans="2:56">
+    <row r="9" customFormat="1" spans="2:56">
       <c r="B9" s="15">
         <v>0.0416666666666667</v>
       </c>
@@ -3678,11 +3666,20 @@
       <c r="BA9" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="BB9" s="16"/>
-      <c r="BC9" s="16"/>
-      <c r="BD9" s="48"/>
+      <c r="BB9" s="16" t="str">
+        <f>IF(_analysis_day_shift!B2="","",_analysis_day_shift!B2)</f>
+        <v/>
+      </c>
+      <c r="BC9" s="16" t="str">
+        <f>IF(_analysis_day_shift!B3="","",_analysis_day_shift!B3)</f>
+        <v/>
+      </c>
+      <c r="BD9" s="48" t="str">
+        <f>IF(_analysis_day_shift!B4="","",_analysis_day_shift!B4)</f>
+        <v/>
+      </c>
     </row>
-    <row r="10" spans="2:56">
+    <row r="10" customFormat="1" spans="2:56">
       <c r="B10" s="15">
         <v>0.0833333333333333</v>
       </c>
@@ -3888,11 +3885,20 @@
       <c r="BA10" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="BB10" s="16"/>
-      <c r="BC10" s="16"/>
-      <c r="BD10" s="48"/>
+      <c r="BB10" s="16" t="str">
+        <f>IF(_analysis_day_shift!C2="","",_analysis_day_shift!C2)</f>
+        <v/>
+      </c>
+      <c r="BC10" s="16" t="str">
+        <f>IF(_analysis_day_shift!C3="","",_analysis_day_shift!C3)</f>
+        <v/>
+      </c>
+      <c r="BD10" s="48" t="str">
+        <f>IF(_analysis_day_shift!C4="","",_analysis_day_shift!C4)</f>
+        <v/>
+      </c>
     </row>
-    <row r="11" ht="14.1" customHeight="1" spans="2:56">
+    <row r="11" customFormat="1" ht="14.1" customHeight="1" spans="2:56">
       <c r="B11" s="15">
         <v>0.125</v>
       </c>
@@ -4096,11 +4102,20 @@
       <c r="BA11" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="BB11" s="16"/>
-      <c r="BC11" s="16"/>
-      <c r="BD11" s="48"/>
+      <c r="BB11" s="16" t="str">
+        <f>IF(_analysis_day_shift!D2="","",_analysis_day_shift!D2)</f>
+        <v/>
+      </c>
+      <c r="BC11" s="16" t="str">
+        <f>IF(_analysis_day_shift!D3="","",_analysis_day_shift!D3)</f>
+        <v/>
+      </c>
+      <c r="BD11" s="48" t="str">
+        <f>IF(_analysis_day_shift!D4="","",_analysis_day_shift!D4)</f>
+        <v/>
+      </c>
     </row>
-    <row r="12" spans="2:56">
+    <row r="12" customFormat="1" spans="2:56">
       <c r="B12" s="15">
         <v>0.166666666666667</v>
       </c>
@@ -4306,11 +4321,20 @@
       <c r="BA12" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="BB12" s="16"/>
-      <c r="BC12" s="16"/>
-      <c r="BD12" s="48"/>
+      <c r="BB12" s="16" t="str">
+        <f>IF(_analysis_day_shift!E2="","",_analysis_day_shift!E2)</f>
+        <v/>
+      </c>
+      <c r="BC12" s="16" t="str">
+        <f>IF(_analysis_day_shift!E3="","",_analysis_day_shift!E3)</f>
+        <v/>
+      </c>
+      <c r="BD12" s="48" t="str">
+        <f>IF(_analysis_day_shift!E4="","",_analysis_day_shift!E4)</f>
+        <v/>
+      </c>
     </row>
-    <row r="13" spans="2:56">
+    <row r="13" customFormat="1" spans="2:56">
       <c r="B13" s="15">
         <v>0.208333333333333</v>
       </c>
@@ -4514,9 +4538,18 @@
       <c r="BA13" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="BB13" s="16"/>
-      <c r="BC13" s="16"/>
-      <c r="BD13" s="48"/>
+      <c r="BB13" s="16" t="str">
+        <f>IF(_analysis_day_shift!F2="","",_analysis_day_shift!F2)</f>
+        <v/>
+      </c>
+      <c r="BC13" s="16" t="str">
+        <f>IF(_analysis_day_shift!F3="","",_analysis_day_shift!F3)</f>
+        <v/>
+      </c>
+      <c r="BD13" s="48" t="str">
+        <f>IF(_analysis_day_shift!F4="","",_analysis_day_shift!F4)</f>
+        <v/>
+      </c>
     </row>
     <row r="14" s="4" customFormat="1" ht="27" spans="2:56">
       <c r="B14" s="15">
@@ -4722,11 +4755,20 @@
       <c r="BA14" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="BB14" s="1"/>
-      <c r="BC14" s="1"/>
-      <c r="BD14" s="53"/>
+      <c r="BB14" s="1" t="str">
+        <f>IF(_analysis_day_shift!G2="","",_analysis_day_shift!G2)</f>
+        <v/>
+      </c>
+      <c r="BC14" s="1" t="str">
+        <f>IF(_analysis_day_shift!G3="","",_analysis_day_shift!G3)</f>
+        <v/>
+      </c>
+      <c r="BD14" s="53" t="str">
+        <f>IF(_analysis_day_shift!G4="","",_analysis_day_shift!G4)</f>
+        <v/>
+      </c>
     </row>
-    <row r="15" spans="2:56">
+    <row r="15" customFormat="1" spans="2:56">
       <c r="B15" s="15">
         <v>0.291666666666667</v>
       </c>
@@ -4930,11 +4972,20 @@
       <c r="BA15" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="BB15" s="16"/>
-      <c r="BC15" s="16"/>
-      <c r="BD15" s="48"/>
+      <c r="BB15" s="16" t="str">
+        <f>IF(_analysis_day_shift!H2="","",_analysis_day_shift!H2)</f>
+        <v/>
+      </c>
+      <c r="BC15" s="16" t="str">
+        <f>IF(_analysis_day_shift!H3="","",_analysis_day_shift!H3)</f>
+        <v/>
+      </c>
+      <c r="BD15" s="48" t="str">
+        <f>IF(_analysis_day_shift!H4="","",_analysis_day_shift!H4)</f>
+        <v/>
+      </c>
     </row>
-    <row r="16" spans="2:56">
+    <row r="16" customFormat="1" spans="2:56">
       <c r="B16" s="15">
         <v>0.333333333333333</v>
       </c>
@@ -5138,11 +5189,20 @@
       <c r="BA16" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="BB16" s="16"/>
-      <c r="BC16" s="16"/>
-      <c r="BD16" s="48"/>
+      <c r="BB16" s="16" t="str">
+        <f>IF(_analysis_day_shift!I2="","",_analysis_day_shift!I2)</f>
+        <v/>
+      </c>
+      <c r="BC16" s="16" t="str">
+        <f>IF(_analysis_day_shift!I3="","",_analysis_day_shift!I3)</f>
+        <v/>
+      </c>
+      <c r="BD16" s="48" t="str">
+        <f>IF(_analysis_day_shift!I4="","",_analysis_day_shift!I4)</f>
+        <v/>
+      </c>
     </row>
-    <row r="17" spans="2:56">
+    <row r="17" customFormat="1" spans="2:56">
       <c r="B17" s="15">
         <v>0.375</v>
       </c>
@@ -5346,11 +5406,20 @@
       <c r="BA17" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="BB17" s="16"/>
-      <c r="BC17" s="16"/>
-      <c r="BD17" s="48"/>
+      <c r="BB17" s="16" t="str">
+        <f>IF(_analysis_day_shift!J2="","",_analysis_day_shift!J2)</f>
+        <v/>
+      </c>
+      <c r="BC17" s="16" t="str">
+        <f>IF(_analysis_day_shift!J3="","",_analysis_day_shift!J3)</f>
+        <v/>
+      </c>
+      <c r="BD17" s="48" t="str">
+        <f>IF(_analysis_day_shift!J4="","",_analysis_day_shift!J4)</f>
+        <v/>
+      </c>
     </row>
-    <row r="18" spans="2:56">
+    <row r="18" customFormat="1" spans="2:56">
       <c r="B18" s="15">
         <v>0.416666666666666</v>
       </c>
@@ -5554,11 +5623,20 @@
       <c r="BA18" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="BB18" s="16"/>
-      <c r="BC18" s="16"/>
-      <c r="BD18" s="48"/>
+      <c r="BB18" s="16" t="str">
+        <f>IF(_analysis_day_shift!K2="","",_analysis_day_shift!K2)</f>
+        <v/>
+      </c>
+      <c r="BC18" s="16" t="str">
+        <f>IF(_analysis_day_shift!K3="","",_analysis_day_shift!K3)</f>
+        <v/>
+      </c>
+      <c r="BD18" s="48" t="str">
+        <f>IF(_analysis_day_shift!K4="","",_analysis_day_shift!K4)</f>
+        <v/>
+      </c>
     </row>
-    <row r="19" spans="2:56">
+    <row r="19" customFormat="1" spans="2:56">
       <c r="B19" s="15">
         <v>0.458333333333333</v>
       </c>
@@ -5764,11 +5842,20 @@
       <c r="BA19" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="BB19" s="16"/>
-      <c r="BC19" s="16"/>
-      <c r="BD19" s="48"/>
+      <c r="BB19" s="16" t="str">
+        <f>IF(_analysis_day_shift!L2="","",_analysis_day_shift!L2)</f>
+        <v/>
+      </c>
+      <c r="BC19" s="16" t="str">
+        <f>IF(_analysis_day_shift!L3="","",_analysis_day_shift!L3)</f>
+        <v/>
+      </c>
+      <c r="BD19" s="48" t="str">
+        <f>IF(_analysis_day_shift!L4="","",_analysis_day_shift!L4)</f>
+        <v/>
+      </c>
     </row>
-    <row r="20" spans="2:56">
+    <row r="20" customFormat="1" spans="2:56">
       <c r="B20" s="15">
         <v>0.5</v>
       </c>
@@ -5972,11 +6059,20 @@
       <c r="BA20" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="BB20" s="16"/>
-      <c r="BC20" s="16"/>
-      <c r="BD20" s="48"/>
+      <c r="BB20" s="16" t="str">
+        <f>IF(_analysis_day_shift!M2="","",_analysis_day_shift!M2)</f>
+        <v/>
+      </c>
+      <c r="BC20" s="16" t="str">
+        <f>IF(_analysis_day_shift!M3="","",_analysis_day_shift!M3)</f>
+        <v/>
+      </c>
+      <c r="BD20" s="48" t="str">
+        <f>IF(_analysis_day_shift!M4="","",_analysis_day_shift!M4)</f>
+        <v/>
+      </c>
     </row>
-    <row r="21" ht="27" spans="2:56">
+    <row r="21" customFormat="1" ht="27" spans="2:56">
       <c r="B21" s="15">
         <v>0.541666666666666</v>
       </c>
@@ -6180,11 +6276,20 @@
       <c r="BA21" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="BB21" s="16"/>
-      <c r="BC21" s="16"/>
-      <c r="BD21" s="48"/>
+      <c r="BB21" s="16" t="str">
+        <f>IF(_analysis_day_shift!N2="","",_analysis_day_shift!N2)</f>
+        <v/>
+      </c>
+      <c r="BC21" s="16" t="str">
+        <f>IF(_analysis_day_shift!N3="","",_analysis_day_shift!N3)</f>
+        <v/>
+      </c>
+      <c r="BD21" s="48" t="str">
+        <f>IF(_analysis_day_shift!N4="","",_analysis_day_shift!N4)</f>
+        <v/>
+      </c>
     </row>
-    <row r="22" spans="2:56">
+    <row r="22" customFormat="1" spans="2:56">
       <c r="B22" s="15">
         <v>0.583333333333333</v>
       </c>
@@ -6388,11 +6493,20 @@
       <c r="BA22" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="BB22" s="16"/>
-      <c r="BC22" s="16"/>
-      <c r="BD22" s="48"/>
+      <c r="BB22" s="16" t="str">
+        <f>IF(_analysis_day_shift!O2="","",_analysis_day_shift!O2)</f>
+        <v/>
+      </c>
+      <c r="BC22" s="16" t="str">
+        <f>IF(_analysis_day_shift!O3="","",_analysis_day_shift!O3)</f>
+        <v/>
+      </c>
+      <c r="BD22" s="48" t="str">
+        <f>IF(_analysis_day_shift!O4="","",_analysis_day_shift!O4)</f>
+        <v/>
+      </c>
     </row>
-    <row r="23" spans="2:56">
+    <row r="23" customFormat="1" spans="2:56">
       <c r="B23" s="15">
         <v>0.625</v>
       </c>
@@ -6596,11 +6710,20 @@
       <c r="BA23" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="BB23" s="16"/>
-      <c r="BC23" s="16"/>
-      <c r="BD23" s="48"/>
+      <c r="BB23" s="16" t="str">
+        <f>IF(_analysis_day_shift!P2="","",_analysis_day_shift!P2)</f>
+        <v/>
+      </c>
+      <c r="BC23" s="16" t="str">
+        <f>IF(_analysis_day_shift!P3="","",_analysis_day_shift!P3)</f>
+        <v/>
+      </c>
+      <c r="BD23" s="48" t="str">
+        <f>IF(_analysis_day_shift!P4="","",_analysis_day_shift!P4)</f>
+        <v/>
+      </c>
     </row>
-    <row r="24" spans="2:56">
+    <row r="24" customFormat="1" spans="2:56">
       <c r="B24" s="15">
         <v>0.666666666666667</v>
       </c>
@@ -6804,11 +6927,20 @@
       <c r="BA24" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="BB24" s="16"/>
-      <c r="BC24" s="16"/>
-      <c r="BD24" s="48"/>
+      <c r="BB24" s="16" t="str">
+        <f>IF(_analysis_day_shift!Q2="","",_analysis_day_shift!Q2)</f>
+        <v/>
+      </c>
+      <c r="BC24" s="16" t="str">
+        <f>IF(_analysis_day_shift!Q3="","",_analysis_day_shift!Q3)</f>
+        <v/>
+      </c>
+      <c r="BD24" s="48" t="str">
+        <f>IF(_analysis_day_shift!Q4="","",_analysis_day_shift!Q4)</f>
+        <v/>
+      </c>
     </row>
-    <row r="25" spans="2:56">
+    <row r="25" customFormat="1" spans="2:56">
       <c r="B25" s="15">
         <v>0.708333333333333</v>
       </c>
@@ -7012,11 +7144,20 @@
       <c r="BA25" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="BB25" s="16"/>
-      <c r="BC25" s="16"/>
-      <c r="BD25" s="48"/>
+      <c r="BB25" s="16" t="str">
+        <f>IF(_analysis_day_shift!R2="","",_analysis_day_shift!R2)</f>
+        <v/>
+      </c>
+      <c r="BC25" s="16" t="str">
+        <f>IF(_analysis_day_shift!R3="","",_analysis_day_shift!R3)</f>
+        <v/>
+      </c>
+      <c r="BD25" s="48" t="str">
+        <f>IF(_analysis_day_shift!R4="","",_analysis_day_shift!R4)</f>
+        <v/>
+      </c>
     </row>
-    <row r="26" spans="2:56">
+    <row r="26" customFormat="1" spans="2:56">
       <c r="B26" s="15">
         <v>0.75</v>
       </c>
@@ -7222,7 +7363,7 @@
       <c r="BC26" s="16"/>
       <c r="BD26" s="48"/>
     </row>
-    <row r="27" spans="2:56">
+    <row r="27" customFormat="1" spans="2:56">
       <c r="B27" s="15">
         <v>0.791666666666667</v>
       </c>
@@ -7428,7 +7569,7 @@
       <c r="BC27" s="16"/>
       <c r="BD27" s="48"/>
     </row>
-    <row r="28" spans="2:56">
+    <row r="28" customFormat="1" spans="2:56">
       <c r="B28" s="15">
         <v>0.833333333333333</v>
       </c>
@@ -7634,7 +7775,7 @@
       <c r="BC28" s="16"/>
       <c r="BD28" s="48"/>
     </row>
-    <row r="29" spans="2:56">
+    <row r="29" customFormat="1" spans="2:56">
       <c r="B29" s="15">
         <v>0.875</v>
       </c>
@@ -7840,7 +7981,7 @@
       <c r="BC29" s="16"/>
       <c r="BD29" s="48"/>
     </row>
-    <row r="30" spans="2:56">
+    <row r="30" customFormat="1" spans="2:56">
       <c r="B30" s="15">
         <v>0.916666666666667</v>
       </c>
@@ -8046,7 +8187,7 @@
       <c r="BC30" s="16"/>
       <c r="BD30" s="48"/>
     </row>
-    <row r="31" spans="2:56">
+    <row r="31" customFormat="1" spans="2:56">
       <c r="B31" s="15">
         <v>0.958333333333333</v>
       </c>
@@ -8252,7 +8393,7 @@
       <c r="BC31" s="16"/>
       <c r="BD31" s="48"/>
     </row>
-    <row r="32" spans="2:56">
+    <row r="32" customFormat="1" spans="2:56">
       <c r="B32" s="17" t="s">
         <v>101</v>
       </c>
@@ -8311,7 +8452,7 @@
       <c r="BC32" s="16"/>
       <c r="BD32" s="48"/>
     </row>
-    <row r="33" spans="2:56">
+    <row r="33" customFormat="1" spans="2:56">
       <c r="B33" s="17" t="s">
         <v>102</v>
       </c>
@@ -8370,7 +8511,7 @@
       <c r="BC33" s="16"/>
       <c r="BD33" s="48"/>
     </row>
-    <row r="34" spans="2:56">
+    <row r="34" customFormat="1" spans="2:56">
       <c r="B34" s="17" t="s">
         <v>103</v>
       </c>
@@ -8429,7 +8570,7 @@
       <c r="BC34" s="16"/>
       <c r="BD34" s="48"/>
     </row>
-    <row r="35" spans="2:56">
+    <row r="35" customFormat="1" spans="2:56">
       <c r="B35" s="17" t="s">
         <v>104</v>
       </c>
@@ -8488,7 +8629,7 @@
       <c r="BC35" s="16"/>
       <c r="BD35" s="48"/>
     </row>
-    <row r="36" ht="66" customHeight="1" spans="2:56">
+    <row r="36" customFormat="1" ht="66" customHeight="1" spans="2:56">
       <c r="B36" s="18" t="s">
         <v>105</v>
       </c>
@@ -8614,12 +8755,16 @@
       <c r="BC37" s="35"/>
       <c r="BD37" s="56"/>
     </row>
-    <row r="43" ht="77.1" customHeight="1"/>
+    <row r="38" customFormat="1"/>
+    <row r="39" customFormat="1"/>
+    <row r="40" customFormat="1"/>
+    <row r="41" customFormat="1"/>
+    <row r="42" customFormat="1"/>
+    <row r="43" customFormat="1" ht="77.1" customHeight="1"/>
   </sheetData>
-  <mergeCells count="78">
+  <mergeCells count="77">
     <mergeCell ref="B1:AY1"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="S2:W2"/>
     <mergeCell ref="X2:AF2"/>
     <mergeCell ref="C3:AY3"/>
     <mergeCell ref="C4:I4"/>
@@ -8693,8 +8838,8 @@
     <mergeCell ref="AZ10:AZ11"/>
     <mergeCell ref="AZ12:AZ18"/>
     <mergeCell ref="AZ19:AZ25"/>
+    <mergeCell ref="AZ3:BD5"/>
     <mergeCell ref="AC36:BD37"/>
-    <mergeCell ref="AZ3:BD5"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -8713,7 +8858,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" ht="67.5" spans="1:49">
+    <row r="1" customFormat="1" ht="67.5" spans="1:49">
       <c r="A1" s="1" t="s">
         <v>56</v>
       </c>
@@ -8855,8 +9000,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/excel/finished/焦化/CK67-脱硫解吸（日）报表设计.xlsx
+++ b/excel/finished/焦化/CK67-脱硫解吸（日）报表设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785"/>
+    <workbookView windowWidth="20490" windowHeight="7785" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="7.脱硫解吸（日）4.3m无此表" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123">
   <si>
     <t xml:space="preserve"> 脱 硫 解 吸 操 作 记 录</t>
   </si>
@@ -710,6 +710,48 @@
       </rPr>
       <t>接班：</t>
     </r>
+  </si>
+  <si>
+    <t>61206/密度</t>
+  </si>
+  <si>
+    <t>61206/PH</t>
+  </si>
+  <si>
+    <t>61206/K2CO3</t>
+  </si>
+  <si>
+    <t>61206/KHCO3</t>
+  </si>
+  <si>
+    <t>61206/KHS</t>
+  </si>
+  <si>
+    <t>61206/KSCN</t>
+  </si>
+  <si>
+    <t>61206/K2S2O3</t>
+  </si>
+  <si>
+    <t>61205/密度</t>
+  </si>
+  <si>
+    <t>61205/PH</t>
+  </si>
+  <si>
+    <t>61205/K2CO3</t>
+  </si>
+  <si>
+    <t>61205/KHCO3</t>
+  </si>
+  <si>
+    <t>61205/KHS</t>
+  </si>
+  <si>
+    <t>61205/KSCN</t>
+  </si>
+  <si>
+    <t>61205/K2S2O3</t>
   </si>
 </sst>
 </file>
@@ -785,15 +827,63 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -806,21 +896,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -835,76 +920,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -920,17 +950,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -973,7 +1015,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -985,49 +1165,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1039,121 +1195,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1487,32 +1529,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1522,15 +1543,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1546,15 +1558,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1576,6 +1579,45 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1590,10 +1632,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1602,136 +1644,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
@@ -2596,7 +2638,7 @@
   <sheetPr/>
   <dimension ref="A1:BD43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S2" sqref="S2:W2"/>
     </sheetView>
   </sheetViews>
@@ -8998,14 +9040,59 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="F1:S1"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="6:19">
+      <c r="F1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N1" t="s">
+        <v>117</v>
+      </c>
+      <c r="O1" t="s">
+        <v>118</v>
+      </c>
+      <c r="P1" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>120</v>
+      </c>
+      <c r="R1" t="s">
+        <v>121</v>
+      </c>
+      <c r="S1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>

--- a/excel/finished/焦化/CK67-脱硫解吸（日）报表设计.xlsx
+++ b/excel/finished/焦化/CK67-脱硫解吸（日）报表设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="7.脱硫解吸（日）4.3m无此表" sheetId="1" r:id="rId1"/>
@@ -827,11 +827,59 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -851,9 +899,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -867,82 +945,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -957,20 +969,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1015,37 +1015,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1063,19 +1075,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1087,7 +1099,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1099,103 +1189,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1538,6 +1538,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1547,17 +1577,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1579,45 +1603,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1626,16 +1611,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1644,136 +1644,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
@@ -2638,7 +2638,7 @@
   <sheetPr/>
   <dimension ref="A1:BD43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="S2" sqref="S2:W2"/>
     </sheetView>
   </sheetViews>
@@ -9042,7 +9042,7 @@
   <sheetPr/>
   <dimension ref="F1:S1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>

--- a/excel/finished/焦化/CK67-脱硫解吸（日）报表设计.xlsx
+++ b/excel/finished/焦化/CK67-脱硫解吸（日）报表设计.xlsx
@@ -4,20 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="7.脱硫解吸（日）4.3m无此表" sheetId="1" r:id="rId1"/>
     <sheet name="_tuoliu_day_hour" sheetId="2" r:id="rId2"/>
-    <sheet name="_metadata" sheetId="3" r:id="rId3"/>
-    <sheet name="_analysis_day_shift" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108">
   <si>
     <t xml:space="preserve"> 脱 硫 解 吸 操 作 记 录</t>
   </si>
@@ -87,9 +85,6 @@
     </r>
   </si>
   <si>
-    <t>SGSSG-BSMCSA35-G012-01A</t>
-  </si>
-  <si>
     <t>备</t>
   </si>
   <si>
@@ -710,48 +705,6 @@
       </rPr>
       <t>接班：</t>
     </r>
-  </si>
-  <si>
-    <t>61206/密度</t>
-  </si>
-  <si>
-    <t>61206/PH</t>
-  </si>
-  <si>
-    <t>61206/K2CO3</t>
-  </si>
-  <si>
-    <t>61206/KHCO3</t>
-  </si>
-  <si>
-    <t>61206/KHS</t>
-  </si>
-  <si>
-    <t>61206/KSCN</t>
-  </si>
-  <si>
-    <t>61206/K2S2O3</t>
-  </si>
-  <si>
-    <t>61205/密度</t>
-  </si>
-  <si>
-    <t>61205/PH</t>
-  </si>
-  <si>
-    <t>61205/K2CO3</t>
-  </si>
-  <si>
-    <t>61205/KHCO3</t>
-  </si>
-  <si>
-    <t>61205/KHS</t>
-  </si>
-  <si>
-    <t>61205/KSCN</t>
-  </si>
-  <si>
-    <t>61205/K2S2O3</t>
   </si>
 </sst>
 </file>
@@ -828,36 +781,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -865,7 +796,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -883,19 +829,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -908,23 +846,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -953,26 +905,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1015,55 +968,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1075,19 +1010,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1111,43 +1058,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1159,25 +1094,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1189,13 +1124,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1533,22 +1486,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1570,9 +1508,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1603,11 +1543,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1632,10 +1585,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1644,140 +1597,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1795,7 +1748,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1846,12 +1799,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2008,7 +1955,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
+      <xdr:colOff>595512</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -2639,7 +2586,7 @@
   <dimension ref="A1:BD43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2:W2"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2722,25 +2669,20 @@
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
-      <c r="S2" s="25" t="str">
-        <f>IF(_metadata!B2="","",_metadata!B2)</f>
-        <v/>
-      </c>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="26"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
       <c r="AG2" s="6"/>
       <c r="AH2" s="6"/>
       <c r="AI2" s="6"/>
@@ -2763,13 +2705,13 @@
     </row>
     <row r="3" customFormat="1" spans="1:56">
       <c r="A3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>5</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -2818,20 +2760,20 @@
       <c r="AV3" s="9"/>
       <c r="AW3" s="9"/>
       <c r="AX3" s="9"/>
-      <c r="AY3" s="37"/>
-      <c r="AZ3" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="BA3" s="39"/>
-      <c r="BB3" s="39"/>
-      <c r="BC3" s="39"/>
-      <c r="BD3" s="40"/>
+      <c r="AY3" s="35"/>
+      <c r="AZ3" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="BA3" s="37"/>
+      <c r="BB3" s="37"/>
+      <c r="BC3" s="37"/>
+      <c r="BD3" s="38"/>
     </row>
     <row r="4" customFormat="1" ht="18.95" customHeight="1" spans="1:56">
       <c r="A4" s="7"/>
       <c r="B4" s="10"/>
       <c r="C4" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
@@ -2840,43 +2782,43 @@
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
       <c r="M4" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N4" s="11"/>
       <c r="O4" s="11"/>
       <c r="P4" s="11"/>
       <c r="Q4" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R4" s="11"/>
       <c r="S4" s="11"/>
       <c r="T4" s="11"/>
       <c r="U4" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V4" s="11"/>
       <c r="W4" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X4" s="11"/>
       <c r="Y4" s="11"/>
       <c r="Z4" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA4" s="11"/>
       <c r="AB4" s="11"/>
-      <c r="AC4" s="27"/>
+      <c r="AC4" s="25"/>
       <c r="AD4" s="11"/>
       <c r="AE4" s="11"/>
       <c r="AF4" s="11"/>
       <c r="AG4" s="11"/>
       <c r="AH4" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI4" s="11"/>
       <c r="AJ4" s="11"/>
@@ -2885,179 +2827,179 @@
       <c r="AM4" s="11"/>
       <c r="AN4" s="11"/>
       <c r="AO4" s="11"/>
-      <c r="AP4" s="36" t="s">
+      <c r="AP4" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ4" s="34"/>
+      <c r="AR4" s="34"/>
+      <c r="AS4" s="34"/>
+      <c r="AT4" s="34"/>
+      <c r="AU4" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="AQ4" s="36"/>
-      <c r="AR4" s="36"/>
-      <c r="AS4" s="36"/>
-      <c r="AT4" s="36"/>
-      <c r="AU4" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="AV4" s="36"/>
-      <c r="AW4" s="36"/>
-      <c r="AX4" s="36"/>
-      <c r="AY4" s="41"/>
-      <c r="AZ4" s="42"/>
-      <c r="BA4" s="43"/>
-      <c r="BB4" s="43"/>
-      <c r="BC4" s="43"/>
-      <c r="BD4" s="44"/>
+      <c r="AV4" s="34"/>
+      <c r="AW4" s="34"/>
+      <c r="AX4" s="34"/>
+      <c r="AY4" s="39"/>
+      <c r="AZ4" s="40"/>
+      <c r="BA4" s="41"/>
+      <c r="BB4" s="41"/>
+      <c r="BC4" s="41"/>
+      <c r="BD4" s="42"/>
     </row>
     <row r="5" customFormat="1" ht="26.1" customHeight="1" spans="1:56">
       <c r="A5" s="7"/>
       <c r="B5" s="10"/>
       <c r="C5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="E5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="F5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="G5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="H5" s="13" t="s">
         <v>21</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>22</v>
       </c>
       <c r="I5" s="13"/>
       <c r="J5" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="22" t="s">
+      <c r="L5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="M5" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="N5" s="12" t="s">
+      <c r="O5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="O5" s="13" t="s">
+      <c r="P5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="13" t="s">
+      <c r="Q5" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="R5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="U5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="Q5" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="R5" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="S5" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="T5" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="U5" s="13" t="s">
+      <c r="V5" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="V5" s="12" t="s">
+      <c r="W5" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="W5" s="13" t="s">
+      <c r="X5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="X5" s="13" t="s">
+      <c r="Y5" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="Y5" s="13" t="s">
+      <c r="Z5" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="Z5" s="13" t="s">
+      <c r="AA5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="AA5" s="13" t="s">
+      <c r="AB5" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="AB5" s="28" t="s">
+      <c r="AC5" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="AC5" s="29" t="s">
+      <c r="AD5" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="AD5" s="30" t="s">
+      <c r="AE5" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="AE5" s="12" t="s">
+      <c r="AF5" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="AF5" s="13" t="s">
+      <c r="AG5" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="AG5" s="12" t="s">
+      <c r="AH5" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI5" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ5" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK5" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL5" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="AH5" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI5" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="AJ5" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK5" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="AL5" s="13" t="s">
+      <c r="AM5" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="AM5" s="13" t="s">
+      <c r="AN5" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO5" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP5" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="AN5" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="AO5" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="AP5" s="12" t="s">
+      <c r="AQ5" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="AQ5" s="13" t="s">
+      <c r="AR5" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AR5" s="12" t="s">
+      <c r="AS5" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AS5" s="12" t="s">
+      <c r="AT5" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="AT5" s="13" t="s">
-        <v>48</v>
-      </c>
       <c r="AU5" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="AV5" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="AV5" s="13" t="s">
+      <c r="AW5" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="AW5" s="13" t="s">
+      <c r="AX5" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="AX5" s="13" t="s">
+      <c r="AY5" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="AY5" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="AZ5" s="42"/>
-      <c r="BA5" s="43"/>
-      <c r="BB5" s="43"/>
-      <c r="BC5" s="43"/>
-      <c r="BD5" s="44"/>
+      <c r="AZ5" s="40"/>
+      <c r="BA5" s="41"/>
+      <c r="BB5" s="41"/>
+      <c r="BC5" s="41"/>
+      <c r="BD5" s="42"/>
     </row>
     <row r="6" customFormat="1" ht="45" customHeight="1" spans="2:56">
       <c r="B6" s="10"/>
@@ -3067,10 +3009,10 @@
       <c r="F6" s="12"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="13" t="s">
         <v>49</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>50</v>
       </c>
       <c r="J6" s="22"/>
       <c r="K6" s="22"/>
@@ -3090,9 +3032,9 @@
       <c r="Y6" s="13"/>
       <c r="Z6" s="13"/>
       <c r="AA6" s="13"/>
-      <c r="AB6" s="28"/>
-      <c r="AC6" s="31"/>
-      <c r="AD6" s="30"/>
+      <c r="AB6" s="26"/>
+      <c r="AC6" s="29"/>
+      <c r="AD6" s="28"/>
       <c r="AE6" s="12"/>
       <c r="AF6" s="13"/>
       <c r="AG6" s="12"/>
@@ -3113,177 +3055,177 @@
       <c r="AV6" s="13"/>
       <c r="AW6" s="13"/>
       <c r="AX6" s="13"/>
-      <c r="AY6" s="28"/>
-      <c r="AZ6" s="45" t="s">
+      <c r="AY6" s="26"/>
+      <c r="AZ6" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA6" s="44"/>
+      <c r="BB6" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="BA6" s="46"/>
-      <c r="BB6" s="47" t="s">
+      <c r="BC6" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="BC6" s="16" t="s">
+      <c r="BD6" s="46" t="s">
         <v>53</v>
-      </c>
-      <c r="BD6" s="48" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="66.6" customHeight="1" spans="2:56">
       <c r="B7" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="R7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="U7" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="R7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="U7" s="1" t="s">
+      <c r="V7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="W7" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="X7" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="X7" s="1" t="s">
+      <c r="Y7" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="Y7" s="1" t="s">
+      <c r="Z7" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="Z7" s="1" t="s">
+      <c r="AA7" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AA7" s="1" t="s">
+      <c r="AB7" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AB7" s="1" t="s">
+      <c r="AC7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AC7" s="2" t="s">
+      <c r="AD7" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AD7" s="1" t="s">
+      <c r="AE7" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AE7" s="1" t="s">
+      <c r="AF7" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AF7" s="1" t="s">
+      <c r="AG7" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AG7" s="1" t="s">
+      <c r="AH7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP7" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AH7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AJ7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AL7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AM7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AO7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AP7" s="1" t="s">
+      <c r="AQ7" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AQ7" s="1" t="s">
+      <c r="AR7" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AR7" s="1" t="s">
+      <c r="AS7" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AS7" s="1" t="s">
+      <c r="AT7" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AT7" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="AU7" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AV7" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AW7" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AX7" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AY7" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AZ7" s="49"/>
+        <v>69</v>
+      </c>
+      <c r="AZ7" s="47"/>
       <c r="BA7" s="16"/>
       <c r="BB7" s="16"/>
       <c r="BC7" s="16"/>
-      <c r="BD7" s="48"/>
+      <c r="BD7" s="46"/>
     </row>
     <row r="8" customFormat="1" spans="2:56">
       <c r="B8" s="15">
@@ -3481,28 +3423,19 @@
         <f>IF(_tuoliu_day_hour!AV2="","",_tuoliu_day_hour!AV2)</f>
         <v/>
       </c>
-      <c r="AY8" s="50" t="str">
+      <c r="AY8" s="48" t="str">
         <f>IF(_tuoliu_day_hour!AW2="","",_tuoliu_day_hour!AW2)</f>
         <v/>
       </c>
-      <c r="AZ8" s="42" t="s">
+      <c r="AZ8" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="BA8" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="BA8" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="BB8" s="16" t="str">
-        <f>IF(_analysis_day_shift!A2="","",_analysis_day_shift!A2)</f>
-        <v/>
-      </c>
-      <c r="BC8" s="16" t="str">
-        <f>IF(_analysis_day_shift!A3="","",_analysis_day_shift!A3)</f>
-        <v/>
-      </c>
-      <c r="BD8" s="48" t="str">
-        <f>IF(_analysis_day_shift!A4="","",_analysis_day_shift!A4)</f>
-        <v/>
-      </c>
+      <c r="BB8" s="16"/>
+      <c r="BC8" s="16"/>
+      <c r="BD8" s="46"/>
     </row>
     <row r="9" customFormat="1" spans="2:56">
       <c r="B9" s="15">
@@ -3700,26 +3633,17 @@
         <f>IF(_tuoliu_day_hour!AV3="","",_tuoliu_day_hour!AV3)</f>
         <v/>
       </c>
-      <c r="AY9" s="50" t="str">
+      <c r="AY9" s="48" t="str">
         <f>IF(_tuoliu_day_hour!AW3="","",_tuoliu_day_hour!AW3)</f>
         <v/>
       </c>
-      <c r="AZ9" s="42"/>
-      <c r="BA9" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="BB9" s="16" t="str">
-        <f>IF(_analysis_day_shift!B2="","",_analysis_day_shift!B2)</f>
-        <v/>
-      </c>
-      <c r="BC9" s="16" t="str">
-        <f>IF(_analysis_day_shift!B3="","",_analysis_day_shift!B3)</f>
-        <v/>
-      </c>
-      <c r="BD9" s="48" t="str">
-        <f>IF(_analysis_day_shift!B4="","",_analysis_day_shift!B4)</f>
-        <v/>
-      </c>
+      <c r="AZ9" s="40"/>
+      <c r="BA9" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="BB9" s="16"/>
+      <c r="BC9" s="16"/>
+      <c r="BD9" s="46"/>
     </row>
     <row r="10" customFormat="1" spans="2:56">
       <c r="B10" s="15">
@@ -3917,28 +3841,19 @@
         <f>IF(_tuoliu_day_hour!AV4="","",_tuoliu_day_hour!AV4)</f>
         <v/>
       </c>
-      <c r="AY10" s="50" t="str">
+      <c r="AY10" s="48" t="str">
         <f>IF(_tuoliu_day_hour!AW4="","",_tuoliu_day_hour!AW4)</f>
         <v/>
       </c>
-      <c r="AZ10" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="BA10" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="BB10" s="16" t="str">
-        <f>IF(_analysis_day_shift!C2="","",_analysis_day_shift!C2)</f>
-        <v/>
-      </c>
-      <c r="BC10" s="16" t="str">
-        <f>IF(_analysis_day_shift!C3="","",_analysis_day_shift!C3)</f>
-        <v/>
-      </c>
-      <c r="BD10" s="48" t="str">
-        <f>IF(_analysis_day_shift!C4="","",_analysis_day_shift!C4)</f>
-        <v/>
-      </c>
+      <c r="AZ10" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA10" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB10" s="16"/>
+      <c r="BC10" s="16"/>
+      <c r="BD10" s="46"/>
     </row>
     <row r="11" customFormat="1" ht="14.1" customHeight="1" spans="2:56">
       <c r="B11" s="15">
@@ -4136,26 +4051,17 @@
         <f>IF(_tuoliu_day_hour!AV5="","",_tuoliu_day_hour!AV5)</f>
         <v/>
       </c>
-      <c r="AY11" s="50" t="str">
+      <c r="AY11" s="48" t="str">
         <f>IF(_tuoliu_day_hour!AW5="","",_tuoliu_day_hour!AW5)</f>
         <v/>
       </c>
-      <c r="AZ11" s="42"/>
-      <c r="BA11" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="BB11" s="16" t="str">
-        <f>IF(_analysis_day_shift!D2="","",_analysis_day_shift!D2)</f>
-        <v/>
-      </c>
-      <c r="BC11" s="16" t="str">
-        <f>IF(_analysis_day_shift!D3="","",_analysis_day_shift!D3)</f>
-        <v/>
-      </c>
-      <c r="BD11" s="48" t="str">
-        <f>IF(_analysis_day_shift!D4="","",_analysis_day_shift!D4)</f>
-        <v/>
-      </c>
+      <c r="AZ11" s="40"/>
+      <c r="BA11" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="BB11" s="16"/>
+      <c r="BC11" s="16"/>
+      <c r="BD11" s="46"/>
     </row>
     <row r="12" customFormat="1" spans="2:56">
       <c r="B12" s="15">
@@ -4353,28 +4259,19 @@
         <f>IF(_tuoliu_day_hour!AV6="","",_tuoliu_day_hour!AV6)</f>
         <v/>
       </c>
-      <c r="AY12" s="50" t="str">
+      <c r="AY12" s="48" t="str">
         <f>IF(_tuoliu_day_hour!AW6="","",_tuoliu_day_hour!AW6)</f>
         <v/>
       </c>
-      <c r="AZ12" s="42" t="s">
+      <c r="AZ12" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="BA12" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="BA12" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="BB12" s="16" t="str">
-        <f>IF(_analysis_day_shift!E2="","",_analysis_day_shift!E2)</f>
-        <v/>
-      </c>
-      <c r="BC12" s="16" t="str">
-        <f>IF(_analysis_day_shift!E3="","",_analysis_day_shift!E3)</f>
-        <v/>
-      </c>
-      <c r="BD12" s="48" t="str">
-        <f>IF(_analysis_day_shift!E4="","",_analysis_day_shift!E4)</f>
-        <v/>
-      </c>
+      <c r="BB12" s="16"/>
+      <c r="BC12" s="16"/>
+      <c r="BD12" s="46"/>
     </row>
     <row r="13" customFormat="1" spans="2:56">
       <c r="B13" s="15">
@@ -4572,26 +4469,17 @@
         <f>IF(_tuoliu_day_hour!AV7="","",_tuoliu_day_hour!AV7)</f>
         <v/>
       </c>
-      <c r="AY13" s="50" t="str">
+      <c r="AY13" s="48" t="str">
         <f>IF(_tuoliu_day_hour!AW7="","",_tuoliu_day_hour!AW7)</f>
         <v/>
       </c>
-      <c r="AZ13" s="42"/>
-      <c r="BA13" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="BB13" s="16" t="str">
-        <f>IF(_analysis_day_shift!F2="","",_analysis_day_shift!F2)</f>
-        <v/>
-      </c>
-      <c r="BC13" s="16" t="str">
-        <f>IF(_analysis_day_shift!F3="","",_analysis_day_shift!F3)</f>
-        <v/>
-      </c>
-      <c r="BD13" s="48" t="str">
-        <f>IF(_analysis_day_shift!F4="","",_analysis_day_shift!F4)</f>
-        <v/>
-      </c>
+      <c r="AZ13" s="40"/>
+      <c r="BA13" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="BB13" s="16"/>
+      <c r="BC13" s="16"/>
+      <c r="BD13" s="46"/>
     </row>
     <row r="14" s="4" customFormat="1" ht="27" spans="2:56">
       <c r="B14" s="15">
@@ -4789,26 +4677,17 @@
         <f>IF(_tuoliu_day_hour!AV8="","",_tuoliu_day_hour!AV8)</f>
         <v/>
       </c>
-      <c r="AY14" s="50" t="str">
+      <c r="AY14" s="48" t="str">
         <f>IF(_tuoliu_day_hour!AW8="","",_tuoliu_day_hour!AW8)</f>
         <v/>
       </c>
-      <c r="AZ14" s="42"/>
-      <c r="BA14" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="BB14" s="1" t="str">
-        <f>IF(_analysis_day_shift!G2="","",_analysis_day_shift!G2)</f>
-        <v/>
-      </c>
-      <c r="BC14" s="1" t="str">
-        <f>IF(_analysis_day_shift!G3="","",_analysis_day_shift!G3)</f>
-        <v/>
-      </c>
-      <c r="BD14" s="53" t="str">
-        <f>IF(_analysis_day_shift!G4="","",_analysis_day_shift!G4)</f>
-        <v/>
-      </c>
+      <c r="AZ14" s="40"/>
+      <c r="BA14" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB14" s="1"/>
+      <c r="BC14" s="1"/>
+      <c r="BD14" s="51"/>
     </row>
     <row r="15" customFormat="1" spans="2:56">
       <c r="B15" s="15">
@@ -5006,26 +4885,17 @@
         <f>IF(_tuoliu_day_hour!AV9="","",_tuoliu_day_hour!AV9)</f>
         <v/>
       </c>
-      <c r="AY15" s="50" t="str">
+      <c r="AY15" s="48" t="str">
         <f>IF(_tuoliu_day_hour!AW9="","",_tuoliu_day_hour!AW9)</f>
         <v/>
       </c>
-      <c r="AZ15" s="42"/>
-      <c r="BA15" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="BB15" s="16" t="str">
-        <f>IF(_analysis_day_shift!H2="","",_analysis_day_shift!H2)</f>
-        <v/>
-      </c>
-      <c r="BC15" s="16" t="str">
-        <f>IF(_analysis_day_shift!H3="","",_analysis_day_shift!H3)</f>
-        <v/>
-      </c>
-      <c r="BD15" s="48" t="str">
-        <f>IF(_analysis_day_shift!H4="","",_analysis_day_shift!H4)</f>
-        <v/>
-      </c>
+      <c r="AZ15" s="40"/>
+      <c r="BA15" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="BB15" s="16"/>
+      <c r="BC15" s="16"/>
+      <c r="BD15" s="46"/>
     </row>
     <row r="16" customFormat="1" spans="2:56">
       <c r="B16" s="15">
@@ -5223,26 +5093,17 @@
         <f>IF(_tuoliu_day_hour!AV10="","",_tuoliu_day_hour!AV10)</f>
         <v/>
       </c>
-      <c r="AY16" s="50" t="str">
+      <c r="AY16" s="48" t="str">
         <f>IF(_tuoliu_day_hour!AW10="","",_tuoliu_day_hour!AW10)</f>
         <v/>
       </c>
-      <c r="AZ16" s="42"/>
-      <c r="BA16" s="51" t="s">
-        <v>98</v>
-      </c>
-      <c r="BB16" s="16" t="str">
-        <f>IF(_analysis_day_shift!I2="","",_analysis_day_shift!I2)</f>
-        <v/>
-      </c>
-      <c r="BC16" s="16" t="str">
-        <f>IF(_analysis_day_shift!I3="","",_analysis_day_shift!I3)</f>
-        <v/>
-      </c>
-      <c r="BD16" s="48" t="str">
-        <f>IF(_analysis_day_shift!I4="","",_analysis_day_shift!I4)</f>
-        <v/>
-      </c>
+      <c r="AZ16" s="40"/>
+      <c r="BA16" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="BB16" s="16"/>
+      <c r="BC16" s="16"/>
+      <c r="BD16" s="46"/>
     </row>
     <row r="17" customFormat="1" spans="2:56">
       <c r="B17" s="15">
@@ -5440,26 +5301,17 @@
         <f>IF(_tuoliu_day_hour!AV11="","",_tuoliu_day_hour!AV11)</f>
         <v/>
       </c>
-      <c r="AY17" s="50" t="str">
+      <c r="AY17" s="48" t="str">
         <f>IF(_tuoliu_day_hour!AW11="","",_tuoliu_day_hour!AW11)</f>
         <v/>
       </c>
-      <c r="AZ17" s="42"/>
-      <c r="BA17" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="BB17" s="16" t="str">
-        <f>IF(_analysis_day_shift!J2="","",_analysis_day_shift!J2)</f>
-        <v/>
-      </c>
-      <c r="BC17" s="16" t="str">
-        <f>IF(_analysis_day_shift!J3="","",_analysis_day_shift!J3)</f>
-        <v/>
-      </c>
-      <c r="BD17" s="48" t="str">
-        <f>IF(_analysis_day_shift!J4="","",_analysis_day_shift!J4)</f>
-        <v/>
-      </c>
+      <c r="AZ17" s="40"/>
+      <c r="BA17" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="BB17" s="16"/>
+      <c r="BC17" s="16"/>
+      <c r="BD17" s="46"/>
     </row>
     <row r="18" customFormat="1" spans="2:56">
       <c r="B18" s="15">
@@ -5657,26 +5509,17 @@
         <f>IF(_tuoliu_day_hour!AV12="","",_tuoliu_day_hour!AV12)</f>
         <v/>
       </c>
-      <c r="AY18" s="50" t="str">
+      <c r="AY18" s="48" t="str">
         <f>IF(_tuoliu_day_hour!AW12="","",_tuoliu_day_hour!AW12)</f>
         <v/>
       </c>
-      <c r="AZ18" s="42"/>
-      <c r="BA18" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="BB18" s="16" t="str">
-        <f>IF(_analysis_day_shift!K2="","",_analysis_day_shift!K2)</f>
-        <v/>
-      </c>
-      <c r="BC18" s="16" t="str">
-        <f>IF(_analysis_day_shift!K3="","",_analysis_day_shift!K3)</f>
-        <v/>
-      </c>
-      <c r="BD18" s="48" t="str">
-        <f>IF(_analysis_day_shift!K4="","",_analysis_day_shift!K4)</f>
-        <v/>
-      </c>
+      <c r="AZ18" s="40"/>
+      <c r="BA18" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="BB18" s="16"/>
+      <c r="BC18" s="16"/>
+      <c r="BD18" s="46"/>
     </row>
     <row r="19" customFormat="1" spans="2:56">
       <c r="B19" s="15">
@@ -5874,28 +5717,19 @@
         <f>IF(_tuoliu_day_hour!AV13="","",_tuoliu_day_hour!AV13)</f>
         <v/>
       </c>
-      <c r="AY19" s="50" t="str">
+      <c r="AY19" s="48" t="str">
         <f>IF(_tuoliu_day_hour!AW13="","",_tuoliu_day_hour!AW13)</f>
         <v/>
       </c>
-      <c r="AZ19" s="42" t="s">
+      <c r="AZ19" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="BA19" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="BA19" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="BB19" s="16" t="str">
-        <f>IF(_analysis_day_shift!L2="","",_analysis_day_shift!L2)</f>
-        <v/>
-      </c>
-      <c r="BC19" s="16" t="str">
-        <f>IF(_analysis_day_shift!L3="","",_analysis_day_shift!L3)</f>
-        <v/>
-      </c>
-      <c r="BD19" s="48" t="str">
-        <f>IF(_analysis_day_shift!L4="","",_analysis_day_shift!L4)</f>
-        <v/>
-      </c>
+      <c r="BB19" s="16"/>
+      <c r="BC19" s="16"/>
+      <c r="BD19" s="46"/>
     </row>
     <row r="20" customFormat="1" spans="2:56">
       <c r="B20" s="15">
@@ -6093,26 +5927,17 @@
         <f>IF(_tuoliu_day_hour!AV14="","",_tuoliu_day_hour!AV14)</f>
         <v/>
       </c>
-      <c r="AY20" s="50" t="str">
+      <c r="AY20" s="48" t="str">
         <f>IF(_tuoliu_day_hour!AW14="","",_tuoliu_day_hour!AW14)</f>
         <v/>
       </c>
-      <c r="AZ20" s="42"/>
-      <c r="BA20" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="BB20" s="16" t="str">
-        <f>IF(_analysis_day_shift!M2="","",_analysis_day_shift!M2)</f>
-        <v/>
-      </c>
-      <c r="BC20" s="16" t="str">
-        <f>IF(_analysis_day_shift!M3="","",_analysis_day_shift!M3)</f>
-        <v/>
-      </c>
-      <c r="BD20" s="48" t="str">
-        <f>IF(_analysis_day_shift!M4="","",_analysis_day_shift!M4)</f>
-        <v/>
-      </c>
+      <c r="AZ20" s="40"/>
+      <c r="BA20" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="BB20" s="16"/>
+      <c r="BC20" s="16"/>
+      <c r="BD20" s="46"/>
     </row>
     <row r="21" customFormat="1" ht="27" spans="2:56">
       <c r="B21" s="15">
@@ -6310,26 +6135,17 @@
         <f>IF(_tuoliu_day_hour!AV15="","",_tuoliu_day_hour!AV15)</f>
         <v/>
       </c>
-      <c r="AY21" s="50" t="str">
+      <c r="AY21" s="48" t="str">
         <f>IF(_tuoliu_day_hour!AW15="","",_tuoliu_day_hour!AW15)</f>
         <v/>
       </c>
-      <c r="AZ21" s="42"/>
-      <c r="BA21" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="BB21" s="16" t="str">
-        <f>IF(_analysis_day_shift!N2="","",_analysis_day_shift!N2)</f>
-        <v/>
-      </c>
-      <c r="BC21" s="16" t="str">
-        <f>IF(_analysis_day_shift!N3="","",_analysis_day_shift!N3)</f>
-        <v/>
-      </c>
-      <c r="BD21" s="48" t="str">
-        <f>IF(_analysis_day_shift!N4="","",_analysis_day_shift!N4)</f>
-        <v/>
-      </c>
+      <c r="AZ21" s="40"/>
+      <c r="BA21" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB21" s="16"/>
+      <c r="BC21" s="16"/>
+      <c r="BD21" s="46"/>
     </row>
     <row r="22" customFormat="1" spans="2:56">
       <c r="B22" s="15">
@@ -6527,26 +6343,17 @@
         <f>IF(_tuoliu_day_hour!AV16="","",_tuoliu_day_hour!AV16)</f>
         <v/>
       </c>
-      <c r="AY22" s="50" t="str">
+      <c r="AY22" s="48" t="str">
         <f>IF(_tuoliu_day_hour!AW16="","",_tuoliu_day_hour!AW16)</f>
         <v/>
       </c>
-      <c r="AZ22" s="42"/>
-      <c r="BA22" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="BB22" s="16" t="str">
-        <f>IF(_analysis_day_shift!O2="","",_analysis_day_shift!O2)</f>
-        <v/>
-      </c>
-      <c r="BC22" s="16" t="str">
-        <f>IF(_analysis_day_shift!O3="","",_analysis_day_shift!O3)</f>
-        <v/>
-      </c>
-      <c r="BD22" s="48" t="str">
-        <f>IF(_analysis_day_shift!O4="","",_analysis_day_shift!O4)</f>
-        <v/>
-      </c>
+      <c r="AZ22" s="40"/>
+      <c r="BA22" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="BB22" s="16"/>
+      <c r="BC22" s="16"/>
+      <c r="BD22" s="46"/>
     </row>
     <row r="23" customFormat="1" spans="2:56">
       <c r="B23" s="15">
@@ -6744,26 +6551,17 @@
         <f>IF(_tuoliu_day_hour!AV17="","",_tuoliu_day_hour!AV17)</f>
         <v/>
       </c>
-      <c r="AY23" s="50" t="str">
+      <c r="AY23" s="48" t="str">
         <f>IF(_tuoliu_day_hour!AW17="","",_tuoliu_day_hour!AW17)</f>
         <v/>
       </c>
-      <c r="AZ23" s="42"/>
-      <c r="BA23" s="51" t="s">
-        <v>98</v>
-      </c>
-      <c r="BB23" s="16" t="str">
-        <f>IF(_analysis_day_shift!P2="","",_analysis_day_shift!P2)</f>
-        <v/>
-      </c>
-      <c r="BC23" s="16" t="str">
-        <f>IF(_analysis_day_shift!P3="","",_analysis_day_shift!P3)</f>
-        <v/>
-      </c>
-      <c r="BD23" s="48" t="str">
-        <f>IF(_analysis_day_shift!P4="","",_analysis_day_shift!P4)</f>
-        <v/>
-      </c>
+      <c r="AZ23" s="40"/>
+      <c r="BA23" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="BB23" s="16"/>
+      <c r="BC23" s="16"/>
+      <c r="BD23" s="46"/>
     </row>
     <row r="24" customFormat="1" spans="2:56">
       <c r="B24" s="15">
@@ -6961,26 +6759,17 @@
         <f>IF(_tuoliu_day_hour!AV18="","",_tuoliu_day_hour!AV18)</f>
         <v/>
       </c>
-      <c r="AY24" s="50" t="str">
+      <c r="AY24" s="48" t="str">
         <f>IF(_tuoliu_day_hour!AW18="","",_tuoliu_day_hour!AW18)</f>
         <v/>
       </c>
-      <c r="AZ24" s="42"/>
-      <c r="BA24" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="BB24" s="16" t="str">
-        <f>IF(_analysis_day_shift!Q2="","",_analysis_day_shift!Q2)</f>
-        <v/>
-      </c>
-      <c r="BC24" s="16" t="str">
-        <f>IF(_analysis_day_shift!Q3="","",_analysis_day_shift!Q3)</f>
-        <v/>
-      </c>
-      <c r="BD24" s="48" t="str">
-        <f>IF(_analysis_day_shift!Q4="","",_analysis_day_shift!Q4)</f>
-        <v/>
-      </c>
+      <c r="AZ24" s="40"/>
+      <c r="BA24" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="BB24" s="16"/>
+      <c r="BC24" s="16"/>
+      <c r="BD24" s="46"/>
     </row>
     <row r="25" customFormat="1" spans="2:56">
       <c r="B25" s="15">
@@ -7178,26 +6967,17 @@
         <f>IF(_tuoliu_day_hour!AV19="","",_tuoliu_day_hour!AV19)</f>
         <v/>
       </c>
-      <c r="AY25" s="50" t="str">
+      <c r="AY25" s="48" t="str">
         <f>IF(_tuoliu_day_hour!AW19="","",_tuoliu_day_hour!AW19)</f>
         <v/>
       </c>
-      <c r="AZ25" s="42"/>
-      <c r="BA25" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="BB25" s="16" t="str">
-        <f>IF(_analysis_day_shift!R2="","",_analysis_day_shift!R2)</f>
-        <v/>
-      </c>
-      <c r="BC25" s="16" t="str">
-        <f>IF(_analysis_day_shift!R3="","",_analysis_day_shift!R3)</f>
-        <v/>
-      </c>
-      <c r="BD25" s="48" t="str">
-        <f>IF(_analysis_day_shift!R4="","",_analysis_day_shift!R4)</f>
-        <v/>
-      </c>
+      <c r="AZ25" s="40"/>
+      <c r="BA25" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="BB25" s="16"/>
+      <c r="BC25" s="16"/>
+      <c r="BD25" s="46"/>
     </row>
     <row r="26" customFormat="1" spans="2:56">
       <c r="B26" s="15">
@@ -7395,15 +7175,15 @@
         <f>IF(_tuoliu_day_hour!AV20="","",_tuoliu_day_hour!AV20)</f>
         <v/>
       </c>
-      <c r="AY26" s="50" t="str">
+      <c r="AY26" s="48" t="str">
         <f>IF(_tuoliu_day_hour!AW20="","",_tuoliu_day_hour!AW20)</f>
         <v/>
       </c>
-      <c r="AZ26" s="54"/>
+      <c r="AZ26" s="52"/>
       <c r="BA26" s="16"/>
       <c r="BB26" s="16"/>
       <c r="BC26" s="16"/>
-      <c r="BD26" s="48"/>
+      <c r="BD26" s="46"/>
     </row>
     <row r="27" customFormat="1" spans="2:56">
       <c r="B27" s="15">
@@ -7601,15 +7381,15 @@
         <f>IF(_tuoliu_day_hour!AV21="","",_tuoliu_day_hour!AV21)</f>
         <v/>
       </c>
-      <c r="AY27" s="50" t="str">
+      <c r="AY27" s="48" t="str">
         <f>IF(_tuoliu_day_hour!AW21="","",_tuoliu_day_hour!AW21)</f>
         <v/>
       </c>
-      <c r="AZ27" s="54"/>
+      <c r="AZ27" s="52"/>
       <c r="BA27" s="16"/>
       <c r="BB27" s="16"/>
       <c r="BC27" s="16"/>
-      <c r="BD27" s="48"/>
+      <c r="BD27" s="46"/>
     </row>
     <row r="28" customFormat="1" spans="2:56">
       <c r="B28" s="15">
@@ -7807,15 +7587,15 @@
         <f>IF(_tuoliu_day_hour!AV22="","",_tuoliu_day_hour!AV22)</f>
         <v/>
       </c>
-      <c r="AY28" s="50" t="str">
+      <c r="AY28" s="48" t="str">
         <f>IF(_tuoliu_day_hour!AW22="","",_tuoliu_day_hour!AW22)</f>
         <v/>
       </c>
-      <c r="AZ28" s="54"/>
+      <c r="AZ28" s="52"/>
       <c r="BA28" s="16"/>
       <c r="BB28" s="16"/>
       <c r="BC28" s="16"/>
-      <c r="BD28" s="48"/>
+      <c r="BD28" s="46"/>
     </row>
     <row r="29" customFormat="1" spans="2:56">
       <c r="B29" s="15">
@@ -8013,15 +7793,15 @@
         <f>IF(_tuoliu_day_hour!AV23="","",_tuoliu_day_hour!AV23)</f>
         <v/>
       </c>
-      <c r="AY29" s="50" t="str">
+      <c r="AY29" s="48" t="str">
         <f>IF(_tuoliu_day_hour!AW23="","",_tuoliu_day_hour!AW23)</f>
         <v/>
       </c>
-      <c r="AZ29" s="54"/>
+      <c r="AZ29" s="52"/>
       <c r="BA29" s="16"/>
       <c r="BB29" s="16"/>
       <c r="BC29" s="16"/>
-      <c r="BD29" s="48"/>
+      <c r="BD29" s="46"/>
     </row>
     <row r="30" customFormat="1" spans="2:56">
       <c r="B30" s="15">
@@ -8219,15 +7999,15 @@
         <f>IF(_tuoliu_day_hour!AV24="","",_tuoliu_day_hour!AV24)</f>
         <v/>
       </c>
-      <c r="AY30" s="50" t="str">
+      <c r="AY30" s="48" t="str">
         <f>IF(_tuoliu_day_hour!AW24="","",_tuoliu_day_hour!AW24)</f>
         <v/>
       </c>
-      <c r="AZ30" s="54"/>
+      <c r="AZ30" s="52"/>
       <c r="BA30" s="16"/>
       <c r="BB30" s="16"/>
       <c r="BC30" s="16"/>
-      <c r="BD30" s="48"/>
+      <c r="BD30" s="46"/>
     </row>
     <row r="31" customFormat="1" spans="2:56">
       <c r="B31" s="15">
@@ -8425,19 +8205,19 @@
         <f>IF(_tuoliu_day_hour!AV25="","",_tuoliu_day_hour!AV25)</f>
         <v/>
       </c>
-      <c r="AY31" s="50" t="str">
+      <c r="AY31" s="48" t="str">
         <f>IF(_tuoliu_day_hour!AW25="","",_tuoliu_day_hour!AW25)</f>
         <v/>
       </c>
-      <c r="AZ31" s="54"/>
+      <c r="AZ31" s="52"/>
       <c r="BA31" s="16"/>
       <c r="BB31" s="16"/>
       <c r="BC31" s="16"/>
-      <c r="BD31" s="48"/>
+      <c r="BD31" s="46"/>
     </row>
     <row r="32" customFormat="1" spans="2:56">
       <c r="B32" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
@@ -8487,16 +8267,16 @@
       <c r="AV32" s="16"/>
       <c r="AW32" s="16"/>
       <c r="AX32" s="16"/>
-      <c r="AY32" s="50"/>
-      <c r="AZ32" s="54"/>
+      <c r="AY32" s="48"/>
+      <c r="AZ32" s="52"/>
       <c r="BA32" s="16"/>
       <c r="BB32" s="16"/>
       <c r="BC32" s="16"/>
-      <c r="BD32" s="48"/>
+      <c r="BD32" s="46"/>
     </row>
     <row r="33" customFormat="1" spans="2:56">
       <c r="B33" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
@@ -8546,16 +8326,16 @@
       <c r="AV33" s="16"/>
       <c r="AW33" s="16"/>
       <c r="AX33" s="16"/>
-      <c r="AY33" s="50"/>
-      <c r="AZ33" s="54"/>
+      <c r="AY33" s="48"/>
+      <c r="AZ33" s="52"/>
       <c r="BA33" s="16"/>
       <c r="BB33" s="16"/>
       <c r="BC33" s="16"/>
-      <c r="BD33" s="48"/>
+      <c r="BD33" s="46"/>
     </row>
     <row r="34" customFormat="1" spans="2:56">
       <c r="B34" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
@@ -8605,16 +8385,16 @@
       <c r="AV34" s="16"/>
       <c r="AW34" s="16"/>
       <c r="AX34" s="16"/>
-      <c r="AY34" s="50"/>
-      <c r="AZ34" s="54"/>
+      <c r="AY34" s="48"/>
+      <c r="AZ34" s="52"/>
       <c r="BA34" s="16"/>
       <c r="BB34" s="16"/>
       <c r="BC34" s="16"/>
-      <c r="BD34" s="48"/>
+      <c r="BD34" s="46"/>
     </row>
     <row r="35" customFormat="1" spans="2:56">
       <c r="B35" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C35" s="16"/>
       <c r="D35" s="16"/>
@@ -8664,16 +8444,16 @@
       <c r="AV35" s="16"/>
       <c r="AW35" s="16"/>
       <c r="AX35" s="16"/>
-      <c r="AY35" s="50"/>
-      <c r="AZ35" s="54"/>
+      <c r="AY35" s="48"/>
+      <c r="AZ35" s="52"/>
       <c r="BA35" s="16"/>
       <c r="BB35" s="16"/>
       <c r="BC35" s="16"/>
-      <c r="BD35" s="48"/>
+      <c r="BD35" s="46"/>
     </row>
     <row r="36" customFormat="1" ht="66" customHeight="1" spans="2:56">
       <c r="B36" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
@@ -8685,7 +8465,7 @@
       <c r="J36" s="19"/>
       <c r="K36" s="19"/>
       <c r="L36" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M36" s="23"/>
       <c r="N36" s="23"/>
@@ -8697,7 +8477,7 @@
       <c r="T36" s="23"/>
       <c r="U36" s="23"/>
       <c r="V36" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="W36" s="23"/>
       <c r="X36" s="23"/>
@@ -8705,38 +8485,38 @@
       <c r="Z36" s="23"/>
       <c r="AA36" s="23"/>
       <c r="AB36" s="23"/>
-      <c r="AC36" s="32"/>
-      <c r="AD36" s="33"/>
-      <c r="AE36" s="33"/>
-      <c r="AF36" s="33"/>
-      <c r="AG36" s="33"/>
-      <c r="AH36" s="33"/>
-      <c r="AI36" s="33"/>
-      <c r="AJ36" s="33"/>
-      <c r="AK36" s="33"/>
-      <c r="AL36" s="33"/>
-      <c r="AM36" s="33"/>
-      <c r="AN36" s="33"/>
-      <c r="AO36" s="33"/>
-      <c r="AP36" s="33"/>
-      <c r="AQ36" s="33"/>
-      <c r="AR36" s="33"/>
-      <c r="AS36" s="33"/>
-      <c r="AT36" s="33"/>
-      <c r="AU36" s="33"/>
-      <c r="AV36" s="33"/>
-      <c r="AW36" s="33"/>
-      <c r="AX36" s="33"/>
-      <c r="AY36" s="33"/>
-      <c r="AZ36" s="33"/>
-      <c r="BA36" s="33"/>
-      <c r="BB36" s="33"/>
-      <c r="BC36" s="33"/>
-      <c r="BD36" s="55"/>
+      <c r="AC36" s="30"/>
+      <c r="AD36" s="31"/>
+      <c r="AE36" s="31"/>
+      <c r="AF36" s="31"/>
+      <c r="AG36" s="31"/>
+      <c r="AH36" s="31"/>
+      <c r="AI36" s="31"/>
+      <c r="AJ36" s="31"/>
+      <c r="AK36" s="31"/>
+      <c r="AL36" s="31"/>
+      <c r="AM36" s="31"/>
+      <c r="AN36" s="31"/>
+      <c r="AO36" s="31"/>
+      <c r="AP36" s="31"/>
+      <c r="AQ36" s="31"/>
+      <c r="AR36" s="31"/>
+      <c r="AS36" s="31"/>
+      <c r="AT36" s="31"/>
+      <c r="AU36" s="31"/>
+      <c r="AV36" s="31"/>
+      <c r="AW36" s="31"/>
+      <c r="AX36" s="31"/>
+      <c r="AY36" s="31"/>
+      <c r="AZ36" s="31"/>
+      <c r="BA36" s="31"/>
+      <c r="BB36" s="31"/>
+      <c r="BC36" s="31"/>
+      <c r="BD36" s="53"/>
     </row>
     <row r="37" ht="16.5" spans="2:56">
       <c r="B37" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C37" s="21"/>
       <c r="D37" s="21"/>
@@ -8748,7 +8528,7 @@
       <c r="J37" s="21"/>
       <c r="K37" s="21"/>
       <c r="L37" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M37" s="24"/>
       <c r="N37" s="24"/>
@@ -8760,7 +8540,7 @@
       <c r="T37" s="24"/>
       <c r="U37" s="24"/>
       <c r="V37" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="W37" s="24"/>
       <c r="X37" s="24"/>
@@ -8768,34 +8548,34 @@
       <c r="Z37" s="24"/>
       <c r="AA37" s="24"/>
       <c r="AB37" s="24"/>
-      <c r="AC37" s="34"/>
-      <c r="AD37" s="35"/>
-      <c r="AE37" s="35"/>
-      <c r="AF37" s="35"/>
-      <c r="AG37" s="35"/>
-      <c r="AH37" s="35"/>
-      <c r="AI37" s="35"/>
-      <c r="AJ37" s="35"/>
-      <c r="AK37" s="35"/>
-      <c r="AL37" s="35"/>
-      <c r="AM37" s="35"/>
-      <c r="AN37" s="35"/>
-      <c r="AO37" s="35"/>
-      <c r="AP37" s="35"/>
-      <c r="AQ37" s="35"/>
-      <c r="AR37" s="35"/>
-      <c r="AS37" s="35"/>
-      <c r="AT37" s="35"/>
-      <c r="AU37" s="35"/>
-      <c r="AV37" s="35"/>
-      <c r="AW37" s="35"/>
-      <c r="AX37" s="35"/>
-      <c r="AY37" s="35"/>
-      <c r="AZ37" s="35"/>
-      <c r="BA37" s="35"/>
-      <c r="BB37" s="35"/>
-      <c r="BC37" s="35"/>
-      <c r="BD37" s="56"/>
+      <c r="AC37" s="32"/>
+      <c r="AD37" s="33"/>
+      <c r="AE37" s="33"/>
+      <c r="AF37" s="33"/>
+      <c r="AG37" s="33"/>
+      <c r="AH37" s="33"/>
+      <c r="AI37" s="33"/>
+      <c r="AJ37" s="33"/>
+      <c r="AK37" s="33"/>
+      <c r="AL37" s="33"/>
+      <c r="AM37" s="33"/>
+      <c r="AN37" s="33"/>
+      <c r="AO37" s="33"/>
+      <c r="AP37" s="33"/>
+      <c r="AQ37" s="33"/>
+      <c r="AR37" s="33"/>
+      <c r="AS37" s="33"/>
+      <c r="AT37" s="33"/>
+      <c r="AU37" s="33"/>
+      <c r="AV37" s="33"/>
+      <c r="AW37" s="33"/>
+      <c r="AX37" s="33"/>
+      <c r="AY37" s="33"/>
+      <c r="AZ37" s="33"/>
+      <c r="BA37" s="33"/>
+      <c r="BB37" s="33"/>
+      <c r="BC37" s="33"/>
+      <c r="BD37" s="54"/>
     </row>
     <row r="38" customFormat="1"/>
     <row r="39" customFormat="1"/>
@@ -8804,10 +8584,9 @@
     <row r="42" customFormat="1"/>
     <row r="43" customFormat="1" ht="77.1" customHeight="1"/>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="76">
     <mergeCell ref="B1:AY1"/>
-    <mergeCell ref="S2:W2"/>
-    <mergeCell ref="X2:AF2"/>
+    <mergeCell ref="B2:AY2"/>
     <mergeCell ref="C3:AY3"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="J4:L4"/>
@@ -8902,89 +8681,89 @@
   <sheetData>
     <row r="1" customFormat="1" ht="67.5" spans="1:49">
       <c r="A1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="AF1" s="1"/>
       <c r="AG1" s="1"/>
@@ -8995,19 +8774,19 @@
       <c r="AL1" s="1"/>
       <c r="AM1" s="1"/>
       <c r="AN1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="AS1" s="1"/>
       <c r="AT1" s="1"/>
@@ -9019,81 +8798,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="F1:S1"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="6:19">
-      <c r="F1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I1" t="s">
-        <v>112</v>
-      </c>
-      <c r="J1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K1" t="s">
-        <v>114</v>
-      </c>
-      <c r="L1" t="s">
-        <v>115</v>
-      </c>
-      <c r="M1" t="s">
-        <v>116</v>
-      </c>
-      <c r="N1" t="s">
-        <v>117</v>
-      </c>
-      <c r="O1" t="s">
-        <v>118</v>
-      </c>
-      <c r="P1" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>120</v>
-      </c>
-      <c r="R1" t="s">
-        <v>121</v>
-      </c>
-      <c r="S1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
 </file>